--- a/Stocks/NVDA/HighLow.xlsx
+++ b/Stocks/NVDA/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2562 +417,2582 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>153.75</v>
+        <v>140.3374938964844</v>
       </c>
       <c r="B2">
-        <v>154.3849945068359</v>
+        <v>140.8074951171875</v>
       </c>
       <c r="C2">
-        <v>147.8350067138672</v>
+        <v>134.5899963378906</v>
       </c>
       <c r="D2">
-        <v>148.5025024414062</v>
+        <v>136.6524963378906</v>
       </c>
       <c r="E2">
-        <v>148.4422912597656</v>
+        <v>136.5970916748047</v>
       </c>
       <c r="F2">
-        <v>27778800</v>
+        <v>28540400</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>149.3424987792969</v>
+        <v>138.8999938964844</v>
       </c>
       <c r="B3">
-        <v>153.3500061035156</v>
+        <v>143.2799987792969</v>
       </c>
       <c r="C3">
-        <v>149.0025024414062</v>
+        <v>137.4850006103516</v>
       </c>
       <c r="D3">
-        <v>152.6524963378906</v>
+        <v>142.4299926757812</v>
       </c>
       <c r="E3">
-        <v>152.5906219482422</v>
+        <v>142.3722534179688</v>
       </c>
       <c r="F3">
-        <v>22750000</v>
+        <v>25861600</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>151.8500061035156</v>
+        <v>141.5700073242188</v>
       </c>
       <c r="B4">
-        <v>154.7899932861328</v>
+        <v>141.6925048828125</v>
       </c>
       <c r="C4">
-        <v>151.25</v>
+        <v>138.5350036621094</v>
       </c>
       <c r="D4">
-        <v>154.7799987792969</v>
+        <v>141.6549987792969</v>
       </c>
       <c r="E4">
-        <v>154.7172546386719</v>
+        <v>141.5975799560547</v>
       </c>
       <c r="F4">
-        <v>19779600</v>
+        <v>21698000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>155.7850036621094</v>
+        <v>142.6699981689453</v>
       </c>
       <c r="B5">
-        <v>156.7050018310547</v>
+        <v>144.0424957275391</v>
       </c>
       <c r="C5">
-        <v>153.5449981689453</v>
+        <v>140.0399932861328</v>
       </c>
       <c r="D5">
-        <v>153.8175048828125</v>
+        <v>140.1575012207031</v>
       </c>
       <c r="E5">
-        <v>153.7551422119141</v>
+        <v>140.1006774902344</v>
       </c>
       <c r="F5">
-        <v>16457200</v>
+        <v>18625600</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>153.6450042724609</v>
+        <v>135.6649932861328</v>
       </c>
       <c r="B6">
-        <v>155.3224945068359</v>
+        <v>140.7949981689453</v>
       </c>
       <c r="C6">
-        <v>152.1549987792969</v>
+        <v>135.4324951171875</v>
       </c>
       <c r="D6">
-        <v>152.7675018310547</v>
+        <v>140.6575012207031</v>
       </c>
       <c r="E6">
-        <v>152.70556640625</v>
+        <v>140.6004791259766</v>
       </c>
       <c r="F6">
-        <v>20941600</v>
+        <v>34400000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>154</v>
+        <v>143.0249938964844</v>
       </c>
       <c r="B7">
-        <v>154.3650054931641</v>
+        <v>146.8374938964844</v>
       </c>
       <c r="C7">
-        <v>150.7149963378906</v>
+        <v>142.7050018310547</v>
       </c>
       <c r="D7">
-        <v>153.2474975585938</v>
+        <v>146.125</v>
       </c>
       <c r="E7">
-        <v>153.1853790283203</v>
+        <v>146.0657653808594</v>
       </c>
       <c r="F7">
-        <v>17319600</v>
+        <v>32159200</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>151.7449951171875</v>
+        <v>151.6374969482422</v>
       </c>
       <c r="B8">
-        <v>153.6499938964844</v>
+        <v>152.2200012207031</v>
       </c>
       <c r="C8">
-        <v>149.9700012207031</v>
+        <v>148.6950073242188</v>
       </c>
       <c r="D8">
-        <v>150.0950012207031</v>
+        <v>149.9174957275391</v>
       </c>
       <c r="E8">
-        <v>150.0341491699219</v>
+        <v>149.8567199707031</v>
       </c>
       <c r="F8">
-        <v>20191200</v>
+        <v>67299200</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>151.25</v>
+        <v>152.125</v>
       </c>
       <c r="B9">
-        <v>152.4674987792969</v>
+        <v>157.4499969482422</v>
       </c>
       <c r="C9">
-        <v>147.875</v>
+        <v>151.7599945068359</v>
       </c>
       <c r="D9">
-        <v>148.3674926757812</v>
+        <v>156.1199951171875</v>
       </c>
       <c r="E9">
-        <v>148.3073425292969</v>
+        <v>156.0567016601562</v>
       </c>
       <c r="F9">
-        <v>20391200</v>
+        <v>55481600</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>146.3724975585938</v>
+        <v>157.6600036621094</v>
       </c>
       <c r="B10">
-        <v>146.375</v>
+        <v>158.1849975585938</v>
       </c>
       <c r="C10">
-        <v>140.1024932861328</v>
+        <v>154.8249969482422</v>
       </c>
       <c r="D10">
-        <v>143.5124969482422</v>
+        <v>156.4774932861328</v>
       </c>
       <c r="E10">
-        <v>143.4543151855469</v>
+        <v>156.4140472412109</v>
       </c>
       <c r="F10">
-        <v>40532400</v>
+        <v>43540800</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>147.0899963378906</v>
+        <v>157.3424987792969</v>
       </c>
       <c r="B11">
-        <v>148.1349945068359</v>
+        <v>157.9375</v>
       </c>
       <c r="C11">
-        <v>143.875</v>
+        <v>155.8625030517578</v>
       </c>
       <c r="D11">
-        <v>144.5850067138672</v>
+        <v>157</v>
       </c>
       <c r="E11">
-        <v>144.5263977050781</v>
+        <v>156.9363555908203</v>
       </c>
       <c r="F11">
-        <v>29202400</v>
+        <v>37044000</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>144.9524993896484</v>
+        <v>156.9974975585938</v>
       </c>
       <c r="B12">
-        <v>145.7124938964844</v>
+        <v>157.5</v>
       </c>
       <c r="C12">
-        <v>142.1799926757812</v>
+        <v>154.6000061035156</v>
       </c>
       <c r="D12">
-        <v>145.2299957275391</v>
+        <v>154.8800048828125</v>
       </c>
       <c r="E12">
-        <v>145.1711120605469</v>
+        <v>154.8172149658203</v>
       </c>
       <c r="F12">
-        <v>19338000</v>
+        <v>58147600</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>148.0825042724609</v>
+        <v>155.0099945068359</v>
       </c>
       <c r="B13">
-        <v>149.7075042724609</v>
+        <v>162.7749938964844</v>
       </c>
       <c r="C13">
-        <v>146.7174987792969</v>
+        <v>155.0099945068359</v>
       </c>
       <c r="D13">
-        <v>148.1224975585938</v>
+        <v>162.4450073242188</v>
       </c>
       <c r="E13">
-        <v>148.0624542236328</v>
+        <v>162.379150390625</v>
       </c>
       <c r="F13">
-        <v>22932800</v>
+        <v>64453600</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>147.8724975585938</v>
+        <v>162.6999969482422</v>
       </c>
       <c r="B14">
-        <v>148.0599975585938</v>
+        <v>163.8825073242188</v>
       </c>
       <c r="C14">
-        <v>142.5</v>
+        <v>159.0325012207031</v>
       </c>
       <c r="D14">
-        <v>142.6575012207031</v>
+        <v>162.6450042724609</v>
       </c>
       <c r="E14">
-        <v>142.5996704101562</v>
+        <v>162.5790710449219</v>
       </c>
       <c r="F14">
-        <v>26890400</v>
+        <v>47280400</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>138.25</v>
+        <v>162.5225067138672</v>
       </c>
       <c r="B15">
-        <v>143.5475006103516</v>
+        <v>169.1875</v>
       </c>
       <c r="C15">
-        <v>137.5</v>
+        <v>162.3549957275391</v>
       </c>
       <c r="D15">
-        <v>143.0625</v>
+        <v>167.7825012207031</v>
       </c>
       <c r="E15">
-        <v>143.0045013427734</v>
+        <v>167.7144927978516</v>
       </c>
       <c r="F15">
-        <v>28558400</v>
+        <v>59416800</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>140.0950012207031</v>
+        <v>167.0075073242188</v>
       </c>
       <c r="B16">
-        <v>142.6024932861328</v>
+        <v>172.5899963378906</v>
       </c>
       <c r="C16">
-        <v>137.0924987792969</v>
+        <v>165.8300018310547</v>
       </c>
       <c r="D16">
-        <v>137.5850067138672</v>
+        <v>169.6974945068359</v>
       </c>
       <c r="E16">
-        <v>137.5292358398438</v>
+        <v>169.6287078857422</v>
       </c>
       <c r="F16">
-        <v>30340800</v>
+        <v>58000800</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>140.3374938964844</v>
+        <v>171.125</v>
       </c>
       <c r="B17">
-        <v>140.8074951171875</v>
+        <v>176.6100006103516</v>
       </c>
       <c r="C17">
-        <v>134.5899963378906</v>
+        <v>170.9550018310547</v>
       </c>
       <c r="D17">
-        <v>136.6524963378906</v>
+        <v>175.7825012207031</v>
       </c>
       <c r="E17">
-        <v>136.5970916748047</v>
+        <v>175.7112426757812</v>
       </c>
       <c r="F17">
-        <v>28540400</v>
+        <v>61712000</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>138.8999938964844</v>
+        <v>175.7124938964844</v>
       </c>
       <c r="B18">
-        <v>143.2799987792969</v>
+        <v>178.125</v>
       </c>
       <c r="C18">
-        <v>137.4850006103516</v>
+        <v>171.9275054931641</v>
       </c>
       <c r="D18">
-        <v>142.4299926757812</v>
+        <v>176.1900024414062</v>
       </c>
       <c r="E18">
-        <v>142.3722534179688</v>
+        <v>176.1185760498047</v>
       </c>
       <c r="F18">
-        <v>25861600</v>
+        <v>57575600</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>141.5700073242188</v>
+        <v>175.2725067138672</v>
       </c>
       <c r="B19">
-        <v>141.6925048828125</v>
+        <v>176.2149963378906</v>
       </c>
       <c r="C19">
-        <v>138.5350036621094</v>
+        <v>172.5099945068359</v>
       </c>
       <c r="D19">
-        <v>141.6549987792969</v>
+        <v>174.5700073242188</v>
       </c>
       <c r="E19">
-        <v>141.5975799560547</v>
+        <v>174.4992370605469</v>
       </c>
       <c r="F19">
-        <v>21698000</v>
+        <v>32384800</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>142.6699981689453</v>
+        <v>175.1575012207031</v>
       </c>
       <c r="B20">
-        <v>144.0424957275391</v>
+        <v>175.75</v>
       </c>
       <c r="C20">
-        <v>140.0399932861328</v>
+        <v>172.5574951171875</v>
       </c>
       <c r="D20">
-        <v>140.1575012207031</v>
+        <v>173.5825042724609</v>
       </c>
       <c r="E20">
-        <v>140.1006774902344</v>
+        <v>173.5518951416016</v>
       </c>
       <c r="F20">
-        <v>18625600</v>
+        <v>38165600</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>135.6649932861328</v>
+        <v>173.5</v>
       </c>
       <c r="B21">
-        <v>140.7949981689453</v>
+        <v>174.9199981689453</v>
       </c>
       <c r="C21">
-        <v>135.4324951171875</v>
+        <v>171.7599945068359</v>
       </c>
       <c r="D21">
-        <v>140.6575012207031</v>
+        <v>174.25</v>
       </c>
       <c r="E21">
-        <v>140.6004791259766</v>
+        <v>174.2192840576172</v>
       </c>
       <c r="F21">
-        <v>34400000</v>
+        <v>28777200</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>143.0249938964844</v>
+        <v>174.7949981689453</v>
       </c>
       <c r="B22">
-        <v>146.8374938964844</v>
+        <v>179.3925018310547</v>
       </c>
       <c r="C22">
-        <v>142.7050018310547</v>
+        <v>174.4375</v>
       </c>
       <c r="D22">
-        <v>146.125</v>
+        <v>178.2525024414062</v>
       </c>
       <c r="E22">
-        <v>146.0657653808594</v>
+        <v>178.2210693359375</v>
       </c>
       <c r="F22">
-        <v>32159200</v>
+        <v>41630800</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>151.6374969482422</v>
+        <v>179.0599975585938</v>
       </c>
       <c r="B23">
-        <v>152.2200012207031</v>
+        <v>180.3950042724609</v>
       </c>
       <c r="C23">
-        <v>148.6950073242188</v>
+        <v>176.6275024414062</v>
       </c>
       <c r="D23">
-        <v>149.9174957275391</v>
+        <v>180.1875</v>
       </c>
       <c r="E23">
-        <v>149.8567199707031</v>
+        <v>180.1557312011719</v>
       </c>
       <c r="F23">
-        <v>67299200</v>
+        <v>32137600</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>152.125</v>
+        <v>179.1499938964844</v>
       </c>
       <c r="B24">
-        <v>157.4499969482422</v>
+        <v>180.1625061035156</v>
       </c>
       <c r="C24">
-        <v>151.7599945068359</v>
+        <v>177.2799987792969</v>
       </c>
       <c r="D24">
-        <v>156.1199951171875</v>
+        <v>177.8849945068359</v>
       </c>
       <c r="E24">
-        <v>156.0567016601562</v>
+        <v>177.8536376953125</v>
       </c>
       <c r="F24">
-        <v>55481600</v>
+        <v>24303200</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>157.6600036621094</v>
+        <v>177.9075012207031</v>
       </c>
       <c r="B25">
-        <v>158.1849975585938</v>
+        <v>179.5475006103516</v>
       </c>
       <c r="C25">
-        <v>154.8249969482422</v>
+        <v>175.8450012207031</v>
       </c>
       <c r="D25">
-        <v>156.4774932861328</v>
+        <v>178.1024932861328</v>
       </c>
       <c r="E25">
-        <v>156.4140472412109</v>
+        <v>178.0710906982422</v>
       </c>
       <c r="F25">
-        <v>43540800</v>
+        <v>30712400</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>157.3424987792969</v>
+        <v>177.7449951171875</v>
       </c>
       <c r="B26">
-        <v>157.9375</v>
+        <v>188.3500061035156</v>
       </c>
       <c r="C26">
-        <v>155.8625030517578</v>
+        <v>177.5625</v>
       </c>
       <c r="D26">
-        <v>157</v>
+        <v>186.5724945068359</v>
       </c>
       <c r="E26">
-        <v>156.9363555908203</v>
+        <v>186.5395965576172</v>
       </c>
       <c r="F26">
-        <v>37044000</v>
+        <v>80965600</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>156.9974975585938</v>
+        <v>187.8399963378906</v>
       </c>
       <c r="B27">
-        <v>157.5</v>
+        <v>193.75</v>
       </c>
       <c r="C27">
-        <v>154.6000061035156</v>
+        <v>185.8399963378906</v>
       </c>
       <c r="D27">
-        <v>154.8800048828125</v>
+        <v>186.3874969482422</v>
       </c>
       <c r="E27">
-        <v>154.8172149658203</v>
+        <v>186.3546295166016</v>
       </c>
       <c r="F27">
-        <v>58147600</v>
+        <v>96885600</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>155.0099945068359</v>
+        <v>184.3524932861328</v>
       </c>
       <c r="B28">
-        <v>162.7749938964844</v>
+        <v>185.3650054931641</v>
       </c>
       <c r="C28">
-        <v>155.0099945068359</v>
+        <v>178.2274932861328</v>
       </c>
       <c r="D28">
-        <v>162.4450073242188</v>
+        <v>184.2725067138672</v>
       </c>
       <c r="E28">
-        <v>162.379150390625</v>
+        <v>184.2400207519531</v>
       </c>
       <c r="F28">
-        <v>64453600</v>
+        <v>67238400</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>162.6999969482422</v>
+        <v>184.7149963378906</v>
       </c>
       <c r="B29">
-        <v>163.8825073242188</v>
+        <v>189.6374969482422</v>
       </c>
       <c r="C29">
-        <v>159.0325012207031</v>
+        <v>183.8600006103516</v>
       </c>
       <c r="D29">
-        <v>162.6450042724609</v>
+        <v>188.8674926757812</v>
       </c>
       <c r="E29">
-        <v>162.5790710449219</v>
+        <v>188.8341979980469</v>
       </c>
       <c r="F29">
-        <v>47280400</v>
+        <v>58014400</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>162.5225067138672</v>
+        <v>190.0774993896484</v>
       </c>
       <c r="B30">
-        <v>169.1875</v>
+        <v>191.5274963378906</v>
       </c>
       <c r="C30">
-        <v>162.3549957275391</v>
+        <v>189.0774993896484</v>
       </c>
       <c r="D30">
-        <v>167.7825012207031</v>
+        <v>190.5724945068359</v>
       </c>
       <c r="E30">
-        <v>167.7144927978516</v>
+        <v>190.5388946533203</v>
       </c>
       <c r="F30">
-        <v>59416800</v>
+        <v>33235600</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>167.0075073242188</v>
+        <v>192.2774963378906</v>
       </c>
       <c r="B31">
-        <v>172.5899963378906</v>
+        <v>194.1999969482422</v>
       </c>
       <c r="C31">
-        <v>165.8300018310547</v>
+        <v>190.8825073242188</v>
       </c>
       <c r="D31">
-        <v>169.6974945068359</v>
+        <v>192.0549926757812</v>
       </c>
       <c r="E31">
-        <v>169.6287078857422</v>
+        <v>192.0211334228516</v>
       </c>
       <c r="F31">
-        <v>58000800</v>
+        <v>32092400</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>171.125</v>
+        <v>192.8049926757812</v>
       </c>
       <c r="B32">
-        <v>176.6100006103516</v>
+        <v>193.4550018310547</v>
       </c>
       <c r="C32">
-        <v>170.9550018310547</v>
+        <v>188.9450073242188</v>
       </c>
       <c r="D32">
-        <v>175.7825012207031</v>
+        <v>190.3099975585938</v>
       </c>
       <c r="E32">
-        <v>175.7112426757812</v>
+        <v>190.2764434814453</v>
       </c>
       <c r="F32">
-        <v>61712000</v>
+        <v>27836400</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>175.7124938964844</v>
+        <v>193.6125030517578</v>
       </c>
       <c r="B33">
-        <v>178.125</v>
+        <v>200.7875061035156</v>
       </c>
       <c r="C33">
-        <v>171.9275054931641</v>
+        <v>193.1900024414062</v>
       </c>
       <c r="D33">
-        <v>176.1900024414062</v>
+        <v>199.8500061035156</v>
       </c>
       <c r="E33">
-        <v>176.1185760498047</v>
+        <v>199.8147735595703</v>
       </c>
       <c r="F33">
-        <v>57575600</v>
+        <v>49543600</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>175.2725067138672</v>
+        <v>198.8249969482422</v>
       </c>
       <c r="B34">
-        <v>176.2149963378906</v>
+        <v>200.9875030517578</v>
       </c>
       <c r="C34">
-        <v>172.5099945068359</v>
+        <v>196.5700073242188</v>
       </c>
       <c r="D34">
-        <v>174.5700073242188</v>
+        <v>200.2675018310547</v>
       </c>
       <c r="E34">
-        <v>174.4992370605469</v>
+        <v>200.2321929931641</v>
       </c>
       <c r="F34">
-        <v>32384800</v>
+        <v>36763200</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>175.1575012207031</v>
+        <v>199.9924926757812</v>
       </c>
       <c r="B35">
-        <v>175.75</v>
+        <v>201.625</v>
       </c>
       <c r="C35">
-        <v>172.5574951171875</v>
+        <v>198.6374969482422</v>
       </c>
       <c r="D35">
-        <v>173.5825042724609</v>
+        <v>200.0249938964844</v>
       </c>
       <c r="E35">
-        <v>173.5518951416016</v>
+        <v>199.9897308349609</v>
       </c>
       <c r="F35">
-        <v>38165600</v>
+        <v>32656800</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>173.5</v>
+        <v>201.25</v>
       </c>
       <c r="B36">
-        <v>174.9199981689453</v>
+        <v>204.5599975585938</v>
       </c>
       <c r="C36">
-        <v>171.7599945068359</v>
+        <v>200.1900024414062</v>
       </c>
       <c r="D36">
-        <v>174.25</v>
+        <v>202.1199951171875</v>
       </c>
       <c r="E36">
-        <v>174.2192840576172</v>
+        <v>202.0843658447266</v>
       </c>
       <c r="F36">
-        <v>28777200</v>
+        <v>48013600</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>174.7949981689453</v>
+        <v>204.4024963378906</v>
       </c>
       <c r="B37">
-        <v>179.3925018310547</v>
+        <v>205.0525054931641</v>
       </c>
       <c r="C37">
-        <v>174.4375</v>
+        <v>202.8775024414062</v>
       </c>
       <c r="D37">
-        <v>178.2525024414062</v>
+        <v>204.8699951171875</v>
       </c>
       <c r="E37">
-        <v>178.2210693359375</v>
+        <v>204.8338775634766</v>
       </c>
       <c r="F37">
-        <v>41630800</v>
+        <v>34276400</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>179.0599975585938</v>
+        <v>207.375</v>
       </c>
       <c r="B38">
-        <v>180.3950042724609</v>
+        <v>208.4199981689453</v>
       </c>
       <c r="C38">
-        <v>176.6275024414062</v>
+        <v>203.5025024414062</v>
       </c>
       <c r="D38">
-        <v>180.1875</v>
+        <v>206.9850006103516</v>
       </c>
       <c r="E38">
-        <v>180.1557312011719</v>
+        <v>206.9485015869141</v>
       </c>
       <c r="F38">
-        <v>32137600</v>
+        <v>44670800</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>179.1499938964844</v>
+        <v>208.5350036621094</v>
       </c>
       <c r="B39">
-        <v>180.1625061035156</v>
+        <v>208.75</v>
       </c>
       <c r="C39">
-        <v>177.2799987792969</v>
+        <v>203.3200073242188</v>
       </c>
       <c r="D39">
-        <v>177.8849945068359</v>
+        <v>203.7174987792969</v>
       </c>
       <c r="E39">
-        <v>177.8536376953125</v>
+        <v>203.6815795898438</v>
       </c>
       <c r="F39">
-        <v>24303200</v>
+        <v>41842800</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>177.9075012207031</v>
+        <v>198.5650024414062</v>
       </c>
       <c r="B40">
-        <v>179.5475006103516</v>
+        <v>201.3300018310547</v>
       </c>
       <c r="C40">
-        <v>175.8450012207031</v>
+        <v>197.0075073242188</v>
       </c>
       <c r="D40">
-        <v>178.1024932861328</v>
+        <v>199.0274963378906</v>
       </c>
       <c r="E40">
-        <v>178.0710906982422</v>
+        <v>198.9924011230469</v>
       </c>
       <c r="F40">
-        <v>30712400</v>
+        <v>50330000</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>177.7449951171875</v>
+        <v>199.625</v>
       </c>
       <c r="B41">
-        <v>188.3500061035156</v>
+        <v>200.8025054931641</v>
       </c>
       <c r="C41">
-        <v>177.5625</v>
+        <v>197.5424957275391</v>
       </c>
       <c r="D41">
-        <v>186.5724945068359</v>
+        <v>200.5025024414062</v>
       </c>
       <c r="E41">
-        <v>186.5395965576172</v>
+        <v>200.4671478271484</v>
       </c>
       <c r="F41">
-        <v>80965600</v>
+        <v>29662400</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>187.8399963378906</v>
+        <v>202.3999938964844</v>
       </c>
       <c r="B42">
-        <v>193.75</v>
+        <v>205.3274993896484</v>
       </c>
       <c r="C42">
-        <v>185.8399963378906</v>
+        <v>201.8775024414062</v>
       </c>
       <c r="D42">
-        <v>186.3874969482422</v>
+        <v>205.125</v>
       </c>
       <c r="E42">
-        <v>186.3546295166016</v>
+        <v>205.0888366699219</v>
       </c>
       <c r="F42">
-        <v>96885600</v>
+        <v>32198400</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>184.3524932861328</v>
+        <v>204.0050048828125</v>
       </c>
       <c r="B43">
-        <v>185.3650054931641</v>
+        <v>204.6125030517578</v>
       </c>
       <c r="C43">
-        <v>178.2274932861328</v>
+        <v>201.1399993896484</v>
       </c>
       <c r="D43">
-        <v>184.2725067138672</v>
+        <v>202.5</v>
       </c>
       <c r="E43">
-        <v>184.2400207519531</v>
+        <v>202.4642944335938</v>
       </c>
       <c r="F43">
-        <v>67238400</v>
+        <v>29070800</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>184.7149963378906</v>
+        <v>203.5774993896484</v>
       </c>
       <c r="B44">
-        <v>189.6374969482422</v>
+        <v>204.1775054931641</v>
       </c>
       <c r="C44">
-        <v>183.8600006103516</v>
+        <v>197.5274963378906</v>
       </c>
       <c r="D44">
-        <v>188.8674926757812</v>
+        <v>198.4149932861328</v>
       </c>
       <c r="E44">
-        <v>188.8341979980469</v>
+        <v>198.3800048828125</v>
       </c>
       <c r="F44">
-        <v>58014400</v>
+        <v>38010000</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>190.0774993896484</v>
+        <v>198.1174926757812</v>
       </c>
       <c r="B45">
-        <v>191.5274963378906</v>
+        <v>198.4700012207031</v>
       </c>
       <c r="C45">
-        <v>189.0774993896484</v>
+        <v>188.5850067138672</v>
       </c>
       <c r="D45">
-        <v>190.5724945068359</v>
+        <v>189.6625061035156</v>
       </c>
       <c r="E45">
-        <v>190.5388946533203</v>
+        <v>189.6290740966797</v>
       </c>
       <c r="F45">
-        <v>33235600</v>
+        <v>55056400</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>192.2774963378906</v>
+        <v>190.3049926757812</v>
       </c>
       <c r="B46">
-        <v>194.1999969482422</v>
+        <v>191.5700073242188</v>
       </c>
       <c r="C46">
-        <v>190.8825073242188</v>
+        <v>180.7299957275391</v>
       </c>
       <c r="D46">
-        <v>192.0549926757812</v>
+        <v>181.6100006103516</v>
       </c>
       <c r="E46">
-        <v>192.0211334228516</v>
+        <v>181.5779876708984</v>
       </c>
       <c r="F46">
-        <v>32092400</v>
+        <v>68822400</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>192.8049926757812</v>
+        <v>179.1524963378906</v>
       </c>
       <c r="B47">
-        <v>193.4550018310547</v>
+        <v>190.4199981689453</v>
       </c>
       <c r="C47">
-        <v>188.9450073242188</v>
+        <v>178.6549987792969</v>
       </c>
       <c r="D47">
-        <v>190.3099975585938</v>
+        <v>187.7975006103516</v>
       </c>
       <c r="E47">
-        <v>190.2764434814453</v>
+        <v>187.7643890380859</v>
       </c>
       <c r="F47">
-        <v>27836400</v>
+        <v>74906000</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>193.6125030517578</v>
+        <v>187.3000030517578</v>
       </c>
       <c r="B48">
-        <v>200.7875061035156</v>
+        <v>188.3800048828125</v>
       </c>
       <c r="C48">
-        <v>193.1900024414062</v>
+        <v>181.6399993896484</v>
       </c>
       <c r="D48">
-        <v>199.8500061035156</v>
+        <v>186.1199951171875</v>
       </c>
       <c r="E48">
-        <v>199.8147735595703</v>
+        <v>186.0871734619141</v>
       </c>
       <c r="F48">
-        <v>49543600</v>
+        <v>43468700</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>198.8249969482422</v>
+        <v>188.8200073242188</v>
       </c>
       <c r="B49">
-        <v>200.9875030517578</v>
+        <v>195.2700042724609</v>
       </c>
       <c r="C49">
-        <v>196.5700073242188</v>
+        <v>187.4199981689453</v>
       </c>
       <c r="D49">
-        <v>200.2675018310547</v>
+        <v>194.1000061035156</v>
       </c>
       <c r="E49">
-        <v>200.2321929931641</v>
+        <v>194.0657806396484</v>
       </c>
       <c r="F49">
-        <v>36763200</v>
+        <v>37101700</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>199.9924926757812</v>
+        <v>196.4199981689453</v>
       </c>
       <c r="B50">
-        <v>201.625</v>
+        <v>198.8699951171875</v>
       </c>
       <c r="C50">
-        <v>198.6374969482422</v>
+        <v>192.7599945068359</v>
       </c>
       <c r="D50">
-        <v>200.0249938964844</v>
+        <v>195.9400024414062</v>
       </c>
       <c r="E50">
-        <v>199.9897308349609</v>
+        <v>195.9054565429688</v>
       </c>
       <c r="F50">
-        <v>32656800</v>
+        <v>32382600</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>201.25</v>
+        <v>196.5599975585938</v>
       </c>
       <c r="B51">
-        <v>204.5599975585938</v>
+        <v>197</v>
       </c>
       <c r="C51">
-        <v>200.1900024414062</v>
+        <v>192.5</v>
       </c>
       <c r="D51">
-        <v>202.1199951171875</v>
+        <v>195.5800018310547</v>
       </c>
       <c r="E51">
-        <v>202.0843658447266</v>
+        <v>195.5455169677734</v>
       </c>
       <c r="F51">
-        <v>48013600</v>
+        <v>19567200</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>204.4024963378906</v>
+        <v>193.1100006103516</v>
       </c>
       <c r="B52">
-        <v>205.0525054931641</v>
+        <v>194.4199981689453</v>
       </c>
       <c r="C52">
-        <v>202.8775024414062</v>
+        <v>189.1399993896484</v>
       </c>
       <c r="D52">
-        <v>204.8699951171875</v>
+        <v>192.9400024414062</v>
       </c>
       <c r="E52">
-        <v>204.8338775634766</v>
+        <v>192.9059906005859</v>
       </c>
       <c r="F52">
-        <v>34276400</v>
+        <v>20394300</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>207.375</v>
+        <v>192.6499938964844</v>
       </c>
       <c r="B53">
-        <v>208.4199981689453</v>
+        <v>196.2200012207031</v>
       </c>
       <c r="C53">
-        <v>203.5025024414062</v>
+        <v>187.4100036621094</v>
       </c>
       <c r="D53">
-        <v>206.9850006103516</v>
+        <v>192.0800018310547</v>
       </c>
       <c r="E53">
-        <v>206.9485015869141</v>
+        <v>192.046142578125</v>
       </c>
       <c r="F53">
-        <v>44670800</v>
+        <v>24886300</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>208.5350036621094</v>
+        <v>193.1900024414062</v>
       </c>
       <c r="B54">
-        <v>208.75</v>
+        <v>196.4600067138672</v>
       </c>
       <c r="C54">
-        <v>203.3200073242188</v>
+        <v>189.9499969482422</v>
       </c>
       <c r="D54">
-        <v>203.7174987792969</v>
+        <v>195.0299987792969</v>
       </c>
       <c r="E54">
-        <v>203.6815795898438</v>
+        <v>194.99560546875</v>
       </c>
       <c r="F54">
-        <v>41842800</v>
+        <v>20219100</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>198.5650024414062</v>
+        <v>195.1900024414062</v>
       </c>
       <c r="B55">
-        <v>201.3300018310547</v>
+        <v>198.5299987792969</v>
       </c>
       <c r="C55">
-        <v>197.0075073242188</v>
+        <v>193.2799987792969</v>
       </c>
       <c r="D55">
-        <v>199.0274963378906</v>
+        <v>196.6199951171875</v>
       </c>
       <c r="E55">
-        <v>198.9924011230469</v>
+        <v>196.5853271484375</v>
       </c>
       <c r="F55">
-        <v>50330000</v>
+        <v>19078100</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>199.625</v>
+        <v>194.1799926757812</v>
       </c>
       <c r="B56">
-        <v>200.8025054931641</v>
+        <v>196.3000030517578</v>
       </c>
       <c r="C56">
-        <v>197.5424957275391</v>
+        <v>192.6300048828125</v>
       </c>
       <c r="D56">
-        <v>200.5025024414062</v>
+        <v>194.9900054931641</v>
       </c>
       <c r="E56">
-        <v>200.4671478271484</v>
+        <v>194.9556274414062</v>
       </c>
       <c r="F56">
-        <v>29662400</v>
+        <v>18322900</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>202.3999938964844</v>
+        <v>197</v>
       </c>
       <c r="B57">
-        <v>205.3274993896484</v>
+        <v>199.6100006103516</v>
       </c>
       <c r="C57">
-        <v>201.8775024414062</v>
+        <v>193.6100006103516</v>
       </c>
       <c r="D57">
-        <v>205.125</v>
+        <v>197.5</v>
       </c>
       <c r="E57">
-        <v>205.0888366699219</v>
+        <v>197.4651794433594</v>
       </c>
       <c r="F57">
-        <v>32198400</v>
+        <v>21744400</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>204.0050048828125</v>
+        <v>197.3999938964844</v>
       </c>
       <c r="B58">
-        <v>204.6125030517578</v>
+        <v>202.2200012207031</v>
       </c>
       <c r="C58">
-        <v>201.1399993896484</v>
+        <v>192.1999969482422</v>
       </c>
       <c r="D58">
-        <v>202.5</v>
+        <v>198.1499938964844</v>
       </c>
       <c r="E58">
-        <v>202.4642944335938</v>
+        <v>198.1150512695312</v>
       </c>
       <c r="F58">
-        <v>29070800</v>
+        <v>30181100</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>203.5774993896484</v>
+        <v>199.8999938964844</v>
       </c>
       <c r="B59">
-        <v>204.1775054931641</v>
+        <v>203.1799926757812</v>
       </c>
       <c r="C59">
-        <v>197.5274963378906</v>
+        <v>198.2799987792969</v>
       </c>
       <c r="D59">
-        <v>198.4149932861328</v>
+        <v>202.7400054931641</v>
       </c>
       <c r="E59">
-        <v>198.3800048828125</v>
+        <v>202.7042541503906</v>
       </c>
       <c r="F59">
-        <v>38010000</v>
+        <v>23130900</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>198.1174926757812</v>
+        <v>205</v>
       </c>
       <c r="B60">
-        <v>198.4700012207031</v>
+        <v>207.3300018310547</v>
       </c>
       <c r="C60">
-        <v>188.5850067138672</v>
+        <v>203.4199981689453</v>
       </c>
       <c r="D60">
-        <v>189.6625061035156</v>
+        <v>206.3699951171875</v>
       </c>
       <c r="E60">
-        <v>189.6290740966797</v>
+        <v>206.3336029052734</v>
       </c>
       <c r="F60">
-        <v>55056400</v>
+        <v>21143500</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>190.3049926757812</v>
+        <v>205.2400054931641</v>
       </c>
       <c r="B61">
-        <v>191.5700073242188</v>
+        <v>205.6999969482422</v>
       </c>
       <c r="C61">
-        <v>180.7299957275391</v>
+        <v>202.1000061035156</v>
       </c>
       <c r="D61">
-        <v>181.6100006103516</v>
+        <v>203.6600036621094</v>
       </c>
       <c r="E61">
-        <v>181.5779876708984</v>
+        <v>203.6240997314453</v>
       </c>
       <c r="F61">
-        <v>68822400</v>
+        <v>17825500</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>179.1524963378906</v>
+        <v>204.4600067138672</v>
       </c>
       <c r="B62">
-        <v>190.4199981689453</v>
+        <v>205.0800018310547</v>
       </c>
       <c r="C62">
-        <v>178.6549987792969</v>
+        <v>201.4299926757812</v>
       </c>
       <c r="D62">
-        <v>187.7975006103516</v>
+        <v>202.9499969482422</v>
       </c>
       <c r="E62">
-        <v>187.7643890380859</v>
+        <v>202.9142150878906</v>
       </c>
       <c r="F62">
-        <v>74906000</v>
+        <v>14644300</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>187.3000030517578</v>
+        <v>203.2200012207031</v>
       </c>
       <c r="B63">
-        <v>188.3800048828125</v>
+        <v>204.3000030517578</v>
       </c>
       <c r="C63">
-        <v>181.6399993896484</v>
+        <v>198.3500061035156</v>
       </c>
       <c r="D63">
-        <v>186.1199951171875</v>
+        <v>199.3600006103516</v>
       </c>
       <c r="E63">
-        <v>186.0871734619141</v>
+        <v>199.3248443603516</v>
       </c>
       <c r="F63">
-        <v>43468700</v>
+        <v>17923800</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>188.8200073242188</v>
+        <v>200.4299926757812</v>
       </c>
       <c r="B64">
-        <v>195.2700042724609</v>
+        <v>200.4900054931641</v>
       </c>
       <c r="C64">
-        <v>187.4199981689453</v>
+        <v>194.3000030517578</v>
       </c>
       <c r="D64">
-        <v>194.1000061035156</v>
+        <v>196.9900054931641</v>
       </c>
       <c r="E64">
-        <v>194.0657806396484</v>
+        <v>196.9552764892578</v>
       </c>
       <c r="F64">
-        <v>37101700</v>
+        <v>18592500</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>196.4199981689453</v>
+        <v>198.6999969482422</v>
       </c>
       <c r="B65">
-        <v>198.8699951171875</v>
+        <v>200.2899932861328</v>
       </c>
       <c r="C65">
-        <v>192.7599945068359</v>
+        <v>196.1999969482422</v>
       </c>
       <c r="D65">
-        <v>195.9400024414062</v>
+        <v>199.0500030517578</v>
       </c>
       <c r="E65">
-        <v>195.9054565429688</v>
+        <v>199.0149078369141</v>
       </c>
       <c r="F65">
-        <v>32382600</v>
+        <v>15165200</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>196.5599975585938</v>
+        <v>199.0500030517578</v>
       </c>
       <c r="B66">
-        <v>197</v>
+        <v>202.1399993896484</v>
       </c>
       <c r="C66">
-        <v>192.5</v>
+        <v>198.5099945068359</v>
       </c>
       <c r="D66">
-        <v>195.5800018310547</v>
+        <v>201.8800048828125</v>
       </c>
       <c r="E66">
-        <v>195.5455169677734</v>
+        <v>201.8444061279297</v>
       </c>
       <c r="F66">
-        <v>19567200</v>
+        <v>18282500</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>193.1100006103516</v>
+        <v>201.3500061035156</v>
       </c>
       <c r="B67">
-        <v>194.4199981689453</v>
+        <v>202.8699951171875</v>
       </c>
       <c r="C67">
-        <v>189.1399993896484</v>
+        <v>194.5299987792969</v>
       </c>
       <c r="D67">
-        <v>192.9400024414062</v>
+        <v>199.5</v>
       </c>
       <c r="E67">
-        <v>192.9059906005859</v>
+        <v>199.4648284912109</v>
       </c>
       <c r="F67">
-        <v>20394300</v>
+        <v>21087600</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>192.6499938964844</v>
+        <v>196.8500061035156</v>
       </c>
       <c r="B68">
-        <v>196.2200012207031</v>
+        <v>197.6999969482422</v>
       </c>
       <c r="C68">
-        <v>187.4100036621094</v>
+        <v>192.6699981689453</v>
       </c>
       <c r="D68">
-        <v>192.0800018310547</v>
+        <v>194.5800018310547</v>
       </c>
       <c r="E68">
-        <v>192.046142578125</v>
+        <v>194.5457000732422</v>
       </c>
       <c r="F68">
-        <v>24886300</v>
+        <v>20458500</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>193.1900024414062</v>
+        <v>195</v>
       </c>
       <c r="B69">
-        <v>196.4600067138672</v>
+        <v>196.3399963378906</v>
       </c>
       <c r="C69">
-        <v>189.9499969482422</v>
+        <v>190</v>
       </c>
       <c r="D69">
-        <v>195.0299987792969</v>
+        <v>190.3999938964844</v>
       </c>
       <c r="E69">
-        <v>194.99560546875</v>
+        <v>190.3664245605469</v>
       </c>
       <c r="F69">
-        <v>20219100</v>
+        <v>28591300</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>195.1900024414062</v>
+        <v>194.9400024414062</v>
       </c>
       <c r="B70">
-        <v>198.5299987792969</v>
+        <v>204.9499969482422</v>
       </c>
       <c r="C70">
-        <v>193.2799987792969</v>
+        <v>187.6199951171875</v>
       </c>
       <c r="D70">
-        <v>196.6199951171875</v>
+        <v>197.9799957275391</v>
       </c>
       <c r="E70">
-        <v>196.5853271484375</v>
+        <v>197.9450836181641</v>
       </c>
       <c r="F70">
-        <v>19078100</v>
+        <v>76655500</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>194.1799926757812</v>
+        <v>199.9100036621094</v>
       </c>
       <c r="B71">
-        <v>196.3000030517578</v>
+        <v>208.6499938964844</v>
       </c>
       <c r="C71">
-        <v>192.6300048828125</v>
+        <v>199.3300018310547</v>
       </c>
       <c r="D71">
-        <v>194.9900054931641</v>
+        <v>208.1600036621094</v>
       </c>
       <c r="E71">
-        <v>194.9556274414062</v>
+        <v>208.1233062744141</v>
       </c>
       <c r="F71">
-        <v>18322900</v>
+        <v>67503900</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>197</v>
+        <v>209.7100067138672</v>
       </c>
       <c r="B72">
-        <v>199.6100006103516</v>
+        <v>219.9700012207031</v>
       </c>
       <c r="C72">
-        <v>193.6100006103516</v>
+        <v>209.5</v>
       </c>
       <c r="D72">
-        <v>197.5</v>
+        <v>219.5800018310547</v>
       </c>
       <c r="E72">
-        <v>197.4651794433594</v>
+        <v>219.5412902832031</v>
       </c>
       <c r="F72">
-        <v>21744400</v>
+        <v>57580700</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>197.3999938964844</v>
+        <v>217.5299987792969</v>
       </c>
       <c r="B73">
-        <v>202.2200012207031</v>
+        <v>219.5899963378906</v>
       </c>
       <c r="C73">
-        <v>192.1999969482422</v>
+        <v>215.3500061035156</v>
       </c>
       <c r="D73">
-        <v>198.1499938964844</v>
+        <v>217.9299926757812</v>
       </c>
       <c r="E73">
-        <v>198.1150512695312</v>
+        <v>217.8915710449219</v>
       </c>
       <c r="F73">
-        <v>30181100</v>
+        <v>29729900</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>199.8999938964844</v>
+        <v>217.3699951171875</v>
       </c>
       <c r="B74">
-        <v>203.1799926757812</v>
+        <v>224.6999969482422</v>
       </c>
       <c r="C74">
-        <v>198.2799987792969</v>
+        <v>217.2200012207031</v>
       </c>
       <c r="D74">
-        <v>202.7400054931641</v>
+        <v>222.1300048828125</v>
       </c>
       <c r="E74">
-        <v>202.7042541503906</v>
+        <v>222.0908355712891</v>
       </c>
       <c r="F74">
-        <v>23130900</v>
+        <v>34770100</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="B75">
-        <v>207.3300018310547</v>
+        <v>223.3999938964844</v>
       </c>
       <c r="C75">
-        <v>203.4199981689453</v>
+        <v>217.8999938964844</v>
       </c>
       <c r="D75">
-        <v>206.3699951171875</v>
+        <v>220.6799926757812</v>
       </c>
       <c r="E75">
-        <v>206.3336029052734</v>
+        <v>220.6410827636719</v>
       </c>
       <c r="F75">
-        <v>21143500</v>
+        <v>23794000</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>205.2400054931641</v>
+        <v>221.8399963378906</v>
       </c>
       <c r="B76">
-        <v>205.6999969482422</v>
+        <v>227.2200012207031</v>
       </c>
       <c r="C76">
-        <v>202.1000061035156</v>
+        <v>221.6699981689453</v>
       </c>
       <c r="D76">
-        <v>203.6600036621094</v>
+        <v>226.3600006103516</v>
       </c>
       <c r="E76">
-        <v>203.6240997314453</v>
+        <v>226.3200836181641</v>
       </c>
       <c r="F76">
-        <v>17825500</v>
+        <v>30426700</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>204.4600067138672</v>
+        <v>228.3000030517578</v>
       </c>
       <c r="B77">
-        <v>205.0800018310547</v>
+        <v>230.4299926757812</v>
       </c>
       <c r="C77">
-        <v>201.4299926757812</v>
+        <v>225.5099945068359</v>
       </c>
       <c r="D77">
-        <v>202.9499969482422</v>
+        <v>226.8800048828125</v>
       </c>
       <c r="E77">
-        <v>202.9142150878906</v>
+        <v>226.8399963378906</v>
       </c>
       <c r="F77">
-        <v>14644300</v>
+        <v>26258000</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>203.2200012207031</v>
+        <v>226.9499969482422</v>
       </c>
       <c r="B78">
-        <v>204.3000030517578</v>
+        <v>226.9499969482422</v>
       </c>
       <c r="C78">
-        <v>198.3500061035156</v>
+        <v>221.1999969482422</v>
       </c>
       <c r="D78">
-        <v>199.3600006103516</v>
+        <v>223.8500061035156</v>
       </c>
       <c r="E78">
-        <v>199.3248443603516</v>
+        <v>223.8500061035156</v>
       </c>
       <c r="F78">
-        <v>17923800</v>
+        <v>25985000</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>200.4299926757812</v>
+        <v>224.8500061035156</v>
       </c>
       <c r="B79">
-        <v>200.4900054931641</v>
+        <v>226.9700012207031</v>
       </c>
       <c r="C79">
-        <v>194.3000030517578</v>
+        <v>223.5700073242188</v>
       </c>
       <c r="D79">
-        <v>196.9900054931641</v>
+        <v>224.4100036621094</v>
       </c>
       <c r="E79">
-        <v>196.9552764892578</v>
+        <v>224.4100036621094</v>
       </c>
       <c r="F79">
-        <v>18592500</v>
+        <v>20176700</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>198.6999969482422</v>
+        <v>225.1799926757812</v>
       </c>
       <c r="B80">
-        <v>200.2899932861328</v>
+        <v>225.9299926757812</v>
       </c>
       <c r="C80">
-        <v>196.1999969482422</v>
+        <v>222.9499969482422</v>
       </c>
       <c r="D80">
-        <v>199.0500030517578</v>
+        <v>223.9600067138672</v>
       </c>
       <c r="E80">
-        <v>199.0149078369141</v>
+        <v>223.9600067138672</v>
       </c>
       <c r="F80">
-        <v>15165200</v>
+        <v>18783400</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>199.0500030517578</v>
+        <v>223.25</v>
       </c>
       <c r="B81">
-        <v>202.1399993896484</v>
+        <v>229.8600006103516</v>
       </c>
       <c r="C81">
-        <v>198.5099945068359</v>
+        <v>222</v>
       </c>
       <c r="D81">
-        <v>201.8800048828125</v>
+        <v>228.4299926757812</v>
       </c>
       <c r="E81">
-        <v>201.8444061279297</v>
+        <v>228.4299926757812</v>
       </c>
       <c r="F81">
-        <v>18282500</v>
+        <v>28053200</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>201.3500061035156</v>
+        <v>228.3300018310547</v>
       </c>
       <c r="B82">
-        <v>202.8699951171875</v>
+        <v>228.9900054931641</v>
       </c>
       <c r="C82">
-        <v>194.5299987792969</v>
+        <v>225.2200012207031</v>
       </c>
       <c r="D82">
-        <v>199.5</v>
+        <v>226.6199951171875</v>
       </c>
       <c r="E82">
-        <v>199.4648284912109</v>
+        <v>226.6199951171875</v>
       </c>
       <c r="F82">
-        <v>21087600</v>
+        <v>19810700</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>196.8500061035156</v>
+        <v>225.1300048828125</v>
       </c>
       <c r="B83">
-        <v>197.6999969482422</v>
+        <v>226.1000061035156</v>
       </c>
       <c r="C83">
-        <v>192.6699981689453</v>
+        <v>219.7700042724609</v>
       </c>
       <c r="D83">
-        <v>194.5800018310547</v>
+        <v>223.3899993896484</v>
       </c>
       <c r="E83">
-        <v>194.5457000732422</v>
+        <v>223.3899993896484</v>
       </c>
       <c r="F83">
-        <v>20458500</v>
+        <v>25443400</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>195</v>
+        <v>223.1199951171875</v>
       </c>
       <c r="B84">
-        <v>196.3399963378906</v>
+        <v>225.3800048828125</v>
       </c>
       <c r="C84">
-        <v>190</v>
+        <v>221.3099975585938</v>
       </c>
       <c r="D84">
-        <v>190.3999938964844</v>
+        <v>221.7700042724609</v>
       </c>
       <c r="E84">
-        <v>190.3664245605469</v>
+        <v>221.7700042724609</v>
       </c>
       <c r="F84">
-        <v>28591300</v>
+        <v>19685600</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>194.9400024414062</v>
+        <v>223.4799957275391</v>
       </c>
       <c r="B85">
-        <v>204.9499969482422</v>
+        <v>226.2599945068359</v>
       </c>
       <c r="C85">
-        <v>187.6199951171875</v>
+        <v>222.6999969482422</v>
       </c>
       <c r="D85">
-        <v>197.9799957275391</v>
+        <v>224.7799987792969</v>
       </c>
       <c r="E85">
-        <v>197.9450836181641</v>
+        <v>224.7799987792969</v>
       </c>
       <c r="F85">
-        <v>76655500</v>
+        <v>24814900</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>199.9100036621094</v>
+        <v>226.8399963378906</v>
       </c>
       <c r="B86">
-        <v>208.6499938964844</v>
+        <v>229.6399993896484</v>
       </c>
       <c r="C86">
-        <v>199.3300018310547</v>
+        <v>218.5800018310547</v>
       </c>
       <c r="D86">
-        <v>208.1600036621094</v>
+        <v>221.5200042724609</v>
       </c>
       <c r="E86">
-        <v>208.1233062744141</v>
+        <v>221.5200042724609</v>
       </c>
       <c r="F86">
-        <v>67503900</v>
+        <v>29750000</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>209.7100067138672</v>
+        <v>222.75</v>
       </c>
       <c r="B87">
-        <v>219.9700012207031</v>
+        <v>224.1000061035156</v>
       </c>
       <c r="C87">
-        <v>209.5</v>
+        <v>220.8600006103516</v>
       </c>
       <c r="D87">
-        <v>219.5800018310547</v>
+        <v>222.4199981689453</v>
       </c>
       <c r="E87">
-        <v>219.5412902832031</v>
+        <v>222.4199981689453</v>
       </c>
       <c r="F87">
-        <v>57580700</v>
+        <v>19975500</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>217.5299987792969</v>
+        <v>223.0899963378906</v>
       </c>
       <c r="B88">
-        <v>219.5899963378906</v>
+        <v>223.6699981689453</v>
       </c>
       <c r="C88">
-        <v>215.3500061035156</v>
+        <v>219.6600036621094</v>
       </c>
       <c r="D88">
-        <v>217.9299926757812</v>
+        <v>223.4100036621094</v>
       </c>
       <c r="E88">
-        <v>217.8915710449219</v>
+        <v>223.4100036621094</v>
       </c>
       <c r="F88">
-        <v>29729900</v>
+        <v>16653800</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>217.3699951171875</v>
+        <v>221.8300018310547</v>
       </c>
       <c r="B89">
-        <v>224.6999969482422</v>
+        <v>222.7700042724609</v>
       </c>
       <c r="C89">
-        <v>217.2200012207031</v>
+        <v>219.2700042724609</v>
       </c>
       <c r="D89">
-        <v>222.1300048828125</v>
+        <v>222.4199981689453</v>
       </c>
       <c r="E89">
-        <v>222.0908355712891</v>
+        <v>222.4199981689453</v>
       </c>
       <c r="F89">
-        <v>34770100</v>
+        <v>15603300</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B90">
-        <v>223.3999938964844</v>
+        <v>223.2100067138672</v>
       </c>
       <c r="C90">
-        <v>217.8999938964844</v>
+        <v>218.3000030517578</v>
       </c>
       <c r="D90">
-        <v>220.6799926757812</v>
+        <v>219</v>
       </c>
       <c r="E90">
-        <v>220.6410827636719</v>
+        <v>219</v>
       </c>
       <c r="F90">
-        <v>23794000</v>
+        <v>29450300</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>221.8399963378906</v>
+        <v>211.4600067138672</v>
       </c>
       <c r="B91">
-        <v>227.2200012207031</v>
+        <v>214.3300018310547</v>
       </c>
       <c r="C91">
-        <v>221.6699981689453</v>
+        <v>206.6199951171875</v>
       </c>
       <c r="D91">
-        <v>226.3600006103516</v>
+        <v>211.1300048828125</v>
       </c>
       <c r="E91">
-        <v>226.3200836181641</v>
+        <v>211.1300048828125</v>
       </c>
       <c r="F91">
-        <v>30426700</v>
+        <v>34944000</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>228.3000030517578</v>
+        <v>214.1699981689453</v>
       </c>
       <c r="B92">
-        <v>230.4299926757812</v>
+        <v>214.25</v>
       </c>
       <c r="C92">
-        <v>225.5099945068359</v>
+        <v>209.5</v>
       </c>
       <c r="D92">
-        <v>226.8800048828125</v>
+        <v>212.4600067138672</v>
       </c>
       <c r="E92">
-        <v>226.8399963378906</v>
+        <v>212.4600067138672</v>
       </c>
       <c r="F92">
-        <v>26258000</v>
+        <v>20468800</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>226.9499969482422</v>
+        <v>213.6600036621094</v>
       </c>
       <c r="B93">
-        <v>226.9499969482422</v>
+        <v>219.6000061035156</v>
       </c>
       <c r="C93">
-        <v>221.1999969482422</v>
+        <v>211.9600067138672</v>
       </c>
       <c r="D93">
-        <v>223.8500061035156</v>
+        <v>219.4100036621094</v>
       </c>
       <c r="E93">
-        <v>223.8500061035156</v>
+        <v>219.4100036621094</v>
       </c>
       <c r="F93">
-        <v>25985000</v>
+        <v>26872600</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>224.8500061035156</v>
+        <v>221.3999938964844</v>
       </c>
       <c r="B94">
-        <v>226.9700012207031</v>
+        <v>225.3500061035156</v>
       </c>
       <c r="C94">
-        <v>223.5700073242188</v>
+        <v>218.8999938964844</v>
       </c>
       <c r="D94">
-        <v>224.4100036621094</v>
+        <v>224.8200073242188</v>
       </c>
       <c r="E94">
-        <v>224.4100036621094</v>
+        <v>224.8200073242188</v>
       </c>
       <c r="F94">
-        <v>20176700</v>
+        <v>24855500</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>225.1799926757812</v>
+        <v>220.6999969482422</v>
       </c>
       <c r="B95">
-        <v>225.9299926757812</v>
+        <v>221.4900054931641</v>
       </c>
       <c r="C95">
-        <v>222.9499969482422</v>
+        <v>218.6100006103516</v>
       </c>
       <c r="D95">
-        <v>223.9600067138672</v>
+        <v>220.8099975585938</v>
       </c>
       <c r="E95">
-        <v>223.9600067138672</v>
+        <v>220.8099975585938</v>
       </c>
       <c r="F95">
-        <v>18783400</v>
+        <v>21765500</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>223.25</v>
+        <v>217.1000061035156</v>
       </c>
       <c r="B96">
-        <v>229.8600006103516</v>
+        <v>217.9900054931641</v>
       </c>
       <c r="C96">
-        <v>222</v>
+        <v>213.25</v>
       </c>
       <c r="D96">
-        <v>228.4299926757812</v>
+        <v>216.6000061035156</v>
       </c>
       <c r="E96">
-        <v>228.4299926757812</v>
+        <v>216.6000061035156</v>
       </c>
       <c r="F96">
-        <v>28053200</v>
+        <v>24521500</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>228.3300018310547</v>
+        <v>212.1399993896484</v>
       </c>
       <c r="B97">
-        <v>228.9900054931641</v>
+        <v>214.1900024414062</v>
       </c>
       <c r="C97">
-        <v>225.2200012207031</v>
+        <v>206.5099945068359</v>
       </c>
       <c r="D97">
-        <v>226.6199951171875</v>
+        <v>206.9900054931641</v>
       </c>
       <c r="E97">
-        <v>226.6199951171875</v>
+        <v>206.9900054931641</v>
       </c>
       <c r="F97">
-        <v>19810700</v>
+        <v>34306900</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>225.1300048828125</v>
+        <v>209.3999938964844</v>
       </c>
       <c r="B98">
-        <v>226.1000061035156</v>
+        <v>210.1699981689453</v>
       </c>
       <c r="C98">
-        <v>219.7700042724609</v>
+        <v>204.6699981689453</v>
       </c>
       <c r="D98">
-        <v>223.3899993896484</v>
+        <v>205.1699981689453</v>
       </c>
       <c r="E98">
-        <v>223.3899993896484</v>
+        <v>205.1699981689453</v>
       </c>
       <c r="F98">
-        <v>25443400</v>
+        <v>21839400</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>223.1199951171875</v>
+        <v>207.6799926757812</v>
       </c>
       <c r="B99">
-        <v>225.3800048828125</v>
+        <v>210.6600036621094</v>
       </c>
       <c r="C99">
-        <v>221.3099975585938</v>
+        <v>206.8800048828125</v>
       </c>
       <c r="D99">
-        <v>221.7700042724609</v>
+        <v>207.1600036621094</v>
       </c>
       <c r="E99">
-        <v>221.7700042724609</v>
+        <v>207.1600036621094</v>
       </c>
       <c r="F99">
-        <v>19685600</v>
+        <v>22080400</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>223.4799957275391</v>
+        <v>207.5</v>
       </c>
       <c r="B100">
-        <v>226.2599945068359</v>
+        <v>208.5899963378906</v>
       </c>
       <c r="C100">
-        <v>222.6999969482422</v>
+        <v>202.0299987792969</v>
       </c>
       <c r="D100">
-        <v>224.7799987792969</v>
+        <v>207.4199981689453</v>
       </c>
       <c r="E100">
-        <v>224.7799987792969</v>
+        <v>207.4199981689453</v>
       </c>
       <c r="F100">
-        <v>24814900</v>
+        <v>24097800</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>226.8399963378906</v>
+        <v>205.0399932861328</v>
       </c>
       <c r="B101">
-        <v>229.6399993896484</v>
+        <v>205.4199981689453</v>
       </c>
       <c r="C101">
-        <v>218.5800018310547</v>
+        <v>195.5500030517578</v>
       </c>
       <c r="D101">
-        <v>221.5200042724609</v>
+        <v>197.3200073242188</v>
       </c>
       <c r="E101">
-        <v>221.5200042724609</v>
+        <v>197.3200073242188</v>
       </c>
       <c r="F101">
-        <v>29750000</v>
+        <v>34563500</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>222.75</v>
+        <v>199.5</v>
       </c>
       <c r="B102">
-        <v>224.1000061035156</v>
+        <v>206.4799957275391</v>
       </c>
       <c r="C102">
-        <v>220.8600006103516</v>
+        <v>198.5399932861328</v>
       </c>
       <c r="D102">
-        <v>222.4199981689453</v>
+        <v>204.5099945068359</v>
       </c>
       <c r="E102">
-        <v>222.4199981689453</v>
+        <v>204.5099945068359</v>
       </c>
       <c r="F102">
-        <v>19975500</v>
+        <v>27928200</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>223.0899963378906</v>
+        <v>201.1999969482422</v>
       </c>
       <c r="B103">
-        <v>223.6699981689453</v>
+        <v>207.1999969482422</v>
       </c>
       <c r="C103">
-        <v>219.6600036621094</v>
+        <v>200.8000030517578</v>
       </c>
       <c r="D103">
-        <v>223.4100036621094</v>
+        <v>207</v>
       </c>
       <c r="E103">
-        <v>223.4100036621094</v>
+        <v>207</v>
       </c>
       <c r="F103">
-        <v>16653800</v>
+        <v>29720200</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>221.8300018310547</v>
+        <v>210.9199981689453</v>
       </c>
       <c r="B104">
-        <v>222.7700042724609</v>
+        <v>213.2200012207031</v>
       </c>
       <c r="C104">
-        <v>219.2700042724609</v>
+        <v>209.7200012207031</v>
       </c>
       <c r="D104">
-        <v>222.4199981689453</v>
+        <v>210.75</v>
       </c>
       <c r="E104">
-        <v>222.4199981689453</v>
+        <v>210.75</v>
       </c>
       <c r="F104">
-        <v>15603300</v>
+        <v>25691900</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>223</v>
+        <v>211.0099945068359</v>
       </c>
       <c r="B105">
-        <v>223.2100067138672</v>
+        <v>212.0599975585938</v>
       </c>
       <c r="C105">
-        <v>218.3000030517578</v>
+        <v>207.75</v>
       </c>
       <c r="D105">
-        <v>219</v>
+        <v>208.3099975585938</v>
       </c>
       <c r="E105">
-        <v>219</v>
+        <v>208.3099975585938</v>
       </c>
       <c r="F105">
-        <v>29450300</v>
+        <v>15102500</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>211.4600067138672</v>
+        <v>205.75</v>
       </c>
       <c r="B106">
-        <v>214.3300018310547</v>
+        <v>210.6300048828125</v>
       </c>
       <c r="C106">
-        <v>206.6199951171875</v>
+        <v>205.1100006103516</v>
       </c>
       <c r="D106">
-        <v>211.1300048828125</v>
+        <v>206.9499969482422</v>
       </c>
       <c r="E106">
-        <v>211.1300048828125</v>
+        <v>206.9499969482422</v>
       </c>
       <c r="F106">
-        <v>34944000</v>
+        <v>16338800</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>214.1699981689453</v>
+        <v>208.2799987792969</v>
       </c>
       <c r="B107">
-        <v>214.25</v>
+        <v>210.5700073242188</v>
       </c>
       <c r="C107">
-        <v>209.5</v>
+        <v>205.2799987792969</v>
       </c>
       <c r="D107">
-        <v>212.4600067138672</v>
+        <v>206.7100067138672</v>
       </c>
       <c r="E107">
-        <v>212.4600067138672</v>
+        <v>206.7100067138672</v>
       </c>
       <c r="F107">
-        <v>20468800</v>
+        <v>16213400</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>213.6600036621094</v>
+        <v>209.1799926757812</v>
       </c>
       <c r="B108">
-        <v>219.6000061035156</v>
+        <v>209.8999938964844</v>
       </c>
       <c r="C108">
-        <v>211.9600067138672</v>
+        <v>207.1300048828125</v>
       </c>
       <c r="D108">
-        <v>219.4100036621094</v>
+        <v>209.3899993896484</v>
       </c>
       <c r="E108">
-        <v>219.4100036621094</v>
+        <v>209.3899993896484</v>
       </c>
       <c r="F108">
-        <v>26872600</v>
+        <v>18065200</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>221.3999938964844</v>
+        <v>212.8800048828125</v>
       </c>
       <c r="B109">
-        <v>225.3500061035156</v>
+        <v>217.5500030517578</v>
       </c>
       <c r="C109">
-        <v>218.8999938964844</v>
+        <v>211.2200012207031</v>
       </c>
       <c r="D109">
-        <v>224.8200073242188</v>
+        <v>217.4600067138672</v>
       </c>
       <c r="E109">
-        <v>224.8200073242188</v>
+        <v>217.4600067138672</v>
       </c>
       <c r="F109">
-        <v>24855500</v>
+        <v>24358900</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>220.6999969482422</v>
+        <v>218.1000061035156</v>
       </c>
       <c r="B110">
-        <v>221.4900054931641</v>
+        <v>219.3099975585938</v>
       </c>
       <c r="C110">
-        <v>218.6100006103516</v>
+        <v>216.6199951171875</v>
       </c>
       <c r="D110">
-        <v>220.8099975585938</v>
+        <v>218.6199951171875</v>
       </c>
       <c r="E110">
-        <v>220.8099975585938</v>
+        <v>218.6199951171875</v>
       </c>
       <c r="F110">
-        <v>21765500</v>
+        <v>22679500</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>217.1000061035156</v>
+        <v>217.4900054931641</v>
       </c>
       <c r="B111">
-        <v>217.9900054931641</v>
+        <v>222.9100036621094</v>
       </c>
       <c r="C111">
-        <v>213.25</v>
+        <v>216.4400024414062</v>
       </c>
       <c r="D111">
-        <v>216.6000061035156</v>
+        <v>222.2200012207031</v>
       </c>
       <c r="E111">
-        <v>216.6000061035156</v>
+        <v>222.2200012207031</v>
       </c>
       <c r="F111">
-        <v>24521500</v>
+        <v>18949400</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>212.1399993896484</v>
+        <v>222.7599945068359</v>
       </c>
       <c r="B112">
-        <v>214.1900024414062</v>
+        <v>223.7899932861328</v>
       </c>
       <c r="C112">
-        <v>206.5099945068359</v>
+        <v>220.3699951171875</v>
       </c>
       <c r="D112">
-        <v>206.9900054931641</v>
+        <v>222.8999938964844</v>
       </c>
       <c r="E112">
-        <v>206.9900054931641</v>
+        <v>222.8999938964844</v>
       </c>
       <c r="F112">
-        <v>34306900</v>
+        <v>16147300</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>209.3999938964844</v>
+        <v>223.0500030517578</v>
       </c>
       <c r="B113">
-        <v>210.1699981689453</v>
+        <v>224.3300018310547</v>
       </c>
       <c r="C113">
-        <v>204.6699981689453</v>
+        <v>219.8200073242188</v>
       </c>
       <c r="D113">
-        <v>205.1699981689453</v>
+        <v>221.0299987792969</v>
       </c>
       <c r="E113">
-        <v>205.1699981689453</v>
+        <v>221.0299987792969</v>
       </c>
       <c r="F113">
-        <v>21839400</v>
+        <v>14627600</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>207.6799926757812</v>
+        <v>220.9700012207031</v>
       </c>
       <c r="B114">
-        <v>210.6600036621094</v>
+        <v>227.1100006103516</v>
       </c>
       <c r="C114">
-        <v>206.8800048828125</v>
+        <v>220.8300018310547</v>
       </c>
       <c r="D114">
-        <v>207.1600036621094</v>
+        <v>226.9199981689453</v>
       </c>
       <c r="E114">
-        <v>207.1600036621094</v>
+        <v>226.9199981689453</v>
       </c>
       <c r="F114">
-        <v>22080400</v>
+        <v>18759000</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>207.5</v>
+        <v>228.2299957275391</v>
       </c>
       <c r="B115">
-        <v>208.5899963378906</v>
+        <v>231.3000030517578</v>
       </c>
       <c r="C115">
-        <v>202.0299987792969</v>
+        <v>225.6100006103516</v>
       </c>
       <c r="D115">
-        <v>207.4199981689453</v>
+        <v>227.2599945068359</v>
       </c>
       <c r="E115">
-        <v>207.4199981689453</v>
+        <v>227.2599945068359</v>
       </c>
       <c r="F115">
-        <v>24097800</v>
+        <v>24938400</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>205.0399932861328</v>
+        <v>229.7299957275391</v>
       </c>
       <c r="B116">
-        <v>205.4199981689453</v>
+        <v>233.5500030517578</v>
       </c>
       <c r="C116">
-        <v>195.5500030517578</v>
+        <v>227.6999969482422</v>
       </c>
       <c r="D116">
-        <v>197.3200073242188</v>
+        <v>231.6600036621094</v>
       </c>
       <c r="E116">
-        <v>197.3200073242188</v>
+        <v>231.6600036621094</v>
       </c>
       <c r="F116">
-        <v>34563500</v>
+        <v>23023500</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>199.5</v>
+        <v>239.8899993896484</v>
       </c>
       <c r="B117">
-        <v>206.4799957275391</v>
+        <v>252.5899963378906</v>
       </c>
       <c r="C117">
-        <v>198.5399932861328</v>
+        <v>239.2400054931641</v>
       </c>
       <c r="D117">
-        <v>204.5099945068359</v>
+        <v>247.1699981689453</v>
       </c>
       <c r="E117">
-        <v>204.5099945068359</v>
+        <v>247.1699981689453</v>
       </c>
       <c r="F117">
-        <v>27928200</v>
+        <v>48589800</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>201.1999969482422</v>
+        <v>244.7400054931641</v>
       </c>
       <c r="B118">
-        <v>207.1999969482422</v>
+        <v>250.8999938964844</v>
       </c>
       <c r="C118">
-        <v>200.8000030517578</v>
+        <v>242.8200073242188</v>
       </c>
       <c r="D118">
-        <v>207</v>
+        <v>244.5099945068359</v>
       </c>
       <c r="E118">
-        <v>207</v>
+        <v>244.5099945068359</v>
       </c>
       <c r="F118">
-        <v>29720200</v>
+        <v>24599000</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>210.9199981689453</v>
+        <v>248.7799987792969</v>
       </c>
       <c r="B119">
-        <v>213.2200012207031</v>
+        <v>249.5</v>
       </c>
       <c r="C119">
-        <v>209.7200012207031</v>
+        <v>245.2299957275391</v>
       </c>
       <c r="D119">
-        <v>210.75</v>
+        <v>249.4100036621094</v>
       </c>
       <c r="E119">
-        <v>210.75</v>
+        <v>249.4100036621094</v>
       </c>
       <c r="F119">
-        <v>25691900</v>
+        <v>23420400</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>211.0099945068359</v>
+        <v>250.0099945068359</v>
       </c>
       <c r="B120">
-        <v>212.0599975585938</v>
+        <v>257.0899963378906</v>
       </c>
       <c r="C120">
-        <v>207.75</v>
+        <v>250</v>
       </c>
       <c r="D120">
-        <v>208.3099975585938</v>
+        <v>255.6699981689453</v>
       </c>
       <c r="E120">
-        <v>208.3099975585938</v>
+        <v>255.6699981689453</v>
       </c>
       <c r="F120">
-        <v>15102500</v>
+        <v>29213700</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>205.75</v>
+        <v>256.489990234375</v>
       </c>
       <c r="B121">
-        <v>210.6300048828125</v>
+        <v>258.9400024414062</v>
       </c>
       <c r="C121">
-        <v>205.1100006103516</v>
+        <v>252.2700042724609</v>
       </c>
       <c r="D121">
-        <v>206.9499969482422</v>
+        <v>258.2699890136719</v>
       </c>
       <c r="E121">
-        <v>206.9499969482422</v>
+        <v>258.2699890136719</v>
       </c>
       <c r="F121">
-        <v>16338800</v>
+        <v>26574000</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>208.2799987792969</v>
+        <v>258.2200012207031</v>
       </c>
       <c r="B122">
-        <v>210.5700073242188</v>
+        <v>266.7799987792969</v>
       </c>
       <c r="C122">
-        <v>205.2799987792969</v>
+        <v>258</v>
       </c>
       <c r="D122">
-        <v>206.7100067138672</v>
+        <v>264.010009765625</v>
       </c>
       <c r="E122">
-        <v>206.7100067138672</v>
+        <v>264.010009765625</v>
       </c>
       <c r="F122">
-        <v>16213400</v>
+        <v>29411200</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>209.1799926757812</v>
+        <v>266.7000122070312</v>
       </c>
       <c r="B123">
-        <v>209.8999938964844</v>
+        <v>267.8399963378906</v>
       </c>
       <c r="C123">
-        <v>207.1300048828125</v>
+        <v>262.3500061035156</v>
       </c>
       <c r="D123">
-        <v>209.3899993896484</v>
+        <v>265.9800109863281</v>
       </c>
       <c r="E123">
-        <v>209.3899993896484</v>
+        <v>265.9800109863281</v>
       </c>
       <c r="F123">
-        <v>18065200</v>
+        <v>23991000</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>212.8800048828125</v>
+        <v>272.2900085449219</v>
       </c>
       <c r="B124">
-        <v>217.5500030517578</v>
+        <v>313.6499938964844</v>
       </c>
       <c r="C124">
-        <v>211.2200012207031</v>
+        <v>271.1799926757812</v>
       </c>
       <c r="D124">
-        <v>217.4600067138672</v>
+        <v>298.010009765625</v>
       </c>
       <c r="E124">
-        <v>217.4600067138672</v>
+        <v>298.010009765625</v>
       </c>
       <c r="F124">
-        <v>24358900</v>
+        <v>115363100</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>218.1000061035156</v>
+        <v>301.8699951171875</v>
       </c>
       <c r="B125">
-        <v>219.3099975585938</v>
+        <v>314</v>
       </c>
       <c r="C125">
-        <v>216.6199951171875</v>
+        <v>294.1000061035156</v>
       </c>
       <c r="D125">
-        <v>218.6199951171875</v>
+        <v>297.5199890136719</v>
       </c>
       <c r="E125">
-        <v>218.6199951171875</v>
+        <v>297.5199890136719</v>
       </c>
       <c r="F125">
-        <v>22679500</v>
+        <v>85072800</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>217.4900054931641</v>
+        <v>301.489990234375</v>
       </c>
       <c r="B126">
-        <v>222.9100036621094</v>
+        <v>311</v>
       </c>
       <c r="C126">
-        <v>216.4400024414062</v>
+        <v>299.0700073242188</v>
       </c>
       <c r="D126">
-        <v>222.2200012207031</v>
+        <v>308.0400085449219</v>
       </c>
       <c r="E126">
-        <v>222.2200012207031</v>
+        <v>308.0400085449219</v>
       </c>
       <c r="F126">
-        <v>18949400</v>
+        <v>50310100</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>222.7599945068359</v>
+        <v>322.8200073242188</v>
       </c>
       <c r="B127">
-        <v>223.7899932861328</v>
+        <v>323.1000061035156</v>
       </c>
       <c r="C127">
-        <v>220.3699951171875</v>
+        <v>299.6400146484375</v>
       </c>
       <c r="D127">
-        <v>222.8999938964844</v>
+        <v>306.5700073242188</v>
       </c>
       <c r="E127">
-        <v>222.8999938964844</v>
+        <v>306.5700073242188</v>
       </c>
       <c r="F127">
-        <v>16147300</v>
+        <v>64674600</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>223.0500030517578</v>
+        <v>293.5599975585938</v>
       </c>
       <c r="B128">
-        <v>224.3300018310547</v>
+        <v>308.5</v>
       </c>
       <c r="C128">
-        <v>219.8200073242188</v>
+        <v>287.7799987792969</v>
       </c>
       <c r="D128">
-        <v>221.0299987792969</v>
+        <v>294.5899963378906</v>
       </c>
       <c r="E128">
-        <v>221.0299987792969</v>
+        <v>294.5899963378906</v>
       </c>
       <c r="F128">
-        <v>14627600</v>
+        <v>63620600</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>220.9700012207031</v>
+        <v>304.6799926757812</v>
       </c>
       <c r="B129">
-        <v>227.1100006103516</v>
+        <v>305.8999938964844</v>
       </c>
       <c r="C129">
-        <v>220.8300018310547</v>
+        <v>297.7699890136719</v>
       </c>
       <c r="D129">
-        <v>226.9199981689453</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="E129">
-        <v>226.9199981689453</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="F129">
-        <v>18715800</v>
+        <v>33217200</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>300.1000061035156</v>
+      </c>
+      <c r="B130">
+        <v>306.7999877929688</v>
+      </c>
+      <c r="C130">
+        <v>296.2999877929688</v>
+      </c>
+      <c r="D130">
+        <v>303.8999938964844</v>
+      </c>
+      <c r="E130">
+        <v>303.8999938964844</v>
+      </c>
+      <c r="F130">
+        <v>41215100</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/NVDA/HighLow.xlsx
+++ b/Stocks/NVDA/HighLow.xlsx
@@ -417,2582 +417,2582 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>140.3374938964844</v>
+        <v>143.0249938964844</v>
       </c>
       <c r="B2">
-        <v>140.8074951171875</v>
+        <v>146.8374938964844</v>
       </c>
       <c r="C2">
-        <v>134.5899963378906</v>
+        <v>142.7050018310547</v>
       </c>
       <c r="D2">
-        <v>136.6524963378906</v>
+        <v>146.125</v>
       </c>
       <c r="E2">
-        <v>136.5970916748047</v>
+        <v>146.0657653808594</v>
       </c>
       <c r="F2">
-        <v>28540400</v>
+        <v>32159200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>138.8999938964844</v>
+        <v>151.6374969482422</v>
       </c>
       <c r="B3">
-        <v>143.2799987792969</v>
+        <v>152.2200012207031</v>
       </c>
       <c r="C3">
-        <v>137.4850006103516</v>
+        <v>148.6950073242188</v>
       </c>
       <c r="D3">
-        <v>142.4299926757812</v>
+        <v>149.9174957275391</v>
       </c>
       <c r="E3">
-        <v>142.3722534179688</v>
+        <v>149.8567199707031</v>
       </c>
       <c r="F3">
-        <v>25861600</v>
+        <v>67299200</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>141.5700073242188</v>
+        <v>152.125</v>
       </c>
       <c r="B4">
-        <v>141.6925048828125</v>
+        <v>157.4499969482422</v>
       </c>
       <c r="C4">
-        <v>138.5350036621094</v>
+        <v>151.7599945068359</v>
       </c>
       <c r="D4">
-        <v>141.6549987792969</v>
+        <v>156.1199951171875</v>
       </c>
       <c r="E4">
-        <v>141.5975799560547</v>
+        <v>156.0567016601562</v>
       </c>
       <c r="F4">
-        <v>21698000</v>
+        <v>55481600</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>142.6699981689453</v>
+        <v>157.6600036621094</v>
       </c>
       <c r="B5">
-        <v>144.0424957275391</v>
+        <v>158.1849975585938</v>
       </c>
       <c r="C5">
-        <v>140.0399932861328</v>
+        <v>154.8249969482422</v>
       </c>
       <c r="D5">
-        <v>140.1575012207031</v>
+        <v>156.4774932861328</v>
       </c>
       <c r="E5">
-        <v>140.1006774902344</v>
+        <v>156.4140472412109</v>
       </c>
       <c r="F5">
-        <v>18625600</v>
+        <v>43540800</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>135.6649932861328</v>
+        <v>157.3424987792969</v>
       </c>
       <c r="B6">
-        <v>140.7949981689453</v>
+        <v>157.9375</v>
       </c>
       <c r="C6">
-        <v>135.4324951171875</v>
+        <v>155.8625030517578</v>
       </c>
       <c r="D6">
-        <v>140.6575012207031</v>
+        <v>157</v>
       </c>
       <c r="E6">
-        <v>140.6004791259766</v>
+        <v>156.9363555908203</v>
       </c>
       <c r="F6">
-        <v>34400000</v>
+        <v>37044000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>143.0249938964844</v>
+        <v>156.9974975585938</v>
       </c>
       <c r="B7">
-        <v>146.8374938964844</v>
+        <v>157.5</v>
       </c>
       <c r="C7">
-        <v>142.7050018310547</v>
+        <v>154.6000061035156</v>
       </c>
       <c r="D7">
-        <v>146.125</v>
+        <v>154.8800048828125</v>
       </c>
       <c r="E7">
-        <v>146.0657653808594</v>
+        <v>154.8172149658203</v>
       </c>
       <c r="F7">
-        <v>32159200</v>
+        <v>58147600</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>151.6374969482422</v>
+        <v>155.0099945068359</v>
       </c>
       <c r="B8">
-        <v>152.2200012207031</v>
+        <v>162.7749938964844</v>
       </c>
       <c r="C8">
-        <v>148.6950073242188</v>
+        <v>155.0099945068359</v>
       </c>
       <c r="D8">
-        <v>149.9174957275391</v>
+        <v>162.4450073242188</v>
       </c>
       <c r="E8">
-        <v>149.8567199707031</v>
+        <v>162.379150390625</v>
       </c>
       <c r="F8">
-        <v>67299200</v>
+        <v>64453600</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>152.125</v>
+        <v>162.6999969482422</v>
       </c>
       <c r="B9">
-        <v>157.4499969482422</v>
+        <v>163.8825073242188</v>
       </c>
       <c r="C9">
-        <v>151.7599945068359</v>
+        <v>159.0325012207031</v>
       </c>
       <c r="D9">
-        <v>156.1199951171875</v>
+        <v>162.6450042724609</v>
       </c>
       <c r="E9">
-        <v>156.0567016601562</v>
+        <v>162.5790710449219</v>
       </c>
       <c r="F9">
-        <v>55481600</v>
+        <v>47280400</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>157.6600036621094</v>
+        <v>162.5225067138672</v>
       </c>
       <c r="B10">
-        <v>158.1849975585938</v>
+        <v>169.1875</v>
       </c>
       <c r="C10">
-        <v>154.8249969482422</v>
+        <v>162.3549957275391</v>
       </c>
       <c r="D10">
-        <v>156.4774932861328</v>
+        <v>167.7825012207031</v>
       </c>
       <c r="E10">
-        <v>156.4140472412109</v>
+        <v>167.7144927978516</v>
       </c>
       <c r="F10">
-        <v>43540800</v>
+        <v>59416800</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>157.3424987792969</v>
+        <v>167.0075073242188</v>
       </c>
       <c r="B11">
-        <v>157.9375</v>
+        <v>172.5899963378906</v>
       </c>
       <c r="C11">
-        <v>155.8625030517578</v>
+        <v>165.8300018310547</v>
       </c>
       <c r="D11">
-        <v>157</v>
+        <v>169.6974945068359</v>
       </c>
       <c r="E11">
-        <v>156.9363555908203</v>
+        <v>169.6287078857422</v>
       </c>
       <c r="F11">
-        <v>37044000</v>
+        <v>58000800</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>156.9974975585938</v>
+        <v>171.125</v>
       </c>
       <c r="B12">
-        <v>157.5</v>
+        <v>176.6100006103516</v>
       </c>
       <c r="C12">
-        <v>154.6000061035156</v>
+        <v>170.9550018310547</v>
       </c>
       <c r="D12">
-        <v>154.8800048828125</v>
+        <v>175.7825012207031</v>
       </c>
       <c r="E12">
-        <v>154.8172149658203</v>
+        <v>175.7112426757812</v>
       </c>
       <c r="F12">
-        <v>58147600</v>
+        <v>61712000</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>155.0099945068359</v>
+        <v>175.7124938964844</v>
       </c>
       <c r="B13">
-        <v>162.7749938964844</v>
+        <v>178.125</v>
       </c>
       <c r="C13">
-        <v>155.0099945068359</v>
+        <v>171.9275054931641</v>
       </c>
       <c r="D13">
-        <v>162.4450073242188</v>
+        <v>176.1900024414062</v>
       </c>
       <c r="E13">
-        <v>162.379150390625</v>
+        <v>176.1185760498047</v>
       </c>
       <c r="F13">
-        <v>64453600</v>
+        <v>57575600</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>162.6999969482422</v>
+        <v>175.2725067138672</v>
       </c>
       <c r="B14">
-        <v>163.8825073242188</v>
+        <v>176.2149963378906</v>
       </c>
       <c r="C14">
-        <v>159.0325012207031</v>
+        <v>172.5099945068359</v>
       </c>
       <c r="D14">
-        <v>162.6450042724609</v>
+        <v>174.5700073242188</v>
       </c>
       <c r="E14">
-        <v>162.5790710449219</v>
+        <v>174.4992370605469</v>
       </c>
       <c r="F14">
-        <v>47280400</v>
+        <v>32384800</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>162.5225067138672</v>
+        <v>175.1575012207031</v>
       </c>
       <c r="B15">
-        <v>169.1875</v>
+        <v>175.75</v>
       </c>
       <c r="C15">
-        <v>162.3549957275391</v>
+        <v>172.5574951171875</v>
       </c>
       <c r="D15">
-        <v>167.7825012207031</v>
+        <v>173.5825042724609</v>
       </c>
       <c r="E15">
-        <v>167.7144927978516</v>
+        <v>173.5518951416016</v>
       </c>
       <c r="F15">
-        <v>59416800</v>
+        <v>38165600</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>167.0075073242188</v>
+        <v>173.5</v>
       </c>
       <c r="B16">
-        <v>172.5899963378906</v>
+        <v>174.9199981689453</v>
       </c>
       <c r="C16">
-        <v>165.8300018310547</v>
+        <v>171.7599945068359</v>
       </c>
       <c r="D16">
-        <v>169.6974945068359</v>
+        <v>174.25</v>
       </c>
       <c r="E16">
-        <v>169.6287078857422</v>
+        <v>174.2192840576172</v>
       </c>
       <c r="F16">
-        <v>58000800</v>
+        <v>28777200</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>171.125</v>
+        <v>174.7949981689453</v>
       </c>
       <c r="B17">
-        <v>176.6100006103516</v>
+        <v>179.3925018310547</v>
       </c>
       <c r="C17">
-        <v>170.9550018310547</v>
+        <v>174.4375</v>
       </c>
       <c r="D17">
-        <v>175.7825012207031</v>
+        <v>178.2525024414062</v>
       </c>
       <c r="E17">
-        <v>175.7112426757812</v>
+        <v>178.2210693359375</v>
       </c>
       <c r="F17">
-        <v>61712000</v>
+        <v>41630800</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>175.7124938964844</v>
+        <v>179.0599975585938</v>
       </c>
       <c r="B18">
-        <v>178.125</v>
+        <v>180.3950042724609</v>
       </c>
       <c r="C18">
-        <v>171.9275054931641</v>
+        <v>176.6275024414062</v>
       </c>
       <c r="D18">
-        <v>176.1900024414062</v>
+        <v>180.1875</v>
       </c>
       <c r="E18">
-        <v>176.1185760498047</v>
+        <v>180.1557312011719</v>
       </c>
       <c r="F18">
-        <v>57575600</v>
+        <v>32137600</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>175.2725067138672</v>
+        <v>179.1499938964844</v>
       </c>
       <c r="B19">
-        <v>176.2149963378906</v>
+        <v>180.1625061035156</v>
       </c>
       <c r="C19">
-        <v>172.5099945068359</v>
+        <v>177.2799987792969</v>
       </c>
       <c r="D19">
-        <v>174.5700073242188</v>
+        <v>177.8849945068359</v>
       </c>
       <c r="E19">
-        <v>174.4992370605469</v>
+        <v>177.8536376953125</v>
       </c>
       <c r="F19">
-        <v>32384800</v>
+        <v>24303200</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>175.1575012207031</v>
+        <v>177.9075012207031</v>
       </c>
       <c r="B20">
-        <v>175.75</v>
+        <v>179.5475006103516</v>
       </c>
       <c r="C20">
-        <v>172.5574951171875</v>
+        <v>175.8450012207031</v>
       </c>
       <c r="D20">
-        <v>173.5825042724609</v>
+        <v>178.1024932861328</v>
       </c>
       <c r="E20">
-        <v>173.5518951416016</v>
+        <v>178.0710906982422</v>
       </c>
       <c r="F20">
-        <v>38165600</v>
+        <v>30712400</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>173.5</v>
+        <v>177.7449951171875</v>
       </c>
       <c r="B21">
-        <v>174.9199981689453</v>
+        <v>188.3500061035156</v>
       </c>
       <c r="C21">
-        <v>171.7599945068359</v>
+        <v>177.5625</v>
       </c>
       <c r="D21">
-        <v>174.25</v>
+        <v>186.5724945068359</v>
       </c>
       <c r="E21">
-        <v>174.2192840576172</v>
+        <v>186.5395965576172</v>
       </c>
       <c r="F21">
-        <v>28777200</v>
+        <v>80965600</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>174.7949981689453</v>
+        <v>187.8399963378906</v>
       </c>
       <c r="B22">
-        <v>179.3925018310547</v>
+        <v>193.75</v>
       </c>
       <c r="C22">
-        <v>174.4375</v>
+        <v>185.8399963378906</v>
       </c>
       <c r="D22">
-        <v>178.2525024414062</v>
+        <v>186.3874969482422</v>
       </c>
       <c r="E22">
-        <v>178.2210693359375</v>
+        <v>186.3546295166016</v>
       </c>
       <c r="F22">
-        <v>41630800</v>
+        <v>96885600</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>179.0599975585938</v>
+        <v>184.3524932861328</v>
       </c>
       <c r="B23">
-        <v>180.3950042724609</v>
+        <v>185.3650054931641</v>
       </c>
       <c r="C23">
-        <v>176.6275024414062</v>
+        <v>178.2274932861328</v>
       </c>
       <c r="D23">
-        <v>180.1875</v>
+        <v>184.2725067138672</v>
       </c>
       <c r="E23">
-        <v>180.1557312011719</v>
+        <v>184.2400207519531</v>
       </c>
       <c r="F23">
-        <v>32137600</v>
+        <v>67238400</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>179.1499938964844</v>
+        <v>184.7149963378906</v>
       </c>
       <c r="B24">
-        <v>180.1625061035156</v>
+        <v>189.6374969482422</v>
       </c>
       <c r="C24">
-        <v>177.2799987792969</v>
+        <v>183.8600006103516</v>
       </c>
       <c r="D24">
-        <v>177.8849945068359</v>
+        <v>188.8674926757812</v>
       </c>
       <c r="E24">
-        <v>177.8536376953125</v>
+        <v>188.8341979980469</v>
       </c>
       <c r="F24">
-        <v>24303200</v>
+        <v>58014400</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>177.9075012207031</v>
+        <v>190.0774993896484</v>
       </c>
       <c r="B25">
-        <v>179.5475006103516</v>
+        <v>191.5274963378906</v>
       </c>
       <c r="C25">
-        <v>175.8450012207031</v>
+        <v>189.0774993896484</v>
       </c>
       <c r="D25">
-        <v>178.1024932861328</v>
+        <v>190.5724945068359</v>
       </c>
       <c r="E25">
-        <v>178.0710906982422</v>
+        <v>190.5388946533203</v>
       </c>
       <c r="F25">
-        <v>30712400</v>
+        <v>33235600</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>177.7449951171875</v>
+        <v>192.2774963378906</v>
       </c>
       <c r="B26">
-        <v>188.3500061035156</v>
+        <v>194.1999969482422</v>
       </c>
       <c r="C26">
-        <v>177.5625</v>
+        <v>190.8825073242188</v>
       </c>
       <c r="D26">
-        <v>186.5724945068359</v>
+        <v>192.0549926757812</v>
       </c>
       <c r="E26">
-        <v>186.5395965576172</v>
+        <v>192.0211334228516</v>
       </c>
       <c r="F26">
-        <v>80965600</v>
+        <v>32092400</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>187.8399963378906</v>
+        <v>192.8049926757812</v>
       </c>
       <c r="B27">
-        <v>193.75</v>
+        <v>193.4550018310547</v>
       </c>
       <c r="C27">
-        <v>185.8399963378906</v>
+        <v>188.9450073242188</v>
       </c>
       <c r="D27">
-        <v>186.3874969482422</v>
+        <v>190.3099975585938</v>
       </c>
       <c r="E27">
-        <v>186.3546295166016</v>
+        <v>190.2764434814453</v>
       </c>
       <c r="F27">
-        <v>96885600</v>
+        <v>27836400</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>184.3524932861328</v>
+        <v>193.6125030517578</v>
       </c>
       <c r="B28">
-        <v>185.3650054931641</v>
+        <v>200.7875061035156</v>
       </c>
       <c r="C28">
-        <v>178.2274932861328</v>
+        <v>193.1900024414062</v>
       </c>
       <c r="D28">
-        <v>184.2725067138672</v>
+        <v>199.8500061035156</v>
       </c>
       <c r="E28">
-        <v>184.2400207519531</v>
+        <v>199.8147735595703</v>
       </c>
       <c r="F28">
-        <v>67238400</v>
+        <v>49543600</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>184.7149963378906</v>
+        <v>198.8249969482422</v>
       </c>
       <c r="B29">
-        <v>189.6374969482422</v>
+        <v>200.9875030517578</v>
       </c>
       <c r="C29">
-        <v>183.8600006103516</v>
+        <v>196.5700073242188</v>
       </c>
       <c r="D29">
-        <v>188.8674926757812</v>
+        <v>200.2675018310547</v>
       </c>
       <c r="E29">
-        <v>188.8341979980469</v>
+        <v>200.2321929931641</v>
       </c>
       <c r="F29">
-        <v>58014400</v>
+        <v>36763200</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>190.0774993896484</v>
+        <v>199.9924926757812</v>
       </c>
       <c r="B30">
-        <v>191.5274963378906</v>
+        <v>201.625</v>
       </c>
       <c r="C30">
-        <v>189.0774993896484</v>
+        <v>198.6374969482422</v>
       </c>
       <c r="D30">
-        <v>190.5724945068359</v>
+        <v>200.0249938964844</v>
       </c>
       <c r="E30">
-        <v>190.5388946533203</v>
+        <v>199.9897308349609</v>
       </c>
       <c r="F30">
-        <v>33235600</v>
+        <v>32656800</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>192.2774963378906</v>
+        <v>201.25</v>
       </c>
       <c r="B31">
-        <v>194.1999969482422</v>
+        <v>204.5599975585938</v>
       </c>
       <c r="C31">
-        <v>190.8825073242188</v>
+        <v>200.1900024414062</v>
       </c>
       <c r="D31">
-        <v>192.0549926757812</v>
+        <v>202.1199951171875</v>
       </c>
       <c r="E31">
-        <v>192.0211334228516</v>
+        <v>202.0843658447266</v>
       </c>
       <c r="F31">
-        <v>32092400</v>
+        <v>48013600</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>192.8049926757812</v>
+        <v>204.4024963378906</v>
       </c>
       <c r="B32">
-        <v>193.4550018310547</v>
+        <v>205.0525054931641</v>
       </c>
       <c r="C32">
-        <v>188.9450073242188</v>
+        <v>202.8775024414062</v>
       </c>
       <c r="D32">
-        <v>190.3099975585938</v>
+        <v>204.8699951171875</v>
       </c>
       <c r="E32">
-        <v>190.2764434814453</v>
+        <v>204.8338775634766</v>
       </c>
       <c r="F32">
-        <v>27836400</v>
+        <v>34276400</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>193.6125030517578</v>
+        <v>207.375</v>
       </c>
       <c r="B33">
-        <v>200.7875061035156</v>
+        <v>208.4199981689453</v>
       </c>
       <c r="C33">
-        <v>193.1900024414062</v>
+        <v>203.5025024414062</v>
       </c>
       <c r="D33">
-        <v>199.8500061035156</v>
+        <v>206.9850006103516</v>
       </c>
       <c r="E33">
-        <v>199.8147735595703</v>
+        <v>206.9485015869141</v>
       </c>
       <c r="F33">
-        <v>49543600</v>
+        <v>44670800</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>198.8249969482422</v>
+        <v>208.5350036621094</v>
       </c>
       <c r="B34">
-        <v>200.9875030517578</v>
+        <v>208.75</v>
       </c>
       <c r="C34">
-        <v>196.5700073242188</v>
+        <v>203.3200073242188</v>
       </c>
       <c r="D34">
-        <v>200.2675018310547</v>
+        <v>203.7174987792969</v>
       </c>
       <c r="E34">
-        <v>200.2321929931641</v>
+        <v>203.6815795898438</v>
       </c>
       <c r="F34">
-        <v>36763200</v>
+        <v>41842800</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>199.9924926757812</v>
+        <v>198.5650024414062</v>
       </c>
       <c r="B35">
-        <v>201.625</v>
+        <v>201.3300018310547</v>
       </c>
       <c r="C35">
-        <v>198.6374969482422</v>
+        <v>197.0075073242188</v>
       </c>
       <c r="D35">
-        <v>200.0249938964844</v>
+        <v>199.0274963378906</v>
       </c>
       <c r="E35">
-        <v>199.9897308349609</v>
+        <v>198.9924011230469</v>
       </c>
       <c r="F35">
-        <v>32656800</v>
+        <v>50330000</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>201.25</v>
+        <v>199.625</v>
       </c>
       <c r="B36">
-        <v>204.5599975585938</v>
+        <v>200.8025054931641</v>
       </c>
       <c r="C36">
-        <v>200.1900024414062</v>
+        <v>197.5424957275391</v>
       </c>
       <c r="D36">
-        <v>202.1199951171875</v>
+        <v>200.5025024414062</v>
       </c>
       <c r="E36">
-        <v>202.0843658447266</v>
+        <v>200.4671478271484</v>
       </c>
       <c r="F36">
-        <v>48013600</v>
+        <v>29662400</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>204.4024963378906</v>
+        <v>202.3999938964844</v>
       </c>
       <c r="B37">
-        <v>205.0525054931641</v>
+        <v>205.3274993896484</v>
       </c>
       <c r="C37">
-        <v>202.8775024414062</v>
+        <v>201.8775024414062</v>
       </c>
       <c r="D37">
-        <v>204.8699951171875</v>
+        <v>205.125</v>
       </c>
       <c r="E37">
-        <v>204.8338775634766</v>
+        <v>205.0888366699219</v>
       </c>
       <c r="F37">
-        <v>34276400</v>
+        <v>32198400</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>207.375</v>
+        <v>204.0050048828125</v>
       </c>
       <c r="B38">
-        <v>208.4199981689453</v>
+        <v>204.6125030517578</v>
       </c>
       <c r="C38">
-        <v>203.5025024414062</v>
+        <v>201.1399993896484</v>
       </c>
       <c r="D38">
-        <v>206.9850006103516</v>
+        <v>202.5</v>
       </c>
       <c r="E38">
-        <v>206.9485015869141</v>
+        <v>202.4642944335938</v>
       </c>
       <c r="F38">
-        <v>44670800</v>
+        <v>29070800</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>208.5350036621094</v>
+        <v>203.5774993896484</v>
       </c>
       <c r="B39">
-        <v>208.75</v>
+        <v>204.1775054931641</v>
       </c>
       <c r="C39">
-        <v>203.3200073242188</v>
+        <v>197.5274963378906</v>
       </c>
       <c r="D39">
-        <v>203.7174987792969</v>
+        <v>198.4149932861328</v>
       </c>
       <c r="E39">
-        <v>203.6815795898438</v>
+        <v>198.3800048828125</v>
       </c>
       <c r="F39">
-        <v>41842800</v>
+        <v>38010000</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>198.5650024414062</v>
+        <v>198.1174926757812</v>
       </c>
       <c r="B40">
-        <v>201.3300018310547</v>
+        <v>198.4700012207031</v>
       </c>
       <c r="C40">
-        <v>197.0075073242188</v>
+        <v>188.5850067138672</v>
       </c>
       <c r="D40">
-        <v>199.0274963378906</v>
+        <v>189.6625061035156</v>
       </c>
       <c r="E40">
-        <v>198.9924011230469</v>
+        <v>189.6290740966797</v>
       </c>
       <c r="F40">
-        <v>50330000</v>
+        <v>55056400</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>199.625</v>
+        <v>190.3049926757812</v>
       </c>
       <c r="B41">
-        <v>200.8025054931641</v>
+        <v>191.5700073242188</v>
       </c>
       <c r="C41">
-        <v>197.5424957275391</v>
+        <v>180.7299957275391</v>
       </c>
       <c r="D41">
-        <v>200.5025024414062</v>
+        <v>181.6100006103516</v>
       </c>
       <c r="E41">
-        <v>200.4671478271484</v>
+        <v>181.5779876708984</v>
       </c>
       <c r="F41">
-        <v>29662400</v>
+        <v>68822400</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>202.3999938964844</v>
+        <v>179.1524963378906</v>
       </c>
       <c r="B42">
-        <v>205.3274993896484</v>
+        <v>190.4199981689453</v>
       </c>
       <c r="C42">
-        <v>201.8775024414062</v>
+        <v>178.6549987792969</v>
       </c>
       <c r="D42">
-        <v>205.125</v>
+        <v>187.7975006103516</v>
       </c>
       <c r="E42">
-        <v>205.0888366699219</v>
+        <v>187.7643890380859</v>
       </c>
       <c r="F42">
-        <v>32198400</v>
+        <v>74906000</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>204.0050048828125</v>
+        <v>187.3000030517578</v>
       </c>
       <c r="B43">
-        <v>204.6125030517578</v>
+        <v>188.3800048828125</v>
       </c>
       <c r="C43">
-        <v>201.1399993896484</v>
+        <v>181.6399993896484</v>
       </c>
       <c r="D43">
-        <v>202.5</v>
+        <v>186.1199951171875</v>
       </c>
       <c r="E43">
-        <v>202.4642944335938</v>
+        <v>186.0871734619141</v>
       </c>
       <c r="F43">
-        <v>29070800</v>
+        <v>43468700</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>203.5774993896484</v>
+        <v>188.8200073242188</v>
       </c>
       <c r="B44">
-        <v>204.1775054931641</v>
+        <v>195.2700042724609</v>
       </c>
       <c r="C44">
-        <v>197.5274963378906</v>
+        <v>187.4199981689453</v>
       </c>
       <c r="D44">
-        <v>198.4149932861328</v>
+        <v>194.1000061035156</v>
       </c>
       <c r="E44">
-        <v>198.3800048828125</v>
+        <v>194.0657806396484</v>
       </c>
       <c r="F44">
-        <v>38010000</v>
+        <v>37101700</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>198.1174926757812</v>
+        <v>196.4199981689453</v>
       </c>
       <c r="B45">
-        <v>198.4700012207031</v>
+        <v>198.8699951171875</v>
       </c>
       <c r="C45">
-        <v>188.5850067138672</v>
+        <v>192.7599945068359</v>
       </c>
       <c r="D45">
-        <v>189.6625061035156</v>
+        <v>195.9400024414062</v>
       </c>
       <c r="E45">
-        <v>189.6290740966797</v>
+        <v>195.9054565429688</v>
       </c>
       <c r="F45">
-        <v>55056400</v>
+        <v>32382600</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>190.3049926757812</v>
+        <v>196.5599975585938</v>
       </c>
       <c r="B46">
-        <v>191.5700073242188</v>
+        <v>197</v>
       </c>
       <c r="C46">
-        <v>180.7299957275391</v>
+        <v>192.5</v>
       </c>
       <c r="D46">
-        <v>181.6100006103516</v>
+        <v>195.5800018310547</v>
       </c>
       <c r="E46">
-        <v>181.5779876708984</v>
+        <v>195.5455169677734</v>
       </c>
       <c r="F46">
-        <v>68822400</v>
+        <v>19567200</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>179.1524963378906</v>
+        <v>193.1100006103516</v>
       </c>
       <c r="B47">
-        <v>190.4199981689453</v>
+        <v>194.4199981689453</v>
       </c>
       <c r="C47">
-        <v>178.6549987792969</v>
+        <v>189.1399993896484</v>
       </c>
       <c r="D47">
-        <v>187.7975006103516</v>
+        <v>192.9400024414062</v>
       </c>
       <c r="E47">
-        <v>187.7643890380859</v>
+        <v>192.9059906005859</v>
       </c>
       <c r="F47">
-        <v>74906000</v>
+        <v>20394300</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>187.3000030517578</v>
+        <v>192.6499938964844</v>
       </c>
       <c r="B48">
-        <v>188.3800048828125</v>
+        <v>196.2200012207031</v>
       </c>
       <c r="C48">
-        <v>181.6399993896484</v>
+        <v>187.4100036621094</v>
       </c>
       <c r="D48">
-        <v>186.1199951171875</v>
+        <v>192.0800018310547</v>
       </c>
       <c r="E48">
-        <v>186.0871734619141</v>
+        <v>192.046142578125</v>
       </c>
       <c r="F48">
-        <v>43468700</v>
+        <v>24886300</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>188.8200073242188</v>
+        <v>193.1900024414062</v>
       </c>
       <c r="B49">
-        <v>195.2700042724609</v>
+        <v>196.4600067138672</v>
       </c>
       <c r="C49">
-        <v>187.4199981689453</v>
+        <v>189.9499969482422</v>
       </c>
       <c r="D49">
-        <v>194.1000061035156</v>
+        <v>195.0299987792969</v>
       </c>
       <c r="E49">
-        <v>194.0657806396484</v>
+        <v>194.99560546875</v>
       </c>
       <c r="F49">
-        <v>37101700</v>
+        <v>20219100</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>196.4199981689453</v>
+        <v>195.1900024414062</v>
       </c>
       <c r="B50">
-        <v>198.8699951171875</v>
+        <v>198.5299987792969</v>
       </c>
       <c r="C50">
-        <v>192.7599945068359</v>
+        <v>193.2799987792969</v>
       </c>
       <c r="D50">
-        <v>195.9400024414062</v>
+        <v>196.6199951171875</v>
       </c>
       <c r="E50">
-        <v>195.9054565429688</v>
+        <v>196.5853271484375</v>
       </c>
       <c r="F50">
-        <v>32382600</v>
+        <v>19078100</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>196.5599975585938</v>
+        <v>194.1799926757812</v>
       </c>
       <c r="B51">
-        <v>197</v>
+        <v>196.3000030517578</v>
       </c>
       <c r="C51">
-        <v>192.5</v>
+        <v>192.6300048828125</v>
       </c>
       <c r="D51">
-        <v>195.5800018310547</v>
+        <v>194.9900054931641</v>
       </c>
       <c r="E51">
-        <v>195.5455169677734</v>
+        <v>194.9556274414062</v>
       </c>
       <c r="F51">
-        <v>19567200</v>
+        <v>18322900</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>193.1100006103516</v>
+        <v>197</v>
       </c>
       <c r="B52">
-        <v>194.4199981689453</v>
+        <v>199.6100006103516</v>
       </c>
       <c r="C52">
-        <v>189.1399993896484</v>
+        <v>193.6100006103516</v>
       </c>
       <c r="D52">
-        <v>192.9400024414062</v>
+        <v>197.5</v>
       </c>
       <c r="E52">
-        <v>192.9059906005859</v>
+        <v>197.4651794433594</v>
       </c>
       <c r="F52">
-        <v>20394300</v>
+        <v>21744400</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>192.6499938964844</v>
+        <v>197.3999938964844</v>
       </c>
       <c r="B53">
-        <v>196.2200012207031</v>
+        <v>202.2200012207031</v>
       </c>
       <c r="C53">
-        <v>187.4100036621094</v>
+        <v>192.1999969482422</v>
       </c>
       <c r="D53">
-        <v>192.0800018310547</v>
+        <v>198.1499938964844</v>
       </c>
       <c r="E53">
-        <v>192.046142578125</v>
+        <v>198.1150512695312</v>
       </c>
       <c r="F53">
-        <v>24886300</v>
+        <v>30181100</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>193.1900024414062</v>
+        <v>199.8999938964844</v>
       </c>
       <c r="B54">
-        <v>196.4600067138672</v>
+        <v>203.1799926757812</v>
       </c>
       <c r="C54">
-        <v>189.9499969482422</v>
+        <v>198.2799987792969</v>
       </c>
       <c r="D54">
-        <v>195.0299987792969</v>
+        <v>202.7400054931641</v>
       </c>
       <c r="E54">
-        <v>194.99560546875</v>
+        <v>202.7042541503906</v>
       </c>
       <c r="F54">
-        <v>20219100</v>
+        <v>23130900</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>195.1900024414062</v>
+        <v>205</v>
       </c>
       <c r="B55">
-        <v>198.5299987792969</v>
+        <v>207.3300018310547</v>
       </c>
       <c r="C55">
-        <v>193.2799987792969</v>
+        <v>203.4199981689453</v>
       </c>
       <c r="D55">
-        <v>196.6199951171875</v>
+        <v>206.3699951171875</v>
       </c>
       <c r="E55">
-        <v>196.5853271484375</v>
+        <v>206.3336029052734</v>
       </c>
       <c r="F55">
-        <v>19078100</v>
+        <v>21143500</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>194.1799926757812</v>
+        <v>205.2400054931641</v>
       </c>
       <c r="B56">
-        <v>196.3000030517578</v>
+        <v>205.6999969482422</v>
       </c>
       <c r="C56">
-        <v>192.6300048828125</v>
+        <v>202.1000061035156</v>
       </c>
       <c r="D56">
-        <v>194.9900054931641</v>
+        <v>203.6600036621094</v>
       </c>
       <c r="E56">
-        <v>194.9556274414062</v>
+        <v>203.6240997314453</v>
       </c>
       <c r="F56">
-        <v>18322900</v>
+        <v>17825500</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>197</v>
+        <v>204.4600067138672</v>
       </c>
       <c r="B57">
-        <v>199.6100006103516</v>
+        <v>205.0800018310547</v>
       </c>
       <c r="C57">
-        <v>193.6100006103516</v>
+        <v>201.4299926757812</v>
       </c>
       <c r="D57">
-        <v>197.5</v>
+        <v>202.9499969482422</v>
       </c>
       <c r="E57">
-        <v>197.4651794433594</v>
+        <v>202.9142150878906</v>
       </c>
       <c r="F57">
-        <v>21744400</v>
+        <v>14644300</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>197.3999938964844</v>
+        <v>203.2200012207031</v>
       </c>
       <c r="B58">
-        <v>202.2200012207031</v>
+        <v>204.3000030517578</v>
       </c>
       <c r="C58">
-        <v>192.1999969482422</v>
+        <v>198.3500061035156</v>
       </c>
       <c r="D58">
-        <v>198.1499938964844</v>
+        <v>199.3600006103516</v>
       </c>
       <c r="E58">
-        <v>198.1150512695312</v>
+        <v>199.3248443603516</v>
       </c>
       <c r="F58">
-        <v>30181100</v>
+        <v>17923800</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>199.8999938964844</v>
+        <v>200.4299926757812</v>
       </c>
       <c r="B59">
-        <v>203.1799926757812</v>
+        <v>200.4900054931641</v>
       </c>
       <c r="C59">
-        <v>198.2799987792969</v>
+        <v>194.3000030517578</v>
       </c>
       <c r="D59">
-        <v>202.7400054931641</v>
+        <v>196.9900054931641</v>
       </c>
       <c r="E59">
-        <v>202.7042541503906</v>
+        <v>196.9552764892578</v>
       </c>
       <c r="F59">
-        <v>23130900</v>
+        <v>18592500</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>205</v>
+        <v>198.6999969482422</v>
       </c>
       <c r="B60">
-        <v>207.3300018310547</v>
+        <v>200.2899932861328</v>
       </c>
       <c r="C60">
-        <v>203.4199981689453</v>
+        <v>196.1999969482422</v>
       </c>
       <c r="D60">
-        <v>206.3699951171875</v>
+        <v>199.0500030517578</v>
       </c>
       <c r="E60">
-        <v>206.3336029052734</v>
+        <v>199.0149078369141</v>
       </c>
       <c r="F60">
-        <v>21143500</v>
+        <v>15165200</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>205.2400054931641</v>
+        <v>199.0500030517578</v>
       </c>
       <c r="B61">
-        <v>205.6999969482422</v>
+        <v>202.1399993896484</v>
       </c>
       <c r="C61">
-        <v>202.1000061035156</v>
+        <v>198.5099945068359</v>
       </c>
       <c r="D61">
-        <v>203.6600036621094</v>
+        <v>201.8800048828125</v>
       </c>
       <c r="E61">
-        <v>203.6240997314453</v>
+        <v>201.8444061279297</v>
       </c>
       <c r="F61">
-        <v>17825500</v>
+        <v>18282500</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>204.4600067138672</v>
+        <v>201.3500061035156</v>
       </c>
       <c r="B62">
-        <v>205.0800018310547</v>
+        <v>202.8699951171875</v>
       </c>
       <c r="C62">
-        <v>201.4299926757812</v>
+        <v>194.5299987792969</v>
       </c>
       <c r="D62">
-        <v>202.9499969482422</v>
+        <v>199.5</v>
       </c>
       <c r="E62">
-        <v>202.9142150878906</v>
+        <v>199.4648284912109</v>
       </c>
       <c r="F62">
-        <v>14644300</v>
+        <v>21087600</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>203.2200012207031</v>
+        <v>196.8500061035156</v>
       </c>
       <c r="B63">
-        <v>204.3000030517578</v>
+        <v>197.6999969482422</v>
       </c>
       <c r="C63">
-        <v>198.3500061035156</v>
+        <v>192.6699981689453</v>
       </c>
       <c r="D63">
-        <v>199.3600006103516</v>
+        <v>194.5800018310547</v>
       </c>
       <c r="E63">
-        <v>199.3248443603516</v>
+        <v>194.5457000732422</v>
       </c>
       <c r="F63">
-        <v>17923800</v>
+        <v>20458500</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>200.4299926757812</v>
+        <v>195</v>
       </c>
       <c r="B64">
-        <v>200.4900054931641</v>
+        <v>196.3399963378906</v>
       </c>
       <c r="C64">
-        <v>194.3000030517578</v>
+        <v>190</v>
       </c>
       <c r="D64">
-        <v>196.9900054931641</v>
+        <v>190.3999938964844</v>
       </c>
       <c r="E64">
-        <v>196.9552764892578</v>
+        <v>190.3664245605469</v>
       </c>
       <c r="F64">
-        <v>18592500</v>
+        <v>28591300</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>198.6999969482422</v>
+        <v>194.9400024414062</v>
       </c>
       <c r="B65">
-        <v>200.2899932861328</v>
+        <v>204.9499969482422</v>
       </c>
       <c r="C65">
-        <v>196.1999969482422</v>
+        <v>187.6199951171875</v>
       </c>
       <c r="D65">
-        <v>199.0500030517578</v>
+        <v>197.9799957275391</v>
       </c>
       <c r="E65">
-        <v>199.0149078369141</v>
+        <v>197.9450836181641</v>
       </c>
       <c r="F65">
-        <v>15165200</v>
+        <v>76655500</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>199.0500030517578</v>
+        <v>199.9100036621094</v>
       </c>
       <c r="B66">
-        <v>202.1399993896484</v>
+        <v>208.6499938964844</v>
       </c>
       <c r="C66">
-        <v>198.5099945068359</v>
+        <v>199.3300018310547</v>
       </c>
       <c r="D66">
-        <v>201.8800048828125</v>
+        <v>208.1600036621094</v>
       </c>
       <c r="E66">
-        <v>201.8444061279297</v>
+        <v>208.1233062744141</v>
       </c>
       <c r="F66">
-        <v>18282500</v>
+        <v>67503900</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>201.3500061035156</v>
+        <v>209.7100067138672</v>
       </c>
       <c r="B67">
-        <v>202.8699951171875</v>
+        <v>219.9700012207031</v>
       </c>
       <c r="C67">
-        <v>194.5299987792969</v>
+        <v>209.5</v>
       </c>
       <c r="D67">
-        <v>199.5</v>
+        <v>219.5800018310547</v>
       </c>
       <c r="E67">
-        <v>199.4648284912109</v>
+        <v>219.5412902832031</v>
       </c>
       <c r="F67">
-        <v>21087600</v>
+        <v>57580700</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>196.8500061035156</v>
+        <v>217.5299987792969</v>
       </c>
       <c r="B68">
-        <v>197.6999969482422</v>
+        <v>219.5899963378906</v>
       </c>
       <c r="C68">
-        <v>192.6699981689453</v>
+        <v>215.3500061035156</v>
       </c>
       <c r="D68">
-        <v>194.5800018310547</v>
+        <v>217.9299926757812</v>
       </c>
       <c r="E68">
-        <v>194.5457000732422</v>
+        <v>217.8915710449219</v>
       </c>
       <c r="F68">
-        <v>20458500</v>
+        <v>29729900</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>195</v>
+        <v>217.3699951171875</v>
       </c>
       <c r="B69">
-        <v>196.3399963378906</v>
+        <v>224.6999969482422</v>
       </c>
       <c r="C69">
-        <v>190</v>
+        <v>217.2200012207031</v>
       </c>
       <c r="D69">
-        <v>190.3999938964844</v>
+        <v>222.1300048828125</v>
       </c>
       <c r="E69">
-        <v>190.3664245605469</v>
+        <v>222.0908355712891</v>
       </c>
       <c r="F69">
-        <v>28591300</v>
+        <v>34770100</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>194.9400024414062</v>
+        <v>222</v>
       </c>
       <c r="B70">
-        <v>204.9499969482422</v>
+        <v>223.3999938964844</v>
       </c>
       <c r="C70">
-        <v>187.6199951171875</v>
+        <v>217.8999938964844</v>
       </c>
       <c r="D70">
-        <v>197.9799957275391</v>
+        <v>220.6799926757812</v>
       </c>
       <c r="E70">
-        <v>197.9450836181641</v>
+        <v>220.6410827636719</v>
       </c>
       <c r="F70">
-        <v>76655500</v>
+        <v>23794000</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>199.9100036621094</v>
+        <v>221.8399963378906</v>
       </c>
       <c r="B71">
-        <v>208.6499938964844</v>
+        <v>227.2200012207031</v>
       </c>
       <c r="C71">
-        <v>199.3300018310547</v>
+        <v>221.6699981689453</v>
       </c>
       <c r="D71">
-        <v>208.1600036621094</v>
+        <v>226.3600006103516</v>
       </c>
       <c r="E71">
-        <v>208.1233062744141</v>
+        <v>226.3200836181641</v>
       </c>
       <c r="F71">
-        <v>67503900</v>
+        <v>30426700</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>209.7100067138672</v>
+        <v>228.3000030517578</v>
       </c>
       <c r="B72">
-        <v>219.9700012207031</v>
+        <v>230.4299926757812</v>
       </c>
       <c r="C72">
-        <v>209.5</v>
+        <v>225.5099945068359</v>
       </c>
       <c r="D72">
-        <v>219.5800018310547</v>
+        <v>226.8800048828125</v>
       </c>
       <c r="E72">
-        <v>219.5412902832031</v>
+        <v>226.8399963378906</v>
       </c>
       <c r="F72">
-        <v>57580700</v>
+        <v>26258000</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>217.5299987792969</v>
+        <v>226.9499969482422</v>
       </c>
       <c r="B73">
-        <v>219.5899963378906</v>
+        <v>226.9499969482422</v>
       </c>
       <c r="C73">
-        <v>215.3500061035156</v>
+        <v>221.1999969482422</v>
       </c>
       <c r="D73">
-        <v>217.9299926757812</v>
+        <v>223.8500061035156</v>
       </c>
       <c r="E73">
-        <v>217.8915710449219</v>
+        <v>223.8500061035156</v>
       </c>
       <c r="F73">
-        <v>29729900</v>
+        <v>25985000</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>217.3699951171875</v>
+        <v>224.8500061035156</v>
       </c>
       <c r="B74">
-        <v>224.6999969482422</v>
+        <v>226.9700012207031</v>
       </c>
       <c r="C74">
-        <v>217.2200012207031</v>
+        <v>223.5700073242188</v>
       </c>
       <c r="D74">
-        <v>222.1300048828125</v>
+        <v>224.4100036621094</v>
       </c>
       <c r="E74">
-        <v>222.0908355712891</v>
+        <v>224.4100036621094</v>
       </c>
       <c r="F74">
-        <v>34770100</v>
+        <v>20176700</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>222</v>
+        <v>225.1799926757812</v>
       </c>
       <c r="B75">
-        <v>223.3999938964844</v>
+        <v>225.9299926757812</v>
       </c>
       <c r="C75">
-        <v>217.8999938964844</v>
+        <v>222.9499969482422</v>
       </c>
       <c r="D75">
-        <v>220.6799926757812</v>
+        <v>223.9600067138672</v>
       </c>
       <c r="E75">
-        <v>220.6410827636719</v>
+        <v>223.9600067138672</v>
       </c>
       <c r="F75">
-        <v>23794000</v>
+        <v>18783400</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>221.8399963378906</v>
+        <v>223.25</v>
       </c>
       <c r="B76">
-        <v>227.2200012207031</v>
+        <v>229.8600006103516</v>
       </c>
       <c r="C76">
-        <v>221.6699981689453</v>
+        <v>222</v>
       </c>
       <c r="D76">
-        <v>226.3600006103516</v>
+        <v>228.4299926757812</v>
       </c>
       <c r="E76">
-        <v>226.3200836181641</v>
+        <v>228.4299926757812</v>
       </c>
       <c r="F76">
-        <v>30426700</v>
+        <v>28053200</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>228.3000030517578</v>
+        <v>228.3300018310547</v>
       </c>
       <c r="B77">
-        <v>230.4299926757812</v>
+        <v>228.9900054931641</v>
       </c>
       <c r="C77">
-        <v>225.5099945068359</v>
+        <v>225.2200012207031</v>
       </c>
       <c r="D77">
-        <v>226.8800048828125</v>
+        <v>226.6199951171875</v>
       </c>
       <c r="E77">
-        <v>226.8399963378906</v>
+        <v>226.6199951171875</v>
       </c>
       <c r="F77">
-        <v>26258000</v>
+        <v>19810700</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>226.9499969482422</v>
+        <v>225.1300048828125</v>
       </c>
       <c r="B78">
-        <v>226.9499969482422</v>
+        <v>226.1000061035156</v>
       </c>
       <c r="C78">
-        <v>221.1999969482422</v>
+        <v>219.7700042724609</v>
       </c>
       <c r="D78">
-        <v>223.8500061035156</v>
+        <v>223.3899993896484</v>
       </c>
       <c r="E78">
-        <v>223.8500061035156</v>
+        <v>223.3899993896484</v>
       </c>
       <c r="F78">
-        <v>25985000</v>
+        <v>25443400</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>224.8500061035156</v>
+        <v>223.1199951171875</v>
       </c>
       <c r="B79">
-        <v>226.9700012207031</v>
+        <v>225.3800048828125</v>
       </c>
       <c r="C79">
-        <v>223.5700073242188</v>
+        <v>221.3099975585938</v>
       </c>
       <c r="D79">
-        <v>224.4100036621094</v>
+        <v>221.7700042724609</v>
       </c>
       <c r="E79">
-        <v>224.4100036621094</v>
+        <v>221.7700042724609</v>
       </c>
       <c r="F79">
-        <v>20176700</v>
+        <v>19685600</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>225.1799926757812</v>
+        <v>223.4799957275391</v>
       </c>
       <c r="B80">
-        <v>225.9299926757812</v>
+        <v>226.2599945068359</v>
       </c>
       <c r="C80">
-        <v>222.9499969482422</v>
+        <v>222.6999969482422</v>
       </c>
       <c r="D80">
-        <v>223.9600067138672</v>
+        <v>224.7799987792969</v>
       </c>
       <c r="E80">
-        <v>223.9600067138672</v>
+        <v>224.7799987792969</v>
       </c>
       <c r="F80">
-        <v>18783400</v>
+        <v>24814900</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>223.25</v>
+        <v>226.8399963378906</v>
       </c>
       <c r="B81">
-        <v>229.8600006103516</v>
+        <v>229.6399993896484</v>
       </c>
       <c r="C81">
-        <v>222</v>
+        <v>218.5800018310547</v>
       </c>
       <c r="D81">
-        <v>228.4299926757812</v>
+        <v>221.5200042724609</v>
       </c>
       <c r="E81">
-        <v>228.4299926757812</v>
+        <v>221.5200042724609</v>
       </c>
       <c r="F81">
-        <v>28053200</v>
+        <v>29750000</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>228.3300018310547</v>
+        <v>222.75</v>
       </c>
       <c r="B82">
-        <v>228.9900054931641</v>
+        <v>224.1000061035156</v>
       </c>
       <c r="C82">
-        <v>225.2200012207031</v>
+        <v>220.8600006103516</v>
       </c>
       <c r="D82">
-        <v>226.6199951171875</v>
+        <v>222.4199981689453</v>
       </c>
       <c r="E82">
-        <v>226.6199951171875</v>
+        <v>222.4199981689453</v>
       </c>
       <c r="F82">
-        <v>19810700</v>
+        <v>19975500</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>225.1300048828125</v>
+        <v>223.0899963378906</v>
       </c>
       <c r="B83">
-        <v>226.1000061035156</v>
+        <v>223.6699981689453</v>
       </c>
       <c r="C83">
-        <v>219.7700042724609</v>
+        <v>219.6600036621094</v>
       </c>
       <c r="D83">
-        <v>223.3899993896484</v>
+        <v>223.4100036621094</v>
       </c>
       <c r="E83">
-        <v>223.3899993896484</v>
+        <v>223.4100036621094</v>
       </c>
       <c r="F83">
-        <v>25443400</v>
+        <v>16653800</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>223.1199951171875</v>
+        <v>221.8300018310547</v>
       </c>
       <c r="B84">
-        <v>225.3800048828125</v>
+        <v>222.7700042724609</v>
       </c>
       <c r="C84">
-        <v>221.3099975585938</v>
+        <v>219.2700042724609</v>
       </c>
       <c r="D84">
-        <v>221.7700042724609</v>
+        <v>222.4199981689453</v>
       </c>
       <c r="E84">
-        <v>221.7700042724609</v>
+        <v>222.4199981689453</v>
       </c>
       <c r="F84">
-        <v>19685600</v>
+        <v>15603300</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>223.4799957275391</v>
+        <v>223</v>
       </c>
       <c r="B85">
-        <v>226.2599945068359</v>
+        <v>223.2100067138672</v>
       </c>
       <c r="C85">
-        <v>222.6999969482422</v>
+        <v>218.3000030517578</v>
       </c>
       <c r="D85">
-        <v>224.7799987792969</v>
+        <v>219</v>
       </c>
       <c r="E85">
-        <v>224.7799987792969</v>
+        <v>219</v>
       </c>
       <c r="F85">
-        <v>24814900</v>
+        <v>29450300</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>226.8399963378906</v>
+        <v>211.4600067138672</v>
       </c>
       <c r="B86">
-        <v>229.6399993896484</v>
+        <v>214.3300018310547</v>
       </c>
       <c r="C86">
-        <v>218.5800018310547</v>
+        <v>206.6199951171875</v>
       </c>
       <c r="D86">
-        <v>221.5200042724609</v>
+        <v>211.1300048828125</v>
       </c>
       <c r="E86">
-        <v>221.5200042724609</v>
+        <v>211.1300048828125</v>
       </c>
       <c r="F86">
-        <v>29750000</v>
+        <v>34944000</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>222.75</v>
+        <v>214.1699981689453</v>
       </c>
       <c r="B87">
-        <v>224.1000061035156</v>
+        <v>214.25</v>
       </c>
       <c r="C87">
-        <v>220.8600006103516</v>
+        <v>209.5</v>
       </c>
       <c r="D87">
-        <v>222.4199981689453</v>
+        <v>212.4600067138672</v>
       </c>
       <c r="E87">
-        <v>222.4199981689453</v>
+        <v>212.4600067138672</v>
       </c>
       <c r="F87">
-        <v>19975500</v>
+        <v>20468800</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>223.0899963378906</v>
+        <v>213.6600036621094</v>
       </c>
       <c r="B88">
-        <v>223.6699981689453</v>
+        <v>219.6000061035156</v>
       </c>
       <c r="C88">
-        <v>219.6600036621094</v>
+        <v>211.9600067138672</v>
       </c>
       <c r="D88">
-        <v>223.4100036621094</v>
+        <v>219.4100036621094</v>
       </c>
       <c r="E88">
-        <v>223.4100036621094</v>
+        <v>219.4100036621094</v>
       </c>
       <c r="F88">
-        <v>16653800</v>
+        <v>26872600</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>221.8300018310547</v>
+        <v>221.3999938964844</v>
       </c>
       <c r="B89">
-        <v>222.7700042724609</v>
+        <v>225.3500061035156</v>
       </c>
       <c r="C89">
-        <v>219.2700042724609</v>
+        <v>218.8999938964844</v>
       </c>
       <c r="D89">
-        <v>222.4199981689453</v>
+        <v>224.8200073242188</v>
       </c>
       <c r="E89">
-        <v>222.4199981689453</v>
+        <v>224.8200073242188</v>
       </c>
       <c r="F89">
-        <v>15603300</v>
+        <v>24855500</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>223</v>
+        <v>220.6999969482422</v>
       </c>
       <c r="B90">
-        <v>223.2100067138672</v>
+        <v>221.4900054931641</v>
       </c>
       <c r="C90">
-        <v>218.3000030517578</v>
+        <v>218.6100006103516</v>
       </c>
       <c r="D90">
-        <v>219</v>
+        <v>220.8099975585938</v>
       </c>
       <c r="E90">
-        <v>219</v>
+        <v>220.8099975585938</v>
       </c>
       <c r="F90">
-        <v>29450300</v>
+        <v>21765500</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>211.4600067138672</v>
+        <v>217.1000061035156</v>
       </c>
       <c r="B91">
-        <v>214.3300018310547</v>
+        <v>217.9900054931641</v>
       </c>
       <c r="C91">
-        <v>206.6199951171875</v>
+        <v>213.25</v>
       </c>
       <c r="D91">
-        <v>211.1300048828125</v>
+        <v>216.6000061035156</v>
       </c>
       <c r="E91">
-        <v>211.1300048828125</v>
+        <v>216.6000061035156</v>
       </c>
       <c r="F91">
-        <v>34944000</v>
+        <v>24521500</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>214.1699981689453</v>
+        <v>212.1399993896484</v>
       </c>
       <c r="B92">
-        <v>214.25</v>
+        <v>214.1900024414062</v>
       </c>
       <c r="C92">
-        <v>209.5</v>
+        <v>206.5099945068359</v>
       </c>
       <c r="D92">
-        <v>212.4600067138672</v>
+        <v>206.9900054931641</v>
       </c>
       <c r="E92">
-        <v>212.4600067138672</v>
+        <v>206.9900054931641</v>
       </c>
       <c r="F92">
-        <v>20468800</v>
+        <v>34306900</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>213.6600036621094</v>
+        <v>209.3999938964844</v>
       </c>
       <c r="B93">
-        <v>219.6000061035156</v>
+        <v>210.1699981689453</v>
       </c>
       <c r="C93">
-        <v>211.9600067138672</v>
+        <v>204.6699981689453</v>
       </c>
       <c r="D93">
-        <v>219.4100036621094</v>
+        <v>205.1699981689453</v>
       </c>
       <c r="E93">
-        <v>219.4100036621094</v>
+        <v>205.1699981689453</v>
       </c>
       <c r="F93">
-        <v>26872600</v>
+        <v>21839400</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>221.3999938964844</v>
+        <v>207.6799926757812</v>
       </c>
       <c r="B94">
-        <v>225.3500061035156</v>
+        <v>210.6600036621094</v>
       </c>
       <c r="C94">
-        <v>218.8999938964844</v>
+        <v>206.8800048828125</v>
       </c>
       <c r="D94">
-        <v>224.8200073242188</v>
+        <v>207.1600036621094</v>
       </c>
       <c r="E94">
-        <v>224.8200073242188</v>
+        <v>207.1600036621094</v>
       </c>
       <c r="F94">
-        <v>24855500</v>
+        <v>22080400</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>220.6999969482422</v>
+        <v>207.5</v>
       </c>
       <c r="B95">
-        <v>221.4900054931641</v>
+        <v>208.5899963378906</v>
       </c>
       <c r="C95">
-        <v>218.6100006103516</v>
+        <v>202.0299987792969</v>
       </c>
       <c r="D95">
-        <v>220.8099975585938</v>
+        <v>207.4199981689453</v>
       </c>
       <c r="E95">
-        <v>220.8099975585938</v>
+        <v>207.4199981689453</v>
       </c>
       <c r="F95">
-        <v>21765500</v>
+        <v>24097800</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>217.1000061035156</v>
+        <v>205.0399932861328</v>
       </c>
       <c r="B96">
-        <v>217.9900054931641</v>
+        <v>205.4199981689453</v>
       </c>
       <c r="C96">
-        <v>213.25</v>
+        <v>195.5500030517578</v>
       </c>
       <c r="D96">
-        <v>216.6000061035156</v>
+        <v>197.3200073242188</v>
       </c>
       <c r="E96">
-        <v>216.6000061035156</v>
+        <v>197.3200073242188</v>
       </c>
       <c r="F96">
-        <v>24521500</v>
+        <v>34563500</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>212.1399993896484</v>
+        <v>199.5</v>
       </c>
       <c r="B97">
-        <v>214.1900024414062</v>
+        <v>206.4799957275391</v>
       </c>
       <c r="C97">
-        <v>206.5099945068359</v>
+        <v>198.5399932861328</v>
       </c>
       <c r="D97">
-        <v>206.9900054931641</v>
+        <v>204.5099945068359</v>
       </c>
       <c r="E97">
-        <v>206.9900054931641</v>
+        <v>204.5099945068359</v>
       </c>
       <c r="F97">
-        <v>34306900</v>
+        <v>27928200</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>209.3999938964844</v>
+        <v>201.1999969482422</v>
       </c>
       <c r="B98">
-        <v>210.1699981689453</v>
+        <v>207.1999969482422</v>
       </c>
       <c r="C98">
-        <v>204.6699981689453</v>
+        <v>200.8000030517578</v>
       </c>
       <c r="D98">
-        <v>205.1699981689453</v>
+        <v>207</v>
       </c>
       <c r="E98">
-        <v>205.1699981689453</v>
+        <v>207</v>
       </c>
       <c r="F98">
-        <v>21839400</v>
+        <v>29720200</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>207.6799926757812</v>
+        <v>210.9199981689453</v>
       </c>
       <c r="B99">
-        <v>210.6600036621094</v>
+        <v>213.2200012207031</v>
       </c>
       <c r="C99">
-        <v>206.8800048828125</v>
+        <v>209.7200012207031</v>
       </c>
       <c r="D99">
-        <v>207.1600036621094</v>
+        <v>210.75</v>
       </c>
       <c r="E99">
-        <v>207.1600036621094</v>
+        <v>210.75</v>
       </c>
       <c r="F99">
-        <v>22080400</v>
+        <v>25691900</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>207.5</v>
+        <v>211.0099945068359</v>
       </c>
       <c r="B100">
-        <v>208.5899963378906</v>
+        <v>212.0599975585938</v>
       </c>
       <c r="C100">
-        <v>202.0299987792969</v>
+        <v>207.75</v>
       </c>
       <c r="D100">
-        <v>207.4199981689453</v>
+        <v>208.3099975585938</v>
       </c>
       <c r="E100">
-        <v>207.4199981689453</v>
+        <v>208.3099975585938</v>
       </c>
       <c r="F100">
-        <v>24097800</v>
+        <v>15102500</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>205.0399932861328</v>
+        <v>205.75</v>
       </c>
       <c r="B101">
-        <v>205.4199981689453</v>
+        <v>210.6300048828125</v>
       </c>
       <c r="C101">
-        <v>195.5500030517578</v>
+        <v>205.1100006103516</v>
       </c>
       <c r="D101">
-        <v>197.3200073242188</v>
+        <v>206.9499969482422</v>
       </c>
       <c r="E101">
-        <v>197.3200073242188</v>
+        <v>206.9499969482422</v>
       </c>
       <c r="F101">
-        <v>34563500</v>
+        <v>16338800</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>199.5</v>
+        <v>208.2799987792969</v>
       </c>
       <c r="B102">
-        <v>206.4799957275391</v>
+        <v>210.5700073242188</v>
       </c>
       <c r="C102">
-        <v>198.5399932861328</v>
+        <v>205.2799987792969</v>
       </c>
       <c r="D102">
-        <v>204.5099945068359</v>
+        <v>206.7100067138672</v>
       </c>
       <c r="E102">
-        <v>204.5099945068359</v>
+        <v>206.7100067138672</v>
       </c>
       <c r="F102">
-        <v>27928200</v>
+        <v>16213400</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>201.1999969482422</v>
+        <v>209.1799926757812</v>
       </c>
       <c r="B103">
-        <v>207.1999969482422</v>
+        <v>209.8999938964844</v>
       </c>
       <c r="C103">
-        <v>200.8000030517578</v>
+        <v>207.1300048828125</v>
       </c>
       <c r="D103">
-        <v>207</v>
+        <v>209.3899993896484</v>
       </c>
       <c r="E103">
-        <v>207</v>
+        <v>209.3899993896484</v>
       </c>
       <c r="F103">
-        <v>29720200</v>
+        <v>18065200</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>210.9199981689453</v>
+        <v>212.8800048828125</v>
       </c>
       <c r="B104">
-        <v>213.2200012207031</v>
+        <v>217.5500030517578</v>
       </c>
       <c r="C104">
-        <v>209.7200012207031</v>
+        <v>211.2200012207031</v>
       </c>
       <c r="D104">
-        <v>210.75</v>
+        <v>217.4600067138672</v>
       </c>
       <c r="E104">
-        <v>210.75</v>
+        <v>217.4600067138672</v>
       </c>
       <c r="F104">
-        <v>25691900</v>
+        <v>24358900</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>211.0099945068359</v>
+        <v>218.1000061035156</v>
       </c>
       <c r="B105">
-        <v>212.0599975585938</v>
+        <v>219.3099975585938</v>
       </c>
       <c r="C105">
-        <v>207.75</v>
+        <v>216.6199951171875</v>
       </c>
       <c r="D105">
-        <v>208.3099975585938</v>
+        <v>218.6199951171875</v>
       </c>
       <c r="E105">
-        <v>208.3099975585938</v>
+        <v>218.6199951171875</v>
       </c>
       <c r="F105">
-        <v>15102500</v>
+        <v>22679500</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>205.75</v>
+        <v>217.4900054931641</v>
       </c>
       <c r="B106">
-        <v>210.6300048828125</v>
+        <v>222.9100036621094</v>
       </c>
       <c r="C106">
-        <v>205.1100006103516</v>
+        <v>216.4400024414062</v>
       </c>
       <c r="D106">
-        <v>206.9499969482422</v>
+        <v>222.2200012207031</v>
       </c>
       <c r="E106">
-        <v>206.9499969482422</v>
+        <v>222.2200012207031</v>
       </c>
       <c r="F106">
-        <v>16338800</v>
+        <v>18949400</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>208.2799987792969</v>
+        <v>222.7599945068359</v>
       </c>
       <c r="B107">
-        <v>210.5700073242188</v>
+        <v>223.7899932861328</v>
       </c>
       <c r="C107">
-        <v>205.2799987792969</v>
+        <v>220.3699951171875</v>
       </c>
       <c r="D107">
-        <v>206.7100067138672</v>
+        <v>222.8999938964844</v>
       </c>
       <c r="E107">
-        <v>206.7100067138672</v>
+        <v>222.8999938964844</v>
       </c>
       <c r="F107">
-        <v>16213400</v>
+        <v>16147300</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>209.1799926757812</v>
+        <v>223.0500030517578</v>
       </c>
       <c r="B108">
-        <v>209.8999938964844</v>
+        <v>224.3300018310547</v>
       </c>
       <c r="C108">
-        <v>207.1300048828125</v>
+        <v>219.8200073242188</v>
       </c>
       <c r="D108">
-        <v>209.3899993896484</v>
+        <v>221.0299987792969</v>
       </c>
       <c r="E108">
-        <v>209.3899993896484</v>
+        <v>221.0299987792969</v>
       </c>
       <c r="F108">
-        <v>18065200</v>
+        <v>14627600</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>212.8800048828125</v>
+        <v>220.9700012207031</v>
       </c>
       <c r="B109">
-        <v>217.5500030517578</v>
+        <v>227.1100006103516</v>
       </c>
       <c r="C109">
-        <v>211.2200012207031</v>
+        <v>220.8300018310547</v>
       </c>
       <c r="D109">
-        <v>217.4600067138672</v>
+        <v>226.9199981689453</v>
       </c>
       <c r="E109">
-        <v>217.4600067138672</v>
+        <v>226.9199981689453</v>
       </c>
       <c r="F109">
-        <v>24358900</v>
+        <v>18759000</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>218.1000061035156</v>
+        <v>228.2299957275391</v>
       </c>
       <c r="B110">
-        <v>219.3099975585938</v>
+        <v>231.3000030517578</v>
       </c>
       <c r="C110">
-        <v>216.6199951171875</v>
+        <v>225.6100006103516</v>
       </c>
       <c r="D110">
-        <v>218.6199951171875</v>
+        <v>227.2599945068359</v>
       </c>
       <c r="E110">
-        <v>218.6199951171875</v>
+        <v>227.2599945068359</v>
       </c>
       <c r="F110">
-        <v>22679500</v>
+        <v>24938400</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>217.4900054931641</v>
+        <v>229.7299957275391</v>
       </c>
       <c r="B111">
-        <v>222.9100036621094</v>
+        <v>233.5500030517578</v>
       </c>
       <c r="C111">
-        <v>216.4400024414062</v>
+        <v>227.6999969482422</v>
       </c>
       <c r="D111">
-        <v>222.2200012207031</v>
+        <v>231.6600036621094</v>
       </c>
       <c r="E111">
-        <v>222.2200012207031</v>
+        <v>231.6600036621094</v>
       </c>
       <c r="F111">
-        <v>18949400</v>
+        <v>23023500</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>222.7599945068359</v>
+        <v>239.8899993896484</v>
       </c>
       <c r="B112">
-        <v>223.7899932861328</v>
+        <v>252.5899963378906</v>
       </c>
       <c r="C112">
-        <v>220.3699951171875</v>
+        <v>239.2400054931641</v>
       </c>
       <c r="D112">
-        <v>222.8999938964844</v>
+        <v>247.1699981689453</v>
       </c>
       <c r="E112">
-        <v>222.8999938964844</v>
+        <v>247.1699981689453</v>
       </c>
       <c r="F112">
-        <v>16147300</v>
+        <v>48589800</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>223.0500030517578</v>
+        <v>244.7400054931641</v>
       </c>
       <c r="B113">
-        <v>224.3300018310547</v>
+        <v>250.8999938964844</v>
       </c>
       <c r="C113">
-        <v>219.8200073242188</v>
+        <v>242.8200073242188</v>
       </c>
       <c r="D113">
-        <v>221.0299987792969</v>
+        <v>244.5099945068359</v>
       </c>
       <c r="E113">
-        <v>221.0299987792969</v>
+        <v>244.5099945068359</v>
       </c>
       <c r="F113">
-        <v>14627600</v>
+        <v>24599000</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>220.9700012207031</v>
+        <v>248.7799987792969</v>
       </c>
       <c r="B114">
-        <v>227.1100006103516</v>
+        <v>249.5</v>
       </c>
       <c r="C114">
-        <v>220.8300018310547</v>
+        <v>245.2299957275391</v>
       </c>
       <c r="D114">
-        <v>226.9199981689453</v>
+        <v>249.4100036621094</v>
       </c>
       <c r="E114">
-        <v>226.9199981689453</v>
+        <v>249.4100036621094</v>
       </c>
       <c r="F114">
-        <v>18759000</v>
+        <v>23420400</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>228.2299957275391</v>
+        <v>250.0099945068359</v>
       </c>
       <c r="B115">
-        <v>231.3000030517578</v>
+        <v>257.0899963378906</v>
       </c>
       <c r="C115">
-        <v>225.6100006103516</v>
+        <v>250</v>
       </c>
       <c r="D115">
-        <v>227.2599945068359</v>
+        <v>255.6699981689453</v>
       </c>
       <c r="E115">
-        <v>227.2599945068359</v>
+        <v>255.6699981689453</v>
       </c>
       <c r="F115">
-        <v>24938400</v>
+        <v>29213700</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>229.7299957275391</v>
+        <v>256.489990234375</v>
       </c>
       <c r="B116">
-        <v>233.5500030517578</v>
+        <v>258.9400024414062</v>
       </c>
       <c r="C116">
-        <v>227.6999969482422</v>
+        <v>252.2700042724609</v>
       </c>
       <c r="D116">
-        <v>231.6600036621094</v>
+        <v>258.2699890136719</v>
       </c>
       <c r="E116">
-        <v>231.6600036621094</v>
+        <v>258.2699890136719</v>
       </c>
       <c r="F116">
-        <v>23023500</v>
+        <v>26574000</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>239.8899993896484</v>
+        <v>258.2200012207031</v>
       </c>
       <c r="B117">
-        <v>252.5899963378906</v>
+        <v>266.7799987792969</v>
       </c>
       <c r="C117">
-        <v>239.2400054931641</v>
+        <v>258</v>
       </c>
       <c r="D117">
-        <v>247.1699981689453</v>
+        <v>264.010009765625</v>
       </c>
       <c r="E117">
-        <v>247.1699981689453</v>
+        <v>264.010009765625</v>
       </c>
       <c r="F117">
-        <v>48589800</v>
+        <v>29411200</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>244.7400054931641</v>
+        <v>266.7000122070312</v>
       </c>
       <c r="B118">
-        <v>250.8999938964844</v>
+        <v>267.8399963378906</v>
       </c>
       <c r="C118">
-        <v>242.8200073242188</v>
+        <v>262.3500061035156</v>
       </c>
       <c r="D118">
-        <v>244.5099945068359</v>
+        <v>265.9800109863281</v>
       </c>
       <c r="E118">
-        <v>244.5099945068359</v>
+        <v>265.9800109863281</v>
       </c>
       <c r="F118">
-        <v>24599000</v>
+        <v>23991000</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>248.7799987792969</v>
+        <v>272.2900085449219</v>
       </c>
       <c r="B119">
-        <v>249.5</v>
+        <v>313.6499938964844</v>
       </c>
       <c r="C119">
-        <v>245.2299957275391</v>
+        <v>271.1799926757812</v>
       </c>
       <c r="D119">
-        <v>249.4100036621094</v>
+        <v>298.010009765625</v>
       </c>
       <c r="E119">
-        <v>249.4100036621094</v>
+        <v>298.010009765625</v>
       </c>
       <c r="F119">
-        <v>23420400</v>
+        <v>115363100</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>250.0099945068359</v>
+        <v>301.8699951171875</v>
       </c>
       <c r="B120">
-        <v>257.0899963378906</v>
+        <v>314</v>
       </c>
       <c r="C120">
-        <v>250</v>
+        <v>294.1000061035156</v>
       </c>
       <c r="D120">
-        <v>255.6699981689453</v>
+        <v>297.5199890136719</v>
       </c>
       <c r="E120">
-        <v>255.6699981689453</v>
+        <v>297.5199890136719</v>
       </c>
       <c r="F120">
-        <v>29213700</v>
+        <v>85072800</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>256.489990234375</v>
+        <v>301.489990234375</v>
       </c>
       <c r="B121">
-        <v>258.9400024414062</v>
+        <v>311</v>
       </c>
       <c r="C121">
-        <v>252.2700042724609</v>
+        <v>299.0700073242188</v>
       </c>
       <c r="D121">
-        <v>258.2699890136719</v>
+        <v>308.0400085449219</v>
       </c>
       <c r="E121">
-        <v>258.2699890136719</v>
+        <v>308.0400085449219</v>
       </c>
       <c r="F121">
-        <v>26574000</v>
+        <v>50310100</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>258.2200012207031</v>
+        <v>322.8200073242188</v>
       </c>
       <c r="B122">
-        <v>266.7799987792969</v>
+        <v>323.1000061035156</v>
       </c>
       <c r="C122">
-        <v>258</v>
+        <v>299.6400146484375</v>
       </c>
       <c r="D122">
-        <v>264.010009765625</v>
+        <v>306.5700073242188</v>
       </c>
       <c r="E122">
-        <v>264.010009765625</v>
+        <v>306.5700073242188</v>
       </c>
       <c r="F122">
-        <v>29411200</v>
+        <v>64674600</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>266.7000122070312</v>
+        <v>293.5599975585938</v>
       </c>
       <c r="B123">
-        <v>267.8399963378906</v>
+        <v>308.5</v>
       </c>
       <c r="C123">
-        <v>262.3500061035156</v>
+        <v>287.7799987792969</v>
       </c>
       <c r="D123">
-        <v>265.9800109863281</v>
+        <v>294.5899963378906</v>
       </c>
       <c r="E123">
-        <v>265.9800109863281</v>
+        <v>294.5899963378906</v>
       </c>
       <c r="F123">
-        <v>23991000</v>
+        <v>63620600</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>272.2900085449219</v>
+        <v>304.6799926757812</v>
       </c>
       <c r="B124">
-        <v>313.6499938964844</v>
+        <v>305.8999938964844</v>
       </c>
       <c r="C124">
-        <v>271.1799926757812</v>
+        <v>297.7699890136719</v>
       </c>
       <c r="D124">
-        <v>298.010009765625</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="E124">
-        <v>298.010009765625</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="F124">
-        <v>115363100</v>
+        <v>33217200</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>301.8699951171875</v>
+        <v>300.1000061035156</v>
       </c>
       <c r="B125">
-        <v>314</v>
+        <v>306.7999877929688</v>
       </c>
       <c r="C125">
-        <v>294.1000061035156</v>
+        <v>296.2999877929688</v>
       </c>
       <c r="D125">
-        <v>297.5199890136719</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="E125">
-        <v>297.5199890136719</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="F125">
-        <v>85072800</v>
+        <v>41215100</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>301.489990234375</v>
+        <v>305.5199890136719</v>
       </c>
       <c r="B126">
-        <v>311</v>
+        <v>306.4400024414062</v>
       </c>
       <c r="C126">
-        <v>299.0700073242188</v>
+        <v>292.4700012207031</v>
       </c>
       <c r="D126">
-        <v>308.0400085449219</v>
+        <v>300.25</v>
       </c>
       <c r="E126">
-        <v>308.0400085449219</v>
+        <v>300.25</v>
       </c>
       <c r="F126">
-        <v>50310100</v>
+        <v>38490900</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>322.8200073242188</v>
+        <v>297.5899963378906</v>
       </c>
       <c r="B127">
-        <v>323.1000061035156</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="C127">
-        <v>299.6400146484375</v>
+        <v>297.0599975585938</v>
       </c>
       <c r="D127">
-        <v>306.5700073242188</v>
+        <v>302.0299987792969</v>
       </c>
       <c r="E127">
-        <v>306.5700073242188</v>
+        <v>302.0299987792969</v>
       </c>
       <c r="F127">
-        <v>64674600</v>
+        <v>26448400</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>293.5599975585938</v>
+        <v>304.1799926757812</v>
       </c>
       <c r="B128">
-        <v>308.5</v>
+        <v>305.0899963378906</v>
       </c>
       <c r="C128">
-        <v>287.7799987792969</v>
+        <v>288</v>
       </c>
       <c r="D128">
-        <v>294.5899963378906</v>
+        <v>292.6099853515625</v>
       </c>
       <c r="E128">
-        <v>294.5899963378906</v>
+        <v>292.6099853515625</v>
       </c>
       <c r="F128">
-        <v>63620600</v>
+        <v>42850800</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>304.6799926757812</v>
+        <v>323.6700134277344</v>
       </c>
       <c r="B129">
-        <v>305.8999938964844</v>
+        <v>327.6000061035156</v>
       </c>
       <c r="C129">
-        <v>297.7699890136719</v>
+        <v>313.2099914550781</v>
       </c>
       <c r="D129">
-        <v>303.8999938964844</v>
+        <v>316.75</v>
       </c>
       <c r="E129">
-        <v>303.8999938964844</v>
+        <v>316.75</v>
       </c>
       <c r="F129">
-        <v>33217200</v>
+        <v>78171100</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>300.1000061035156</v>
+        <v>322.4299926757812</v>
       </c>
       <c r="B130">
-        <v>306.7999877929688</v>
+        <v>330.8800048828125</v>
       </c>
       <c r="C130">
-        <v>296.2999877929688</v>
+        <v>319.0499877929688</v>
       </c>
       <c r="D130">
-        <v>303.8999938964844</v>
+        <v>329.8500061035156</v>
       </c>
       <c r="E130">
-        <v>303.8999938964844</v>
+        <v>329.8500061035156</v>
       </c>
       <c r="F130">
-        <v>41215100</v>
+        <v>53126300</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/NVDA/HighLow.xlsx
+++ b/Stocks/NVDA/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2582 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>143.0249938964844</v>
+        <v>205</v>
       </c>
       <c r="B2">
-        <v>146.8374938964844</v>
+        <v>207.3300018310547</v>
       </c>
       <c r="C2">
-        <v>142.7050018310547</v>
+        <v>203.4199981689453</v>
       </c>
       <c r="D2">
-        <v>146.125</v>
+        <v>206.3699951171875</v>
       </c>
       <c r="E2">
-        <v>146.0657653808594</v>
+        <v>206.3083343505859</v>
       </c>
       <c r="F2">
-        <v>32159200</v>
+        <v>21143500</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>151.6374969482422</v>
+        <v>205.2400054931641</v>
       </c>
       <c r="B3">
-        <v>152.2200012207031</v>
+        <v>205.6999969482422</v>
       </c>
       <c r="C3">
-        <v>148.6950073242188</v>
+        <v>202.1000061035156</v>
       </c>
       <c r="D3">
-        <v>149.9174957275391</v>
+        <v>203.6600036621094</v>
       </c>
       <c r="E3">
-        <v>149.8567199707031</v>
+        <v>203.5991668701172</v>
       </c>
       <c r="F3">
-        <v>67299200</v>
+        <v>17825500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>152.125</v>
+        <v>204.4600067138672</v>
       </c>
       <c r="B4">
-        <v>157.4499969482422</v>
+        <v>205.0800018310547</v>
       </c>
       <c r="C4">
-        <v>151.7599945068359</v>
+        <v>201.4299926757812</v>
       </c>
       <c r="D4">
-        <v>156.1199951171875</v>
+        <v>202.9499969482422</v>
       </c>
       <c r="E4">
-        <v>156.0567016601562</v>
+        <v>202.8893737792969</v>
       </c>
       <c r="F4">
-        <v>55481600</v>
+        <v>14644300</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>157.6600036621094</v>
+        <v>203.2200012207031</v>
       </c>
       <c r="B5">
-        <v>158.1849975585938</v>
+        <v>204.3000030517578</v>
       </c>
       <c r="C5">
-        <v>154.8249969482422</v>
+        <v>198.3500061035156</v>
       </c>
       <c r="D5">
-        <v>156.4774932861328</v>
+        <v>199.3600006103516</v>
       </c>
       <c r="E5">
-        <v>156.4140472412109</v>
+        <v>199.3004455566406</v>
       </c>
       <c r="F5">
-        <v>43540800</v>
+        <v>17923800</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>157.3424987792969</v>
+        <v>200.4299926757812</v>
       </c>
       <c r="B6">
-        <v>157.9375</v>
+        <v>200.4900054931641</v>
       </c>
       <c r="C6">
-        <v>155.8625030517578</v>
+        <v>194.3000030517578</v>
       </c>
       <c r="D6">
-        <v>157</v>
+        <v>196.9900054931641</v>
       </c>
       <c r="E6">
-        <v>156.9363555908203</v>
+        <v>196.9311676025391</v>
       </c>
       <c r="F6">
-        <v>37044000</v>
+        <v>18592500</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>156.9974975585938</v>
+        <v>198.6999969482422</v>
       </c>
       <c r="B7">
-        <v>157.5</v>
+        <v>200.2899932861328</v>
       </c>
       <c r="C7">
-        <v>154.6000061035156</v>
+        <v>196.1999969482422</v>
       </c>
       <c r="D7">
-        <v>154.8800048828125</v>
+        <v>199.0500030517578</v>
       </c>
       <c r="E7">
-        <v>154.8172149658203</v>
+        <v>198.9905395507812</v>
       </c>
       <c r="F7">
-        <v>58147600</v>
+        <v>15165200</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>155.0099945068359</v>
+        <v>199.0500030517578</v>
       </c>
       <c r="B8">
-        <v>162.7749938964844</v>
+        <v>202.1399993896484</v>
       </c>
       <c r="C8">
-        <v>155.0099945068359</v>
+        <v>198.5099945068359</v>
       </c>
       <c r="D8">
-        <v>162.4450073242188</v>
+        <v>201.8800048828125</v>
       </c>
       <c r="E8">
-        <v>162.379150390625</v>
+        <v>201.8197021484375</v>
       </c>
       <c r="F8">
-        <v>64453600</v>
+        <v>18282500</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>162.6999969482422</v>
+        <v>201.3500061035156</v>
       </c>
       <c r="B9">
-        <v>163.8825073242188</v>
+        <v>202.8699951171875</v>
       </c>
       <c r="C9">
-        <v>159.0325012207031</v>
+        <v>194.5299987792969</v>
       </c>
       <c r="D9">
-        <v>162.6450042724609</v>
+        <v>199.5</v>
       </c>
       <c r="E9">
-        <v>162.5790710449219</v>
+        <v>199.4404144287109</v>
       </c>
       <c r="F9">
-        <v>47280400</v>
+        <v>21087600</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>162.5225067138672</v>
+        <v>196.8500061035156</v>
       </c>
       <c r="B10">
-        <v>169.1875</v>
+        <v>197.6999969482422</v>
       </c>
       <c r="C10">
-        <v>162.3549957275391</v>
+        <v>192.6699981689453</v>
       </c>
       <c r="D10">
-        <v>167.7825012207031</v>
+        <v>194.5800018310547</v>
       </c>
       <c r="E10">
-        <v>167.7144927978516</v>
+        <v>194.5218811035156</v>
       </c>
       <c r="F10">
-        <v>59416800</v>
+        <v>20458500</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>167.0075073242188</v>
+        <v>195</v>
       </c>
       <c r="B11">
-        <v>172.5899963378906</v>
+        <v>196.3399963378906</v>
       </c>
       <c r="C11">
-        <v>165.8300018310547</v>
+        <v>190</v>
       </c>
       <c r="D11">
-        <v>169.6974945068359</v>
+        <v>190.3999938964844</v>
       </c>
       <c r="E11">
-        <v>169.6287078857422</v>
+        <v>190.3431243896484</v>
       </c>
       <c r="F11">
-        <v>58000800</v>
+        <v>28591300</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>171.125</v>
+        <v>194.9400024414062</v>
       </c>
       <c r="B12">
-        <v>176.6100006103516</v>
+        <v>204.9499969482422</v>
       </c>
       <c r="C12">
-        <v>170.9550018310547</v>
+        <v>187.6199951171875</v>
       </c>
       <c r="D12">
-        <v>175.7825012207031</v>
+        <v>197.9799957275391</v>
       </c>
       <c r="E12">
-        <v>175.7112426757812</v>
+        <v>197.9208526611328</v>
       </c>
       <c r="F12">
-        <v>61712000</v>
+        <v>76655500</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>175.7124938964844</v>
+        <v>199.9100036621094</v>
       </c>
       <c r="B13">
-        <v>178.125</v>
+        <v>208.6499938964844</v>
       </c>
       <c r="C13">
-        <v>171.9275054931641</v>
+        <v>199.3300018310547</v>
       </c>
       <c r="D13">
-        <v>176.1900024414062</v>
+        <v>208.1600036621094</v>
       </c>
       <c r="E13">
-        <v>176.1185760498047</v>
+        <v>208.0978240966797</v>
       </c>
       <c r="F13">
-        <v>57575600</v>
+        <v>67503900</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>175.2725067138672</v>
+        <v>209.7100067138672</v>
       </c>
       <c r="B14">
-        <v>176.2149963378906</v>
+        <v>219.9700012207031</v>
       </c>
       <c r="C14">
-        <v>172.5099945068359</v>
+        <v>209.5</v>
       </c>
       <c r="D14">
-        <v>174.5700073242188</v>
+        <v>219.5800018310547</v>
       </c>
       <c r="E14">
-        <v>174.4992370605469</v>
+        <v>219.5144195556641</v>
       </c>
       <c r="F14">
-        <v>32384800</v>
+        <v>57580700</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>175.1575012207031</v>
+        <v>217.5299987792969</v>
       </c>
       <c r="B15">
-        <v>175.75</v>
+        <v>219.5899963378906</v>
       </c>
       <c r="C15">
-        <v>172.5574951171875</v>
+        <v>215.3500061035156</v>
       </c>
       <c r="D15">
-        <v>173.5825042724609</v>
+        <v>217.9299926757812</v>
       </c>
       <c r="E15">
-        <v>173.5518951416016</v>
+        <v>217.8648986816406</v>
       </c>
       <c r="F15">
-        <v>38165600</v>
+        <v>29729900</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>173.5</v>
+        <v>217.3699951171875</v>
       </c>
       <c r="B16">
-        <v>174.9199981689453</v>
+        <v>224.6999969482422</v>
       </c>
       <c r="C16">
-        <v>171.7599945068359</v>
+        <v>217.2200012207031</v>
       </c>
       <c r="D16">
-        <v>174.25</v>
+        <v>222.1300048828125</v>
       </c>
       <c r="E16">
-        <v>174.2192840576172</v>
+        <v>222.0636444091797</v>
       </c>
       <c r="F16">
-        <v>28777200</v>
+        <v>34770100</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>174.7949981689453</v>
+        <v>222</v>
       </c>
       <c r="B17">
-        <v>179.3925018310547</v>
+        <v>223.3999938964844</v>
       </c>
       <c r="C17">
-        <v>174.4375</v>
+        <v>217.8999938964844</v>
       </c>
       <c r="D17">
-        <v>178.2525024414062</v>
+        <v>220.6799926757812</v>
       </c>
       <c r="E17">
-        <v>178.2210693359375</v>
+        <v>220.6140747070312</v>
       </c>
       <c r="F17">
-        <v>41630800</v>
+        <v>23794000</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>179.0599975585938</v>
+        <v>221.8399963378906</v>
       </c>
       <c r="B18">
-        <v>180.3950042724609</v>
+        <v>227.2200012207031</v>
       </c>
       <c r="C18">
-        <v>176.6275024414062</v>
+        <v>221.6699981689453</v>
       </c>
       <c r="D18">
-        <v>180.1875</v>
+        <v>226.3600006103516</v>
       </c>
       <c r="E18">
-        <v>180.1557312011719</v>
+        <v>226.2923736572266</v>
       </c>
       <c r="F18">
-        <v>32137600</v>
+        <v>30426700</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>179.1499938964844</v>
+        <v>228.3000030517578</v>
       </c>
       <c r="B19">
-        <v>180.1625061035156</v>
+        <v>230.4299926757812</v>
       </c>
       <c r="C19">
-        <v>177.2799987792969</v>
+        <v>225.5099945068359</v>
       </c>
       <c r="D19">
-        <v>177.8849945068359</v>
+        <v>226.8800048828125</v>
       </c>
       <c r="E19">
-        <v>177.8536376953125</v>
+        <v>226.8122253417969</v>
       </c>
       <c r="F19">
-        <v>24303200</v>
+        <v>26258000</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>177.9075012207031</v>
+        <v>226.9499969482422</v>
       </c>
       <c r="B20">
-        <v>179.5475006103516</v>
+        <v>226.9499969482422</v>
       </c>
       <c r="C20">
-        <v>175.8450012207031</v>
+        <v>221.1999969482422</v>
       </c>
       <c r="D20">
-        <v>178.1024932861328</v>
+        <v>223.8500061035156</v>
       </c>
       <c r="E20">
-        <v>178.0710906982422</v>
+        <v>223.8226013183594</v>
       </c>
       <c r="F20">
-        <v>30712400</v>
+        <v>25985000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>177.7449951171875</v>
+        <v>224.8500061035156</v>
       </c>
       <c r="B21">
-        <v>188.3500061035156</v>
+        <v>226.9700012207031</v>
       </c>
       <c r="C21">
-        <v>177.5625</v>
+        <v>223.5700073242188</v>
       </c>
       <c r="D21">
-        <v>186.5724945068359</v>
+        <v>224.4100036621094</v>
       </c>
       <c r="E21">
-        <v>186.5395965576172</v>
+        <v>224.3825225830078</v>
       </c>
       <c r="F21">
-        <v>80965600</v>
+        <v>20176700</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>187.8399963378906</v>
+        <v>225.1799926757812</v>
       </c>
       <c r="B22">
-        <v>193.75</v>
+        <v>225.9299926757812</v>
       </c>
       <c r="C22">
-        <v>185.8399963378906</v>
+        <v>222.9499969482422</v>
       </c>
       <c r="D22">
-        <v>186.3874969482422</v>
+        <v>223.9600067138672</v>
       </c>
       <c r="E22">
-        <v>186.3546295166016</v>
+        <v>223.9325866699219</v>
       </c>
       <c r="F22">
-        <v>96885600</v>
+        <v>18783400</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>184.3524932861328</v>
+        <v>223.25</v>
       </c>
       <c r="B23">
-        <v>185.3650054931641</v>
+        <v>229.8600006103516</v>
       </c>
       <c r="C23">
-        <v>178.2274932861328</v>
+        <v>222</v>
       </c>
       <c r="D23">
-        <v>184.2725067138672</v>
+        <v>228.4299926757812</v>
       </c>
       <c r="E23">
-        <v>184.2400207519531</v>
+        <v>228.4020233154297</v>
       </c>
       <c r="F23">
-        <v>67238400</v>
+        <v>28053200</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>184.7149963378906</v>
+        <v>228.3300018310547</v>
       </c>
       <c r="B24">
-        <v>189.6374969482422</v>
+        <v>228.9900054931641</v>
       </c>
       <c r="C24">
-        <v>183.8600006103516</v>
+        <v>225.2200012207031</v>
       </c>
       <c r="D24">
-        <v>188.8674926757812</v>
+        <v>226.6199951171875</v>
       </c>
       <c r="E24">
-        <v>188.8341979980469</v>
+        <v>226.5922546386719</v>
       </c>
       <c r="F24">
-        <v>58014400</v>
+        <v>19810700</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>190.0774993896484</v>
+        <v>225.1300048828125</v>
       </c>
       <c r="B25">
-        <v>191.5274963378906</v>
+        <v>226.1000061035156</v>
       </c>
       <c r="C25">
-        <v>189.0774993896484</v>
+        <v>219.7700042724609</v>
       </c>
       <c r="D25">
-        <v>190.5724945068359</v>
+        <v>223.3899993896484</v>
       </c>
       <c r="E25">
-        <v>190.5388946533203</v>
+        <v>223.3626556396484</v>
       </c>
       <c r="F25">
-        <v>33235600</v>
+        <v>25443400</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>192.2774963378906</v>
+        <v>223.1199951171875</v>
       </c>
       <c r="B26">
-        <v>194.1999969482422</v>
+        <v>225.3800048828125</v>
       </c>
       <c r="C26">
-        <v>190.8825073242188</v>
+        <v>221.3099975585938</v>
       </c>
       <c r="D26">
-        <v>192.0549926757812</v>
+        <v>221.7700042724609</v>
       </c>
       <c r="E26">
-        <v>192.0211334228516</v>
+        <v>221.7428588867188</v>
       </c>
       <c r="F26">
-        <v>32092400</v>
+        <v>19685600</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>192.8049926757812</v>
+        <v>223.4799957275391</v>
       </c>
       <c r="B27">
-        <v>193.4550018310547</v>
+        <v>226.2599945068359</v>
       </c>
       <c r="C27">
-        <v>188.9450073242188</v>
+        <v>222.6999969482422</v>
       </c>
       <c r="D27">
-        <v>190.3099975585938</v>
+        <v>224.7799987792969</v>
       </c>
       <c r="E27">
-        <v>190.2764434814453</v>
+        <v>224.7524719238281</v>
       </c>
       <c r="F27">
-        <v>27836400</v>
+        <v>24814900</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>193.6125030517578</v>
+        <v>226.8399963378906</v>
       </c>
       <c r="B28">
-        <v>200.7875061035156</v>
+        <v>229.6399993896484</v>
       </c>
       <c r="C28">
-        <v>193.1900024414062</v>
+        <v>218.5800018310547</v>
       </c>
       <c r="D28">
-        <v>199.8500061035156</v>
+        <v>221.5200042724609</v>
       </c>
       <c r="E28">
-        <v>199.8147735595703</v>
+        <v>221.4928894042969</v>
       </c>
       <c r="F28">
-        <v>49543600</v>
+        <v>29750000</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>198.8249969482422</v>
+        <v>222.75</v>
       </c>
       <c r="B29">
-        <v>200.9875030517578</v>
+        <v>224.1000061035156</v>
       </c>
       <c r="C29">
-        <v>196.5700073242188</v>
+        <v>220.8600006103516</v>
       </c>
       <c r="D29">
-        <v>200.2675018310547</v>
+        <v>222.4199981689453</v>
       </c>
       <c r="E29">
-        <v>200.2321929931641</v>
+        <v>222.3927612304688</v>
       </c>
       <c r="F29">
-        <v>36763200</v>
+        <v>19975500</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>199.9924926757812</v>
+        <v>223.0899963378906</v>
       </c>
       <c r="B30">
-        <v>201.625</v>
+        <v>223.6699981689453</v>
       </c>
       <c r="C30">
-        <v>198.6374969482422</v>
+        <v>219.6600036621094</v>
       </c>
       <c r="D30">
-        <v>200.0249938964844</v>
+        <v>223.4100036621094</v>
       </c>
       <c r="E30">
-        <v>199.9897308349609</v>
+        <v>223.3826446533203</v>
       </c>
       <c r="F30">
-        <v>32656800</v>
+        <v>16653800</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>201.25</v>
+        <v>221.8300018310547</v>
       </c>
       <c r="B31">
-        <v>204.5599975585938</v>
+        <v>222.7700042724609</v>
       </c>
       <c r="C31">
-        <v>200.1900024414062</v>
+        <v>219.2700042724609</v>
       </c>
       <c r="D31">
-        <v>202.1199951171875</v>
+        <v>222.4199981689453</v>
       </c>
       <c r="E31">
-        <v>202.0843658447266</v>
+        <v>222.3927612304688</v>
       </c>
       <c r="F31">
-        <v>48013600</v>
+        <v>15603300</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>204.4024963378906</v>
+        <v>223</v>
       </c>
       <c r="B32">
-        <v>205.0525054931641</v>
+        <v>223.2100067138672</v>
       </c>
       <c r="C32">
-        <v>202.8775024414062</v>
+        <v>218.3000030517578</v>
       </c>
       <c r="D32">
-        <v>204.8699951171875</v>
+        <v>219</v>
       </c>
       <c r="E32">
-        <v>204.8338775634766</v>
+        <v>218.9731903076172</v>
       </c>
       <c r="F32">
-        <v>34276400</v>
+        <v>29450300</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>207.375</v>
+        <v>211.4600067138672</v>
       </c>
       <c r="B33">
-        <v>208.4199981689453</v>
+        <v>214.3300018310547</v>
       </c>
       <c r="C33">
-        <v>203.5025024414062</v>
+        <v>206.6199951171875</v>
       </c>
       <c r="D33">
-        <v>206.9850006103516</v>
+        <v>211.1300048828125</v>
       </c>
       <c r="E33">
-        <v>206.9485015869141</v>
+        <v>211.1041564941406</v>
       </c>
       <c r="F33">
-        <v>44670800</v>
+        <v>34944000</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>208.5350036621094</v>
+        <v>214.1699981689453</v>
       </c>
       <c r="B34">
-        <v>208.75</v>
+        <v>214.25</v>
       </c>
       <c r="C34">
-        <v>203.3200073242188</v>
+        <v>209.5</v>
       </c>
       <c r="D34">
-        <v>203.7174987792969</v>
+        <v>212.4600067138672</v>
       </c>
       <c r="E34">
-        <v>203.6815795898438</v>
+        <v>212.4339904785156</v>
       </c>
       <c r="F34">
-        <v>41842800</v>
+        <v>20468800</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>198.5650024414062</v>
+        <v>213.6600036621094</v>
       </c>
       <c r="B35">
-        <v>201.3300018310547</v>
+        <v>219.6000061035156</v>
       </c>
       <c r="C35">
-        <v>197.0075073242188</v>
+        <v>211.9600067138672</v>
       </c>
       <c r="D35">
-        <v>199.0274963378906</v>
+        <v>219.4100036621094</v>
       </c>
       <c r="E35">
-        <v>198.9924011230469</v>
+        <v>219.3831481933594</v>
       </c>
       <c r="F35">
-        <v>50330000</v>
+        <v>26872600</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>199.625</v>
+        <v>221.3999938964844</v>
       </c>
       <c r="B36">
-        <v>200.8025054931641</v>
+        <v>225.3500061035156</v>
       </c>
       <c r="C36">
-        <v>197.5424957275391</v>
+        <v>218.8999938964844</v>
       </c>
       <c r="D36">
-        <v>200.5025024414062</v>
+        <v>224.8200073242188</v>
       </c>
       <c r="E36">
-        <v>200.4671478271484</v>
+        <v>224.79248046875</v>
       </c>
       <c r="F36">
-        <v>29662400</v>
+        <v>24855500</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>202.3999938964844</v>
+        <v>220.6999969482422</v>
       </c>
       <c r="B37">
-        <v>205.3274993896484</v>
+        <v>221.4900054931641</v>
       </c>
       <c r="C37">
-        <v>201.8775024414062</v>
+        <v>218.6100006103516</v>
       </c>
       <c r="D37">
-        <v>205.125</v>
+        <v>220.8099975585938</v>
       </c>
       <c r="E37">
-        <v>205.0888366699219</v>
+        <v>220.782958984375</v>
       </c>
       <c r="F37">
-        <v>32198400</v>
+        <v>21765500</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>204.0050048828125</v>
+        <v>217.1000061035156</v>
       </c>
       <c r="B38">
-        <v>204.6125030517578</v>
+        <v>217.9900054931641</v>
       </c>
       <c r="C38">
-        <v>201.1399993896484</v>
+        <v>213.25</v>
       </c>
       <c r="D38">
-        <v>202.5</v>
+        <v>216.6000061035156</v>
       </c>
       <c r="E38">
-        <v>202.4642944335938</v>
+        <v>216.573486328125</v>
       </c>
       <c r="F38">
-        <v>29070800</v>
+        <v>24521500</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>203.5774993896484</v>
+        <v>212.1399993896484</v>
       </c>
       <c r="B39">
-        <v>204.1775054931641</v>
+        <v>214.1900024414062</v>
       </c>
       <c r="C39">
-        <v>197.5274963378906</v>
+        <v>206.5099945068359</v>
       </c>
       <c r="D39">
-        <v>198.4149932861328</v>
+        <v>206.9900054931641</v>
       </c>
       <c r="E39">
-        <v>198.3800048828125</v>
+        <v>206.9646606445312</v>
       </c>
       <c r="F39">
-        <v>38010000</v>
+        <v>34306900</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>198.1174926757812</v>
+        <v>209.3999938964844</v>
       </c>
       <c r="B40">
-        <v>198.4700012207031</v>
+        <v>210.1699981689453</v>
       </c>
       <c r="C40">
-        <v>188.5850067138672</v>
+        <v>204.6699981689453</v>
       </c>
       <c r="D40">
-        <v>189.6625061035156</v>
+        <v>205.1699981689453</v>
       </c>
       <c r="E40">
-        <v>189.6290740966797</v>
+        <v>205.1448822021484</v>
       </c>
       <c r="F40">
-        <v>55056400</v>
+        <v>21839400</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>190.3049926757812</v>
+        <v>207.6799926757812</v>
       </c>
       <c r="B41">
-        <v>191.5700073242188</v>
+        <v>210.6600036621094</v>
       </c>
       <c r="C41">
-        <v>180.7299957275391</v>
+        <v>206.8800048828125</v>
       </c>
       <c r="D41">
-        <v>181.6100006103516</v>
+        <v>207.1600036621094</v>
       </c>
       <c r="E41">
-        <v>181.5779876708984</v>
+        <v>207.1346435546875</v>
       </c>
       <c r="F41">
-        <v>68822400</v>
+        <v>22080400</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>179.1524963378906</v>
+        <v>207.5</v>
       </c>
       <c r="B42">
-        <v>190.4199981689453</v>
+        <v>208.5899963378906</v>
       </c>
       <c r="C42">
-        <v>178.6549987792969</v>
+        <v>202.0299987792969</v>
       </c>
       <c r="D42">
-        <v>187.7975006103516</v>
+        <v>207.4199981689453</v>
       </c>
       <c r="E42">
-        <v>187.7643890380859</v>
+        <v>207.3946075439453</v>
       </c>
       <c r="F42">
-        <v>74906000</v>
+        <v>24097800</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>187.3000030517578</v>
+        <v>205.0399932861328</v>
       </c>
       <c r="B43">
-        <v>188.3800048828125</v>
+        <v>205.4199981689453</v>
       </c>
       <c r="C43">
-        <v>181.6399993896484</v>
+        <v>195.5500030517578</v>
       </c>
       <c r="D43">
-        <v>186.1199951171875</v>
+        <v>197.3200073242188</v>
       </c>
       <c r="E43">
-        <v>186.0871734619141</v>
+        <v>197.2958526611328</v>
       </c>
       <c r="F43">
-        <v>43468700</v>
+        <v>34563500</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>188.8200073242188</v>
+        <v>199.5</v>
       </c>
       <c r="B44">
-        <v>195.2700042724609</v>
+        <v>206.4799957275391</v>
       </c>
       <c r="C44">
-        <v>187.4199981689453</v>
+        <v>198.5399932861328</v>
       </c>
       <c r="D44">
-        <v>194.1000061035156</v>
+        <v>204.5099945068359</v>
       </c>
       <c r="E44">
-        <v>194.0657806396484</v>
+        <v>204.4849548339844</v>
       </c>
       <c r="F44">
-        <v>37101700</v>
+        <v>27928200</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>196.4199981689453</v>
+        <v>201.1999969482422</v>
       </c>
       <c r="B45">
-        <v>198.8699951171875</v>
+        <v>207.1999969482422</v>
       </c>
       <c r="C45">
-        <v>192.7599945068359</v>
+        <v>200.8000030517578</v>
       </c>
       <c r="D45">
-        <v>195.9400024414062</v>
+        <v>207</v>
       </c>
       <c r="E45">
-        <v>195.9054565429688</v>
+        <v>206.9746551513672</v>
       </c>
       <c r="F45">
-        <v>32382600</v>
+        <v>29720200</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>196.5599975585938</v>
+        <v>210.9199981689453</v>
       </c>
       <c r="B46">
-        <v>197</v>
+        <v>213.2200012207031</v>
       </c>
       <c r="C46">
-        <v>192.5</v>
+        <v>209.7200012207031</v>
       </c>
       <c r="D46">
-        <v>195.5800018310547</v>
+        <v>210.75</v>
       </c>
       <c r="E46">
-        <v>195.5455169677734</v>
+        <v>210.7241973876953</v>
       </c>
       <c r="F46">
-        <v>19567200</v>
+        <v>25691900</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>193.1100006103516</v>
+        <v>211.0099945068359</v>
       </c>
       <c r="B47">
-        <v>194.4199981689453</v>
+        <v>212.0599975585938</v>
       </c>
       <c r="C47">
-        <v>189.1399993896484</v>
+        <v>207.75</v>
       </c>
       <c r="D47">
-        <v>192.9400024414062</v>
+        <v>208.3099975585938</v>
       </c>
       <c r="E47">
-        <v>192.9059906005859</v>
+        <v>208.2845001220703</v>
       </c>
       <c r="F47">
-        <v>20394300</v>
+        <v>15102500</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>192.6499938964844</v>
+        <v>205.75</v>
       </c>
       <c r="B48">
-        <v>196.2200012207031</v>
+        <v>210.6300048828125</v>
       </c>
       <c r="C48">
-        <v>187.4100036621094</v>
+        <v>205.1100006103516</v>
       </c>
       <c r="D48">
-        <v>192.0800018310547</v>
+        <v>206.9499969482422</v>
       </c>
       <c r="E48">
-        <v>192.046142578125</v>
+        <v>206.9246673583984</v>
       </c>
       <c r="F48">
-        <v>24886300</v>
+        <v>16338800</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>193.1900024414062</v>
+        <v>208.2799987792969</v>
       </c>
       <c r="B49">
-        <v>196.4600067138672</v>
+        <v>210.5700073242188</v>
       </c>
       <c r="C49">
-        <v>189.9499969482422</v>
+        <v>205.2799987792969</v>
       </c>
       <c r="D49">
-        <v>195.0299987792969</v>
+        <v>206.7100067138672</v>
       </c>
       <c r="E49">
-        <v>194.99560546875</v>
+        <v>206.6846923828125</v>
       </c>
       <c r="F49">
-        <v>20219100</v>
+        <v>16213400</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>195.1900024414062</v>
+        <v>209.1799926757812</v>
       </c>
       <c r="B50">
-        <v>198.5299987792969</v>
+        <v>209.8999938964844</v>
       </c>
       <c r="C50">
-        <v>193.2799987792969</v>
+        <v>207.1300048828125</v>
       </c>
       <c r="D50">
-        <v>196.6199951171875</v>
+        <v>209.3899993896484</v>
       </c>
       <c r="E50">
-        <v>196.5853271484375</v>
+        <v>209.3643646240234</v>
       </c>
       <c r="F50">
-        <v>19078100</v>
+        <v>18065200</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>194.1799926757812</v>
+        <v>212.8800048828125</v>
       </c>
       <c r="B51">
-        <v>196.3000030517578</v>
+        <v>217.5500030517578</v>
       </c>
       <c r="C51">
-        <v>192.6300048828125</v>
+        <v>211.2200012207031</v>
       </c>
       <c r="D51">
-        <v>194.9900054931641</v>
+        <v>217.4600067138672</v>
       </c>
       <c r="E51">
-        <v>194.9556274414062</v>
+        <v>217.4333801269531</v>
       </c>
       <c r="F51">
-        <v>18322900</v>
+        <v>24358900</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>197</v>
+        <v>218.1000061035156</v>
       </c>
       <c r="B52">
-        <v>199.6100006103516</v>
+        <v>219.3099975585938</v>
       </c>
       <c r="C52">
-        <v>193.6100006103516</v>
+        <v>216.6199951171875</v>
       </c>
       <c r="D52">
-        <v>197.5</v>
+        <v>218.6199951171875</v>
       </c>
       <c r="E52">
-        <v>197.4651794433594</v>
+        <v>218.5932312011719</v>
       </c>
       <c r="F52">
-        <v>21744400</v>
+        <v>22679500</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>197.3999938964844</v>
+        <v>217.4900054931641</v>
       </c>
       <c r="B53">
-        <v>202.2200012207031</v>
+        <v>222.9100036621094</v>
       </c>
       <c r="C53">
-        <v>192.1999969482422</v>
+        <v>216.4400024414062</v>
       </c>
       <c r="D53">
-        <v>198.1499938964844</v>
+        <v>222.2200012207031</v>
       </c>
       <c r="E53">
-        <v>198.1150512695312</v>
+        <v>222.1927947998047</v>
       </c>
       <c r="F53">
-        <v>30181100</v>
+        <v>18949400</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>199.8999938964844</v>
+        <v>222.7599945068359</v>
       </c>
       <c r="B54">
-        <v>203.1799926757812</v>
+        <v>223.7899932861328</v>
       </c>
       <c r="C54">
-        <v>198.2799987792969</v>
+        <v>220.3699951171875</v>
       </c>
       <c r="D54">
-        <v>202.7400054931641</v>
+        <v>222.8999938964844</v>
       </c>
       <c r="E54">
-        <v>202.7042541503906</v>
+        <v>222.8727111816406</v>
       </c>
       <c r="F54">
-        <v>23130900</v>
+        <v>16147300</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>205</v>
+        <v>223.0500030517578</v>
       </c>
       <c r="B55">
-        <v>207.3300018310547</v>
+        <v>224.3300018310547</v>
       </c>
       <c r="C55">
-        <v>203.4199981689453</v>
+        <v>219.8200073242188</v>
       </c>
       <c r="D55">
-        <v>206.3699951171875</v>
+        <v>221.0299987792969</v>
       </c>
       <c r="E55">
-        <v>206.3336029052734</v>
+        <v>221.0029449462891</v>
       </c>
       <c r="F55">
-        <v>21143500</v>
+        <v>14627600</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>205.2400054931641</v>
+        <v>220.9700012207031</v>
       </c>
       <c r="B56">
-        <v>205.6999969482422</v>
+        <v>227.1100006103516</v>
       </c>
       <c r="C56">
-        <v>202.1000061035156</v>
+        <v>220.8300018310547</v>
       </c>
       <c r="D56">
-        <v>203.6600036621094</v>
+        <v>226.9199981689453</v>
       </c>
       <c r="E56">
-        <v>203.6240997314453</v>
+        <v>226.8922119140625</v>
       </c>
       <c r="F56">
-        <v>17825500</v>
+        <v>18759000</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>204.4600067138672</v>
+        <v>228.2299957275391</v>
       </c>
       <c r="B57">
-        <v>205.0800018310547</v>
+        <v>231.3000030517578</v>
       </c>
       <c r="C57">
-        <v>201.4299926757812</v>
+        <v>225.6100006103516</v>
       </c>
       <c r="D57">
-        <v>202.9499969482422</v>
+        <v>227.2599945068359</v>
       </c>
       <c r="E57">
-        <v>202.9142150878906</v>
+        <v>227.232177734375</v>
       </c>
       <c r="F57">
-        <v>14644300</v>
+        <v>24938400</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>203.2200012207031</v>
+        <v>229.7299957275391</v>
       </c>
       <c r="B58">
-        <v>204.3000030517578</v>
+        <v>233.5500030517578</v>
       </c>
       <c r="C58">
-        <v>198.3500061035156</v>
+        <v>227.6999969482422</v>
       </c>
       <c r="D58">
-        <v>199.3600006103516</v>
+        <v>231.6600036621094</v>
       </c>
       <c r="E58">
-        <v>199.3248443603516</v>
+        <v>231.6316375732422</v>
       </c>
       <c r="F58">
-        <v>17923800</v>
+        <v>23023500</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>200.4299926757812</v>
+        <v>239.8899993896484</v>
       </c>
       <c r="B59">
-        <v>200.4900054931641</v>
+        <v>252.5899963378906</v>
       </c>
       <c r="C59">
-        <v>194.3000030517578</v>
+        <v>239.2400054931641</v>
       </c>
       <c r="D59">
-        <v>196.9900054931641</v>
+        <v>247.1699981689453</v>
       </c>
       <c r="E59">
-        <v>196.9552764892578</v>
+        <v>247.1397399902344</v>
       </c>
       <c r="F59">
-        <v>18592500</v>
+        <v>48589800</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>198.6999969482422</v>
+        <v>244.7400054931641</v>
       </c>
       <c r="B60">
-        <v>200.2899932861328</v>
+        <v>250.8999938964844</v>
       </c>
       <c r="C60">
-        <v>196.1999969482422</v>
+        <v>242.8200073242188</v>
       </c>
       <c r="D60">
-        <v>199.0500030517578</v>
+        <v>244.5099945068359</v>
       </c>
       <c r="E60">
-        <v>199.0149078369141</v>
+        <v>244.4800567626953</v>
       </c>
       <c r="F60">
-        <v>15165200</v>
+        <v>24599000</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>199.0500030517578</v>
+        <v>248.7799987792969</v>
       </c>
       <c r="B61">
-        <v>202.1399993896484</v>
+        <v>249.5</v>
       </c>
       <c r="C61">
-        <v>198.5099945068359</v>
+        <v>245.2299957275391</v>
       </c>
       <c r="D61">
-        <v>201.8800048828125</v>
+        <v>249.4100036621094</v>
       </c>
       <c r="E61">
-        <v>201.8444061279297</v>
+        <v>249.3794708251953</v>
       </c>
       <c r="F61">
-        <v>18282500</v>
+        <v>23420400</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>201.3500061035156</v>
+        <v>250.0099945068359</v>
       </c>
       <c r="B62">
-        <v>202.8699951171875</v>
+        <v>257.0899963378906</v>
       </c>
       <c r="C62">
-        <v>194.5299987792969</v>
+        <v>250</v>
       </c>
       <c r="D62">
-        <v>199.5</v>
+        <v>255.6699981689453</v>
       </c>
       <c r="E62">
-        <v>199.4648284912109</v>
+        <v>255.6387023925781</v>
       </c>
       <c r="F62">
-        <v>21087600</v>
+        <v>29213700</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>196.8500061035156</v>
+        <v>256.489990234375</v>
       </c>
       <c r="B63">
-        <v>197.6999969482422</v>
+        <v>258.9400024414062</v>
       </c>
       <c r="C63">
-        <v>192.6699981689453</v>
+        <v>252.2700042724609</v>
       </c>
       <c r="D63">
-        <v>194.5800018310547</v>
+        <v>258.2699890136719</v>
       </c>
       <c r="E63">
-        <v>194.5457000732422</v>
+        <v>258.2383728027344</v>
       </c>
       <c r="F63">
-        <v>20458500</v>
+        <v>26574000</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>195</v>
+        <v>258.2200012207031</v>
       </c>
       <c r="B64">
-        <v>196.3399963378906</v>
+        <v>266.7799987792969</v>
       </c>
       <c r="C64">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="D64">
-        <v>190.3999938964844</v>
+        <v>264.010009765625</v>
       </c>
       <c r="E64">
-        <v>190.3664245605469</v>
+        <v>263.9776916503906</v>
       </c>
       <c r="F64">
-        <v>28591300</v>
+        <v>29411200</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>194.9400024414062</v>
+        <v>266.7000122070312</v>
       </c>
       <c r="B65">
-        <v>204.9499969482422</v>
+        <v>267.8399963378906</v>
       </c>
       <c r="C65">
-        <v>187.6199951171875</v>
+        <v>262.3500061035156</v>
       </c>
       <c r="D65">
-        <v>197.9799957275391</v>
+        <v>265.9800109863281</v>
       </c>
       <c r="E65">
-        <v>197.9450836181641</v>
+        <v>265.9474487304688</v>
       </c>
       <c r="F65">
-        <v>76655500</v>
+        <v>23991000</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>199.9100036621094</v>
+        <v>272.2900085449219</v>
       </c>
       <c r="B66">
-        <v>208.6499938964844</v>
+        <v>313.6499938964844</v>
       </c>
       <c r="C66">
-        <v>199.3300018310547</v>
+        <v>271.1799926757812</v>
       </c>
       <c r="D66">
-        <v>208.1600036621094</v>
+        <v>298.010009765625</v>
       </c>
       <c r="E66">
-        <v>208.1233062744141</v>
+        <v>297.9735107421875</v>
       </c>
       <c r="F66">
-        <v>67503900</v>
+        <v>115363100</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>209.7100067138672</v>
+        <v>301.8699951171875</v>
       </c>
       <c r="B67">
-        <v>219.9700012207031</v>
+        <v>314</v>
       </c>
       <c r="C67">
-        <v>209.5</v>
+        <v>294.1000061035156</v>
       </c>
       <c r="D67">
-        <v>219.5800018310547</v>
+        <v>297.5199890136719</v>
       </c>
       <c r="E67">
-        <v>219.5412902832031</v>
+        <v>297.4835510253906</v>
       </c>
       <c r="F67">
-        <v>57580700</v>
+        <v>85072800</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>217.5299987792969</v>
+        <v>301.489990234375</v>
       </c>
       <c r="B68">
-        <v>219.5899963378906</v>
+        <v>311</v>
       </c>
       <c r="C68">
-        <v>215.3500061035156</v>
+        <v>299.0700073242188</v>
       </c>
       <c r="D68">
-        <v>217.9299926757812</v>
+        <v>308.0400085449219</v>
       </c>
       <c r="E68">
-        <v>217.8915710449219</v>
+        <v>308.0022888183594</v>
       </c>
       <c r="F68">
-        <v>29729900</v>
+        <v>50310100</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>217.3699951171875</v>
+        <v>322.8200073242188</v>
       </c>
       <c r="B69">
-        <v>224.6999969482422</v>
+        <v>323.1000061035156</v>
       </c>
       <c r="C69">
-        <v>217.2200012207031</v>
+        <v>299.6400146484375</v>
       </c>
       <c r="D69">
-        <v>222.1300048828125</v>
+        <v>306.5700073242188</v>
       </c>
       <c r="E69">
-        <v>222.0908355712891</v>
+        <v>306.532470703125</v>
       </c>
       <c r="F69">
-        <v>34770100</v>
+        <v>64674600</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>222</v>
+        <v>293.5599975585938</v>
       </c>
       <c r="B70">
-        <v>223.3999938964844</v>
+        <v>308.5</v>
       </c>
       <c r="C70">
-        <v>217.8999938964844</v>
+        <v>287.7799987792969</v>
       </c>
       <c r="D70">
-        <v>220.6799926757812</v>
+        <v>294.5899963378906</v>
       </c>
       <c r="E70">
-        <v>220.6410827636719</v>
+        <v>294.5539245605469</v>
       </c>
       <c r="F70">
-        <v>23794000</v>
+        <v>63620600</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>221.8399963378906</v>
+        <v>304.6799926757812</v>
       </c>
       <c r="B71">
-        <v>227.2200012207031</v>
+        <v>305.8999938964844</v>
       </c>
       <c r="C71">
-        <v>221.6699981689453</v>
+        <v>297.7699890136719</v>
       </c>
       <c r="D71">
-        <v>226.3600006103516</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="E71">
-        <v>226.3200836181641</v>
+        <v>303.86279296875</v>
       </c>
       <c r="F71">
-        <v>30426700</v>
+        <v>33217200</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>228.3000030517578</v>
+        <v>300.1000061035156</v>
       </c>
       <c r="B72">
-        <v>230.4299926757812</v>
+        <v>306.7999877929688</v>
       </c>
       <c r="C72">
-        <v>225.5099945068359</v>
+        <v>296.2999877929688</v>
       </c>
       <c r="D72">
-        <v>226.8800048828125</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="E72">
-        <v>226.8399963378906</v>
+        <v>303.86279296875</v>
       </c>
       <c r="F72">
-        <v>26258000</v>
+        <v>41215100</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>226.9499969482422</v>
+        <v>305.5199890136719</v>
       </c>
       <c r="B73">
-        <v>226.9499969482422</v>
+        <v>306.4400024414062</v>
       </c>
       <c r="C73">
-        <v>221.1999969482422</v>
+        <v>292.4700012207031</v>
       </c>
       <c r="D73">
-        <v>223.8500061035156</v>
+        <v>300.25</v>
       </c>
       <c r="E73">
-        <v>223.8500061035156</v>
+        <v>300.2132263183594</v>
       </c>
       <c r="F73">
-        <v>25985000</v>
+        <v>38490900</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>224.8500061035156</v>
+        <v>297.5899963378906</v>
       </c>
       <c r="B74">
-        <v>226.9700012207031</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="C74">
-        <v>223.5700073242188</v>
+        <v>297.0599975585938</v>
       </c>
       <c r="D74">
-        <v>224.4100036621094</v>
+        <v>302.0299987792969</v>
       </c>
       <c r="E74">
-        <v>224.4100036621094</v>
+        <v>301.9930114746094</v>
       </c>
       <c r="F74">
-        <v>20176700</v>
+        <v>26448400</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>225.1799926757812</v>
+        <v>304.1799926757812</v>
       </c>
       <c r="B75">
-        <v>225.9299926757812</v>
+        <v>305.0899963378906</v>
       </c>
       <c r="C75">
-        <v>222.9499969482422</v>
+        <v>288</v>
       </c>
       <c r="D75">
-        <v>223.9600067138672</v>
+        <v>292.6099853515625</v>
       </c>
       <c r="E75">
-        <v>223.9600067138672</v>
+        <v>292.5741577148438</v>
       </c>
       <c r="F75">
-        <v>18783400</v>
+        <v>42850800</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>223.25</v>
+        <v>323.6700134277344</v>
       </c>
       <c r="B76">
-        <v>229.8600006103516</v>
+        <v>327.6000061035156</v>
       </c>
       <c r="C76">
-        <v>222</v>
+        <v>313.2099914550781</v>
       </c>
       <c r="D76">
-        <v>228.4299926757812</v>
+        <v>316.75</v>
       </c>
       <c r="E76">
-        <v>228.4299926757812</v>
+        <v>316.7112121582031</v>
       </c>
       <c r="F76">
-        <v>28053200</v>
+        <v>78171100</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>228.3300018310547</v>
+        <v>322.4299926757812</v>
       </c>
       <c r="B77">
-        <v>228.9900054931641</v>
+        <v>330.8800048828125</v>
       </c>
       <c r="C77">
-        <v>225.2200012207031</v>
+        <v>319.0499877929688</v>
       </c>
       <c r="D77">
-        <v>226.6199951171875</v>
+        <v>329.8500061035156</v>
       </c>
       <c r="E77">
-        <v>226.6199951171875</v>
+        <v>329.8096313476562</v>
       </c>
       <c r="F77">
-        <v>19810700</v>
+        <v>53386700</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>225.1300048828125</v>
+        <v>335.1700134277344</v>
       </c>
       <c r="B78">
-        <v>226.1000061035156</v>
+        <v>346.4700012207031</v>
       </c>
       <c r="C78">
-        <v>219.7700042724609</v>
+        <v>319</v>
       </c>
       <c r="D78">
-        <v>223.3899993896484</v>
+        <v>319.5599975585938</v>
       </c>
       <c r="E78">
-        <v>223.3899993896484</v>
+        <v>319.5208740234375</v>
       </c>
       <c r="F78">
-        <v>25443400</v>
+        <v>75433500</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>223.1199951171875</v>
+        <v>315.3500061035156</v>
       </c>
       <c r="B79">
-        <v>225.3800048828125</v>
+        <v>323.6000061035156</v>
       </c>
       <c r="C79">
-        <v>221.3099975585938</v>
+        <v>308.7999877929688</v>
       </c>
       <c r="D79">
-        <v>221.7700042724609</v>
+        <v>317.4599914550781</v>
       </c>
       <c r="E79">
-        <v>221.7700042724609</v>
+        <v>317.4211120605469</v>
       </c>
       <c r="F79">
-        <v>19685600</v>
+        <v>53216300</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>223.4799957275391</v>
+        <v>314.6099853515625</v>
       </c>
       <c r="B80">
-        <v>226.2599945068359</v>
+        <v>328.5499877929688</v>
       </c>
       <c r="C80">
-        <v>222.6999969482422</v>
+        <v>309.2799987792969</v>
       </c>
       <c r="D80">
-        <v>224.7799987792969</v>
+        <v>326.739990234375</v>
       </c>
       <c r="E80">
-        <v>224.7799987792969</v>
+        <v>326.6999816894531</v>
       </c>
       <c r="F80">
-        <v>24814900</v>
+        <v>43516200</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>226.8399963378906</v>
+        <v>326</v>
       </c>
       <c r="B81">
-        <v>229.6399993896484</v>
+        <v>327.1000061035156</v>
       </c>
       <c r="C81">
-        <v>218.5800018310547</v>
+        <v>313.5</v>
       </c>
       <c r="D81">
-        <v>221.5200042724609</v>
+        <v>315.0299987792969</v>
       </c>
       <c r="E81">
-        <v>221.5200042724609</v>
+        <v>314.9914245605469</v>
       </c>
       <c r="F81">
-        <v>29750000</v>
+        <v>28306900</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>222.75</v>
+        <v>323.6600036621094</v>
       </c>
       <c r="B82">
-        <v>224.1000061035156</v>
+        <v>334.1199951171875</v>
       </c>
       <c r="C82">
-        <v>220.8600006103516</v>
+        <v>320.3599853515625</v>
       </c>
       <c r="D82">
-        <v>222.4199981689453</v>
+        <v>333.760009765625</v>
       </c>
       <c r="E82">
-        <v>222.4199981689453</v>
+        <v>333.7191467285156</v>
       </c>
       <c r="F82">
-        <v>19975500</v>
+        <v>45496400</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>223.0899963378906</v>
+        <v>331.6900024414062</v>
       </c>
       <c r="B83">
-        <v>223.6699981689453</v>
+        <v>333.5299987792969</v>
       </c>
       <c r="C83">
-        <v>219.6600036621094</v>
+        <v>318.6400146484375</v>
       </c>
       <c r="D83">
-        <v>223.4100036621094</v>
+        <v>326.760009765625</v>
       </c>
       <c r="E83">
-        <v>223.4100036621094</v>
+        <v>326.7200012207031</v>
       </c>
       <c r="F83">
-        <v>16653800</v>
+        <v>62206600</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>221.8300018310547</v>
+        <v>332.1900024414062</v>
       </c>
       <c r="B84">
-        <v>222.7700042724609</v>
+        <v>332.8900146484375</v>
       </c>
       <c r="C84">
-        <v>219.2700042724609</v>
+        <v>313.7999877929688</v>
       </c>
       <c r="D84">
-        <v>222.4199981689453</v>
+        <v>314.3500061035156</v>
       </c>
       <c r="E84">
-        <v>222.4199981689453</v>
+        <v>314.3500061035156</v>
       </c>
       <c r="F84">
-        <v>15603300</v>
+        <v>48436800</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>223</v>
+        <v>312.1400146484375</v>
       </c>
       <c r="B85">
-        <v>223.2100067138672</v>
+        <v>324.7799987792969</v>
       </c>
       <c r="C85">
-        <v>218.3000030517578</v>
+        <v>310.25</v>
       </c>
       <c r="D85">
-        <v>219</v>
+        <v>321.260009765625</v>
       </c>
       <c r="E85">
-        <v>219</v>
+        <v>321.260009765625</v>
       </c>
       <c r="F85">
-        <v>29450300</v>
+        <v>47289000</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>211.4600067138672</v>
+        <v>320</v>
       </c>
       <c r="B86">
-        <v>214.3300018310547</v>
+        <v>321.2900085449219</v>
       </c>
       <c r="C86">
-        <v>206.6199951171875</v>
+        <v>301.2999877929688</v>
       </c>
       <c r="D86">
-        <v>211.1300048828125</v>
+        <v>306.9299926757812</v>
       </c>
       <c r="E86">
-        <v>211.1300048828125</v>
+        <v>306.9299926757812</v>
       </c>
       <c r="F86">
-        <v>34944000</v>
+        <v>54382300</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>214.1699981689453</v>
+        <v>298.7999877929688</v>
       </c>
       <c r="B87">
-        <v>214.25</v>
+        <v>302.4100036621094</v>
       </c>
       <c r="C87">
-        <v>209.5</v>
+        <v>280.3800048828125</v>
       </c>
       <c r="D87">
-        <v>212.4600067138672</v>
+        <v>300.3699951171875</v>
       </c>
       <c r="E87">
-        <v>212.4600067138672</v>
+        <v>300.3699951171875</v>
       </c>
       <c r="F87">
-        <v>20468800</v>
+        <v>65893800</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>213.6600036621094</v>
+        <v>309.5700073242188</v>
       </c>
       <c r="B88">
-        <v>219.6000061035156</v>
+        <v>324.489990234375</v>
       </c>
       <c r="C88">
-        <v>211.9600067138672</v>
+        <v>306.510009765625</v>
       </c>
       <c r="D88">
-        <v>219.4100036621094</v>
+        <v>324.2699890136719</v>
       </c>
       <c r="E88">
-        <v>219.4100036621094</v>
+        <v>324.2699890136719</v>
       </c>
       <c r="F88">
-        <v>26872600</v>
+        <v>59305300</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>221.3999938964844</v>
+        <v>319.989990234375</v>
       </c>
       <c r="B89">
-        <v>225.3500061035156</v>
+        <v>322.8999938964844</v>
       </c>
       <c r="C89">
-        <v>218.8999938964844</v>
+        <v>314.2099914550781</v>
       </c>
       <c r="D89">
-        <v>224.8200073242188</v>
+        <v>318.260009765625</v>
       </c>
       <c r="E89">
-        <v>224.8200073242188</v>
+        <v>318.260009765625</v>
       </c>
       <c r="F89">
-        <v>24855500</v>
+        <v>47555100</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>220.6999969482422</v>
+        <v>317.3399963378906</v>
       </c>
       <c r="B90">
-        <v>221.4900054931641</v>
+        <v>322.0499877929688</v>
       </c>
       <c r="C90">
-        <v>218.6100006103516</v>
+        <v>304.2799987792969</v>
       </c>
       <c r="D90">
-        <v>220.8099975585938</v>
+        <v>304.8999938964844</v>
       </c>
       <c r="E90">
-        <v>220.8099975585938</v>
+        <v>304.8999938964844</v>
       </c>
       <c r="F90">
-        <v>21765500</v>
+        <v>48850700</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>217.1000061035156</v>
+        <v>311.5</v>
       </c>
       <c r="B91">
-        <v>217.9900054931641</v>
+        <v>313.0499877929688</v>
       </c>
       <c r="C91">
-        <v>213.25</v>
+        <v>298.6099853515625</v>
       </c>
       <c r="D91">
-        <v>216.6000061035156</v>
+        <v>301.9800109863281</v>
       </c>
       <c r="E91">
-        <v>216.6000061035156</v>
+        <v>301.9800109863281</v>
       </c>
       <c r="F91">
-        <v>24521500</v>
+        <v>48850500</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>212.1399993896484</v>
+        <v>302.489990234375</v>
       </c>
       <c r="B92">
-        <v>214.1900024414062</v>
+        <v>302.9400024414062</v>
       </c>
       <c r="C92">
-        <v>206.5099945068359</v>
+        <v>281.1600036621094</v>
       </c>
       <c r="D92">
-        <v>206.9900054931641</v>
+        <v>281.6099853515625</v>
       </c>
       <c r="E92">
-        <v>206.9900054931641</v>
+        <v>281.6099853515625</v>
       </c>
       <c r="F92">
-        <v>34306900</v>
+        <v>59834400</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>209.3999938964844</v>
+        <v>276.989990234375</v>
       </c>
       <c r="B93">
-        <v>210.1699981689453</v>
+        <v>286.7799987792969</v>
       </c>
       <c r="C93">
-        <v>204.6699981689453</v>
+        <v>272.5</v>
       </c>
       <c r="D93">
-        <v>205.1699981689453</v>
+        <v>283.3699951171875</v>
       </c>
       <c r="E93">
-        <v>205.1699981689453</v>
+        <v>283.3699951171875</v>
       </c>
       <c r="F93">
-        <v>21839400</v>
+        <v>66703500</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>207.6799926757812</v>
+        <v>284</v>
       </c>
       <c r="B94">
-        <v>210.6600036621094</v>
+        <v>305</v>
       </c>
       <c r="C94">
-        <v>206.8800048828125</v>
+        <v>278.3800048828125</v>
       </c>
       <c r="D94">
-        <v>207.1600036621094</v>
+        <v>304.5899963378906</v>
       </c>
       <c r="E94">
-        <v>207.1600036621094</v>
+        <v>304.5899963378906</v>
       </c>
       <c r="F94">
-        <v>22080400</v>
+        <v>69829700</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>207.5</v>
+        <v>311.5199890136719</v>
       </c>
       <c r="B95">
-        <v>208.5899963378906</v>
+        <v>311.6000061035156</v>
       </c>
       <c r="C95">
-        <v>202.0299987792969</v>
+        <v>280.9299926757812</v>
       </c>
       <c r="D95">
-        <v>207.4199981689453</v>
+        <v>283.8699951171875</v>
       </c>
       <c r="E95">
-        <v>207.4199981689453</v>
+        <v>283.8699951171875</v>
       </c>
       <c r="F95">
-        <v>24097800</v>
+        <v>70736600</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>205.0399932861328</v>
+        <v>279.8500061035156</v>
       </c>
       <c r="B96">
-        <v>205.4199981689453</v>
+        <v>289.2200012207031</v>
       </c>
       <c r="C96">
-        <v>195.5500030517578</v>
+        <v>277.6000061035156</v>
       </c>
       <c r="D96">
-        <v>197.3200073242188</v>
+        <v>278.010009765625</v>
       </c>
       <c r="E96">
-        <v>197.3200073242188</v>
+        <v>278.010009765625</v>
       </c>
       <c r="F96">
-        <v>34563500</v>
+        <v>71375800</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>199.5</v>
+        <v>273.0499877929688</v>
       </c>
       <c r="B97">
-        <v>206.4799957275391</v>
+        <v>281.4400024414062</v>
       </c>
       <c r="C97">
-        <v>198.5399932861328</v>
+        <v>271.4500122070312</v>
       </c>
       <c r="D97">
-        <v>204.5099945068359</v>
+        <v>277.1900024414062</v>
       </c>
       <c r="E97">
-        <v>204.5099945068359</v>
+        <v>277.1900024414062</v>
       </c>
       <c r="F97">
-        <v>27928200</v>
+        <v>46184700</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>201.1999969482422</v>
+        <v>283.739990234375</v>
       </c>
       <c r="B98">
-        <v>207.1999969482422</v>
+        <v>291.2000122070312</v>
       </c>
       <c r="C98">
-        <v>200.8000030517578</v>
+        <v>274.010009765625</v>
       </c>
       <c r="D98">
-        <v>207</v>
+        <v>290.75</v>
       </c>
       <c r="E98">
-        <v>207</v>
+        <v>290.75</v>
       </c>
       <c r="F98">
-        <v>29720200</v>
+        <v>52438500</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>210.9199981689453</v>
+        <v>288.9100036621094</v>
       </c>
       <c r="B99">
-        <v>213.2200012207031</v>
+        <v>295.5499877929688</v>
       </c>
       <c r="C99">
-        <v>209.7200012207031</v>
+        <v>284.489990234375</v>
       </c>
       <c r="D99">
-        <v>210.75</v>
+        <v>294</v>
       </c>
       <c r="E99">
-        <v>210.75</v>
+        <v>294</v>
       </c>
       <c r="F99">
-        <v>25691900</v>
+        <v>39518400</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>211.0099945068359</v>
+        <v>297.5499877929688</v>
       </c>
       <c r="B100">
-        <v>212.0599975585938</v>
+        <v>300.5899963378906</v>
       </c>
       <c r="C100">
-        <v>207.75</v>
+        <v>294.3099975585938</v>
       </c>
       <c r="D100">
-        <v>208.3099975585938</v>
+        <v>296.3999938964844</v>
       </c>
       <c r="E100">
-        <v>208.3099975585938</v>
+        <v>296.3999938964844</v>
       </c>
       <c r="F100">
-        <v>15102500</v>
+        <v>34302200</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>205.75</v>
+        <v>296.6000061035156</v>
       </c>
       <c r="B101">
-        <v>210.6300048828125</v>
+        <v>310.8699951171875</v>
       </c>
       <c r="C101">
-        <v>205.1100006103516</v>
+        <v>296.3999938964844</v>
       </c>
       <c r="D101">
-        <v>206.9499969482422</v>
+        <v>309.4500122070312</v>
       </c>
       <c r="E101">
-        <v>206.9499969482422</v>
+        <v>309.4500122070312</v>
       </c>
       <c r="F101">
-        <v>16338800</v>
+        <v>40368600</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>208.2799987792969</v>
+        <v>313.1199951171875</v>
       </c>
       <c r="B102">
-        <v>210.5700073242188</v>
+        <v>313.2999877929688</v>
       </c>
       <c r="C102">
-        <v>205.2799987792969</v>
+        <v>300.1199951171875</v>
       </c>
       <c r="D102">
-        <v>206.7100067138672</v>
+        <v>303.2200012207031</v>
       </c>
       <c r="E102">
-        <v>206.7100067138672</v>
+        <v>303.2200012207031</v>
       </c>
       <c r="F102">
-        <v>16213400</v>
+        <v>42059100</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>209.1799926757812</v>
+        <v>302.7300109863281</v>
       </c>
       <c r="B103">
-        <v>209.8999938964844</v>
+        <v>305.4800109863281</v>
       </c>
       <c r="C103">
-        <v>207.1300048828125</v>
+        <v>293.6600036621094</v>
       </c>
       <c r="D103">
-        <v>209.3899993896484</v>
+        <v>300.010009765625</v>
       </c>
       <c r="E103">
-        <v>209.3899993896484</v>
+        <v>300.010009765625</v>
       </c>
       <c r="F103">
-        <v>18065200</v>
+        <v>34313900</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>212.8800048828125</v>
+        <v>298.2699890136719</v>
       </c>
       <c r="B104">
-        <v>217.5500030517578</v>
+        <v>304.5700073242188</v>
       </c>
       <c r="C104">
-        <v>211.2200012207031</v>
+        <v>295.3999938964844</v>
       </c>
       <c r="D104">
-        <v>217.4600067138672</v>
+        <v>295.8599853515625</v>
       </c>
       <c r="E104">
-        <v>217.4600067138672</v>
+        <v>295.8599853515625</v>
       </c>
       <c r="F104">
-        <v>24358900</v>
+        <v>30886400</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>218.1000061035156</v>
+        <v>296.739990234375</v>
       </c>
       <c r="B105">
-        <v>219.3099975585938</v>
+        <v>300.2999877929688</v>
       </c>
       <c r="C105">
-        <v>216.6199951171875</v>
+        <v>293.3099975585938</v>
       </c>
       <c r="D105">
-        <v>218.6199951171875</v>
+        <v>294.1099853515625</v>
       </c>
       <c r="E105">
-        <v>218.6199951171875</v>
+        <v>294.1099853515625</v>
       </c>
       <c r="F105">
-        <v>22679500</v>
+        <v>26653000</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>217.4900054931641</v>
+        <v>298.1499938964844</v>
       </c>
       <c r="B106">
-        <v>222.9100036621094</v>
+        <v>307.1099853515625</v>
       </c>
       <c r="C106">
-        <v>216.4400024414062</v>
+        <v>297.8500061035156</v>
       </c>
       <c r="D106">
-        <v>222.2200012207031</v>
+        <v>301.2099914550781</v>
       </c>
       <c r="E106">
-        <v>222.2200012207031</v>
+        <v>301.2099914550781</v>
       </c>
       <c r="F106">
-        <v>18949400</v>
+        <v>39154700</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>222.7599945068359</v>
+        <v>302.7699890136719</v>
       </c>
       <c r="B107">
-        <v>223.7899932861328</v>
+        <v>304.6799926757812</v>
       </c>
       <c r="C107">
-        <v>220.3699951171875</v>
+        <v>283.489990234375</v>
       </c>
       <c r="D107">
-        <v>222.8999938964844</v>
+        <v>292.8999938964844</v>
       </c>
       <c r="E107">
-        <v>222.8999938964844</v>
+        <v>292.8999938964844</v>
       </c>
       <c r="F107">
-        <v>16147300</v>
+        <v>52715400</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>223.0500030517578</v>
+        <v>289.489990234375</v>
       </c>
       <c r="B108">
-        <v>224.3300018310547</v>
+        <v>294.1600036621094</v>
       </c>
       <c r="C108">
-        <v>219.8200073242188</v>
+        <v>275.3299865722656</v>
       </c>
       <c r="D108">
-        <v>221.0299987792969</v>
+        <v>276.0400085449219</v>
       </c>
       <c r="E108">
-        <v>221.0299987792969</v>
+        <v>276.0400085449219</v>
       </c>
       <c r="F108">
-        <v>14627600</v>
+        <v>49806400</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>220.9700012207031</v>
+        <v>276.3999938964844</v>
       </c>
       <c r="B109">
-        <v>227.1100006103516</v>
+        <v>284.3800048828125</v>
       </c>
       <c r="C109">
-        <v>220.8300018310547</v>
+        <v>270.6499938964844</v>
       </c>
       <c r="D109">
-        <v>226.9199981689453</v>
+        <v>281.7799987792969</v>
       </c>
       <c r="E109">
-        <v>226.9199981689453</v>
+        <v>281.7799987792969</v>
       </c>
       <c r="F109">
-        <v>18759000</v>
+        <v>45418600</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>228.2299957275391</v>
+        <v>281.4100036621094</v>
       </c>
       <c r="B110">
-        <v>231.3000030517578</v>
+        <v>284.2200012207031</v>
       </c>
       <c r="C110">
-        <v>225.6100006103516</v>
+        <v>270.5700073242188</v>
       </c>
       <c r="D110">
-        <v>227.2599945068359</v>
+        <v>272.4700012207031</v>
       </c>
       <c r="E110">
-        <v>227.2599945068359</v>
+        <v>272.4700012207031</v>
       </c>
       <c r="F110">
-        <v>24938400</v>
+        <v>40920100</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>229.7299957275391</v>
+        <v>265.8099975585938</v>
       </c>
       <c r="B111">
-        <v>233.5500030517578</v>
+        <v>274.6900024414062</v>
       </c>
       <c r="C111">
-        <v>227.6999969482422</v>
+        <v>256.4400024414062</v>
       </c>
       <c r="D111">
-        <v>231.6600036621094</v>
+        <v>274</v>
       </c>
       <c r="E111">
-        <v>231.6600036621094</v>
+        <v>274</v>
       </c>
       <c r="F111">
-        <v>23023500</v>
+        <v>59468100</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>239.8899993896484</v>
+        <v>273.2300109863281</v>
       </c>
       <c r="B112">
-        <v>252.5899963378906</v>
+        <v>280.6499938964844</v>
       </c>
       <c r="C112">
-        <v>239.2400054931641</v>
+        <v>268.3900146484375</v>
       </c>
       <c r="D112">
-        <v>247.1699981689453</v>
+        <v>278.1700134277344</v>
       </c>
       <c r="E112">
-        <v>247.1699981689453</v>
+        <v>278.1700134277344</v>
       </c>
       <c r="F112">
-        <v>48589800</v>
+        <v>40408900</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>244.7400054931641</v>
+        <v>280.6700134277344</v>
       </c>
       <c r="B113">
-        <v>250.8999938964844</v>
+        <v>285.9500122070312</v>
       </c>
       <c r="C113">
-        <v>242.8200073242188</v>
+        <v>276.0799865722656</v>
       </c>
       <c r="D113">
-        <v>244.5099945068359</v>
+        <v>279.989990234375</v>
       </c>
       <c r="E113">
-        <v>244.5099945068359</v>
+        <v>279.989990234375</v>
       </c>
       <c r="F113">
-        <v>24599000</v>
+        <v>38341300</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>248.7799987792969</v>
+        <v>283.7900085449219</v>
       </c>
       <c r="B114">
-        <v>249.5</v>
+        <v>284.7999877929688</v>
       </c>
       <c r="C114">
-        <v>245.2299957275391</v>
+        <v>264.9800109863281</v>
       </c>
       <c r="D114">
-        <v>249.4100036621094</v>
+        <v>265.75</v>
       </c>
       <c r="E114">
-        <v>249.4100036621094</v>
+        <v>265.75</v>
       </c>
       <c r="F114">
-        <v>23420400</v>
+        <v>54017100</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>250.0099945068359</v>
+        <v>263</v>
       </c>
       <c r="B115">
-        <v>257.0899963378906</v>
+        <v>271.9700012207031</v>
       </c>
       <c r="C115">
-        <v>250</v>
+        <v>262.1000061035156</v>
       </c>
       <c r="D115">
-        <v>255.6699981689453</v>
+        <v>269.4200134277344</v>
       </c>
       <c r="E115">
-        <v>255.6699981689453</v>
+        <v>269.4200134277344</v>
       </c>
       <c r="F115">
-        <v>29213700</v>
+        <v>39522800</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>256.489990234375</v>
+        <v>262.6000061035156</v>
       </c>
       <c r="B116">
-        <v>258.9400024414062</v>
+        <v>266.3800048828125</v>
       </c>
       <c r="C116">
-        <v>252.2700042724609</v>
+        <v>257.7000122070312</v>
       </c>
       <c r="D116">
-        <v>258.2699890136719</v>
+        <v>259.0299987792969</v>
       </c>
       <c r="E116">
-        <v>258.2699890136719</v>
+        <v>259.0299987792969</v>
       </c>
       <c r="F116">
-        <v>26574000</v>
+        <v>42427000</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>258.2200012207031</v>
+        <v>260.7900085449219</v>
       </c>
       <c r="B117">
-        <v>266.7799987792969</v>
+        <v>265.4299926757812</v>
       </c>
       <c r="C117">
-        <v>258</v>
+        <v>250.5200042724609</v>
       </c>
       <c r="D117">
-        <v>264.010009765625</v>
+        <v>250.6699981689453</v>
       </c>
       <c r="E117">
-        <v>264.010009765625</v>
+        <v>250.6699981689453</v>
       </c>
       <c r="F117">
-        <v>29411200</v>
+        <v>48831500</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>266.7000122070312</v>
+        <v>253.0399932861328</v>
       </c>
       <c r="B118">
-        <v>267.8399963378906</v>
+        <v>255.7899932861328</v>
       </c>
       <c r="C118">
-        <v>262.3500061035156</v>
+        <v>240.7799987792969</v>
       </c>
       <c r="D118">
-        <v>265.9800109863281</v>
+        <v>241.5</v>
       </c>
       <c r="E118">
-        <v>265.9800109863281</v>
+        <v>241.5</v>
       </c>
       <c r="F118">
-        <v>23991000</v>
+        <v>43518100</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>272.2900085449219</v>
+        <v>235.0700073242188</v>
       </c>
       <c r="B119">
-        <v>313.6499938964844</v>
+        <v>248.2299957275391</v>
       </c>
       <c r="C119">
-        <v>271.1799926757812</v>
+        <v>232.6300048828125</v>
       </c>
       <c r="D119">
-        <v>298.010009765625</v>
+        <v>233.7400054931641</v>
       </c>
       <c r="E119">
-        <v>298.010009765625</v>
+        <v>233.7400054931641</v>
       </c>
       <c r="F119">
-        <v>115363100</v>
+        <v>71895800</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>301.8699951171875</v>
+        <v>223.3000030517578</v>
       </c>
       <c r="B120">
-        <v>314</v>
+        <v>233.8000030517578</v>
       </c>
       <c r="C120">
-        <v>294.1000061035156</v>
+        <v>208.8800048828125</v>
       </c>
       <c r="D120">
-        <v>297.5199890136719</v>
+        <v>233.7200012207031</v>
       </c>
       <c r="E120">
-        <v>297.5199890136719</v>
+        <v>233.7200012207031</v>
       </c>
       <c r="F120">
-        <v>85072800</v>
+        <v>91398200</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>301.489990234375</v>
+        <v>225.4600067138672</v>
       </c>
       <c r="B121">
-        <v>311</v>
+        <v>229.4299926757812</v>
       </c>
       <c r="C121">
-        <v>299.0700073242188</v>
+        <v>220</v>
       </c>
       <c r="D121">
-        <v>308.0400085449219</v>
+        <v>223.2400054931641</v>
       </c>
       <c r="E121">
-        <v>308.0400085449219</v>
+        <v>223.2400054931641</v>
       </c>
       <c r="F121">
-        <v>50310100</v>
+        <v>66461600</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>322.8200073242188</v>
+        <v>232.3999938964844</v>
       </c>
       <c r="B122">
-        <v>323.1000061035156</v>
+        <v>240.5700073242188</v>
       </c>
       <c r="C122">
-        <v>299.6400146484375</v>
+        <v>223</v>
       </c>
       <c r="D122">
-        <v>306.5700073242188</v>
+        <v>227.7200012207031</v>
       </c>
       <c r="E122">
-        <v>306.5700073242188</v>
+        <v>227.7200012207031</v>
       </c>
       <c r="F122">
-        <v>64674600</v>
+        <v>75595900</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>293.5599975585938</v>
+        <v>235.6799926757812</v>
       </c>
       <c r="B123">
-        <v>308.5</v>
+        <v>239.9499969482422</v>
       </c>
       <c r="C123">
-        <v>287.7799987792969</v>
+        <v>216.75</v>
       </c>
       <c r="D123">
-        <v>294.5899963378906</v>
+        <v>219.4400024414062</v>
       </c>
       <c r="E123">
-        <v>294.5899963378906</v>
+        <v>219.4400024414062</v>
       </c>
       <c r="F123">
-        <v>63620600</v>
+        <v>57335300</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>304.6799926757812</v>
+        <v>220.1199951171875</v>
       </c>
       <c r="B124">
-        <v>305.8999938964844</v>
+        <v>228.5800018310547</v>
       </c>
       <c r="C124">
-        <v>297.7699890136719</v>
+        <v>212.9600067138672</v>
       </c>
       <c r="D124">
-        <v>303.8999938964844</v>
+        <v>228.3999938964844</v>
       </c>
       <c r="E124">
-        <v>303.8999938964844</v>
+        <v>228.3999938964844</v>
       </c>
       <c r="F124">
-        <v>33217200</v>
+        <v>54377400</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>300.1000061035156</v>
+        <v>231.8200073242188</v>
       </c>
       <c r="B125">
-        <v>306.7999877929688</v>
+        <v>245.0899963378906</v>
       </c>
       <c r="C125">
-        <v>296.2999877929688</v>
+        <v>230.5200042724609</v>
       </c>
       <c r="D125">
-        <v>303.8999938964844</v>
+        <v>244.8600006103516</v>
       </c>
       <c r="E125">
-        <v>303.8999938964844</v>
+        <v>244.8600006103516</v>
       </c>
       <c r="F125">
-        <v>41215100</v>
+        <v>56468000</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>305.5199890136719</v>
+        <v>251.0399932861328</v>
       </c>
       <c r="B126">
-        <v>306.4400024414062</v>
+        <v>251.4499969482422</v>
       </c>
       <c r="C126">
-        <v>292.4700012207031</v>
+        <v>238.8999938964844</v>
       </c>
       <c r="D126">
-        <v>300.25</v>
+        <v>246.3800048828125</v>
       </c>
       <c r="E126">
-        <v>300.25</v>
+        <v>246.3800048828125</v>
       </c>
       <c r="F126">
-        <v>38490900</v>
+        <v>51708100</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>297.5899963378906</v>
+        <v>257.9400024414062</v>
       </c>
       <c r="B127">
-        <v>303.8999938964844</v>
+        <v>258.1700134277344</v>
       </c>
       <c r="C127">
-        <v>297.0599975585938</v>
+        <v>245.5299987792969</v>
       </c>
       <c r="D127">
-        <v>302.0299987792969</v>
+        <v>252.4199981689453</v>
       </c>
       <c r="E127">
-        <v>302.0299987792969</v>
+        <v>252.4199981689453</v>
       </c>
       <c r="F127">
-        <v>26448400</v>
+        <v>54341900</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>304.1799926757812</v>
+        <v>244.5800018310547</v>
       </c>
       <c r="B128">
-        <v>305.0899963378906</v>
+        <v>250.7700042724609</v>
       </c>
       <c r="C128">
-        <v>288</v>
+        <v>237.8000030517578</v>
       </c>
       <c r="D128">
-        <v>292.6099853515625</v>
+        <v>239.4799957275391</v>
       </c>
       <c r="E128">
-        <v>292.6099853515625</v>
+        <v>239.4799957275391</v>
       </c>
       <c r="F128">
-        <v>42850800</v>
+        <v>41017800</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>323.6700134277344</v>
+        <v>239.7200012207031</v>
       </c>
       <c r="B129">
-        <v>327.6000061035156</v>
+        <v>246.3300018310547</v>
       </c>
       <c r="C129">
-        <v>313.2099914550781</v>
+        <v>236.3300018310547</v>
       </c>
       <c r="D129">
-        <v>316.75</v>
+        <v>243.1900024414062</v>
       </c>
       <c r="E129">
-        <v>316.75</v>
+        <v>243.1900024414062</v>
       </c>
       <c r="F129">
-        <v>78171100</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>322.4299926757812</v>
-      </c>
-      <c r="B130">
-        <v>330.8800048828125</v>
-      </c>
-      <c r="C130">
-        <v>319.0499877929688</v>
-      </c>
-      <c r="D130">
-        <v>329.8500061035156</v>
-      </c>
-      <c r="E130">
-        <v>329.8500061035156</v>
-      </c>
-      <c r="F130">
-        <v>53126300</v>
+        <v>35205523</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/NVDA/HighLow.xlsx
+++ b/Stocks/NVDA/HighLow.xlsx
@@ -2912,7 +2912,7 @@
         <v>246.3800048828125</v>
       </c>
       <c r="F126">
-        <v>51708100</v>
+        <v>51892500</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2960,10 +2960,10 @@
         <v>239.7200012207031</v>
       </c>
       <c r="B129">
-        <v>246.3300018310547</v>
+        <v>246.3500061035156</v>
       </c>
       <c r="C129">
-        <v>236.3300018310547</v>
+        <v>236.3200073242188</v>
       </c>
       <c r="D129">
         <v>243.1900024414062</v>
@@ -2972,7 +2972,7 @@
         <v>243.1900024414062</v>
       </c>
       <c r="F129">
-        <v>35205523</v>
+        <v>35432800</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/NVDA/HighLow.xlsx
+++ b/Stocks/NVDA/HighLow.xlsx
@@ -429,7 +429,7 @@
         <v>206.3699951171875</v>
       </c>
       <c r="E2">
-        <v>206.3083343505859</v>
+        <v>206.308349609375</v>
       </c>
       <c r="F2">
         <v>21143500</v>
@@ -509,7 +509,7 @@
         <v>196.9900054931641</v>
       </c>
       <c r="E6">
-        <v>196.9311676025391</v>
+        <v>196.93115234375</v>
       </c>
       <c r="F6">
         <v>18592500</v>
@@ -569,7 +569,7 @@
         <v>199.5</v>
       </c>
       <c r="E9">
-        <v>199.4404144287109</v>
+        <v>199.4403991699219</v>
       </c>
       <c r="F9">
         <v>21087600</v>
@@ -609,7 +609,7 @@
         <v>190.3999938964844</v>
       </c>
       <c r="E11">
-        <v>190.3431243896484</v>
+        <v>190.3431091308594</v>
       </c>
       <c r="F11">
         <v>28591300</v>
@@ -629,7 +629,7 @@
         <v>197.9799957275391</v>
       </c>
       <c r="E12">
-        <v>197.9208526611328</v>
+        <v>197.9208679199219</v>
       </c>
       <c r="F12">
         <v>76655500</v>
@@ -669,7 +669,7 @@
         <v>219.5800018310547</v>
       </c>
       <c r="E14">
-        <v>219.5144195556641</v>
+        <v>219.514404296875</v>
       </c>
       <c r="F14">
         <v>57580700</v>
@@ -689,7 +689,7 @@
         <v>217.9299926757812</v>
       </c>
       <c r="E15">
-        <v>217.8648986816406</v>
+        <v>217.8648834228516</v>
       </c>
       <c r="F15">
         <v>29729900</v>
@@ -709,7 +709,7 @@
         <v>222.1300048828125</v>
       </c>
       <c r="E16">
-        <v>222.0636444091797</v>
+        <v>222.0636596679688</v>
       </c>
       <c r="F16">
         <v>34770100</v>
@@ -729,7 +729,7 @@
         <v>220.6799926757812</v>
       </c>
       <c r="E17">
-        <v>220.6140747070312</v>
+        <v>220.6140594482422</v>
       </c>
       <c r="F17">
         <v>23794000</v>
@@ -749,7 +749,7 @@
         <v>226.3600006103516</v>
       </c>
       <c r="E18">
-        <v>226.2923736572266</v>
+        <v>226.2923889160156</v>
       </c>
       <c r="F18">
         <v>30426700</v>
@@ -769,7 +769,7 @@
         <v>226.8800048828125</v>
       </c>
       <c r="E19">
-        <v>226.8122253417969</v>
+        <v>226.8122406005859</v>
       </c>
       <c r="F19">
         <v>26258000</v>

--- a/Stocks/NVDA/HighLow.xlsx
+++ b/Stocks/NVDA/HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>205</v>
+        <v>198.6999969482422</v>
       </c>
       <c r="B2">
-        <v>207.3300018310547</v>
+        <v>200.2899932861328</v>
       </c>
       <c r="C2">
-        <v>203.4199981689453</v>
+        <v>196.1999969482422</v>
       </c>
       <c r="D2">
-        <v>206.3699951171875</v>
+        <v>199.0500030517578</v>
       </c>
       <c r="E2">
-        <v>206.308349609375</v>
+        <v>198.9905395507812</v>
       </c>
       <c r="F2">
-        <v>21143500</v>
+        <v>15165200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>205.2400054931641</v>
+        <v>199.0500030517578</v>
       </c>
       <c r="B3">
-        <v>205.6999969482422</v>
+        <v>202.1399993896484</v>
       </c>
       <c r="C3">
-        <v>202.1000061035156</v>
+        <v>198.5099945068359</v>
       </c>
       <c r="D3">
-        <v>203.6600036621094</v>
+        <v>201.8800048828125</v>
       </c>
       <c r="E3">
-        <v>203.5991668701172</v>
+        <v>201.8197021484375</v>
       </c>
       <c r="F3">
-        <v>17825500</v>
+        <v>18282500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>204.4600067138672</v>
+        <v>201.3500061035156</v>
       </c>
       <c r="B4">
-        <v>205.0800018310547</v>
+        <v>202.8699951171875</v>
       </c>
       <c r="C4">
-        <v>201.4299926757812</v>
+        <v>194.5299987792969</v>
       </c>
       <c r="D4">
-        <v>202.9499969482422</v>
+        <v>199.5</v>
       </c>
       <c r="E4">
-        <v>202.8893737792969</v>
+        <v>199.4403991699219</v>
       </c>
       <c r="F4">
-        <v>14644300</v>
+        <v>21087600</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>203.2200012207031</v>
+        <v>196.8500061035156</v>
       </c>
       <c r="B5">
-        <v>204.3000030517578</v>
+        <v>197.6999969482422</v>
       </c>
       <c r="C5">
-        <v>198.3500061035156</v>
+        <v>192.6699981689453</v>
       </c>
       <c r="D5">
-        <v>199.3600006103516</v>
+        <v>194.5800018310547</v>
       </c>
       <c r="E5">
-        <v>199.3004455566406</v>
+        <v>194.5218811035156</v>
       </c>
       <c r="F5">
-        <v>17923800</v>
+        <v>20458500</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>200.4299926757812</v>
+        <v>195</v>
       </c>
       <c r="B6">
-        <v>200.4900054931641</v>
+        <v>196.3399963378906</v>
       </c>
       <c r="C6">
-        <v>194.3000030517578</v>
+        <v>190</v>
       </c>
       <c r="D6">
-        <v>196.9900054931641</v>
+        <v>190.3999938964844</v>
       </c>
       <c r="E6">
-        <v>196.93115234375</v>
+        <v>190.3431091308594</v>
       </c>
       <c r="F6">
-        <v>18592500</v>
+        <v>28591300</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>198.6999969482422</v>
+        <v>194.9400024414062</v>
       </c>
       <c r="B7">
-        <v>200.2899932861328</v>
+        <v>204.9499969482422</v>
       </c>
       <c r="C7">
-        <v>196.1999969482422</v>
+        <v>187.6199951171875</v>
       </c>
       <c r="D7">
-        <v>199.0500030517578</v>
+        <v>197.9799957275391</v>
       </c>
       <c r="E7">
-        <v>198.9905395507812</v>
+        <v>197.9208679199219</v>
       </c>
       <c r="F7">
-        <v>15165200</v>
+        <v>76655500</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>199.0500030517578</v>
+        <v>199.9100036621094</v>
       </c>
       <c r="B8">
-        <v>202.1399993896484</v>
+        <v>208.6499938964844</v>
       </c>
       <c r="C8">
-        <v>198.5099945068359</v>
+        <v>199.3300018310547</v>
       </c>
       <c r="D8">
-        <v>201.8800048828125</v>
+        <v>208.1600036621094</v>
       </c>
       <c r="E8">
-        <v>201.8197021484375</v>
+        <v>208.0978240966797</v>
       </c>
       <c r="F8">
-        <v>18282500</v>
+        <v>67503900</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>201.3500061035156</v>
+        <v>209.7100067138672</v>
       </c>
       <c r="B9">
-        <v>202.8699951171875</v>
+        <v>219.9700012207031</v>
       </c>
       <c r="C9">
-        <v>194.5299987792969</v>
+        <v>209.5</v>
       </c>
       <c r="D9">
-        <v>199.5</v>
+        <v>219.5800018310547</v>
       </c>
       <c r="E9">
-        <v>199.4403991699219</v>
+        <v>219.514404296875</v>
       </c>
       <c r="F9">
-        <v>21087600</v>
+        <v>57580700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>196.8500061035156</v>
+        <v>217.5299987792969</v>
       </c>
       <c r="B10">
-        <v>197.6999969482422</v>
+        <v>219.5899963378906</v>
       </c>
       <c r="C10">
-        <v>192.6699981689453</v>
+        <v>215.3500061035156</v>
       </c>
       <c r="D10">
-        <v>194.5800018310547</v>
+        <v>217.9299926757812</v>
       </c>
       <c r="E10">
-        <v>194.5218811035156</v>
+        <v>217.8648834228516</v>
       </c>
       <c r="F10">
-        <v>20458500</v>
+        <v>29729900</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>195</v>
+        <v>217.3699951171875</v>
       </c>
       <c r="B11">
-        <v>196.3399963378906</v>
+        <v>224.6999969482422</v>
       </c>
       <c r="C11">
-        <v>190</v>
+        <v>217.2200012207031</v>
       </c>
       <c r="D11">
-        <v>190.3999938964844</v>
+        <v>222.1300048828125</v>
       </c>
       <c r="E11">
-        <v>190.3431091308594</v>
+        <v>222.0636596679688</v>
       </c>
       <c r="F11">
-        <v>28591300</v>
+        <v>34770100</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>194.9400024414062</v>
+        <v>222</v>
       </c>
       <c r="B12">
-        <v>204.9499969482422</v>
+        <v>223.3999938964844</v>
       </c>
       <c r="C12">
-        <v>187.6199951171875</v>
+        <v>217.8999938964844</v>
       </c>
       <c r="D12">
-        <v>197.9799957275391</v>
+        <v>220.6799926757812</v>
       </c>
       <c r="E12">
-        <v>197.9208679199219</v>
+        <v>220.6140594482422</v>
       </c>
       <c r="F12">
-        <v>76655500</v>
+        <v>23794000</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>199.9100036621094</v>
+        <v>221.8399963378906</v>
       </c>
       <c r="B13">
-        <v>208.6499938964844</v>
+        <v>227.2200012207031</v>
       </c>
       <c r="C13">
-        <v>199.3300018310547</v>
+        <v>221.6699981689453</v>
       </c>
       <c r="D13">
-        <v>208.1600036621094</v>
+        <v>226.3600006103516</v>
       </c>
       <c r="E13">
-        <v>208.0978240966797</v>
+        <v>226.2923889160156</v>
       </c>
       <c r="F13">
-        <v>67503900</v>
+        <v>30426700</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>209.7100067138672</v>
+        <v>228.3000030517578</v>
       </c>
       <c r="B14">
-        <v>219.9700012207031</v>
+        <v>230.4299926757812</v>
       </c>
       <c r="C14">
-        <v>209.5</v>
+        <v>225.5099945068359</v>
       </c>
       <c r="D14">
-        <v>219.5800018310547</v>
+        <v>226.8800048828125</v>
       </c>
       <c r="E14">
-        <v>219.514404296875</v>
+        <v>226.8122406005859</v>
       </c>
       <c r="F14">
-        <v>57580700</v>
+        <v>26258000</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>217.5299987792969</v>
+        <v>226.9499969482422</v>
       </c>
       <c r="B15">
-        <v>219.5899963378906</v>
+        <v>226.9499969482422</v>
       </c>
       <c r="C15">
-        <v>215.3500061035156</v>
+        <v>221.1999969482422</v>
       </c>
       <c r="D15">
-        <v>217.9299926757812</v>
+        <v>223.8500061035156</v>
       </c>
       <c r="E15">
-        <v>217.8648834228516</v>
+        <v>223.8226013183594</v>
       </c>
       <c r="F15">
-        <v>29729900</v>
+        <v>25985000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>217.3699951171875</v>
+        <v>224.8500061035156</v>
       </c>
       <c r="B16">
-        <v>224.6999969482422</v>
+        <v>226.9700012207031</v>
       </c>
       <c r="C16">
-        <v>217.2200012207031</v>
+        <v>223.5700073242188</v>
       </c>
       <c r="D16">
-        <v>222.1300048828125</v>
+        <v>224.4100036621094</v>
       </c>
       <c r="E16">
-        <v>222.0636596679688</v>
+        <v>224.3825225830078</v>
       </c>
       <c r="F16">
-        <v>34770100</v>
+        <v>20176700</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>222</v>
+        <v>225.1799926757812</v>
       </c>
       <c r="B17">
-        <v>223.3999938964844</v>
+        <v>225.9299926757812</v>
       </c>
       <c r="C17">
-        <v>217.8999938964844</v>
+        <v>222.9499969482422</v>
       </c>
       <c r="D17">
-        <v>220.6799926757812</v>
+        <v>223.9600067138672</v>
       </c>
       <c r="E17">
-        <v>220.6140594482422</v>
+        <v>223.9325866699219</v>
       </c>
       <c r="F17">
-        <v>23794000</v>
+        <v>18783400</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>221.8399963378906</v>
+        <v>223.25</v>
       </c>
       <c r="B18">
-        <v>227.2200012207031</v>
+        <v>229.8600006103516</v>
       </c>
       <c r="C18">
-        <v>221.6699981689453</v>
+        <v>222</v>
       </c>
       <c r="D18">
-        <v>226.3600006103516</v>
+        <v>228.4299926757812</v>
       </c>
       <c r="E18">
-        <v>226.2923889160156</v>
+        <v>228.4020233154297</v>
       </c>
       <c r="F18">
-        <v>30426700</v>
+        <v>28053200</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>228.3000030517578</v>
+        <v>228.3300018310547</v>
       </c>
       <c r="B19">
-        <v>230.4299926757812</v>
+        <v>228.9900054931641</v>
       </c>
       <c r="C19">
-        <v>225.5099945068359</v>
+        <v>225.2200012207031</v>
       </c>
       <c r="D19">
-        <v>226.8800048828125</v>
+        <v>226.6199951171875</v>
       </c>
       <c r="E19">
-        <v>226.8122406005859</v>
+        <v>226.5922546386719</v>
       </c>
       <c r="F19">
-        <v>26258000</v>
+        <v>19810700</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>226.9499969482422</v>
+        <v>225.1300048828125</v>
       </c>
       <c r="B20">
-        <v>226.9499969482422</v>
+        <v>226.1000061035156</v>
       </c>
       <c r="C20">
-        <v>221.1999969482422</v>
+        <v>219.7700042724609</v>
       </c>
       <c r="D20">
-        <v>223.8500061035156</v>
+        <v>223.3899993896484</v>
       </c>
       <c r="E20">
-        <v>223.8226013183594</v>
+        <v>223.3626556396484</v>
       </c>
       <c r="F20">
-        <v>25985000</v>
+        <v>25443400</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>224.8500061035156</v>
+        <v>223.1199951171875</v>
       </c>
       <c r="B21">
-        <v>226.9700012207031</v>
+        <v>225.3800048828125</v>
       </c>
       <c r="C21">
-        <v>223.5700073242188</v>
+        <v>221.3099975585938</v>
       </c>
       <c r="D21">
-        <v>224.4100036621094</v>
+        <v>221.7700042724609</v>
       </c>
       <c r="E21">
-        <v>224.3825225830078</v>
+        <v>221.7428588867188</v>
       </c>
       <c r="F21">
-        <v>20176700</v>
+        <v>19685600</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>225.1799926757812</v>
+        <v>223.4799957275391</v>
       </c>
       <c r="B22">
-        <v>225.9299926757812</v>
+        <v>226.2599945068359</v>
       </c>
       <c r="C22">
-        <v>222.9499969482422</v>
+        <v>222.6999969482422</v>
       </c>
       <c r="D22">
-        <v>223.9600067138672</v>
+        <v>224.7799987792969</v>
       </c>
       <c r="E22">
-        <v>223.9325866699219</v>
+        <v>224.7524719238281</v>
       </c>
       <c r="F22">
-        <v>18783400</v>
+        <v>24814900</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>223.25</v>
+        <v>226.8399963378906</v>
       </c>
       <c r="B23">
-        <v>229.8600006103516</v>
+        <v>229.6399993896484</v>
       </c>
       <c r="C23">
-        <v>222</v>
+        <v>218.5800018310547</v>
       </c>
       <c r="D23">
-        <v>228.4299926757812</v>
+        <v>221.5200042724609</v>
       </c>
       <c r="E23">
-        <v>228.4020233154297</v>
+        <v>221.4928894042969</v>
       </c>
       <c r="F23">
-        <v>28053200</v>
+        <v>29750000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>228.3300018310547</v>
+        <v>222.75</v>
       </c>
       <c r="B24">
-        <v>228.9900054931641</v>
+        <v>224.1000061035156</v>
       </c>
       <c r="C24">
-        <v>225.2200012207031</v>
+        <v>220.8600006103516</v>
       </c>
       <c r="D24">
-        <v>226.6199951171875</v>
+        <v>222.4199981689453</v>
       </c>
       <c r="E24">
-        <v>226.5922546386719</v>
+        <v>222.3927612304688</v>
       </c>
       <c r="F24">
-        <v>19810700</v>
+        <v>19975500</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>225.1300048828125</v>
+        <v>223.0899963378906</v>
       </c>
       <c r="B25">
-        <v>226.1000061035156</v>
+        <v>223.6699981689453</v>
       </c>
       <c r="C25">
-        <v>219.7700042724609</v>
+        <v>219.6600036621094</v>
       </c>
       <c r="D25">
-        <v>223.3899993896484</v>
+        <v>223.4100036621094</v>
       </c>
       <c r="E25">
-        <v>223.3626556396484</v>
+        <v>223.3826446533203</v>
       </c>
       <c r="F25">
-        <v>25443400</v>
+        <v>16653800</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>223.1199951171875</v>
+        <v>221.8300018310547</v>
       </c>
       <c r="B26">
-        <v>225.3800048828125</v>
+        <v>222.7700042724609</v>
       </c>
       <c r="C26">
-        <v>221.3099975585938</v>
+        <v>219.2700042724609</v>
       </c>
       <c r="D26">
-        <v>221.7700042724609</v>
+        <v>222.4199981689453</v>
       </c>
       <c r="E26">
-        <v>221.7428588867188</v>
+        <v>222.3927612304688</v>
       </c>
       <c r="F26">
-        <v>19685600</v>
+        <v>15603300</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>223.4799957275391</v>
+        <v>223</v>
       </c>
       <c r="B27">
-        <v>226.2599945068359</v>
+        <v>223.2100067138672</v>
       </c>
       <c r="C27">
-        <v>222.6999969482422</v>
+        <v>218.3000030517578</v>
       </c>
       <c r="D27">
-        <v>224.7799987792969</v>
+        <v>219</v>
       </c>
       <c r="E27">
-        <v>224.7524719238281</v>
+        <v>218.9731903076172</v>
       </c>
       <c r="F27">
-        <v>24814900</v>
+        <v>29450300</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>226.8399963378906</v>
+        <v>211.4600067138672</v>
       </c>
       <c r="B28">
-        <v>229.6399993896484</v>
+        <v>214.3300018310547</v>
       </c>
       <c r="C28">
-        <v>218.5800018310547</v>
+        <v>206.6199951171875</v>
       </c>
       <c r="D28">
-        <v>221.5200042724609</v>
+        <v>211.1300048828125</v>
       </c>
       <c r="E28">
-        <v>221.4928894042969</v>
+        <v>211.1041564941406</v>
       </c>
       <c r="F28">
-        <v>29750000</v>
+        <v>34944000</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>222.75</v>
+        <v>214.1699981689453</v>
       </c>
       <c r="B29">
-        <v>224.1000061035156</v>
+        <v>214.25</v>
       </c>
       <c r="C29">
-        <v>220.8600006103516</v>
+        <v>209.5</v>
       </c>
       <c r="D29">
-        <v>222.4199981689453</v>
+        <v>212.4600067138672</v>
       </c>
       <c r="E29">
-        <v>222.3927612304688</v>
+        <v>212.4339904785156</v>
       </c>
       <c r="F29">
-        <v>19975500</v>
+        <v>20468800</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>223.0899963378906</v>
+        <v>213.6600036621094</v>
       </c>
       <c r="B30">
-        <v>223.6699981689453</v>
+        <v>219.6000061035156</v>
       </c>
       <c r="C30">
-        <v>219.6600036621094</v>
+        <v>211.9600067138672</v>
       </c>
       <c r="D30">
-        <v>223.4100036621094</v>
+        <v>219.4100036621094</v>
       </c>
       <c r="E30">
-        <v>223.3826446533203</v>
+        <v>219.3831481933594</v>
       </c>
       <c r="F30">
-        <v>16653800</v>
+        <v>26872600</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>221.8300018310547</v>
+        <v>221.3999938964844</v>
       </c>
       <c r="B31">
-        <v>222.7700042724609</v>
+        <v>225.3500061035156</v>
       </c>
       <c r="C31">
-        <v>219.2700042724609</v>
+        <v>218.8999938964844</v>
       </c>
       <c r="D31">
-        <v>222.4199981689453</v>
+        <v>224.8200073242188</v>
       </c>
       <c r="E31">
-        <v>222.3927612304688</v>
+        <v>224.79248046875</v>
       </c>
       <c r="F31">
-        <v>15603300</v>
+        <v>24855500</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>223</v>
+        <v>220.6999969482422</v>
       </c>
       <c r="B32">
-        <v>223.2100067138672</v>
+        <v>221.4900054931641</v>
       </c>
       <c r="C32">
-        <v>218.3000030517578</v>
+        <v>218.6100006103516</v>
       </c>
       <c r="D32">
-        <v>219</v>
+        <v>220.8099975585938</v>
       </c>
       <c r="E32">
-        <v>218.9731903076172</v>
+        <v>220.782958984375</v>
       </c>
       <c r="F32">
-        <v>29450300</v>
+        <v>21765500</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>211.4600067138672</v>
+        <v>217.1000061035156</v>
       </c>
       <c r="B33">
-        <v>214.3300018310547</v>
+        <v>217.9900054931641</v>
       </c>
       <c r="C33">
-        <v>206.6199951171875</v>
+        <v>213.25</v>
       </c>
       <c r="D33">
-        <v>211.1300048828125</v>
+        <v>216.6000061035156</v>
       </c>
       <c r="E33">
-        <v>211.1041564941406</v>
+        <v>216.573486328125</v>
       </c>
       <c r="F33">
-        <v>34944000</v>
+        <v>24521500</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>214.1699981689453</v>
+        <v>212.1399993896484</v>
       </c>
       <c r="B34">
-        <v>214.25</v>
+        <v>214.1900024414062</v>
       </c>
       <c r="C34">
-        <v>209.5</v>
+        <v>206.5099945068359</v>
       </c>
       <c r="D34">
-        <v>212.4600067138672</v>
+        <v>206.9900054931641</v>
       </c>
       <c r="E34">
-        <v>212.4339904785156</v>
+        <v>206.9646606445312</v>
       </c>
       <c r="F34">
-        <v>20468800</v>
+        <v>34306900</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>213.6600036621094</v>
+        <v>209.3999938964844</v>
       </c>
       <c r="B35">
-        <v>219.6000061035156</v>
+        <v>210.1699981689453</v>
       </c>
       <c r="C35">
-        <v>211.9600067138672</v>
+        <v>204.6699981689453</v>
       </c>
       <c r="D35">
-        <v>219.4100036621094</v>
+        <v>205.1699981689453</v>
       </c>
       <c r="E35">
-        <v>219.3831481933594</v>
+        <v>205.1448822021484</v>
       </c>
       <c r="F35">
-        <v>26872600</v>
+        <v>21839400</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>221.3999938964844</v>
+        <v>207.6799926757812</v>
       </c>
       <c r="B36">
-        <v>225.3500061035156</v>
+        <v>210.6600036621094</v>
       </c>
       <c r="C36">
-        <v>218.8999938964844</v>
+        <v>206.8800048828125</v>
       </c>
       <c r="D36">
-        <v>224.8200073242188</v>
+        <v>207.1600036621094</v>
       </c>
       <c r="E36">
-        <v>224.79248046875</v>
+        <v>207.1346435546875</v>
       </c>
       <c r="F36">
-        <v>24855500</v>
+        <v>22080400</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>220.6999969482422</v>
+        <v>207.5</v>
       </c>
       <c r="B37">
-        <v>221.4900054931641</v>
+        <v>208.5899963378906</v>
       </c>
       <c r="C37">
-        <v>218.6100006103516</v>
+        <v>202.0299987792969</v>
       </c>
       <c r="D37">
-        <v>220.8099975585938</v>
+        <v>207.4199981689453</v>
       </c>
       <c r="E37">
-        <v>220.782958984375</v>
+        <v>207.3946075439453</v>
       </c>
       <c r="F37">
-        <v>21765500</v>
+        <v>24097800</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>217.1000061035156</v>
+        <v>205.0399932861328</v>
       </c>
       <c r="B38">
-        <v>217.9900054931641</v>
+        <v>205.4199981689453</v>
       </c>
       <c r="C38">
-        <v>213.25</v>
+        <v>195.5500030517578</v>
       </c>
       <c r="D38">
-        <v>216.6000061035156</v>
+        <v>197.3200073242188</v>
       </c>
       <c r="E38">
-        <v>216.573486328125</v>
+        <v>197.2958526611328</v>
       </c>
       <c r="F38">
-        <v>24521500</v>
+        <v>34563500</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>212.1399993896484</v>
+        <v>199.5</v>
       </c>
       <c r="B39">
-        <v>214.1900024414062</v>
+        <v>206.4799957275391</v>
       </c>
       <c r="C39">
-        <v>206.5099945068359</v>
+        <v>198.5399932861328</v>
       </c>
       <c r="D39">
-        <v>206.9900054931641</v>
+        <v>204.5099945068359</v>
       </c>
       <c r="E39">
-        <v>206.9646606445312</v>
+        <v>204.4849548339844</v>
       </c>
       <c r="F39">
-        <v>34306900</v>
+        <v>27928200</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>209.3999938964844</v>
+        <v>201.1999969482422</v>
       </c>
       <c r="B40">
-        <v>210.1699981689453</v>
+        <v>207.1999969482422</v>
       </c>
       <c r="C40">
-        <v>204.6699981689453</v>
+        <v>200.8000030517578</v>
       </c>
       <c r="D40">
-        <v>205.1699981689453</v>
+        <v>207</v>
       </c>
       <c r="E40">
-        <v>205.1448822021484</v>
+        <v>206.9746551513672</v>
       </c>
       <c r="F40">
-        <v>21839400</v>
+        <v>29720200</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>207.6799926757812</v>
+        <v>210.9199981689453</v>
       </c>
       <c r="B41">
-        <v>210.6600036621094</v>
+        <v>213.2200012207031</v>
       </c>
       <c r="C41">
-        <v>206.8800048828125</v>
+        <v>209.7200012207031</v>
       </c>
       <c r="D41">
-        <v>207.1600036621094</v>
+        <v>210.75</v>
       </c>
       <c r="E41">
-        <v>207.1346435546875</v>
+        <v>210.7241973876953</v>
       </c>
       <c r="F41">
-        <v>22080400</v>
+        <v>25691900</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>207.5</v>
+        <v>211.0099945068359</v>
       </c>
       <c r="B42">
-        <v>208.5899963378906</v>
+        <v>212.0599975585938</v>
       </c>
       <c r="C42">
-        <v>202.0299987792969</v>
+        <v>207.75</v>
       </c>
       <c r="D42">
-        <v>207.4199981689453</v>
+        <v>208.3099975585938</v>
       </c>
       <c r="E42">
-        <v>207.3946075439453</v>
+        <v>208.2845001220703</v>
       </c>
       <c r="F42">
-        <v>24097800</v>
+        <v>15102500</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>205.0399932861328</v>
+        <v>205.75</v>
       </c>
       <c r="B43">
-        <v>205.4199981689453</v>
+        <v>210.6300048828125</v>
       </c>
       <c r="C43">
-        <v>195.5500030517578</v>
+        <v>205.1100006103516</v>
       </c>
       <c r="D43">
-        <v>197.3200073242188</v>
+        <v>206.9499969482422</v>
       </c>
       <c r="E43">
-        <v>197.2958526611328</v>
+        <v>206.9246673583984</v>
       </c>
       <c r="F43">
-        <v>34563500</v>
+        <v>16338800</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>199.5</v>
+        <v>208.2799987792969</v>
       </c>
       <c r="B44">
-        <v>206.4799957275391</v>
+        <v>210.5700073242188</v>
       </c>
       <c r="C44">
-        <v>198.5399932861328</v>
+        <v>205.2799987792969</v>
       </c>
       <c r="D44">
-        <v>204.5099945068359</v>
+        <v>206.7100067138672</v>
       </c>
       <c r="E44">
-        <v>204.4849548339844</v>
+        <v>206.6846923828125</v>
       </c>
       <c r="F44">
-        <v>27928200</v>
+        <v>16213400</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>201.1999969482422</v>
+        <v>209.1799926757812</v>
       </c>
       <c r="B45">
-        <v>207.1999969482422</v>
+        <v>209.8999938964844</v>
       </c>
       <c r="C45">
-        <v>200.8000030517578</v>
+        <v>207.1300048828125</v>
       </c>
       <c r="D45">
-        <v>207</v>
+        <v>209.3899993896484</v>
       </c>
       <c r="E45">
-        <v>206.9746551513672</v>
+        <v>209.3643646240234</v>
       </c>
       <c r="F45">
-        <v>29720200</v>
+        <v>18065200</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>210.9199981689453</v>
+        <v>212.8800048828125</v>
       </c>
       <c r="B46">
-        <v>213.2200012207031</v>
+        <v>217.5500030517578</v>
       </c>
       <c r="C46">
-        <v>209.7200012207031</v>
+        <v>211.2200012207031</v>
       </c>
       <c r="D46">
-        <v>210.75</v>
+        <v>217.4600067138672</v>
       </c>
       <c r="E46">
-        <v>210.7241973876953</v>
+        <v>217.4333801269531</v>
       </c>
       <c r="F46">
-        <v>25691900</v>
+        <v>24358900</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>211.0099945068359</v>
+        <v>218.1000061035156</v>
       </c>
       <c r="B47">
-        <v>212.0599975585938</v>
+        <v>219.3099975585938</v>
       </c>
       <c r="C47">
-        <v>207.75</v>
+        <v>216.6199951171875</v>
       </c>
       <c r="D47">
-        <v>208.3099975585938</v>
+        <v>218.6199951171875</v>
       </c>
       <c r="E47">
-        <v>208.2845001220703</v>
+        <v>218.5932312011719</v>
       </c>
       <c r="F47">
-        <v>15102500</v>
+        <v>22679500</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>205.75</v>
+        <v>217.4900054931641</v>
       </c>
       <c r="B48">
-        <v>210.6300048828125</v>
+        <v>222.9100036621094</v>
       </c>
       <c r="C48">
-        <v>205.1100006103516</v>
+        <v>216.4400024414062</v>
       </c>
       <c r="D48">
-        <v>206.9499969482422</v>
+        <v>222.2200012207031</v>
       </c>
       <c r="E48">
-        <v>206.9246673583984</v>
+        <v>222.1927947998047</v>
       </c>
       <c r="F48">
-        <v>16338800</v>
+        <v>18949400</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>208.2799987792969</v>
+        <v>222.7599945068359</v>
       </c>
       <c r="B49">
-        <v>210.5700073242188</v>
+        <v>223.7899932861328</v>
       </c>
       <c r="C49">
-        <v>205.2799987792969</v>
+        <v>220.3699951171875</v>
       </c>
       <c r="D49">
-        <v>206.7100067138672</v>
+        <v>222.8999938964844</v>
       </c>
       <c r="E49">
-        <v>206.6846923828125</v>
+        <v>222.8727111816406</v>
       </c>
       <c r="F49">
-        <v>16213400</v>
+        <v>16147300</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>209.1799926757812</v>
+        <v>223.0500030517578</v>
       </c>
       <c r="B50">
-        <v>209.8999938964844</v>
+        <v>224.3300018310547</v>
       </c>
       <c r="C50">
-        <v>207.1300048828125</v>
+        <v>219.8200073242188</v>
       </c>
       <c r="D50">
-        <v>209.3899993896484</v>
+        <v>221.0299987792969</v>
       </c>
       <c r="E50">
-        <v>209.3643646240234</v>
+        <v>221.0029449462891</v>
       </c>
       <c r="F50">
-        <v>18065200</v>
+        <v>14627600</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>212.8800048828125</v>
+        <v>220.9700012207031</v>
       </c>
       <c r="B51">
-        <v>217.5500030517578</v>
+        <v>227.1100006103516</v>
       </c>
       <c r="C51">
-        <v>211.2200012207031</v>
+        <v>220.8300018310547</v>
       </c>
       <c r="D51">
-        <v>217.4600067138672</v>
+        <v>226.9199981689453</v>
       </c>
       <c r="E51">
-        <v>217.4333801269531</v>
+        <v>226.8922119140625</v>
       </c>
       <c r="F51">
-        <v>24358900</v>
+        <v>18759000</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>218.1000061035156</v>
+        <v>228.2299957275391</v>
       </c>
       <c r="B52">
-        <v>219.3099975585938</v>
+        <v>231.3000030517578</v>
       </c>
       <c r="C52">
-        <v>216.6199951171875</v>
+        <v>225.6100006103516</v>
       </c>
       <c r="D52">
-        <v>218.6199951171875</v>
+        <v>227.2599945068359</v>
       </c>
       <c r="E52">
-        <v>218.5932312011719</v>
+        <v>227.232177734375</v>
       </c>
       <c r="F52">
-        <v>22679500</v>
+        <v>24938400</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>217.4900054931641</v>
+        <v>229.7299957275391</v>
       </c>
       <c r="B53">
-        <v>222.9100036621094</v>
+        <v>233.5500030517578</v>
       </c>
       <c r="C53">
-        <v>216.4400024414062</v>
+        <v>227.6999969482422</v>
       </c>
       <c r="D53">
-        <v>222.2200012207031</v>
+        <v>231.6600036621094</v>
       </c>
       <c r="E53">
-        <v>222.1927947998047</v>
+        <v>231.6316375732422</v>
       </c>
       <c r="F53">
-        <v>18949400</v>
+        <v>23023500</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>222.7599945068359</v>
+        <v>239.8899993896484</v>
       </c>
       <c r="B54">
-        <v>223.7899932861328</v>
+        <v>252.5899963378906</v>
       </c>
       <c r="C54">
-        <v>220.3699951171875</v>
+        <v>239.2400054931641</v>
       </c>
       <c r="D54">
-        <v>222.8999938964844</v>
+        <v>247.1699981689453</v>
       </c>
       <c r="E54">
-        <v>222.8727111816406</v>
+        <v>247.1397399902344</v>
       </c>
       <c r="F54">
-        <v>16147300</v>
+        <v>48589800</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>223.0500030517578</v>
+        <v>244.7400054931641</v>
       </c>
       <c r="B55">
-        <v>224.3300018310547</v>
+        <v>250.8999938964844</v>
       </c>
       <c r="C55">
-        <v>219.8200073242188</v>
+        <v>242.8200073242188</v>
       </c>
       <c r="D55">
-        <v>221.0299987792969</v>
+        <v>244.5099945068359</v>
       </c>
       <c r="E55">
-        <v>221.0029449462891</v>
+        <v>244.4800567626953</v>
       </c>
       <c r="F55">
-        <v>14627600</v>
+        <v>24599000</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>220.9700012207031</v>
+        <v>248.7799987792969</v>
       </c>
       <c r="B56">
-        <v>227.1100006103516</v>
+        <v>249.5</v>
       </c>
       <c r="C56">
-        <v>220.8300018310547</v>
+        <v>245.2299957275391</v>
       </c>
       <c r="D56">
-        <v>226.9199981689453</v>
+        <v>249.4100036621094</v>
       </c>
       <c r="E56">
-        <v>226.8922119140625</v>
+        <v>249.3794708251953</v>
       </c>
       <c r="F56">
-        <v>18759000</v>
+        <v>23420400</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>228.2299957275391</v>
+        <v>250.0099945068359</v>
       </c>
       <c r="B57">
-        <v>231.3000030517578</v>
+        <v>257.0899963378906</v>
       </c>
       <c r="C57">
-        <v>225.6100006103516</v>
+        <v>250</v>
       </c>
       <c r="D57">
-        <v>227.2599945068359</v>
+        <v>255.6699981689453</v>
       </c>
       <c r="E57">
-        <v>227.232177734375</v>
+        <v>255.6387023925781</v>
       </c>
       <c r="F57">
-        <v>24938400</v>
+        <v>29213700</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>229.7299957275391</v>
+        <v>256.489990234375</v>
       </c>
       <c r="B58">
-        <v>233.5500030517578</v>
+        <v>258.9400024414062</v>
       </c>
       <c r="C58">
-        <v>227.6999969482422</v>
+        <v>252.2700042724609</v>
       </c>
       <c r="D58">
-        <v>231.6600036621094</v>
+        <v>258.2699890136719</v>
       </c>
       <c r="E58">
-        <v>231.6316375732422</v>
+        <v>258.2383728027344</v>
       </c>
       <c r="F58">
-        <v>23023500</v>
+        <v>26574000</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>239.8899993896484</v>
+        <v>258.2200012207031</v>
       </c>
       <c r="B59">
-        <v>252.5899963378906</v>
+        <v>266.7799987792969</v>
       </c>
       <c r="C59">
-        <v>239.2400054931641</v>
+        <v>258</v>
       </c>
       <c r="D59">
-        <v>247.1699981689453</v>
+        <v>264.010009765625</v>
       </c>
       <c r="E59">
-        <v>247.1397399902344</v>
+        <v>263.9776916503906</v>
       </c>
       <c r="F59">
-        <v>48589800</v>
+        <v>29411200</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>244.7400054931641</v>
+        <v>266.7000122070312</v>
       </c>
       <c r="B60">
-        <v>250.8999938964844</v>
+        <v>267.8399963378906</v>
       </c>
       <c r="C60">
-        <v>242.8200073242188</v>
+        <v>262.3500061035156</v>
       </c>
       <c r="D60">
-        <v>244.5099945068359</v>
+        <v>265.9800109863281</v>
       </c>
       <c r="E60">
-        <v>244.4800567626953</v>
+        <v>265.9474487304688</v>
       </c>
       <c r="F60">
-        <v>24599000</v>
+        <v>23991000</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>248.7799987792969</v>
+        <v>272.2900085449219</v>
       </c>
       <c r="B61">
-        <v>249.5</v>
+        <v>313.6499938964844</v>
       </c>
       <c r="C61">
-        <v>245.2299957275391</v>
+        <v>271.1799926757812</v>
       </c>
       <c r="D61">
-        <v>249.4100036621094</v>
+        <v>298.010009765625</v>
       </c>
       <c r="E61">
-        <v>249.3794708251953</v>
+        <v>297.9735107421875</v>
       </c>
       <c r="F61">
-        <v>23420400</v>
+        <v>115363100</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>250.0099945068359</v>
+        <v>301.8699951171875</v>
       </c>
       <c r="B62">
-        <v>257.0899963378906</v>
+        <v>314</v>
       </c>
       <c r="C62">
-        <v>250</v>
+        <v>294.1000061035156</v>
       </c>
       <c r="D62">
-        <v>255.6699981689453</v>
+        <v>297.5199890136719</v>
       </c>
       <c r="E62">
-        <v>255.6387023925781</v>
+        <v>297.4835510253906</v>
       </c>
       <c r="F62">
-        <v>29213700</v>
+        <v>85072800</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>256.489990234375</v>
+        <v>301.489990234375</v>
       </c>
       <c r="B63">
-        <v>258.9400024414062</v>
+        <v>311</v>
       </c>
       <c r="C63">
-        <v>252.2700042724609</v>
+        <v>299.0700073242188</v>
       </c>
       <c r="D63">
-        <v>258.2699890136719</v>
+        <v>308.0400085449219</v>
       </c>
       <c r="E63">
-        <v>258.2383728027344</v>
+        <v>308.0022888183594</v>
       </c>
       <c r="F63">
-        <v>26574000</v>
+        <v>50310100</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>258.2200012207031</v>
+        <v>322.8200073242188</v>
       </c>
       <c r="B64">
-        <v>266.7799987792969</v>
+        <v>323.1000061035156</v>
       </c>
       <c r="C64">
-        <v>258</v>
+        <v>299.6400146484375</v>
       </c>
       <c r="D64">
-        <v>264.010009765625</v>
+        <v>306.5700073242188</v>
       </c>
       <c r="E64">
-        <v>263.9776916503906</v>
+        <v>306.532470703125</v>
       </c>
       <c r="F64">
-        <v>29411200</v>
+        <v>64674600</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>266.7000122070312</v>
+        <v>293.5599975585938</v>
       </c>
       <c r="B65">
-        <v>267.8399963378906</v>
+        <v>308.5</v>
       </c>
       <c r="C65">
-        <v>262.3500061035156</v>
+        <v>287.7799987792969</v>
       </c>
       <c r="D65">
-        <v>265.9800109863281</v>
+        <v>294.5899963378906</v>
       </c>
       <c r="E65">
-        <v>265.9474487304688</v>
+        <v>294.5539245605469</v>
       </c>
       <c r="F65">
-        <v>23991000</v>
+        <v>63620600</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>272.2900085449219</v>
+        <v>304.6799926757812</v>
       </c>
       <c r="B66">
-        <v>313.6499938964844</v>
+        <v>305.8999938964844</v>
       </c>
       <c r="C66">
-        <v>271.1799926757812</v>
+        <v>297.7699890136719</v>
       </c>
       <c r="D66">
-        <v>298.010009765625</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="E66">
-        <v>297.9735107421875</v>
+        <v>303.86279296875</v>
       </c>
       <c r="F66">
-        <v>115363100</v>
+        <v>33217200</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>301.8699951171875</v>
+        <v>300.1000061035156</v>
       </c>
       <c r="B67">
-        <v>314</v>
+        <v>306.7999877929688</v>
       </c>
       <c r="C67">
-        <v>294.1000061035156</v>
+        <v>296.2999877929688</v>
       </c>
       <c r="D67">
-        <v>297.5199890136719</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="E67">
-        <v>297.4835510253906</v>
+        <v>303.86279296875</v>
       </c>
       <c r="F67">
-        <v>85072800</v>
+        <v>41215100</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>301.489990234375</v>
+        <v>305.5199890136719</v>
       </c>
       <c r="B68">
-        <v>311</v>
+        <v>306.4400024414062</v>
       </c>
       <c r="C68">
-        <v>299.0700073242188</v>
+        <v>292.4700012207031</v>
       </c>
       <c r="D68">
-        <v>308.0400085449219</v>
+        <v>300.25</v>
       </c>
       <c r="E68">
-        <v>308.0022888183594</v>
+        <v>300.2132263183594</v>
       </c>
       <c r="F68">
-        <v>50310100</v>
+        <v>38490900</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>322.8200073242188</v>
+        <v>297.5899963378906</v>
       </c>
       <c r="B69">
-        <v>323.1000061035156</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="C69">
-        <v>299.6400146484375</v>
+        <v>297.0599975585938</v>
       </c>
       <c r="D69">
-        <v>306.5700073242188</v>
+        <v>302.0299987792969</v>
       </c>
       <c r="E69">
-        <v>306.532470703125</v>
+        <v>301.9930114746094</v>
       </c>
       <c r="F69">
-        <v>64674600</v>
+        <v>26448400</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>293.5599975585938</v>
+        <v>304.1799926757812</v>
       </c>
       <c r="B70">
-        <v>308.5</v>
+        <v>305.0899963378906</v>
       </c>
       <c r="C70">
-        <v>287.7799987792969</v>
+        <v>288</v>
       </c>
       <c r="D70">
-        <v>294.5899963378906</v>
+        <v>292.6099853515625</v>
       </c>
       <c r="E70">
-        <v>294.5539245605469</v>
+        <v>292.5741577148438</v>
       </c>
       <c r="F70">
-        <v>63620600</v>
+        <v>42850800</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>304.6799926757812</v>
+        <v>323.6700134277344</v>
       </c>
       <c r="B71">
-        <v>305.8999938964844</v>
+        <v>327.6000061035156</v>
       </c>
       <c r="C71">
-        <v>297.7699890136719</v>
+        <v>313.2099914550781</v>
       </c>
       <c r="D71">
-        <v>303.8999938964844</v>
+        <v>316.75</v>
       </c>
       <c r="E71">
-        <v>303.86279296875</v>
+        <v>316.7112121582031</v>
       </c>
       <c r="F71">
-        <v>33217200</v>
+        <v>78171100</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>300.1000061035156</v>
+        <v>322.4299926757812</v>
       </c>
       <c r="B72">
-        <v>306.7999877929688</v>
+        <v>330.8800048828125</v>
       </c>
       <c r="C72">
-        <v>296.2999877929688</v>
+        <v>319.0499877929688</v>
       </c>
       <c r="D72">
-        <v>303.8999938964844</v>
+        <v>329.8500061035156</v>
       </c>
       <c r="E72">
-        <v>303.86279296875</v>
+        <v>329.8096313476562</v>
       </c>
       <c r="F72">
-        <v>41215100</v>
+        <v>53386700</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>305.5199890136719</v>
+        <v>335.1700134277344</v>
       </c>
       <c r="B73">
-        <v>306.4400024414062</v>
+        <v>346.4700012207031</v>
       </c>
       <c r="C73">
-        <v>292.4700012207031</v>
+        <v>319</v>
       </c>
       <c r="D73">
-        <v>300.25</v>
+        <v>319.5599975585938</v>
       </c>
       <c r="E73">
-        <v>300.2132263183594</v>
+        <v>319.5208740234375</v>
       </c>
       <c r="F73">
-        <v>38490900</v>
+        <v>75433500</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>297.5899963378906</v>
+        <v>315.3500061035156</v>
       </c>
       <c r="B74">
-        <v>303.8999938964844</v>
+        <v>323.6000061035156</v>
       </c>
       <c r="C74">
-        <v>297.0599975585938</v>
+        <v>308.7999877929688</v>
       </c>
       <c r="D74">
-        <v>302.0299987792969</v>
+        <v>317.4599914550781</v>
       </c>
       <c r="E74">
-        <v>301.9930114746094</v>
+        <v>317.4211120605469</v>
       </c>
       <c r="F74">
-        <v>26448400</v>
+        <v>53216300</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>304.1799926757812</v>
+        <v>314.6099853515625</v>
       </c>
       <c r="B75">
-        <v>305.0899963378906</v>
+        <v>328.5499877929688</v>
       </c>
       <c r="C75">
-        <v>288</v>
+        <v>309.2799987792969</v>
       </c>
       <c r="D75">
-        <v>292.6099853515625</v>
+        <v>326.739990234375</v>
       </c>
       <c r="E75">
-        <v>292.5741577148438</v>
+        <v>326.6999816894531</v>
       </c>
       <c r="F75">
-        <v>42850800</v>
+        <v>43516200</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>323.6700134277344</v>
+        <v>326</v>
       </c>
       <c r="B76">
-        <v>327.6000061035156</v>
+        <v>327.1000061035156</v>
       </c>
       <c r="C76">
-        <v>313.2099914550781</v>
+        <v>313.5</v>
       </c>
       <c r="D76">
-        <v>316.75</v>
+        <v>315.0299987792969</v>
       </c>
       <c r="E76">
-        <v>316.7112121582031</v>
+        <v>314.9914245605469</v>
       </c>
       <c r="F76">
-        <v>78171100</v>
+        <v>28306900</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>322.4299926757812</v>
+        <v>323.6600036621094</v>
       </c>
       <c r="B77">
-        <v>330.8800048828125</v>
+        <v>334.1199951171875</v>
       </c>
       <c r="C77">
-        <v>319.0499877929688</v>
+        <v>320.3599853515625</v>
       </c>
       <c r="D77">
-        <v>329.8500061035156</v>
+        <v>333.760009765625</v>
       </c>
       <c r="E77">
-        <v>329.8096313476562</v>
+        <v>333.7191467285156</v>
       </c>
       <c r="F77">
-        <v>53386700</v>
+        <v>45496400</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>335.1700134277344</v>
+        <v>331.6900024414062</v>
       </c>
       <c r="B78">
-        <v>346.4700012207031</v>
+        <v>333.5299987792969</v>
       </c>
       <c r="C78">
-        <v>319</v>
+        <v>318.6400146484375</v>
       </c>
       <c r="D78">
-        <v>319.5599975585938</v>
+        <v>326.760009765625</v>
       </c>
       <c r="E78">
-        <v>319.5208740234375</v>
+        <v>326.7200012207031</v>
       </c>
       <c r="F78">
-        <v>75433500</v>
+        <v>62206600</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>315.3500061035156</v>
+        <v>332.1900024414062</v>
       </c>
       <c r="B79">
-        <v>323.6000061035156</v>
+        <v>332.8900146484375</v>
       </c>
       <c r="C79">
-        <v>308.7999877929688</v>
+        <v>313.7999877929688</v>
       </c>
       <c r="D79">
-        <v>317.4599914550781</v>
+        <v>314.3500061035156</v>
       </c>
       <c r="E79">
-        <v>317.4211120605469</v>
+        <v>314.3500061035156</v>
       </c>
       <c r="F79">
-        <v>53216300</v>
+        <v>48436800</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>314.6099853515625</v>
+        <v>312.1400146484375</v>
       </c>
       <c r="B80">
-        <v>328.5499877929688</v>
+        <v>324.7799987792969</v>
       </c>
       <c r="C80">
-        <v>309.2799987792969</v>
+        <v>310.25</v>
       </c>
       <c r="D80">
-        <v>326.739990234375</v>
+        <v>321.260009765625</v>
       </c>
       <c r="E80">
-        <v>326.6999816894531</v>
+        <v>321.260009765625</v>
       </c>
       <c r="F80">
-        <v>43516200</v>
+        <v>47289000</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B81">
-        <v>327.1000061035156</v>
+        <v>321.2900085449219</v>
       </c>
       <c r="C81">
-        <v>313.5</v>
+        <v>301.2999877929688</v>
       </c>
       <c r="D81">
-        <v>315.0299987792969</v>
+        <v>306.9299926757812</v>
       </c>
       <c r="E81">
-        <v>314.9914245605469</v>
+        <v>306.9299926757812</v>
       </c>
       <c r="F81">
-        <v>28306900</v>
+        <v>54382300</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>323.6600036621094</v>
+        <v>298.7999877929688</v>
       </c>
       <c r="B82">
-        <v>334.1199951171875</v>
+        <v>302.4100036621094</v>
       </c>
       <c r="C82">
-        <v>320.3599853515625</v>
+        <v>280.3800048828125</v>
       </c>
       <c r="D82">
-        <v>333.760009765625</v>
+        <v>300.3699951171875</v>
       </c>
       <c r="E82">
-        <v>333.7191467285156</v>
+        <v>300.3699951171875</v>
       </c>
       <c r="F82">
-        <v>45496400</v>
+        <v>65893800</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>331.6900024414062</v>
+        <v>309.5700073242188</v>
       </c>
       <c r="B83">
-        <v>333.5299987792969</v>
+        <v>324.489990234375</v>
       </c>
       <c r="C83">
-        <v>318.6400146484375</v>
+        <v>306.510009765625</v>
       </c>
       <c r="D83">
-        <v>326.760009765625</v>
+        <v>324.2699890136719</v>
       </c>
       <c r="E83">
-        <v>326.7200012207031</v>
+        <v>324.2699890136719</v>
       </c>
       <c r="F83">
-        <v>62206600</v>
+        <v>59305300</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>332.1900024414062</v>
+        <v>319.989990234375</v>
       </c>
       <c r="B84">
-        <v>332.8900146484375</v>
+        <v>322.8999938964844</v>
       </c>
       <c r="C84">
-        <v>313.7999877929688</v>
+        <v>314.2099914550781</v>
       </c>
       <c r="D84">
-        <v>314.3500061035156</v>
+        <v>318.260009765625</v>
       </c>
       <c r="E84">
-        <v>314.3500061035156</v>
+        <v>318.260009765625</v>
       </c>
       <c r="F84">
-        <v>48436800</v>
+        <v>47555100</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>312.1400146484375</v>
+        <v>317.3399963378906</v>
       </c>
       <c r="B85">
-        <v>324.7799987792969</v>
+        <v>322.0499877929688</v>
       </c>
       <c r="C85">
-        <v>310.25</v>
+        <v>304.2799987792969</v>
       </c>
       <c r="D85">
-        <v>321.260009765625</v>
+        <v>304.8999938964844</v>
       </c>
       <c r="E85">
-        <v>321.260009765625</v>
+        <v>304.8999938964844</v>
       </c>
       <c r="F85">
-        <v>47289000</v>
+        <v>48850700</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>320</v>
+        <v>311.5</v>
       </c>
       <c r="B86">
-        <v>321.2900085449219</v>
+        <v>313.0499877929688</v>
       </c>
       <c r="C86">
-        <v>301.2999877929688</v>
+        <v>298.6099853515625</v>
       </c>
       <c r="D86">
-        <v>306.9299926757812</v>
+        <v>301.9800109863281</v>
       </c>
       <c r="E86">
-        <v>306.9299926757812</v>
+        <v>301.9800109863281</v>
       </c>
       <c r="F86">
-        <v>54382300</v>
+        <v>48850500</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>298.7999877929688</v>
+        <v>302.489990234375</v>
       </c>
       <c r="B87">
-        <v>302.4100036621094</v>
+        <v>302.9400024414062</v>
       </c>
       <c r="C87">
-        <v>280.3800048828125</v>
+        <v>281.1600036621094</v>
       </c>
       <c r="D87">
-        <v>300.3699951171875</v>
+        <v>281.6099853515625</v>
       </c>
       <c r="E87">
-        <v>300.3699951171875</v>
+        <v>281.6099853515625</v>
       </c>
       <c r="F87">
-        <v>65893800</v>
+        <v>59834400</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>309.5700073242188</v>
+        <v>276.989990234375</v>
       </c>
       <c r="B88">
-        <v>324.489990234375</v>
+        <v>286.7799987792969</v>
       </c>
       <c r="C88">
-        <v>306.510009765625</v>
+        <v>272.5</v>
       </c>
       <c r="D88">
-        <v>324.2699890136719</v>
+        <v>283.3699951171875</v>
       </c>
       <c r="E88">
-        <v>324.2699890136719</v>
+        <v>283.3699951171875</v>
       </c>
       <c r="F88">
-        <v>59305300</v>
+        <v>66703500</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>319.989990234375</v>
+        <v>284</v>
       </c>
       <c r="B89">
-        <v>322.8999938964844</v>
+        <v>305</v>
       </c>
       <c r="C89">
-        <v>314.2099914550781</v>
+        <v>278.3800048828125</v>
       </c>
       <c r="D89">
-        <v>318.260009765625</v>
+        <v>304.5899963378906</v>
       </c>
       <c r="E89">
-        <v>318.260009765625</v>
+        <v>304.5899963378906</v>
       </c>
       <c r="F89">
-        <v>47555100</v>
+        <v>69829700</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>317.3399963378906</v>
+        <v>311.5199890136719</v>
       </c>
       <c r="B90">
-        <v>322.0499877929688</v>
+        <v>311.6000061035156</v>
       </c>
       <c r="C90">
-        <v>304.2799987792969</v>
+        <v>280.9299926757812</v>
       </c>
       <c r="D90">
-        <v>304.8999938964844</v>
+        <v>283.8699951171875</v>
       </c>
       <c r="E90">
-        <v>304.8999938964844</v>
+        <v>283.8699951171875</v>
       </c>
       <c r="F90">
-        <v>48850700</v>
+        <v>70736600</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>311.5</v>
+        <v>279.8500061035156</v>
       </c>
       <c r="B91">
-        <v>313.0499877929688</v>
+        <v>289.2200012207031</v>
       </c>
       <c r="C91">
-        <v>298.6099853515625</v>
+        <v>277.6000061035156</v>
       </c>
       <c r="D91">
-        <v>301.9800109863281</v>
+        <v>278.010009765625</v>
       </c>
       <c r="E91">
-        <v>301.9800109863281</v>
+        <v>278.010009765625</v>
       </c>
       <c r="F91">
-        <v>48850500</v>
+        <v>71375800</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>302.489990234375</v>
+        <v>273.0499877929688</v>
       </c>
       <c r="B92">
-        <v>302.9400024414062</v>
+        <v>281.4400024414062</v>
       </c>
       <c r="C92">
-        <v>281.1600036621094</v>
+        <v>271.4500122070312</v>
       </c>
       <c r="D92">
-        <v>281.6099853515625</v>
+        <v>277.1900024414062</v>
       </c>
       <c r="E92">
-        <v>281.6099853515625</v>
+        <v>277.1900024414062</v>
       </c>
       <c r="F92">
-        <v>59834400</v>
+        <v>46184700</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>276.989990234375</v>
+        <v>283.739990234375</v>
       </c>
       <c r="B93">
-        <v>286.7799987792969</v>
+        <v>291.2000122070312</v>
       </c>
       <c r="C93">
-        <v>272.5</v>
+        <v>274.010009765625</v>
       </c>
       <c r="D93">
-        <v>283.3699951171875</v>
+        <v>290.75</v>
       </c>
       <c r="E93">
-        <v>283.3699951171875</v>
+        <v>290.75</v>
       </c>
       <c r="F93">
-        <v>66703500</v>
+        <v>52438500</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>284</v>
+        <v>288.9100036621094</v>
       </c>
       <c r="B94">
-        <v>305</v>
+        <v>295.5499877929688</v>
       </c>
       <c r="C94">
-        <v>278.3800048828125</v>
+        <v>284.489990234375</v>
       </c>
       <c r="D94">
-        <v>304.5899963378906</v>
+        <v>294</v>
       </c>
       <c r="E94">
-        <v>304.5899963378906</v>
+        <v>294</v>
       </c>
       <c r="F94">
-        <v>69829700</v>
+        <v>39518400</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>311.5199890136719</v>
+        <v>297.5499877929688</v>
       </c>
       <c r="B95">
-        <v>311.6000061035156</v>
+        <v>300.5899963378906</v>
       </c>
       <c r="C95">
-        <v>280.9299926757812</v>
+        <v>294.3099975585938</v>
       </c>
       <c r="D95">
-        <v>283.8699951171875</v>
+        <v>296.3999938964844</v>
       </c>
       <c r="E95">
-        <v>283.8699951171875</v>
+        <v>296.3999938964844</v>
       </c>
       <c r="F95">
-        <v>70736600</v>
+        <v>34302200</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>279.8500061035156</v>
+        <v>296.6000061035156</v>
       </c>
       <c r="B96">
-        <v>289.2200012207031</v>
+        <v>310.8699951171875</v>
       </c>
       <c r="C96">
-        <v>277.6000061035156</v>
+        <v>296.3999938964844</v>
       </c>
       <c r="D96">
-        <v>278.010009765625</v>
+        <v>309.4500122070312</v>
       </c>
       <c r="E96">
-        <v>278.010009765625</v>
+        <v>309.4500122070312</v>
       </c>
       <c r="F96">
-        <v>71375800</v>
+        <v>40368600</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>273.0499877929688</v>
+        <v>313.1199951171875</v>
       </c>
       <c r="B97">
-        <v>281.4400024414062</v>
+        <v>313.2999877929688</v>
       </c>
       <c r="C97">
-        <v>271.4500122070312</v>
+        <v>300.1199951171875</v>
       </c>
       <c r="D97">
-        <v>277.1900024414062</v>
+        <v>303.2200012207031</v>
       </c>
       <c r="E97">
-        <v>277.1900024414062</v>
+        <v>303.2200012207031</v>
       </c>
       <c r="F97">
-        <v>46184700</v>
+        <v>42059100</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>283.739990234375</v>
+        <v>302.7300109863281</v>
       </c>
       <c r="B98">
-        <v>291.2000122070312</v>
+        <v>305.4800109863281</v>
       </c>
       <c r="C98">
-        <v>274.010009765625</v>
+        <v>293.6600036621094</v>
       </c>
       <c r="D98">
-        <v>290.75</v>
+        <v>300.010009765625</v>
       </c>
       <c r="E98">
-        <v>290.75</v>
+        <v>300.010009765625</v>
       </c>
       <c r="F98">
-        <v>52438500</v>
+        <v>34313900</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>288.9100036621094</v>
+        <v>298.2699890136719</v>
       </c>
       <c r="B99">
-        <v>295.5499877929688</v>
+        <v>304.5700073242188</v>
       </c>
       <c r="C99">
-        <v>284.489990234375</v>
+        <v>295.3999938964844</v>
       </c>
       <c r="D99">
-        <v>294</v>
+        <v>295.8599853515625</v>
       </c>
       <c r="E99">
-        <v>294</v>
+        <v>295.8599853515625</v>
       </c>
       <c r="F99">
-        <v>39518400</v>
+        <v>30886400</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>297.5499877929688</v>
+        <v>296.739990234375</v>
       </c>
       <c r="B100">
-        <v>300.5899963378906</v>
+        <v>300.2999877929688</v>
       </c>
       <c r="C100">
-        <v>294.3099975585938</v>
+        <v>293.3099975585938</v>
       </c>
       <c r="D100">
-        <v>296.3999938964844</v>
+        <v>294.1099853515625</v>
       </c>
       <c r="E100">
-        <v>296.3999938964844</v>
+        <v>294.1099853515625</v>
       </c>
       <c r="F100">
-        <v>34302200</v>
+        <v>26653000</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>296.6000061035156</v>
+        <v>298.1499938964844</v>
       </c>
       <c r="B101">
-        <v>310.8699951171875</v>
+        <v>307.1099853515625</v>
       </c>
       <c r="C101">
-        <v>296.3999938964844</v>
+        <v>297.8500061035156</v>
       </c>
       <c r="D101">
-        <v>309.4500122070312</v>
+        <v>301.2099914550781</v>
       </c>
       <c r="E101">
-        <v>309.4500122070312</v>
+        <v>301.2099914550781</v>
       </c>
       <c r="F101">
-        <v>40368600</v>
+        <v>39154700</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>313.1199951171875</v>
+        <v>302.7699890136719</v>
       </c>
       <c r="B102">
-        <v>313.2999877929688</v>
+        <v>304.6799926757812</v>
       </c>
       <c r="C102">
-        <v>300.1199951171875</v>
+        <v>283.489990234375</v>
       </c>
       <c r="D102">
-        <v>303.2200012207031</v>
+        <v>292.8999938964844</v>
       </c>
       <c r="E102">
-        <v>303.2200012207031</v>
+        <v>292.8999938964844</v>
       </c>
       <c r="F102">
-        <v>42059100</v>
+        <v>52715400</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>302.7300109863281</v>
+        <v>289.489990234375</v>
       </c>
       <c r="B103">
-        <v>305.4800109863281</v>
+        <v>294.1600036621094</v>
       </c>
       <c r="C103">
-        <v>293.6600036621094</v>
+        <v>275.3299865722656</v>
       </c>
       <c r="D103">
-        <v>300.010009765625</v>
+        <v>276.0400085449219</v>
       </c>
       <c r="E103">
-        <v>300.010009765625</v>
+        <v>276.0400085449219</v>
       </c>
       <c r="F103">
-        <v>34313900</v>
+        <v>49806400</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>298.2699890136719</v>
+        <v>276.3999938964844</v>
       </c>
       <c r="B104">
-        <v>304.5700073242188</v>
+        <v>284.3800048828125</v>
       </c>
       <c r="C104">
-        <v>295.3999938964844</v>
+        <v>270.6499938964844</v>
       </c>
       <c r="D104">
-        <v>295.8599853515625</v>
+        <v>281.7799987792969</v>
       </c>
       <c r="E104">
-        <v>295.8599853515625</v>
+        <v>281.7799987792969</v>
       </c>
       <c r="F104">
-        <v>30886400</v>
+        <v>45418600</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>296.739990234375</v>
+        <v>281.4100036621094</v>
       </c>
       <c r="B105">
-        <v>300.2999877929688</v>
+        <v>284.2200012207031</v>
       </c>
       <c r="C105">
-        <v>293.3099975585938</v>
+        <v>270.5700073242188</v>
       </c>
       <c r="D105">
-        <v>294.1099853515625</v>
+        <v>272.4700012207031</v>
       </c>
       <c r="E105">
-        <v>294.1099853515625</v>
+        <v>272.4700012207031</v>
       </c>
       <c r="F105">
-        <v>26653000</v>
+        <v>40920100</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>298.1499938964844</v>
+        <v>265.8099975585938</v>
       </c>
       <c r="B106">
-        <v>307.1099853515625</v>
+        <v>274.6900024414062</v>
       </c>
       <c r="C106">
-        <v>297.8500061035156</v>
+        <v>256.4400024414062</v>
       </c>
       <c r="D106">
-        <v>301.2099914550781</v>
+        <v>274</v>
       </c>
       <c r="E106">
-        <v>301.2099914550781</v>
+        <v>274</v>
       </c>
       <c r="F106">
-        <v>39154700</v>
+        <v>59468100</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>302.7699890136719</v>
+        <v>273.2300109863281</v>
       </c>
       <c r="B107">
-        <v>304.6799926757812</v>
+        <v>280.6499938964844</v>
       </c>
       <c r="C107">
-        <v>283.489990234375</v>
+        <v>268.3900146484375</v>
       </c>
       <c r="D107">
-        <v>292.8999938964844</v>
+        <v>278.1700134277344</v>
       </c>
       <c r="E107">
-        <v>292.8999938964844</v>
+        <v>278.1700134277344</v>
       </c>
       <c r="F107">
-        <v>52715400</v>
+        <v>40408900</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>289.489990234375</v>
+        <v>280.6700134277344</v>
       </c>
       <c r="B108">
-        <v>294.1600036621094</v>
+        <v>285.9500122070312</v>
       </c>
       <c r="C108">
-        <v>275.3299865722656</v>
+        <v>276.0799865722656</v>
       </c>
       <c r="D108">
-        <v>276.0400085449219</v>
+        <v>279.989990234375</v>
       </c>
       <c r="E108">
-        <v>276.0400085449219</v>
+        <v>279.989990234375</v>
       </c>
       <c r="F108">
-        <v>49806400</v>
+        <v>38341300</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>276.3999938964844</v>
+        <v>283.7900085449219</v>
       </c>
       <c r="B109">
-        <v>284.3800048828125</v>
+        <v>284.7999877929688</v>
       </c>
       <c r="C109">
-        <v>270.6499938964844</v>
+        <v>264.9800109863281</v>
       </c>
       <c r="D109">
-        <v>281.7799987792969</v>
+        <v>265.75</v>
       </c>
       <c r="E109">
-        <v>281.7799987792969</v>
+        <v>265.75</v>
       </c>
       <c r="F109">
-        <v>45418600</v>
+        <v>54017100</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>281.4100036621094</v>
+        <v>263</v>
       </c>
       <c r="B110">
-        <v>284.2200012207031</v>
+        <v>271.9700012207031</v>
       </c>
       <c r="C110">
-        <v>270.5700073242188</v>
+        <v>262.1000061035156</v>
       </c>
       <c r="D110">
-        <v>272.4700012207031</v>
+        <v>269.4200134277344</v>
       </c>
       <c r="E110">
-        <v>272.4700012207031</v>
+        <v>269.4200134277344</v>
       </c>
       <c r="F110">
-        <v>40920100</v>
+        <v>39522800</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>265.8099975585938</v>
+        <v>262.6000061035156</v>
       </c>
       <c r="B111">
-        <v>274.6900024414062</v>
+        <v>266.3800048828125</v>
       </c>
       <c r="C111">
-        <v>256.4400024414062</v>
+        <v>257.7000122070312</v>
       </c>
       <c r="D111">
-        <v>274</v>
+        <v>259.0299987792969</v>
       </c>
       <c r="E111">
-        <v>274</v>
+        <v>259.0299987792969</v>
       </c>
       <c r="F111">
-        <v>59468100</v>
+        <v>42427000</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>273.2300109863281</v>
+        <v>260.7900085449219</v>
       </c>
       <c r="B112">
-        <v>280.6499938964844</v>
+        <v>265.4299926757812</v>
       </c>
       <c r="C112">
-        <v>268.3900146484375</v>
+        <v>250.5200042724609</v>
       </c>
       <c r="D112">
-        <v>278.1700134277344</v>
+        <v>250.6699981689453</v>
       </c>
       <c r="E112">
-        <v>278.1700134277344</v>
+        <v>250.6699981689453</v>
       </c>
       <c r="F112">
-        <v>40408900</v>
+        <v>48831500</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>280.6700134277344</v>
+        <v>253.0399932861328</v>
       </c>
       <c r="B113">
-        <v>285.9500122070312</v>
+        <v>255.7899932861328</v>
       </c>
       <c r="C113">
-        <v>276.0799865722656</v>
+        <v>240.7799987792969</v>
       </c>
       <c r="D113">
-        <v>279.989990234375</v>
+        <v>241.5</v>
       </c>
       <c r="E113">
-        <v>279.989990234375</v>
+        <v>241.5</v>
       </c>
       <c r="F113">
-        <v>38341300</v>
+        <v>43518100</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>283.7900085449219</v>
+        <v>235.0700073242188</v>
       </c>
       <c r="B114">
-        <v>284.7999877929688</v>
+        <v>248.2299957275391</v>
       </c>
       <c r="C114">
-        <v>264.9800109863281</v>
+        <v>232.6300048828125</v>
       </c>
       <c r="D114">
-        <v>265.75</v>
+        <v>233.7400054931641</v>
       </c>
       <c r="E114">
-        <v>265.75</v>
+        <v>233.7400054931641</v>
       </c>
       <c r="F114">
-        <v>54017100</v>
+        <v>71895800</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>263</v>
+        <v>223.3000030517578</v>
       </c>
       <c r="B115">
-        <v>271.9700012207031</v>
+        <v>233.8000030517578</v>
       </c>
       <c r="C115">
-        <v>262.1000061035156</v>
+        <v>208.8800048828125</v>
       </c>
       <c r="D115">
-        <v>269.4200134277344</v>
+        <v>233.7200012207031</v>
       </c>
       <c r="E115">
-        <v>269.4200134277344</v>
+        <v>233.7200012207031</v>
       </c>
       <c r="F115">
-        <v>39522800</v>
+        <v>91398200</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>262.6000061035156</v>
+        <v>225.4600067138672</v>
       </c>
       <c r="B116">
-        <v>266.3800048828125</v>
+        <v>229.4299926757812</v>
       </c>
       <c r="C116">
-        <v>257.7000122070312</v>
+        <v>220</v>
       </c>
       <c r="D116">
-        <v>259.0299987792969</v>
+        <v>223.2400054931641</v>
       </c>
       <c r="E116">
-        <v>259.0299987792969</v>
+        <v>223.2400054931641</v>
       </c>
       <c r="F116">
-        <v>42427000</v>
+        <v>66461600</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>260.7900085449219</v>
+        <v>232.3999938964844</v>
       </c>
       <c r="B117">
-        <v>265.4299926757812</v>
+        <v>240.5700073242188</v>
       </c>
       <c r="C117">
-        <v>250.5200042724609</v>
+        <v>223</v>
       </c>
       <c r="D117">
-        <v>250.6699981689453</v>
+        <v>227.7200012207031</v>
       </c>
       <c r="E117">
-        <v>250.6699981689453</v>
+        <v>227.7200012207031</v>
       </c>
       <c r="F117">
-        <v>48831500</v>
+        <v>75595900</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>253.0399932861328</v>
+        <v>235.6799926757812</v>
       </c>
       <c r="B118">
-        <v>255.7899932861328</v>
+        <v>239.9499969482422</v>
       </c>
       <c r="C118">
-        <v>240.7799987792969</v>
+        <v>216.75</v>
       </c>
       <c r="D118">
-        <v>241.5</v>
+        <v>219.4400024414062</v>
       </c>
       <c r="E118">
-        <v>241.5</v>
+        <v>219.4400024414062</v>
       </c>
       <c r="F118">
-        <v>43518100</v>
+        <v>57335300</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>235.0700073242188</v>
+        <v>220.1199951171875</v>
       </c>
       <c r="B119">
-        <v>248.2299957275391</v>
+        <v>228.5800018310547</v>
       </c>
       <c r="C119">
-        <v>232.6300048828125</v>
+        <v>212.9600067138672</v>
       </c>
       <c r="D119">
-        <v>233.7400054931641</v>
+        <v>228.3999938964844</v>
       </c>
       <c r="E119">
-        <v>233.7400054931641</v>
+        <v>228.3999938964844</v>
       </c>
       <c r="F119">
-        <v>71895800</v>
+        <v>54377400</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>223.3000030517578</v>
+        <v>231.8200073242188</v>
       </c>
       <c r="B120">
-        <v>233.8000030517578</v>
+        <v>245.0899963378906</v>
       </c>
       <c r="C120">
-        <v>208.8800048828125</v>
+        <v>230.5200042724609</v>
       </c>
       <c r="D120">
-        <v>233.7200012207031</v>
+        <v>244.8600006103516</v>
       </c>
       <c r="E120">
-        <v>233.7200012207031</v>
+        <v>244.8600006103516</v>
       </c>
       <c r="F120">
-        <v>91398200</v>
+        <v>56468000</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>225.4600067138672</v>
+        <v>251.0399932861328</v>
       </c>
       <c r="B121">
-        <v>229.4299926757812</v>
+        <v>251.4499969482422</v>
       </c>
       <c r="C121">
-        <v>220</v>
+        <v>238.8999938964844</v>
       </c>
       <c r="D121">
-        <v>223.2400054931641</v>
+        <v>246.3800048828125</v>
       </c>
       <c r="E121">
-        <v>223.2400054931641</v>
+        <v>246.3800048828125</v>
       </c>
       <c r="F121">
-        <v>66461600</v>
+        <v>51892500</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>232.3999938964844</v>
+        <v>257.9400024414062</v>
       </c>
       <c r="B122">
-        <v>240.5700073242188</v>
+        <v>258.1700134277344</v>
       </c>
       <c r="C122">
-        <v>223</v>
+        <v>245.5299987792969</v>
       </c>
       <c r="D122">
-        <v>227.7200012207031</v>
+        <v>252.4199981689453</v>
       </c>
       <c r="E122">
-        <v>227.7200012207031</v>
+        <v>252.4199981689453</v>
       </c>
       <c r="F122">
-        <v>75595900</v>
+        <v>54341900</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>235.6799926757812</v>
+        <v>244.5800018310547</v>
       </c>
       <c r="B123">
-        <v>239.9499969482422</v>
+        <v>250.7700042724609</v>
       </c>
       <c r="C123">
-        <v>216.75</v>
+        <v>237.8000030517578</v>
       </c>
       <c r="D123">
-        <v>219.4400024414062</v>
+        <v>239.4799957275391</v>
       </c>
       <c r="E123">
-        <v>219.4400024414062</v>
+        <v>239.4799957275391</v>
       </c>
       <c r="F123">
-        <v>57335300</v>
+        <v>41017800</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>220.1199951171875</v>
+        <v>239.7200012207031</v>
       </c>
       <c r="B124">
-        <v>228.5800018310547</v>
+        <v>246.3500061035156</v>
       </c>
       <c r="C124">
-        <v>212.9600067138672</v>
+        <v>236.3200073242188</v>
       </c>
       <c r="D124">
-        <v>228.3999938964844</v>
+        <v>243.1900024414062</v>
       </c>
       <c r="E124">
-        <v>228.3999938964844</v>
+        <v>243.1900024414062</v>
       </c>
       <c r="F124">
-        <v>54377400</v>
+        <v>35432800</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>231.8200073242188</v>
+        <v>243.7200012207031</v>
       </c>
       <c r="B125">
-        <v>245.0899963378906</v>
+        <v>251.8200073242188</v>
       </c>
       <c r="C125">
-        <v>230.5200042724609</v>
+        <v>242.0200042724609</v>
       </c>
       <c r="D125">
-        <v>244.8600006103516</v>
+        <v>247.2799987792969</v>
       </c>
       <c r="E125">
-        <v>244.8600006103516</v>
+        <v>247.2799987792969</v>
       </c>
       <c r="F125">
-        <v>56468000</v>
+        <v>37686800</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>251.0399932861328</v>
+        <v>243.5899963378906</v>
       </c>
       <c r="B126">
-        <v>251.4499969482422</v>
+        <v>252.3000030517578</v>
       </c>
       <c r="C126">
-        <v>238.8999938964844</v>
+        <v>239.8000030517578</v>
       </c>
       <c r="D126">
-        <v>246.3800048828125</v>
+        <v>251.0800018310547</v>
       </c>
       <c r="E126">
-        <v>246.3800048828125</v>
+        <v>251.0800018310547</v>
       </c>
       <c r="F126">
-        <v>51892500</v>
+        <v>41035900</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>257.9400024414062</v>
+        <v>256.2200012207031</v>
       </c>
       <c r="B127">
-        <v>258.1700134277344</v>
+        <v>267.25</v>
       </c>
       <c r="C127">
-        <v>245.5299987792969</v>
+        <v>253.5299987792969</v>
       </c>
       <c r="D127">
-        <v>252.4199981689453</v>
+        <v>267.0499877929688</v>
       </c>
       <c r="E127">
-        <v>252.4199981689453</v>
+        <v>267.0499877929688</v>
       </c>
       <c r="F127">
-        <v>54341900</v>
+        <v>52428200</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>244.5800018310547</v>
+        <v>259.9500122070312</v>
       </c>
       <c r="B128">
-        <v>250.7700042724609</v>
+        <v>269.25</v>
       </c>
       <c r="C128">
-        <v>237.8000030517578</v>
+        <v>256</v>
       </c>
       <c r="D128">
-        <v>239.4799957275391</v>
+        <v>258.239990234375</v>
       </c>
       <c r="E128">
-        <v>239.4799957275391</v>
+        <v>258.239990234375</v>
       </c>
       <c r="F128">
-        <v>41017800</v>
+        <v>51320000</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>239.7200012207031</v>
+        <v>259.1600036621094</v>
       </c>
       <c r="B129">
-        <v>246.3500061035156</v>
+        <v>261.5199890136719</v>
       </c>
       <c r="C129">
-        <v>236.3200073242188</v>
+        <v>237.7299957275391</v>
       </c>
       <c r="D129">
-        <v>243.1900024414062</v>
+        <v>239.4900054931641</v>
       </c>
       <c r="E129">
-        <v>243.1900024414062</v>
+        <v>239.4900054931641</v>
       </c>
       <c r="F129">
-        <v>35432800</v>
+        <v>60424800</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/NVDA/HighLow.xlsx
+++ b/Stocks/NVDA/HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>198.6999969482422</v>
+        <v>194.9400024414062</v>
       </c>
       <c r="B2">
-        <v>200.2899932861328</v>
+        <v>204.9499969482422</v>
       </c>
       <c r="C2">
-        <v>196.1999969482422</v>
+        <v>187.6199951171875</v>
       </c>
       <c r="D2">
-        <v>199.0500030517578</v>
+        <v>197.9799957275391</v>
       </c>
       <c r="E2">
-        <v>198.9905395507812</v>
+        <v>197.9208526611328</v>
       </c>
       <c r="F2">
-        <v>15165200</v>
+        <v>76655500</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>199.0500030517578</v>
+        <v>199.9100036621094</v>
       </c>
       <c r="B3">
-        <v>202.1399993896484</v>
+        <v>208.6499938964844</v>
       </c>
       <c r="C3">
-        <v>198.5099945068359</v>
+        <v>199.3300018310547</v>
       </c>
       <c r="D3">
-        <v>201.8800048828125</v>
+        <v>208.1600036621094</v>
       </c>
       <c r="E3">
-        <v>201.8197021484375</v>
+        <v>208.0978240966797</v>
       </c>
       <c r="F3">
-        <v>18282500</v>
+        <v>67503900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>201.3500061035156</v>
+        <v>209.7100067138672</v>
       </c>
       <c r="B4">
-        <v>202.8699951171875</v>
+        <v>219.9700012207031</v>
       </c>
       <c r="C4">
-        <v>194.5299987792969</v>
+        <v>209.5</v>
       </c>
       <c r="D4">
-        <v>199.5</v>
+        <v>219.5800018310547</v>
       </c>
       <c r="E4">
-        <v>199.4403991699219</v>
+        <v>219.5144195556641</v>
       </c>
       <c r="F4">
-        <v>21087600</v>
+        <v>57580700</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>196.8500061035156</v>
+        <v>217.5299987792969</v>
       </c>
       <c r="B5">
-        <v>197.6999969482422</v>
+        <v>219.5899963378906</v>
       </c>
       <c r="C5">
-        <v>192.6699981689453</v>
+        <v>215.3500061035156</v>
       </c>
       <c r="D5">
-        <v>194.5800018310547</v>
+        <v>217.9299926757812</v>
       </c>
       <c r="E5">
-        <v>194.5218811035156</v>
+        <v>217.8648986816406</v>
       </c>
       <c r="F5">
-        <v>20458500</v>
+        <v>29729900</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>195</v>
+        <v>217.3699951171875</v>
       </c>
       <c r="B6">
-        <v>196.3399963378906</v>
+        <v>224.6999969482422</v>
       </c>
       <c r="C6">
-        <v>190</v>
+        <v>217.2200012207031</v>
       </c>
       <c r="D6">
-        <v>190.3999938964844</v>
+        <v>222.1300048828125</v>
       </c>
       <c r="E6">
-        <v>190.3431091308594</v>
+        <v>222.0636444091797</v>
       </c>
       <c r="F6">
-        <v>28591300</v>
+        <v>34770100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>194.9400024414062</v>
+        <v>222</v>
       </c>
       <c r="B7">
-        <v>204.9499969482422</v>
+        <v>223.3999938964844</v>
       </c>
       <c r="C7">
-        <v>187.6199951171875</v>
+        <v>217.8999938964844</v>
       </c>
       <c r="D7">
-        <v>197.9799957275391</v>
+        <v>220.6799926757812</v>
       </c>
       <c r="E7">
-        <v>197.9208679199219</v>
+        <v>220.6140747070312</v>
       </c>
       <c r="F7">
-        <v>76655500</v>
+        <v>23794000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>199.9100036621094</v>
+        <v>221.8399963378906</v>
       </c>
       <c r="B8">
-        <v>208.6499938964844</v>
+        <v>227.2200012207031</v>
       </c>
       <c r="C8">
-        <v>199.3300018310547</v>
+        <v>221.6699981689453</v>
       </c>
       <c r="D8">
-        <v>208.1600036621094</v>
+        <v>226.3600006103516</v>
       </c>
       <c r="E8">
-        <v>208.0978240966797</v>
+        <v>226.2923736572266</v>
       </c>
       <c r="F8">
-        <v>67503900</v>
+        <v>30426700</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>209.7100067138672</v>
+        <v>228.3000030517578</v>
       </c>
       <c r="B9">
-        <v>219.9700012207031</v>
+        <v>230.4299926757812</v>
       </c>
       <c r="C9">
-        <v>209.5</v>
+        <v>225.5099945068359</v>
       </c>
       <c r="D9">
-        <v>219.5800018310547</v>
+        <v>226.8800048828125</v>
       </c>
       <c r="E9">
-        <v>219.514404296875</v>
+        <v>226.8122253417969</v>
       </c>
       <c r="F9">
-        <v>57580700</v>
+        <v>26258000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>217.5299987792969</v>
+        <v>226.9499969482422</v>
       </c>
       <c r="B10">
-        <v>219.5899963378906</v>
+        <v>226.9499969482422</v>
       </c>
       <c r="C10">
-        <v>215.3500061035156</v>
+        <v>221.1999969482422</v>
       </c>
       <c r="D10">
-        <v>217.9299926757812</v>
+        <v>223.8500061035156</v>
       </c>
       <c r="E10">
-        <v>217.8648834228516</v>
+        <v>223.8226013183594</v>
       </c>
       <c r="F10">
-        <v>29729900</v>
+        <v>25985000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>217.3699951171875</v>
+        <v>224.8500061035156</v>
       </c>
       <c r="B11">
-        <v>224.6999969482422</v>
+        <v>226.9700012207031</v>
       </c>
       <c r="C11">
-        <v>217.2200012207031</v>
+        <v>223.5700073242188</v>
       </c>
       <c r="D11">
-        <v>222.1300048828125</v>
+        <v>224.4100036621094</v>
       </c>
       <c r="E11">
-        <v>222.0636596679688</v>
+        <v>224.3825225830078</v>
       </c>
       <c r="F11">
-        <v>34770100</v>
+        <v>20176700</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>222</v>
+        <v>225.1799926757812</v>
       </c>
       <c r="B12">
-        <v>223.3999938964844</v>
+        <v>225.9299926757812</v>
       </c>
       <c r="C12">
-        <v>217.8999938964844</v>
+        <v>222.9499969482422</v>
       </c>
       <c r="D12">
-        <v>220.6799926757812</v>
+        <v>223.9600067138672</v>
       </c>
       <c r="E12">
-        <v>220.6140594482422</v>
+        <v>223.9325866699219</v>
       </c>
       <c r="F12">
-        <v>23794000</v>
+        <v>18783400</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>221.8399963378906</v>
+        <v>223.25</v>
       </c>
       <c r="B13">
-        <v>227.2200012207031</v>
+        <v>229.8600006103516</v>
       </c>
       <c r="C13">
-        <v>221.6699981689453</v>
+        <v>222</v>
       </c>
       <c r="D13">
-        <v>226.3600006103516</v>
+        <v>228.4299926757812</v>
       </c>
       <c r="E13">
-        <v>226.2923889160156</v>
+        <v>228.4020233154297</v>
       </c>
       <c r="F13">
-        <v>30426700</v>
+        <v>28053200</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>228.3000030517578</v>
+        <v>228.3300018310547</v>
       </c>
       <c r="B14">
-        <v>230.4299926757812</v>
+        <v>228.9900054931641</v>
       </c>
       <c r="C14">
-        <v>225.5099945068359</v>
+        <v>225.2200012207031</v>
       </c>
       <c r="D14">
-        <v>226.8800048828125</v>
+        <v>226.6199951171875</v>
       </c>
       <c r="E14">
-        <v>226.8122406005859</v>
+        <v>226.5922546386719</v>
       </c>
       <c r="F14">
-        <v>26258000</v>
+        <v>19810700</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>226.9499969482422</v>
+        <v>225.1300048828125</v>
       </c>
       <c r="B15">
-        <v>226.9499969482422</v>
+        <v>226.1000061035156</v>
       </c>
       <c r="C15">
-        <v>221.1999969482422</v>
+        <v>219.7700042724609</v>
       </c>
       <c r="D15">
-        <v>223.8500061035156</v>
+        <v>223.3899993896484</v>
       </c>
       <c r="E15">
-        <v>223.8226013183594</v>
+        <v>223.3626556396484</v>
       </c>
       <c r="F15">
-        <v>25985000</v>
+        <v>25443400</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>224.8500061035156</v>
+        <v>223.1199951171875</v>
       </c>
       <c r="B16">
-        <v>226.9700012207031</v>
+        <v>225.3800048828125</v>
       </c>
       <c r="C16">
-        <v>223.5700073242188</v>
+        <v>221.3099975585938</v>
       </c>
       <c r="D16">
-        <v>224.4100036621094</v>
+        <v>221.7700042724609</v>
       </c>
       <c r="E16">
-        <v>224.3825225830078</v>
+        <v>221.7428588867188</v>
       </c>
       <c r="F16">
-        <v>20176700</v>
+        <v>19685600</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>225.1799926757812</v>
+        <v>223.4799957275391</v>
       </c>
       <c r="B17">
-        <v>225.9299926757812</v>
+        <v>226.2599945068359</v>
       </c>
       <c r="C17">
-        <v>222.9499969482422</v>
+        <v>222.6999969482422</v>
       </c>
       <c r="D17">
-        <v>223.9600067138672</v>
+        <v>224.7799987792969</v>
       </c>
       <c r="E17">
-        <v>223.9325866699219</v>
+        <v>224.7524719238281</v>
       </c>
       <c r="F17">
-        <v>18783400</v>
+        <v>24814900</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>223.25</v>
+        <v>226.8399963378906</v>
       </c>
       <c r="B18">
-        <v>229.8600006103516</v>
+        <v>229.6399993896484</v>
       </c>
       <c r="C18">
-        <v>222</v>
+        <v>218.5800018310547</v>
       </c>
       <c r="D18">
-        <v>228.4299926757812</v>
+        <v>221.5200042724609</v>
       </c>
       <c r="E18">
-        <v>228.4020233154297</v>
+        <v>221.4928894042969</v>
       </c>
       <c r="F18">
-        <v>28053200</v>
+        <v>29750000</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>228.3300018310547</v>
+        <v>222.75</v>
       </c>
       <c r="B19">
-        <v>228.9900054931641</v>
+        <v>224.1000061035156</v>
       </c>
       <c r="C19">
-        <v>225.2200012207031</v>
+        <v>220.8600006103516</v>
       </c>
       <c r="D19">
-        <v>226.6199951171875</v>
+        <v>222.4199981689453</v>
       </c>
       <c r="E19">
-        <v>226.5922546386719</v>
+        <v>222.3927612304688</v>
       </c>
       <c r="F19">
-        <v>19810700</v>
+        <v>19975500</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>225.1300048828125</v>
+        <v>223.0899963378906</v>
       </c>
       <c r="B20">
-        <v>226.1000061035156</v>
+        <v>223.6699981689453</v>
       </c>
       <c r="C20">
-        <v>219.7700042724609</v>
+        <v>219.6600036621094</v>
       </c>
       <c r="D20">
-        <v>223.3899993896484</v>
+        <v>223.4100036621094</v>
       </c>
       <c r="E20">
-        <v>223.3626556396484</v>
+        <v>223.3826446533203</v>
       </c>
       <c r="F20">
-        <v>25443400</v>
+        <v>16653800</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>223.1199951171875</v>
+        <v>221.8300018310547</v>
       </c>
       <c r="B21">
-        <v>225.3800048828125</v>
+        <v>222.7700042724609</v>
       </c>
       <c r="C21">
-        <v>221.3099975585938</v>
+        <v>219.2700042724609</v>
       </c>
       <c r="D21">
-        <v>221.7700042724609</v>
+        <v>222.4199981689453</v>
       </c>
       <c r="E21">
-        <v>221.7428588867188</v>
+        <v>222.3927612304688</v>
       </c>
       <c r="F21">
-        <v>19685600</v>
+        <v>15603300</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>223.4799957275391</v>
+        <v>223</v>
       </c>
       <c r="B22">
-        <v>226.2599945068359</v>
+        <v>223.2100067138672</v>
       </c>
       <c r="C22">
-        <v>222.6999969482422</v>
+        <v>218.3000030517578</v>
       </c>
       <c r="D22">
-        <v>224.7799987792969</v>
+        <v>219</v>
       </c>
       <c r="E22">
-        <v>224.7524719238281</v>
+        <v>218.9731903076172</v>
       </c>
       <c r="F22">
-        <v>24814900</v>
+        <v>29450300</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>226.8399963378906</v>
+        <v>211.4600067138672</v>
       </c>
       <c r="B23">
-        <v>229.6399993896484</v>
+        <v>214.3300018310547</v>
       </c>
       <c r="C23">
-        <v>218.5800018310547</v>
+        <v>206.6199951171875</v>
       </c>
       <c r="D23">
-        <v>221.5200042724609</v>
+        <v>211.1300048828125</v>
       </c>
       <c r="E23">
-        <v>221.4928894042969</v>
+        <v>211.1041564941406</v>
       </c>
       <c r="F23">
-        <v>29750000</v>
+        <v>34944000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>222.75</v>
+        <v>214.1699981689453</v>
       </c>
       <c r="B24">
-        <v>224.1000061035156</v>
+        <v>214.25</v>
       </c>
       <c r="C24">
-        <v>220.8600006103516</v>
+        <v>209.5</v>
       </c>
       <c r="D24">
-        <v>222.4199981689453</v>
+        <v>212.4600067138672</v>
       </c>
       <c r="E24">
-        <v>222.3927612304688</v>
+        <v>212.4339904785156</v>
       </c>
       <c r="F24">
-        <v>19975500</v>
+        <v>20468800</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>223.0899963378906</v>
+        <v>213.6600036621094</v>
       </c>
       <c r="B25">
-        <v>223.6699981689453</v>
+        <v>219.6000061035156</v>
       </c>
       <c r="C25">
-        <v>219.6600036621094</v>
+        <v>211.9600067138672</v>
       </c>
       <c r="D25">
-        <v>223.4100036621094</v>
+        <v>219.4100036621094</v>
       </c>
       <c r="E25">
-        <v>223.3826446533203</v>
+        <v>219.3831481933594</v>
       </c>
       <c r="F25">
-        <v>16653800</v>
+        <v>26872600</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>221.8300018310547</v>
+        <v>221.3999938964844</v>
       </c>
       <c r="B26">
-        <v>222.7700042724609</v>
+        <v>225.3500061035156</v>
       </c>
       <c r="C26">
-        <v>219.2700042724609</v>
+        <v>218.8999938964844</v>
       </c>
       <c r="D26">
-        <v>222.4199981689453</v>
+        <v>224.8200073242188</v>
       </c>
       <c r="E26">
-        <v>222.3927612304688</v>
+        <v>224.79248046875</v>
       </c>
       <c r="F26">
-        <v>15603300</v>
+        <v>24855500</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>223</v>
+        <v>220.6999969482422</v>
       </c>
       <c r="B27">
-        <v>223.2100067138672</v>
+        <v>221.4900054931641</v>
       </c>
       <c r="C27">
-        <v>218.3000030517578</v>
+        <v>218.6100006103516</v>
       </c>
       <c r="D27">
-        <v>219</v>
+        <v>220.8099975585938</v>
       </c>
       <c r="E27">
-        <v>218.9731903076172</v>
+        <v>220.782958984375</v>
       </c>
       <c r="F27">
-        <v>29450300</v>
+        <v>21765500</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>211.4600067138672</v>
+        <v>217.1000061035156</v>
       </c>
       <c r="B28">
-        <v>214.3300018310547</v>
+        <v>217.9900054931641</v>
       </c>
       <c r="C28">
-        <v>206.6199951171875</v>
+        <v>213.25</v>
       </c>
       <c r="D28">
-        <v>211.1300048828125</v>
+        <v>216.6000061035156</v>
       </c>
       <c r="E28">
-        <v>211.1041564941406</v>
+        <v>216.573486328125</v>
       </c>
       <c r="F28">
-        <v>34944000</v>
+        <v>24521500</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>214.1699981689453</v>
+        <v>212.1399993896484</v>
       </c>
       <c r="B29">
-        <v>214.25</v>
+        <v>214.1900024414062</v>
       </c>
       <c r="C29">
-        <v>209.5</v>
+        <v>206.5099945068359</v>
       </c>
       <c r="D29">
-        <v>212.4600067138672</v>
+        <v>206.9900054931641</v>
       </c>
       <c r="E29">
-        <v>212.4339904785156</v>
+        <v>206.9646606445312</v>
       </c>
       <c r="F29">
-        <v>20468800</v>
+        <v>34306900</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>213.6600036621094</v>
+        <v>209.3999938964844</v>
       </c>
       <c r="B30">
-        <v>219.6000061035156</v>
+        <v>210.1699981689453</v>
       </c>
       <c r="C30">
-        <v>211.9600067138672</v>
+        <v>204.6699981689453</v>
       </c>
       <c r="D30">
-        <v>219.4100036621094</v>
+        <v>205.1699981689453</v>
       </c>
       <c r="E30">
-        <v>219.3831481933594</v>
+        <v>205.1448822021484</v>
       </c>
       <c r="F30">
-        <v>26872600</v>
+        <v>21839400</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>221.3999938964844</v>
+        <v>207.6799926757812</v>
       </c>
       <c r="B31">
-        <v>225.3500061035156</v>
+        <v>210.6600036621094</v>
       </c>
       <c r="C31">
-        <v>218.8999938964844</v>
+        <v>206.8800048828125</v>
       </c>
       <c r="D31">
-        <v>224.8200073242188</v>
+        <v>207.1600036621094</v>
       </c>
       <c r="E31">
-        <v>224.79248046875</v>
+        <v>207.1346435546875</v>
       </c>
       <c r="F31">
-        <v>24855500</v>
+        <v>22080400</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>220.6999969482422</v>
+        <v>207.5</v>
       </c>
       <c r="B32">
-        <v>221.4900054931641</v>
+        <v>208.5899963378906</v>
       </c>
       <c r="C32">
-        <v>218.6100006103516</v>
+        <v>202.0299987792969</v>
       </c>
       <c r="D32">
-        <v>220.8099975585938</v>
+        <v>207.4199981689453</v>
       </c>
       <c r="E32">
-        <v>220.782958984375</v>
+        <v>207.3946075439453</v>
       </c>
       <c r="F32">
-        <v>21765500</v>
+        <v>24097800</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>217.1000061035156</v>
+        <v>205.0399932861328</v>
       </c>
       <c r="B33">
-        <v>217.9900054931641</v>
+        <v>205.4199981689453</v>
       </c>
       <c r="C33">
-        <v>213.25</v>
+        <v>195.5500030517578</v>
       </c>
       <c r="D33">
-        <v>216.6000061035156</v>
+        <v>197.3200073242188</v>
       </c>
       <c r="E33">
-        <v>216.573486328125</v>
+        <v>197.2958526611328</v>
       </c>
       <c r="F33">
-        <v>24521500</v>
+        <v>34563500</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>212.1399993896484</v>
+        <v>199.5</v>
       </c>
       <c r="B34">
-        <v>214.1900024414062</v>
+        <v>206.4799957275391</v>
       </c>
       <c r="C34">
-        <v>206.5099945068359</v>
+        <v>198.5399932861328</v>
       </c>
       <c r="D34">
-        <v>206.9900054931641</v>
+        <v>204.5099945068359</v>
       </c>
       <c r="E34">
-        <v>206.9646606445312</v>
+        <v>204.4849548339844</v>
       </c>
       <c r="F34">
-        <v>34306900</v>
+        <v>27928200</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>209.3999938964844</v>
+        <v>201.1999969482422</v>
       </c>
       <c r="B35">
-        <v>210.1699981689453</v>
+        <v>207.1999969482422</v>
       </c>
       <c r="C35">
-        <v>204.6699981689453</v>
+        <v>200.8000030517578</v>
       </c>
       <c r="D35">
-        <v>205.1699981689453</v>
+        <v>207</v>
       </c>
       <c r="E35">
-        <v>205.1448822021484</v>
+        <v>206.9746551513672</v>
       </c>
       <c r="F35">
-        <v>21839400</v>
+        <v>29720200</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>207.6799926757812</v>
+        <v>210.9199981689453</v>
       </c>
       <c r="B36">
-        <v>210.6600036621094</v>
+        <v>213.2200012207031</v>
       </c>
       <c r="C36">
-        <v>206.8800048828125</v>
+        <v>209.7200012207031</v>
       </c>
       <c r="D36">
-        <v>207.1600036621094</v>
+        <v>210.75</v>
       </c>
       <c r="E36">
-        <v>207.1346435546875</v>
+        <v>210.7241973876953</v>
       </c>
       <c r="F36">
-        <v>22080400</v>
+        <v>25691900</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>207.5</v>
+        <v>211.0099945068359</v>
       </c>
       <c r="B37">
-        <v>208.5899963378906</v>
+        <v>212.0599975585938</v>
       </c>
       <c r="C37">
-        <v>202.0299987792969</v>
+        <v>207.75</v>
       </c>
       <c r="D37">
-        <v>207.4199981689453</v>
+        <v>208.3099975585938</v>
       </c>
       <c r="E37">
-        <v>207.3946075439453</v>
+        <v>208.2845001220703</v>
       </c>
       <c r="F37">
-        <v>24097800</v>
+        <v>15102500</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>205.0399932861328</v>
+        <v>205.75</v>
       </c>
       <c r="B38">
-        <v>205.4199981689453</v>
+        <v>210.6300048828125</v>
       </c>
       <c r="C38">
-        <v>195.5500030517578</v>
+        <v>205.1100006103516</v>
       </c>
       <c r="D38">
-        <v>197.3200073242188</v>
+        <v>206.9499969482422</v>
       </c>
       <c r="E38">
-        <v>197.2958526611328</v>
+        <v>206.9246673583984</v>
       </c>
       <c r="F38">
-        <v>34563500</v>
+        <v>16338800</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>199.5</v>
+        <v>208.2799987792969</v>
       </c>
       <c r="B39">
-        <v>206.4799957275391</v>
+        <v>210.5700073242188</v>
       </c>
       <c r="C39">
-        <v>198.5399932861328</v>
+        <v>205.2799987792969</v>
       </c>
       <c r="D39">
-        <v>204.5099945068359</v>
+        <v>206.7100067138672</v>
       </c>
       <c r="E39">
-        <v>204.4849548339844</v>
+        <v>206.6846923828125</v>
       </c>
       <c r="F39">
-        <v>27928200</v>
+        <v>16213400</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>201.1999969482422</v>
+        <v>209.1799926757812</v>
       </c>
       <c r="B40">
-        <v>207.1999969482422</v>
+        <v>209.8999938964844</v>
       </c>
       <c r="C40">
-        <v>200.8000030517578</v>
+        <v>207.1300048828125</v>
       </c>
       <c r="D40">
-        <v>207</v>
+        <v>209.3899993896484</v>
       </c>
       <c r="E40">
-        <v>206.9746551513672</v>
+        <v>209.3643646240234</v>
       </c>
       <c r="F40">
-        <v>29720200</v>
+        <v>18065200</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>210.9199981689453</v>
+        <v>212.8800048828125</v>
       </c>
       <c r="B41">
-        <v>213.2200012207031</v>
+        <v>217.5500030517578</v>
       </c>
       <c r="C41">
-        <v>209.7200012207031</v>
+        <v>211.2200012207031</v>
       </c>
       <c r="D41">
-        <v>210.75</v>
+        <v>217.4600067138672</v>
       </c>
       <c r="E41">
-        <v>210.7241973876953</v>
+        <v>217.4333801269531</v>
       </c>
       <c r="F41">
-        <v>25691900</v>
+        <v>24358900</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>211.0099945068359</v>
+        <v>218.1000061035156</v>
       </c>
       <c r="B42">
-        <v>212.0599975585938</v>
+        <v>219.3099975585938</v>
       </c>
       <c r="C42">
-        <v>207.75</v>
+        <v>216.6199951171875</v>
       </c>
       <c r="D42">
-        <v>208.3099975585938</v>
+        <v>218.6199951171875</v>
       </c>
       <c r="E42">
-        <v>208.2845001220703</v>
+        <v>218.5932312011719</v>
       </c>
       <c r="F42">
-        <v>15102500</v>
+        <v>22679500</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>205.75</v>
+        <v>217.4900054931641</v>
       </c>
       <c r="B43">
-        <v>210.6300048828125</v>
+        <v>222.9100036621094</v>
       </c>
       <c r="C43">
-        <v>205.1100006103516</v>
+        <v>216.4400024414062</v>
       </c>
       <c r="D43">
-        <v>206.9499969482422</v>
+        <v>222.2200012207031</v>
       </c>
       <c r="E43">
-        <v>206.9246673583984</v>
+        <v>222.1927947998047</v>
       </c>
       <c r="F43">
-        <v>16338800</v>
+        <v>18949400</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>208.2799987792969</v>
+        <v>222.7599945068359</v>
       </c>
       <c r="B44">
-        <v>210.5700073242188</v>
+        <v>223.7899932861328</v>
       </c>
       <c r="C44">
-        <v>205.2799987792969</v>
+        <v>220.3699951171875</v>
       </c>
       <c r="D44">
-        <v>206.7100067138672</v>
+        <v>222.8999938964844</v>
       </c>
       <c r="E44">
-        <v>206.6846923828125</v>
+        <v>222.8727111816406</v>
       </c>
       <c r="F44">
-        <v>16213400</v>
+        <v>16147300</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>209.1799926757812</v>
+        <v>223.0500030517578</v>
       </c>
       <c r="B45">
-        <v>209.8999938964844</v>
+        <v>224.3300018310547</v>
       </c>
       <c r="C45">
-        <v>207.1300048828125</v>
+        <v>219.8200073242188</v>
       </c>
       <c r="D45">
-        <v>209.3899993896484</v>
+        <v>221.0299987792969</v>
       </c>
       <c r="E45">
-        <v>209.3643646240234</v>
+        <v>221.0029449462891</v>
       </c>
       <c r="F45">
-        <v>18065200</v>
+        <v>14627600</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>212.8800048828125</v>
+        <v>220.9700012207031</v>
       </c>
       <c r="B46">
-        <v>217.5500030517578</v>
+        <v>227.1100006103516</v>
       </c>
       <c r="C46">
-        <v>211.2200012207031</v>
+        <v>220.8300018310547</v>
       </c>
       <c r="D46">
-        <v>217.4600067138672</v>
+        <v>226.9199981689453</v>
       </c>
       <c r="E46">
-        <v>217.4333801269531</v>
+        <v>226.8922119140625</v>
       </c>
       <c r="F46">
-        <v>24358900</v>
+        <v>18759000</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>218.1000061035156</v>
+        <v>228.2299957275391</v>
       </c>
       <c r="B47">
-        <v>219.3099975585938</v>
+        <v>231.3000030517578</v>
       </c>
       <c r="C47">
-        <v>216.6199951171875</v>
+        <v>225.6100006103516</v>
       </c>
       <c r="D47">
-        <v>218.6199951171875</v>
+        <v>227.2599945068359</v>
       </c>
       <c r="E47">
-        <v>218.5932312011719</v>
+        <v>227.232177734375</v>
       </c>
       <c r="F47">
-        <v>22679500</v>
+        <v>24938400</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>217.4900054931641</v>
+        <v>229.7299957275391</v>
       </c>
       <c r="B48">
-        <v>222.9100036621094</v>
+        <v>233.5500030517578</v>
       </c>
       <c r="C48">
-        <v>216.4400024414062</v>
+        <v>227.6999969482422</v>
       </c>
       <c r="D48">
-        <v>222.2200012207031</v>
+        <v>231.6600036621094</v>
       </c>
       <c r="E48">
-        <v>222.1927947998047</v>
+        <v>231.6316375732422</v>
       </c>
       <c r="F48">
-        <v>18949400</v>
+        <v>23023500</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>222.7599945068359</v>
+        <v>239.8899993896484</v>
       </c>
       <c r="B49">
-        <v>223.7899932861328</v>
+        <v>252.5899963378906</v>
       </c>
       <c r="C49">
-        <v>220.3699951171875</v>
+        <v>239.2400054931641</v>
       </c>
       <c r="D49">
-        <v>222.8999938964844</v>
+        <v>247.1699981689453</v>
       </c>
       <c r="E49">
-        <v>222.8727111816406</v>
+        <v>247.1397399902344</v>
       </c>
       <c r="F49">
-        <v>16147300</v>
+        <v>48589800</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>223.0500030517578</v>
+        <v>244.7400054931641</v>
       </c>
       <c r="B50">
-        <v>224.3300018310547</v>
+        <v>250.8999938964844</v>
       </c>
       <c r="C50">
-        <v>219.8200073242188</v>
+        <v>242.8200073242188</v>
       </c>
       <c r="D50">
-        <v>221.0299987792969</v>
+        <v>244.5099945068359</v>
       </c>
       <c r="E50">
-        <v>221.0029449462891</v>
+        <v>244.4800567626953</v>
       </c>
       <c r="F50">
-        <v>14627600</v>
+        <v>24599000</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>220.9700012207031</v>
+        <v>248.7799987792969</v>
       </c>
       <c r="B51">
-        <v>227.1100006103516</v>
+        <v>249.5</v>
       </c>
       <c r="C51">
-        <v>220.8300018310547</v>
+        <v>245.2299957275391</v>
       </c>
       <c r="D51">
-        <v>226.9199981689453</v>
+        <v>249.4100036621094</v>
       </c>
       <c r="E51">
-        <v>226.8922119140625</v>
+        <v>249.3794708251953</v>
       </c>
       <c r="F51">
-        <v>18759000</v>
+        <v>23420400</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>228.2299957275391</v>
+        <v>250.0099945068359</v>
       </c>
       <c r="B52">
-        <v>231.3000030517578</v>
+        <v>257.0899963378906</v>
       </c>
       <c r="C52">
-        <v>225.6100006103516</v>
+        <v>250</v>
       </c>
       <c r="D52">
-        <v>227.2599945068359</v>
+        <v>255.6699981689453</v>
       </c>
       <c r="E52">
-        <v>227.232177734375</v>
+        <v>255.6387023925781</v>
       </c>
       <c r="F52">
-        <v>24938400</v>
+        <v>29213700</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>229.7299957275391</v>
+        <v>256.489990234375</v>
       </c>
       <c r="B53">
-        <v>233.5500030517578</v>
+        <v>258.9400024414062</v>
       </c>
       <c r="C53">
-        <v>227.6999969482422</v>
+        <v>252.2700042724609</v>
       </c>
       <c r="D53">
-        <v>231.6600036621094</v>
+        <v>258.2699890136719</v>
       </c>
       <c r="E53">
-        <v>231.6316375732422</v>
+        <v>258.2383728027344</v>
       </c>
       <c r="F53">
-        <v>23023500</v>
+        <v>26574000</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>239.8899993896484</v>
+        <v>258.2200012207031</v>
       </c>
       <c r="B54">
-        <v>252.5899963378906</v>
+        <v>266.7799987792969</v>
       </c>
       <c r="C54">
-        <v>239.2400054931641</v>
+        <v>258</v>
       </c>
       <c r="D54">
-        <v>247.1699981689453</v>
+        <v>264.010009765625</v>
       </c>
       <c r="E54">
-        <v>247.1397399902344</v>
+        <v>263.9776916503906</v>
       </c>
       <c r="F54">
-        <v>48589800</v>
+        <v>29411200</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>244.7400054931641</v>
+        <v>266.7000122070312</v>
       </c>
       <c r="B55">
-        <v>250.8999938964844</v>
+        <v>267.8399963378906</v>
       </c>
       <c r="C55">
-        <v>242.8200073242188</v>
+        <v>262.3500061035156</v>
       </c>
       <c r="D55">
-        <v>244.5099945068359</v>
+        <v>265.9800109863281</v>
       </c>
       <c r="E55">
-        <v>244.4800567626953</v>
+        <v>265.9474487304688</v>
       </c>
       <c r="F55">
-        <v>24599000</v>
+        <v>23991000</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>248.7799987792969</v>
+        <v>272.2900085449219</v>
       </c>
       <c r="B56">
-        <v>249.5</v>
+        <v>313.6499938964844</v>
       </c>
       <c r="C56">
-        <v>245.2299957275391</v>
+        <v>271.1799926757812</v>
       </c>
       <c r="D56">
-        <v>249.4100036621094</v>
+        <v>298.010009765625</v>
       </c>
       <c r="E56">
-        <v>249.3794708251953</v>
+        <v>297.9735107421875</v>
       </c>
       <c r="F56">
-        <v>23420400</v>
+        <v>115363100</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>250.0099945068359</v>
+        <v>301.8699951171875</v>
       </c>
       <c r="B57">
-        <v>257.0899963378906</v>
+        <v>314</v>
       </c>
       <c r="C57">
-        <v>250</v>
+        <v>294.1000061035156</v>
       </c>
       <c r="D57">
-        <v>255.6699981689453</v>
+        <v>297.5199890136719</v>
       </c>
       <c r="E57">
-        <v>255.6387023925781</v>
+        <v>297.4835510253906</v>
       </c>
       <c r="F57">
-        <v>29213700</v>
+        <v>85072800</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>256.489990234375</v>
+        <v>301.489990234375</v>
       </c>
       <c r="B58">
-        <v>258.9400024414062</v>
+        <v>311</v>
       </c>
       <c r="C58">
-        <v>252.2700042724609</v>
+        <v>299.0700073242188</v>
       </c>
       <c r="D58">
-        <v>258.2699890136719</v>
+        <v>308.0400085449219</v>
       </c>
       <c r="E58">
-        <v>258.2383728027344</v>
+        <v>308.0022888183594</v>
       </c>
       <c r="F58">
-        <v>26574000</v>
+        <v>50310100</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>258.2200012207031</v>
+        <v>322.8200073242188</v>
       </c>
       <c r="B59">
-        <v>266.7799987792969</v>
+        <v>323.1000061035156</v>
       </c>
       <c r="C59">
-        <v>258</v>
+        <v>299.6400146484375</v>
       </c>
       <c r="D59">
-        <v>264.010009765625</v>
+        <v>306.5700073242188</v>
       </c>
       <c r="E59">
-        <v>263.9776916503906</v>
+        <v>306.532470703125</v>
       </c>
       <c r="F59">
-        <v>29411200</v>
+        <v>64674600</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>266.7000122070312</v>
+        <v>293.5599975585938</v>
       </c>
       <c r="B60">
-        <v>267.8399963378906</v>
+        <v>308.5</v>
       </c>
       <c r="C60">
-        <v>262.3500061035156</v>
+        <v>287.7799987792969</v>
       </c>
       <c r="D60">
-        <v>265.9800109863281</v>
+        <v>294.5899963378906</v>
       </c>
       <c r="E60">
-        <v>265.9474487304688</v>
+        <v>294.5539245605469</v>
       </c>
       <c r="F60">
-        <v>23991000</v>
+        <v>63620600</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>272.2900085449219</v>
+        <v>304.6799926757812</v>
       </c>
       <c r="B61">
-        <v>313.6499938964844</v>
+        <v>305.8999938964844</v>
       </c>
       <c r="C61">
-        <v>271.1799926757812</v>
+        <v>297.7699890136719</v>
       </c>
       <c r="D61">
-        <v>298.010009765625</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="E61">
-        <v>297.9735107421875</v>
+        <v>303.86279296875</v>
       </c>
       <c r="F61">
-        <v>115363100</v>
+        <v>33217200</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>301.8699951171875</v>
+        <v>300.1000061035156</v>
       </c>
       <c r="B62">
-        <v>314</v>
+        <v>306.7999877929688</v>
       </c>
       <c r="C62">
-        <v>294.1000061035156</v>
+        <v>296.2999877929688</v>
       </c>
       <c r="D62">
-        <v>297.5199890136719</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="E62">
-        <v>297.4835510253906</v>
+        <v>303.86279296875</v>
       </c>
       <c r="F62">
-        <v>85072800</v>
+        <v>41215100</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>301.489990234375</v>
+        <v>305.5199890136719</v>
       </c>
       <c r="B63">
-        <v>311</v>
+        <v>306.4400024414062</v>
       </c>
       <c r="C63">
-        <v>299.0700073242188</v>
+        <v>292.4700012207031</v>
       </c>
       <c r="D63">
-        <v>308.0400085449219</v>
+        <v>300.25</v>
       </c>
       <c r="E63">
-        <v>308.0022888183594</v>
+        <v>300.2132263183594</v>
       </c>
       <c r="F63">
-        <v>50310100</v>
+        <v>38490900</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>322.8200073242188</v>
+        <v>297.5899963378906</v>
       </c>
       <c r="B64">
-        <v>323.1000061035156</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="C64">
-        <v>299.6400146484375</v>
+        <v>297.0599975585938</v>
       </c>
       <c r="D64">
-        <v>306.5700073242188</v>
+        <v>302.0299987792969</v>
       </c>
       <c r="E64">
-        <v>306.532470703125</v>
+        <v>301.9930114746094</v>
       </c>
       <c r="F64">
-        <v>64674600</v>
+        <v>26448400</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>293.5599975585938</v>
+        <v>304.1799926757812</v>
       </c>
       <c r="B65">
-        <v>308.5</v>
+        <v>305.0899963378906</v>
       </c>
       <c r="C65">
-        <v>287.7799987792969</v>
+        <v>288</v>
       </c>
       <c r="D65">
-        <v>294.5899963378906</v>
+        <v>292.6099853515625</v>
       </c>
       <c r="E65">
-        <v>294.5539245605469</v>
+        <v>292.5741577148438</v>
       </c>
       <c r="F65">
-        <v>63620600</v>
+        <v>42850800</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>304.6799926757812</v>
+        <v>323.6700134277344</v>
       </c>
       <c r="B66">
-        <v>305.8999938964844</v>
+        <v>327.6000061035156</v>
       </c>
       <c r="C66">
-        <v>297.7699890136719</v>
+        <v>313.2099914550781</v>
       </c>
       <c r="D66">
-        <v>303.8999938964844</v>
+        <v>316.75</v>
       </c>
       <c r="E66">
-        <v>303.86279296875</v>
+        <v>316.7112121582031</v>
       </c>
       <c r="F66">
-        <v>33217200</v>
+        <v>78171100</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>300.1000061035156</v>
+        <v>322.4299926757812</v>
       </c>
       <c r="B67">
-        <v>306.7999877929688</v>
+        <v>330.8800048828125</v>
       </c>
       <c r="C67">
-        <v>296.2999877929688</v>
+        <v>319.0499877929688</v>
       </c>
       <c r="D67">
-        <v>303.8999938964844</v>
+        <v>329.8500061035156</v>
       </c>
       <c r="E67">
-        <v>303.86279296875</v>
+        <v>329.8096313476562</v>
       </c>
       <c r="F67">
-        <v>41215100</v>
+        <v>53386700</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>305.5199890136719</v>
+        <v>335.1700134277344</v>
       </c>
       <c r="B68">
-        <v>306.4400024414062</v>
+        <v>346.4700012207031</v>
       </c>
       <c r="C68">
-        <v>292.4700012207031</v>
+        <v>319</v>
       </c>
       <c r="D68">
-        <v>300.25</v>
+        <v>319.5599975585938</v>
       </c>
       <c r="E68">
-        <v>300.2132263183594</v>
+        <v>319.5208740234375</v>
       </c>
       <c r="F68">
-        <v>38490900</v>
+        <v>75433500</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>297.5899963378906</v>
+        <v>315.3500061035156</v>
       </c>
       <c r="B69">
-        <v>303.8999938964844</v>
+        <v>323.6000061035156</v>
       </c>
       <c r="C69">
-        <v>297.0599975585938</v>
+        <v>308.7999877929688</v>
       </c>
       <c r="D69">
-        <v>302.0299987792969</v>
+        <v>317.4599914550781</v>
       </c>
       <c r="E69">
-        <v>301.9930114746094</v>
+        <v>317.4211120605469</v>
       </c>
       <c r="F69">
-        <v>26448400</v>
+        <v>53216300</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>304.1799926757812</v>
+        <v>314.6099853515625</v>
       </c>
       <c r="B70">
-        <v>305.0899963378906</v>
+        <v>328.5499877929688</v>
       </c>
       <c r="C70">
-        <v>288</v>
+        <v>309.2799987792969</v>
       </c>
       <c r="D70">
-        <v>292.6099853515625</v>
+        <v>326.739990234375</v>
       </c>
       <c r="E70">
-        <v>292.5741577148438</v>
+        <v>326.6999816894531</v>
       </c>
       <c r="F70">
-        <v>42850800</v>
+        <v>43516200</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>323.6700134277344</v>
+        <v>326</v>
       </c>
       <c r="B71">
-        <v>327.6000061035156</v>
+        <v>327.1000061035156</v>
       </c>
       <c r="C71">
-        <v>313.2099914550781</v>
+        <v>313.5</v>
       </c>
       <c r="D71">
-        <v>316.75</v>
+        <v>315.0299987792969</v>
       </c>
       <c r="E71">
-        <v>316.7112121582031</v>
+        <v>314.9914245605469</v>
       </c>
       <c r="F71">
-        <v>78171100</v>
+        <v>28306900</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>322.4299926757812</v>
+        <v>323.6600036621094</v>
       </c>
       <c r="B72">
-        <v>330.8800048828125</v>
+        <v>334.1199951171875</v>
       </c>
       <c r="C72">
-        <v>319.0499877929688</v>
+        <v>320.3599853515625</v>
       </c>
       <c r="D72">
-        <v>329.8500061035156</v>
+        <v>333.760009765625</v>
       </c>
       <c r="E72">
-        <v>329.8096313476562</v>
+        <v>333.7191467285156</v>
       </c>
       <c r="F72">
-        <v>53386700</v>
+        <v>45496400</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>335.1700134277344</v>
+        <v>331.6900024414062</v>
       </c>
       <c r="B73">
-        <v>346.4700012207031</v>
+        <v>333.5299987792969</v>
       </c>
       <c r="C73">
-        <v>319</v>
+        <v>318.6400146484375</v>
       </c>
       <c r="D73">
-        <v>319.5599975585938</v>
+        <v>326.760009765625</v>
       </c>
       <c r="E73">
-        <v>319.5208740234375</v>
+        <v>326.7200012207031</v>
       </c>
       <c r="F73">
-        <v>75433500</v>
+        <v>62206600</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>315.3500061035156</v>
+        <v>332.1900024414062</v>
       </c>
       <c r="B74">
-        <v>323.6000061035156</v>
+        <v>332.8900146484375</v>
       </c>
       <c r="C74">
-        <v>308.7999877929688</v>
+        <v>313.7999877929688</v>
       </c>
       <c r="D74">
-        <v>317.4599914550781</v>
+        <v>314.3500061035156</v>
       </c>
       <c r="E74">
-        <v>317.4211120605469</v>
+        <v>314.3500061035156</v>
       </c>
       <c r="F74">
-        <v>53216300</v>
+        <v>48436800</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>314.6099853515625</v>
+        <v>312.1400146484375</v>
       </c>
       <c r="B75">
-        <v>328.5499877929688</v>
+        <v>324.7799987792969</v>
       </c>
       <c r="C75">
-        <v>309.2799987792969</v>
+        <v>310.25</v>
       </c>
       <c r="D75">
-        <v>326.739990234375</v>
+        <v>321.260009765625</v>
       </c>
       <c r="E75">
-        <v>326.6999816894531</v>
+        <v>321.260009765625</v>
       </c>
       <c r="F75">
-        <v>43516200</v>
+        <v>47289000</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B76">
-        <v>327.1000061035156</v>
+        <v>321.2900085449219</v>
       </c>
       <c r="C76">
-        <v>313.5</v>
+        <v>301.2999877929688</v>
       </c>
       <c r="D76">
-        <v>315.0299987792969</v>
+        <v>306.9299926757812</v>
       </c>
       <c r="E76">
-        <v>314.9914245605469</v>
+        <v>306.9299926757812</v>
       </c>
       <c r="F76">
-        <v>28306900</v>
+        <v>54382300</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>323.6600036621094</v>
+        <v>298.7999877929688</v>
       </c>
       <c r="B77">
-        <v>334.1199951171875</v>
+        <v>302.4100036621094</v>
       </c>
       <c r="C77">
-        <v>320.3599853515625</v>
+        <v>280.3800048828125</v>
       </c>
       <c r="D77">
-        <v>333.760009765625</v>
+        <v>300.3699951171875</v>
       </c>
       <c r="E77">
-        <v>333.7191467285156</v>
+        <v>300.3699951171875</v>
       </c>
       <c r="F77">
-        <v>45496400</v>
+        <v>65893800</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>331.6900024414062</v>
+        <v>309.5700073242188</v>
       </c>
       <c r="B78">
-        <v>333.5299987792969</v>
+        <v>324.489990234375</v>
       </c>
       <c r="C78">
-        <v>318.6400146484375</v>
+        <v>306.510009765625</v>
       </c>
       <c r="D78">
-        <v>326.760009765625</v>
+        <v>324.2699890136719</v>
       </c>
       <c r="E78">
-        <v>326.7200012207031</v>
+        <v>324.2699890136719</v>
       </c>
       <c r="F78">
-        <v>62206600</v>
+        <v>59305300</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>332.1900024414062</v>
+        <v>319.989990234375</v>
       </c>
       <c r="B79">
-        <v>332.8900146484375</v>
+        <v>322.8999938964844</v>
       </c>
       <c r="C79">
-        <v>313.7999877929688</v>
+        <v>314.2099914550781</v>
       </c>
       <c r="D79">
-        <v>314.3500061035156</v>
+        <v>318.260009765625</v>
       </c>
       <c r="E79">
-        <v>314.3500061035156</v>
+        <v>318.260009765625</v>
       </c>
       <c r="F79">
-        <v>48436800</v>
+        <v>47555100</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>312.1400146484375</v>
+        <v>317.3399963378906</v>
       </c>
       <c r="B80">
-        <v>324.7799987792969</v>
+        <v>322.0499877929688</v>
       </c>
       <c r="C80">
-        <v>310.25</v>
+        <v>304.2799987792969</v>
       </c>
       <c r="D80">
-        <v>321.260009765625</v>
+        <v>304.8999938964844</v>
       </c>
       <c r="E80">
-        <v>321.260009765625</v>
+        <v>304.8999938964844</v>
       </c>
       <c r="F80">
-        <v>47289000</v>
+        <v>48850700</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>320</v>
+        <v>311.5</v>
       </c>
       <c r="B81">
-        <v>321.2900085449219</v>
+        <v>313.0499877929688</v>
       </c>
       <c r="C81">
-        <v>301.2999877929688</v>
+        <v>298.6099853515625</v>
       </c>
       <c r="D81">
-        <v>306.9299926757812</v>
+        <v>301.9800109863281</v>
       </c>
       <c r="E81">
-        <v>306.9299926757812</v>
+        <v>301.9800109863281</v>
       </c>
       <c r="F81">
-        <v>54382300</v>
+        <v>48850500</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>298.7999877929688</v>
+        <v>302.489990234375</v>
       </c>
       <c r="B82">
-        <v>302.4100036621094</v>
+        <v>302.9400024414062</v>
       </c>
       <c r="C82">
-        <v>280.3800048828125</v>
+        <v>281.1600036621094</v>
       </c>
       <c r="D82">
-        <v>300.3699951171875</v>
+        <v>281.6099853515625</v>
       </c>
       <c r="E82">
-        <v>300.3699951171875</v>
+        <v>281.6099853515625</v>
       </c>
       <c r="F82">
-        <v>65893800</v>
+        <v>59834400</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>309.5700073242188</v>
+        <v>276.989990234375</v>
       </c>
       <c r="B83">
-        <v>324.489990234375</v>
+        <v>286.7799987792969</v>
       </c>
       <c r="C83">
-        <v>306.510009765625</v>
+        <v>272.5</v>
       </c>
       <c r="D83">
-        <v>324.2699890136719</v>
+        <v>283.3699951171875</v>
       </c>
       <c r="E83">
-        <v>324.2699890136719</v>
+        <v>283.3699951171875</v>
       </c>
       <c r="F83">
-        <v>59305300</v>
+        <v>66703500</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>319.989990234375</v>
+        <v>284</v>
       </c>
       <c r="B84">
-        <v>322.8999938964844</v>
+        <v>305</v>
       </c>
       <c r="C84">
-        <v>314.2099914550781</v>
+        <v>278.3800048828125</v>
       </c>
       <c r="D84">
-        <v>318.260009765625</v>
+        <v>304.5899963378906</v>
       </c>
       <c r="E84">
-        <v>318.260009765625</v>
+        <v>304.5899963378906</v>
       </c>
       <c r="F84">
-        <v>47555100</v>
+        <v>69829700</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>317.3399963378906</v>
+        <v>311.5199890136719</v>
       </c>
       <c r="B85">
-        <v>322.0499877929688</v>
+        <v>311.6000061035156</v>
       </c>
       <c r="C85">
-        <v>304.2799987792969</v>
+        <v>280.9299926757812</v>
       </c>
       <c r="D85">
-        <v>304.8999938964844</v>
+        <v>283.8699951171875</v>
       </c>
       <c r="E85">
-        <v>304.8999938964844</v>
+        <v>283.8699951171875</v>
       </c>
       <c r="F85">
-        <v>48850700</v>
+        <v>70736600</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>311.5</v>
+        <v>279.8500061035156</v>
       </c>
       <c r="B86">
-        <v>313.0499877929688</v>
+        <v>289.2200012207031</v>
       </c>
       <c r="C86">
-        <v>298.6099853515625</v>
+        <v>277.6000061035156</v>
       </c>
       <c r="D86">
-        <v>301.9800109863281</v>
+        <v>278.010009765625</v>
       </c>
       <c r="E86">
-        <v>301.9800109863281</v>
+        <v>278.010009765625</v>
       </c>
       <c r="F86">
-        <v>48850500</v>
+        <v>71375800</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>302.489990234375</v>
+        <v>273.0499877929688</v>
       </c>
       <c r="B87">
-        <v>302.9400024414062</v>
+        <v>281.4400024414062</v>
       </c>
       <c r="C87">
-        <v>281.1600036621094</v>
+        <v>271.4500122070312</v>
       </c>
       <c r="D87">
-        <v>281.6099853515625</v>
+        <v>277.1900024414062</v>
       </c>
       <c r="E87">
-        <v>281.6099853515625</v>
+        <v>277.1900024414062</v>
       </c>
       <c r="F87">
-        <v>59834400</v>
+        <v>46184700</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>276.989990234375</v>
+        <v>283.739990234375</v>
       </c>
       <c r="B88">
-        <v>286.7799987792969</v>
+        <v>291.2000122070312</v>
       </c>
       <c r="C88">
-        <v>272.5</v>
+        <v>274.010009765625</v>
       </c>
       <c r="D88">
-        <v>283.3699951171875</v>
+        <v>290.75</v>
       </c>
       <c r="E88">
-        <v>283.3699951171875</v>
+        <v>290.75</v>
       </c>
       <c r="F88">
-        <v>66703500</v>
+        <v>52438500</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>284</v>
+        <v>288.9100036621094</v>
       </c>
       <c r="B89">
-        <v>305</v>
+        <v>295.5499877929688</v>
       </c>
       <c r="C89">
-        <v>278.3800048828125</v>
+        <v>284.489990234375</v>
       </c>
       <c r="D89">
-        <v>304.5899963378906</v>
+        <v>294</v>
       </c>
       <c r="E89">
-        <v>304.5899963378906</v>
+        <v>294</v>
       </c>
       <c r="F89">
-        <v>69829700</v>
+        <v>39518400</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>311.5199890136719</v>
+        <v>297.5499877929688</v>
       </c>
       <c r="B90">
-        <v>311.6000061035156</v>
+        <v>300.5899963378906</v>
       </c>
       <c r="C90">
-        <v>280.9299926757812</v>
+        <v>294.3099975585938</v>
       </c>
       <c r="D90">
-        <v>283.8699951171875</v>
+        <v>296.3999938964844</v>
       </c>
       <c r="E90">
-        <v>283.8699951171875</v>
+        <v>296.3999938964844</v>
       </c>
       <c r="F90">
-        <v>70736600</v>
+        <v>34302200</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>279.8500061035156</v>
+        <v>296.6000061035156</v>
       </c>
       <c r="B91">
-        <v>289.2200012207031</v>
+        <v>310.8699951171875</v>
       </c>
       <c r="C91">
-        <v>277.6000061035156</v>
+        <v>296.3999938964844</v>
       </c>
       <c r="D91">
-        <v>278.010009765625</v>
+        <v>309.4500122070312</v>
       </c>
       <c r="E91">
-        <v>278.010009765625</v>
+        <v>309.4500122070312</v>
       </c>
       <c r="F91">
-        <v>71375800</v>
+        <v>40368600</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>273.0499877929688</v>
+        <v>313.1199951171875</v>
       </c>
       <c r="B92">
-        <v>281.4400024414062</v>
+        <v>313.2999877929688</v>
       </c>
       <c r="C92">
-        <v>271.4500122070312</v>
+        <v>300.1199951171875</v>
       </c>
       <c r="D92">
-        <v>277.1900024414062</v>
+        <v>303.2200012207031</v>
       </c>
       <c r="E92">
-        <v>277.1900024414062</v>
+        <v>303.2200012207031</v>
       </c>
       <c r="F92">
-        <v>46184700</v>
+        <v>42059100</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>283.739990234375</v>
+        <v>302.7300109863281</v>
       </c>
       <c r="B93">
-        <v>291.2000122070312</v>
+        <v>305.4800109863281</v>
       </c>
       <c r="C93">
-        <v>274.010009765625</v>
+        <v>293.6600036621094</v>
       </c>
       <c r="D93">
-        <v>290.75</v>
+        <v>300.010009765625</v>
       </c>
       <c r="E93">
-        <v>290.75</v>
+        <v>300.010009765625</v>
       </c>
       <c r="F93">
-        <v>52438500</v>
+        <v>34313900</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>288.9100036621094</v>
+        <v>298.2699890136719</v>
       </c>
       <c r="B94">
-        <v>295.5499877929688</v>
+        <v>304.5700073242188</v>
       </c>
       <c r="C94">
-        <v>284.489990234375</v>
+        <v>295.3999938964844</v>
       </c>
       <c r="D94">
-        <v>294</v>
+        <v>295.8599853515625</v>
       </c>
       <c r="E94">
-        <v>294</v>
+        <v>295.8599853515625</v>
       </c>
       <c r="F94">
-        <v>39518400</v>
+        <v>30886400</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>297.5499877929688</v>
+        <v>296.739990234375</v>
       </c>
       <c r="B95">
-        <v>300.5899963378906</v>
+        <v>300.2999877929688</v>
       </c>
       <c r="C95">
-        <v>294.3099975585938</v>
+        <v>293.3099975585938</v>
       </c>
       <c r="D95">
-        <v>296.3999938964844</v>
+        <v>294.1099853515625</v>
       </c>
       <c r="E95">
-        <v>296.3999938964844</v>
+        <v>294.1099853515625</v>
       </c>
       <c r="F95">
-        <v>34302200</v>
+        <v>26653000</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>296.6000061035156</v>
+        <v>298.1499938964844</v>
       </c>
       <c r="B96">
-        <v>310.8699951171875</v>
+        <v>307.1099853515625</v>
       </c>
       <c r="C96">
-        <v>296.3999938964844</v>
+        <v>297.8500061035156</v>
       </c>
       <c r="D96">
-        <v>309.4500122070312</v>
+        <v>301.2099914550781</v>
       </c>
       <c r="E96">
-        <v>309.4500122070312</v>
+        <v>301.2099914550781</v>
       </c>
       <c r="F96">
-        <v>40368600</v>
+        <v>39154700</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>313.1199951171875</v>
+        <v>302.7699890136719</v>
       </c>
       <c r="B97">
-        <v>313.2999877929688</v>
+        <v>304.6799926757812</v>
       </c>
       <c r="C97">
-        <v>300.1199951171875</v>
+        <v>283.489990234375</v>
       </c>
       <c r="D97">
-        <v>303.2200012207031</v>
+        <v>292.8999938964844</v>
       </c>
       <c r="E97">
-        <v>303.2200012207031</v>
+        <v>292.8999938964844</v>
       </c>
       <c r="F97">
-        <v>42059100</v>
+        <v>52715400</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>302.7300109863281</v>
+        <v>289.489990234375</v>
       </c>
       <c r="B98">
-        <v>305.4800109863281</v>
+        <v>294.1600036621094</v>
       </c>
       <c r="C98">
-        <v>293.6600036621094</v>
+        <v>275.3299865722656</v>
       </c>
       <c r="D98">
-        <v>300.010009765625</v>
+        <v>276.0400085449219</v>
       </c>
       <c r="E98">
-        <v>300.010009765625</v>
+        <v>276.0400085449219</v>
       </c>
       <c r="F98">
-        <v>34313900</v>
+        <v>49806400</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>298.2699890136719</v>
+        <v>276.3999938964844</v>
       </c>
       <c r="B99">
-        <v>304.5700073242188</v>
+        <v>284.3800048828125</v>
       </c>
       <c r="C99">
-        <v>295.3999938964844</v>
+        <v>270.6499938964844</v>
       </c>
       <c r="D99">
-        <v>295.8599853515625</v>
+        <v>281.7799987792969</v>
       </c>
       <c r="E99">
-        <v>295.8599853515625</v>
+        <v>281.7799987792969</v>
       </c>
       <c r="F99">
-        <v>30886400</v>
+        <v>45418600</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>296.739990234375</v>
+        <v>281.4100036621094</v>
       </c>
       <c r="B100">
-        <v>300.2999877929688</v>
+        <v>284.2200012207031</v>
       </c>
       <c r="C100">
-        <v>293.3099975585938</v>
+        <v>270.5700073242188</v>
       </c>
       <c r="D100">
-        <v>294.1099853515625</v>
+        <v>272.4700012207031</v>
       </c>
       <c r="E100">
-        <v>294.1099853515625</v>
+        <v>272.4700012207031</v>
       </c>
       <c r="F100">
-        <v>26653000</v>
+        <v>40920100</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>298.1499938964844</v>
+        <v>265.8099975585938</v>
       </c>
       <c r="B101">
-        <v>307.1099853515625</v>
+        <v>274.6900024414062</v>
       </c>
       <c r="C101">
-        <v>297.8500061035156</v>
+        <v>256.4400024414062</v>
       </c>
       <c r="D101">
-        <v>301.2099914550781</v>
+        <v>274</v>
       </c>
       <c r="E101">
-        <v>301.2099914550781</v>
+        <v>274</v>
       </c>
       <c r="F101">
-        <v>39154700</v>
+        <v>59468100</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>302.7699890136719</v>
+        <v>273.2300109863281</v>
       </c>
       <c r="B102">
-        <v>304.6799926757812</v>
+        <v>280.6499938964844</v>
       </c>
       <c r="C102">
-        <v>283.489990234375</v>
+        <v>268.3900146484375</v>
       </c>
       <c r="D102">
-        <v>292.8999938964844</v>
+        <v>278.1700134277344</v>
       </c>
       <c r="E102">
-        <v>292.8999938964844</v>
+        <v>278.1700134277344</v>
       </c>
       <c r="F102">
-        <v>52715400</v>
+        <v>40408900</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>289.489990234375</v>
+        <v>280.6700134277344</v>
       </c>
       <c r="B103">
-        <v>294.1600036621094</v>
+        <v>285.9500122070312</v>
       </c>
       <c r="C103">
-        <v>275.3299865722656</v>
+        <v>276.0799865722656</v>
       </c>
       <c r="D103">
-        <v>276.0400085449219</v>
+        <v>279.989990234375</v>
       </c>
       <c r="E103">
-        <v>276.0400085449219</v>
+        <v>279.989990234375</v>
       </c>
       <c r="F103">
-        <v>49806400</v>
+        <v>38341300</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>276.3999938964844</v>
+        <v>283.7900085449219</v>
       </c>
       <c r="B104">
-        <v>284.3800048828125</v>
+        <v>284.7999877929688</v>
       </c>
       <c r="C104">
-        <v>270.6499938964844</v>
+        <v>264.9800109863281</v>
       </c>
       <c r="D104">
-        <v>281.7799987792969</v>
+        <v>265.75</v>
       </c>
       <c r="E104">
-        <v>281.7799987792969</v>
+        <v>265.75</v>
       </c>
       <c r="F104">
-        <v>45418600</v>
+        <v>54017100</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>281.4100036621094</v>
+        <v>263</v>
       </c>
       <c r="B105">
-        <v>284.2200012207031</v>
+        <v>271.9700012207031</v>
       </c>
       <c r="C105">
-        <v>270.5700073242188</v>
+        <v>262.1000061035156</v>
       </c>
       <c r="D105">
-        <v>272.4700012207031</v>
+        <v>269.4200134277344</v>
       </c>
       <c r="E105">
-        <v>272.4700012207031</v>
+        <v>269.4200134277344</v>
       </c>
       <c r="F105">
-        <v>40920100</v>
+        <v>39522800</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>265.8099975585938</v>
+        <v>262.6000061035156</v>
       </c>
       <c r="B106">
-        <v>274.6900024414062</v>
+        <v>266.3800048828125</v>
       </c>
       <c r="C106">
-        <v>256.4400024414062</v>
+        <v>257.7000122070312</v>
       </c>
       <c r="D106">
-        <v>274</v>
+        <v>259.0299987792969</v>
       </c>
       <c r="E106">
-        <v>274</v>
+        <v>259.0299987792969</v>
       </c>
       <c r="F106">
-        <v>59468100</v>
+        <v>42427000</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>273.2300109863281</v>
+        <v>260.7900085449219</v>
       </c>
       <c r="B107">
-        <v>280.6499938964844</v>
+        <v>265.4299926757812</v>
       </c>
       <c r="C107">
-        <v>268.3900146484375</v>
+        <v>250.5200042724609</v>
       </c>
       <c r="D107">
-        <v>278.1700134277344</v>
+        <v>250.6699981689453</v>
       </c>
       <c r="E107">
-        <v>278.1700134277344</v>
+        <v>250.6699981689453</v>
       </c>
       <c r="F107">
-        <v>40408900</v>
+        <v>48831500</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>280.6700134277344</v>
+        <v>253.0399932861328</v>
       </c>
       <c r="B108">
-        <v>285.9500122070312</v>
+        <v>255.7899932861328</v>
       </c>
       <c r="C108">
-        <v>276.0799865722656</v>
+        <v>240.7799987792969</v>
       </c>
       <c r="D108">
-        <v>279.989990234375</v>
+        <v>241.5</v>
       </c>
       <c r="E108">
-        <v>279.989990234375</v>
+        <v>241.5</v>
       </c>
       <c r="F108">
-        <v>38341300</v>
+        <v>43518100</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>283.7900085449219</v>
+        <v>235.0700073242188</v>
       </c>
       <c r="B109">
-        <v>284.7999877929688</v>
+        <v>248.2299957275391</v>
       </c>
       <c r="C109">
-        <v>264.9800109863281</v>
+        <v>232.6300048828125</v>
       </c>
       <c r="D109">
-        <v>265.75</v>
+        <v>233.7400054931641</v>
       </c>
       <c r="E109">
-        <v>265.75</v>
+        <v>233.7400054931641</v>
       </c>
       <c r="F109">
-        <v>54017100</v>
+        <v>71895800</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>263</v>
+        <v>223.3000030517578</v>
       </c>
       <c r="B110">
-        <v>271.9700012207031</v>
+        <v>233.8000030517578</v>
       </c>
       <c r="C110">
-        <v>262.1000061035156</v>
+        <v>208.8800048828125</v>
       </c>
       <c r="D110">
-        <v>269.4200134277344</v>
+        <v>233.7200012207031</v>
       </c>
       <c r="E110">
-        <v>269.4200134277344</v>
+        <v>233.7200012207031</v>
       </c>
       <c r="F110">
-        <v>39522800</v>
+        <v>91398200</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>262.6000061035156</v>
+        <v>225.4600067138672</v>
       </c>
       <c r="B111">
-        <v>266.3800048828125</v>
+        <v>229.4299926757812</v>
       </c>
       <c r="C111">
-        <v>257.7000122070312</v>
+        <v>220</v>
       </c>
       <c r="D111">
-        <v>259.0299987792969</v>
+        <v>223.2400054931641</v>
       </c>
       <c r="E111">
-        <v>259.0299987792969</v>
+        <v>223.2400054931641</v>
       </c>
       <c r="F111">
-        <v>42427000</v>
+        <v>66461600</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>260.7900085449219</v>
+        <v>232.3999938964844</v>
       </c>
       <c r="B112">
-        <v>265.4299926757812</v>
+        <v>240.5700073242188</v>
       </c>
       <c r="C112">
-        <v>250.5200042724609</v>
+        <v>223</v>
       </c>
       <c r="D112">
-        <v>250.6699981689453</v>
+        <v>227.7200012207031</v>
       </c>
       <c r="E112">
-        <v>250.6699981689453</v>
+        <v>227.7200012207031</v>
       </c>
       <c r="F112">
-        <v>48831500</v>
+        <v>75595900</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>253.0399932861328</v>
+        <v>235.6799926757812</v>
       </c>
       <c r="B113">
-        <v>255.7899932861328</v>
+        <v>239.9499969482422</v>
       </c>
       <c r="C113">
-        <v>240.7799987792969</v>
+        <v>216.75</v>
       </c>
       <c r="D113">
-        <v>241.5</v>
+        <v>219.4400024414062</v>
       </c>
       <c r="E113">
-        <v>241.5</v>
+        <v>219.4400024414062</v>
       </c>
       <c r="F113">
-        <v>43518100</v>
+        <v>57335300</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>235.0700073242188</v>
+        <v>220.1199951171875</v>
       </c>
       <c r="B114">
-        <v>248.2299957275391</v>
+        <v>228.5800018310547</v>
       </c>
       <c r="C114">
-        <v>232.6300048828125</v>
+        <v>212.9600067138672</v>
       </c>
       <c r="D114">
-        <v>233.7400054931641</v>
+        <v>228.3999938964844</v>
       </c>
       <c r="E114">
-        <v>233.7400054931641</v>
+        <v>228.3999938964844</v>
       </c>
       <c r="F114">
-        <v>71895800</v>
+        <v>54377400</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>223.3000030517578</v>
+        <v>231.8200073242188</v>
       </c>
       <c r="B115">
-        <v>233.8000030517578</v>
+        <v>245.0899963378906</v>
       </c>
       <c r="C115">
-        <v>208.8800048828125</v>
+        <v>230.5200042724609</v>
       </c>
       <c r="D115">
-        <v>233.7200012207031</v>
+        <v>244.8600006103516</v>
       </c>
       <c r="E115">
-        <v>233.7200012207031</v>
+        <v>244.8600006103516</v>
       </c>
       <c r="F115">
-        <v>91398200</v>
+        <v>56468000</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>225.4600067138672</v>
+        <v>251.0399932861328</v>
       </c>
       <c r="B116">
-        <v>229.4299926757812</v>
+        <v>251.4499969482422</v>
       </c>
       <c r="C116">
-        <v>220</v>
+        <v>238.8999938964844</v>
       </c>
       <c r="D116">
-        <v>223.2400054931641</v>
+        <v>246.3800048828125</v>
       </c>
       <c r="E116">
-        <v>223.2400054931641</v>
+        <v>246.3800048828125</v>
       </c>
       <c r="F116">
-        <v>66461600</v>
+        <v>51892500</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>232.3999938964844</v>
+        <v>257.9400024414062</v>
       </c>
       <c r="B117">
-        <v>240.5700073242188</v>
+        <v>258.1700134277344</v>
       </c>
       <c r="C117">
-        <v>223</v>
+        <v>245.5299987792969</v>
       </c>
       <c r="D117">
-        <v>227.7200012207031</v>
+        <v>252.4199981689453</v>
       </c>
       <c r="E117">
-        <v>227.7200012207031</v>
+        <v>252.4199981689453</v>
       </c>
       <c r="F117">
-        <v>75595900</v>
+        <v>54341900</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>235.6799926757812</v>
+        <v>244.5800018310547</v>
       </c>
       <c r="B118">
-        <v>239.9499969482422</v>
+        <v>250.7700042724609</v>
       </c>
       <c r="C118">
-        <v>216.75</v>
+        <v>237.8000030517578</v>
       </c>
       <c r="D118">
-        <v>219.4400024414062</v>
+        <v>239.4799957275391</v>
       </c>
       <c r="E118">
-        <v>219.4400024414062</v>
+        <v>239.4799957275391</v>
       </c>
       <c r="F118">
-        <v>57335300</v>
+        <v>41017800</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>220.1199951171875</v>
+        <v>239.7200012207031</v>
       </c>
       <c r="B119">
-        <v>228.5800018310547</v>
+        <v>246.3500061035156</v>
       </c>
       <c r="C119">
-        <v>212.9600067138672</v>
+        <v>236.3200073242188</v>
       </c>
       <c r="D119">
-        <v>228.3999938964844</v>
+        <v>243.1900024414062</v>
       </c>
       <c r="E119">
-        <v>228.3999938964844</v>
+        <v>243.1900024414062</v>
       </c>
       <c r="F119">
-        <v>54377400</v>
+        <v>35432800</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>231.8200073242188</v>
+        <v>243.7200012207031</v>
       </c>
       <c r="B120">
-        <v>245.0899963378906</v>
+        <v>251.8200073242188</v>
       </c>
       <c r="C120">
-        <v>230.5200042724609</v>
+        <v>242.0200042724609</v>
       </c>
       <c r="D120">
-        <v>244.8600006103516</v>
+        <v>247.2799987792969</v>
       </c>
       <c r="E120">
-        <v>244.8600006103516</v>
+        <v>247.2799987792969</v>
       </c>
       <c r="F120">
-        <v>56468000</v>
+        <v>37686800</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>251.0399932861328</v>
+        <v>243.5899963378906</v>
       </c>
       <c r="B121">
-        <v>251.4499969482422</v>
+        <v>252.3000030517578</v>
       </c>
       <c r="C121">
-        <v>238.8999938964844</v>
+        <v>239.8000030517578</v>
       </c>
       <c r="D121">
-        <v>246.3800048828125</v>
+        <v>251.0800018310547</v>
       </c>
       <c r="E121">
-        <v>246.3800048828125</v>
+        <v>251.0800018310547</v>
       </c>
       <c r="F121">
-        <v>51892500</v>
+        <v>41035900</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>257.9400024414062</v>
+        <v>256.2200012207031</v>
       </c>
       <c r="B122">
-        <v>258.1700134277344</v>
+        <v>267.25</v>
       </c>
       <c r="C122">
-        <v>245.5299987792969</v>
+        <v>253.5299987792969</v>
       </c>
       <c r="D122">
-        <v>252.4199981689453</v>
+        <v>267.0499877929688</v>
       </c>
       <c r="E122">
-        <v>252.4199981689453</v>
+        <v>267.0499877929688</v>
       </c>
       <c r="F122">
-        <v>54341900</v>
+        <v>52428200</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>244.5800018310547</v>
+        <v>259.9500122070312</v>
       </c>
       <c r="B123">
-        <v>250.7700042724609</v>
+        <v>269.25</v>
       </c>
       <c r="C123">
-        <v>237.8000030517578</v>
+        <v>256</v>
       </c>
       <c r="D123">
-        <v>239.4799957275391</v>
+        <v>258.239990234375</v>
       </c>
       <c r="E123">
-        <v>239.4799957275391</v>
+        <v>258.239990234375</v>
       </c>
       <c r="F123">
-        <v>41017800</v>
+        <v>51320000</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>239.7200012207031</v>
+        <v>259.1600036621094</v>
       </c>
       <c r="B124">
-        <v>246.3500061035156</v>
+        <v>261.5199890136719</v>
       </c>
       <c r="C124">
-        <v>236.3200073242188</v>
+        <v>237.7299957275391</v>
       </c>
       <c r="D124">
-        <v>243.1900024414062</v>
+        <v>239.4900054931641</v>
       </c>
       <c r="E124">
-        <v>243.1900024414062</v>
+        <v>239.4900054931641</v>
       </c>
       <c r="F124">
-        <v>35432800</v>
+        <v>60424800</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>243.7200012207031</v>
+        <v>239.3399963378906</v>
       </c>
       <c r="B125">
-        <v>251.8200073242188</v>
+        <v>248.75</v>
       </c>
       <c r="C125">
-        <v>242.0200042724609</v>
+        <v>237.5500030517578</v>
       </c>
       <c r="D125">
-        <v>247.2799987792969</v>
+        <v>242.6699981689453</v>
       </c>
       <c r="E125">
-        <v>247.2799987792969</v>
+        <v>242.6699981689453</v>
       </c>
       <c r="F125">
-        <v>37686800</v>
+        <v>44042400</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>243.5899963378906</v>
+        <v>249.4900054931641</v>
       </c>
       <c r="B126">
-        <v>252.3000030517578</v>
+        <v>265.4500122070312</v>
       </c>
       <c r="C126">
-        <v>239.8000030517578</v>
+        <v>247.8399963378906</v>
       </c>
       <c r="D126">
-        <v>251.0800018310547</v>
+        <v>264.9500122070312</v>
       </c>
       <c r="E126">
-        <v>251.0800018310547</v>
+        <v>264.9500122070312</v>
       </c>
       <c r="F126">
-        <v>41035900</v>
+        <v>70175300</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>256.2200012207031</v>
+        <v>262.5899963378906</v>
       </c>
       <c r="B127">
-        <v>267.25</v>
+        <v>265.8200073242188</v>
       </c>
       <c r="C127">
-        <v>253.5299987792969</v>
+        <v>255.5200042724609</v>
       </c>
       <c r="D127">
-        <v>267.0499877929688</v>
+        <v>265.1099853515625</v>
       </c>
       <c r="E127">
-        <v>267.0499877929688</v>
+        <v>265.1099853515625</v>
       </c>
       <c r="F127">
-        <v>52428200</v>
+        <v>73267600</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>259.9500122070312</v>
+        <v>256.2999877929688</v>
       </c>
       <c r="B128">
-        <v>269.25</v>
+        <v>257.8500061035156</v>
       </c>
       <c r="C128">
-        <v>256</v>
+        <v>241.6499938964844</v>
       </c>
       <c r="D128">
-        <v>258.239990234375</v>
+        <v>245.0700073242188</v>
       </c>
       <c r="E128">
-        <v>258.239990234375</v>
+        <v>245.0700073242188</v>
       </c>
       <c r="F128">
-        <v>51320000</v>
+        <v>81059500</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>259.1600036621094</v>
+        <v>246.6799926757812</v>
       </c>
       <c r="B129">
-        <v>261.5199890136719</v>
+        <v>249.8600006103516</v>
       </c>
       <c r="C129">
-        <v>237.7299957275391</v>
+        <v>231</v>
       </c>
       <c r="D129">
-        <v>239.4900054931641</v>
+        <v>236.4199981689453</v>
       </c>
       <c r="E129">
-        <v>239.4900054931641</v>
+        <v>236.4199981689453</v>
       </c>
       <c r="F129">
-        <v>60424800</v>
+        <v>75966400</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/NVDA/HighLow.xlsx
+++ b/Stocks/NVDA/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2562 +417,2542 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>194.9400024414062</v>
+        <v>222</v>
       </c>
       <c r="B2">
-        <v>204.9499969482422</v>
+        <v>223.3999938964844</v>
       </c>
       <c r="C2">
-        <v>187.6199951171875</v>
+        <v>217.8999938964844</v>
       </c>
       <c r="D2">
-        <v>197.9799957275391</v>
+        <v>220.6799926757812</v>
       </c>
       <c r="E2">
-        <v>197.9208526611328</v>
+        <v>220.6140594482422</v>
       </c>
       <c r="F2">
-        <v>76655500</v>
+        <v>23794000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>199.9100036621094</v>
+        <v>221.8399963378906</v>
       </c>
       <c r="B3">
-        <v>208.6499938964844</v>
+        <v>227.2200012207031</v>
       </c>
       <c r="C3">
-        <v>199.3300018310547</v>
+        <v>221.6699981689453</v>
       </c>
       <c r="D3">
-        <v>208.1600036621094</v>
+        <v>226.3600006103516</v>
       </c>
       <c r="E3">
-        <v>208.0978240966797</v>
+        <v>226.2923889160156</v>
       </c>
       <c r="F3">
-        <v>67503900</v>
+        <v>30426700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>209.7100067138672</v>
+        <v>228.3000030517578</v>
       </c>
       <c r="B4">
-        <v>219.9700012207031</v>
+        <v>230.4299926757812</v>
       </c>
       <c r="C4">
-        <v>209.5</v>
+        <v>225.5099945068359</v>
       </c>
       <c r="D4">
-        <v>219.5800018310547</v>
+        <v>226.8800048828125</v>
       </c>
       <c r="E4">
-        <v>219.5144195556641</v>
+        <v>226.8122406005859</v>
       </c>
       <c r="F4">
-        <v>57580700</v>
+        <v>26258000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>217.5299987792969</v>
+        <v>226.9499969482422</v>
       </c>
       <c r="B5">
-        <v>219.5899963378906</v>
+        <v>226.9499969482422</v>
       </c>
       <c r="C5">
-        <v>215.3500061035156</v>
+        <v>221.1999969482422</v>
       </c>
       <c r="D5">
-        <v>217.9299926757812</v>
+        <v>223.8500061035156</v>
       </c>
       <c r="E5">
-        <v>217.8648986816406</v>
+        <v>223.8226013183594</v>
       </c>
       <c r="F5">
-        <v>29729900</v>
+        <v>25985000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>217.3699951171875</v>
+        <v>224.8500061035156</v>
       </c>
       <c r="B6">
-        <v>224.6999969482422</v>
+        <v>226.9700012207031</v>
       </c>
       <c r="C6">
-        <v>217.2200012207031</v>
+        <v>223.5700073242188</v>
       </c>
       <c r="D6">
-        <v>222.1300048828125</v>
+        <v>224.4100036621094</v>
       </c>
       <c r="E6">
-        <v>222.0636444091797</v>
+        <v>224.3825225830078</v>
       </c>
       <c r="F6">
-        <v>34770100</v>
+        <v>20176700</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>222</v>
+        <v>225.1799926757812</v>
       </c>
       <c r="B7">
-        <v>223.3999938964844</v>
+        <v>225.9299926757812</v>
       </c>
       <c r="C7">
-        <v>217.8999938964844</v>
+        <v>222.9499969482422</v>
       </c>
       <c r="D7">
-        <v>220.6799926757812</v>
+        <v>223.9600067138672</v>
       </c>
       <c r="E7">
-        <v>220.6140747070312</v>
+        <v>223.9325866699219</v>
       </c>
       <c r="F7">
-        <v>23794000</v>
+        <v>18783400</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>221.8399963378906</v>
+        <v>223.25</v>
       </c>
       <c r="B8">
-        <v>227.2200012207031</v>
+        <v>229.8600006103516</v>
       </c>
       <c r="C8">
-        <v>221.6699981689453</v>
+        <v>222</v>
       </c>
       <c r="D8">
-        <v>226.3600006103516</v>
+        <v>228.4299926757812</v>
       </c>
       <c r="E8">
-        <v>226.2923736572266</v>
+        <v>228.4020233154297</v>
       </c>
       <c r="F8">
-        <v>30426700</v>
+        <v>28053200</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>228.3000030517578</v>
+        <v>228.3300018310547</v>
       </c>
       <c r="B9">
-        <v>230.4299926757812</v>
+        <v>228.9900054931641</v>
       </c>
       <c r="C9">
-        <v>225.5099945068359</v>
+        <v>225.2200012207031</v>
       </c>
       <c r="D9">
-        <v>226.8800048828125</v>
+        <v>226.6199951171875</v>
       </c>
       <c r="E9">
-        <v>226.8122253417969</v>
+        <v>226.5922546386719</v>
       </c>
       <c r="F9">
-        <v>26258000</v>
+        <v>19810700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>226.9499969482422</v>
+        <v>225.1300048828125</v>
       </c>
       <c r="B10">
-        <v>226.9499969482422</v>
+        <v>226.1000061035156</v>
       </c>
       <c r="C10">
-        <v>221.1999969482422</v>
+        <v>219.7700042724609</v>
       </c>
       <c r="D10">
-        <v>223.8500061035156</v>
+        <v>223.3899993896484</v>
       </c>
       <c r="E10">
-        <v>223.8226013183594</v>
+        <v>223.3626556396484</v>
       </c>
       <c r="F10">
-        <v>25985000</v>
+        <v>25443400</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>224.8500061035156</v>
+        <v>223.1199951171875</v>
       </c>
       <c r="B11">
-        <v>226.9700012207031</v>
+        <v>225.3800048828125</v>
       </c>
       <c r="C11">
-        <v>223.5700073242188</v>
+        <v>221.3099975585938</v>
       </c>
       <c r="D11">
-        <v>224.4100036621094</v>
+        <v>221.7700042724609</v>
       </c>
       <c r="E11">
-        <v>224.3825225830078</v>
+        <v>221.7428588867188</v>
       </c>
       <c r="F11">
-        <v>20176700</v>
+        <v>19685600</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>225.1799926757812</v>
+        <v>223.4799957275391</v>
       </c>
       <c r="B12">
-        <v>225.9299926757812</v>
+        <v>226.2599945068359</v>
       </c>
       <c r="C12">
-        <v>222.9499969482422</v>
+        <v>222.6999969482422</v>
       </c>
       <c r="D12">
-        <v>223.9600067138672</v>
+        <v>224.7799987792969</v>
       </c>
       <c r="E12">
-        <v>223.9325866699219</v>
+        <v>224.7524719238281</v>
       </c>
       <c r="F12">
-        <v>18783400</v>
+        <v>24814900</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>223.25</v>
+        <v>226.8399963378906</v>
       </c>
       <c r="B13">
-        <v>229.8600006103516</v>
+        <v>229.6399993896484</v>
       </c>
       <c r="C13">
-        <v>222</v>
+        <v>218.5800018310547</v>
       </c>
       <c r="D13">
-        <v>228.4299926757812</v>
+        <v>221.5200042724609</v>
       </c>
       <c r="E13">
-        <v>228.4020233154297</v>
+        <v>221.4928894042969</v>
       </c>
       <c r="F13">
-        <v>28053200</v>
+        <v>29750000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>228.3300018310547</v>
+        <v>222.75</v>
       </c>
       <c r="B14">
-        <v>228.9900054931641</v>
+        <v>224.1000061035156</v>
       </c>
       <c r="C14">
-        <v>225.2200012207031</v>
+        <v>220.8600006103516</v>
       </c>
       <c r="D14">
-        <v>226.6199951171875</v>
+        <v>222.4199981689453</v>
       </c>
       <c r="E14">
-        <v>226.5922546386719</v>
+        <v>222.3927612304688</v>
       </c>
       <c r="F14">
-        <v>19810700</v>
+        <v>19975500</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>225.1300048828125</v>
+        <v>223.0899963378906</v>
       </c>
       <c r="B15">
-        <v>226.1000061035156</v>
+        <v>223.6699981689453</v>
       </c>
       <c r="C15">
-        <v>219.7700042724609</v>
+        <v>219.6600036621094</v>
       </c>
       <c r="D15">
-        <v>223.3899993896484</v>
+        <v>223.4100036621094</v>
       </c>
       <c r="E15">
-        <v>223.3626556396484</v>
+        <v>223.3826446533203</v>
       </c>
       <c r="F15">
-        <v>25443400</v>
+        <v>16653800</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>223.1199951171875</v>
+        <v>221.8300018310547</v>
       </c>
       <c r="B16">
-        <v>225.3800048828125</v>
+        <v>222.7700042724609</v>
       </c>
       <c r="C16">
-        <v>221.3099975585938</v>
+        <v>219.2700042724609</v>
       </c>
       <c r="D16">
-        <v>221.7700042724609</v>
+        <v>222.4199981689453</v>
       </c>
       <c r="E16">
-        <v>221.7428588867188</v>
+        <v>222.3927612304688</v>
       </c>
       <c r="F16">
-        <v>19685600</v>
+        <v>15603300</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>223.4799957275391</v>
+        <v>223</v>
       </c>
       <c r="B17">
-        <v>226.2599945068359</v>
+        <v>223.2100067138672</v>
       </c>
       <c r="C17">
-        <v>222.6999969482422</v>
+        <v>218.3000030517578</v>
       </c>
       <c r="D17">
-        <v>224.7799987792969</v>
+        <v>219</v>
       </c>
       <c r="E17">
-        <v>224.7524719238281</v>
+        <v>218.9731903076172</v>
       </c>
       <c r="F17">
-        <v>24814900</v>
+        <v>29450300</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>226.8399963378906</v>
+        <v>211.4600067138672</v>
       </c>
       <c r="B18">
-        <v>229.6399993896484</v>
+        <v>214.3300018310547</v>
       </c>
       <c r="C18">
-        <v>218.5800018310547</v>
+        <v>206.6199951171875</v>
       </c>
       <c r="D18">
-        <v>221.5200042724609</v>
+        <v>211.1300048828125</v>
       </c>
       <c r="E18">
-        <v>221.4928894042969</v>
+        <v>211.1041564941406</v>
       </c>
       <c r="F18">
-        <v>29750000</v>
+        <v>34944000</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>222.75</v>
+        <v>214.1699981689453</v>
       </c>
       <c r="B19">
-        <v>224.1000061035156</v>
+        <v>214.25</v>
       </c>
       <c r="C19">
-        <v>220.8600006103516</v>
+        <v>209.5</v>
       </c>
       <c r="D19">
-        <v>222.4199981689453</v>
+        <v>212.4600067138672</v>
       </c>
       <c r="E19">
-        <v>222.3927612304688</v>
+        <v>212.4339904785156</v>
       </c>
       <c r="F19">
-        <v>19975500</v>
+        <v>20468800</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>223.0899963378906</v>
+        <v>213.6600036621094</v>
       </c>
       <c r="B20">
-        <v>223.6699981689453</v>
+        <v>219.6000061035156</v>
       </c>
       <c r="C20">
-        <v>219.6600036621094</v>
+        <v>211.9600067138672</v>
       </c>
       <c r="D20">
-        <v>223.4100036621094</v>
+        <v>219.4100036621094</v>
       </c>
       <c r="E20">
-        <v>223.3826446533203</v>
+        <v>219.3831481933594</v>
       </c>
       <c r="F20">
-        <v>16653800</v>
+        <v>26872600</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>221.8300018310547</v>
+        <v>221.3999938964844</v>
       </c>
       <c r="B21">
-        <v>222.7700042724609</v>
+        <v>225.3500061035156</v>
       </c>
       <c r="C21">
-        <v>219.2700042724609</v>
+        <v>218.8999938964844</v>
       </c>
       <c r="D21">
-        <v>222.4199981689453</v>
+        <v>224.8200073242188</v>
       </c>
       <c r="E21">
-        <v>222.3927612304688</v>
+        <v>224.79248046875</v>
       </c>
       <c r="F21">
-        <v>15603300</v>
+        <v>24855500</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>223</v>
+        <v>220.6999969482422</v>
       </c>
       <c r="B22">
-        <v>223.2100067138672</v>
+        <v>221.4900054931641</v>
       </c>
       <c r="C22">
-        <v>218.3000030517578</v>
+        <v>218.6100006103516</v>
       </c>
       <c r="D22">
-        <v>219</v>
+        <v>220.8099975585938</v>
       </c>
       <c r="E22">
-        <v>218.9731903076172</v>
+        <v>220.782958984375</v>
       </c>
       <c r="F22">
-        <v>29450300</v>
+        <v>21765500</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>211.4600067138672</v>
+        <v>217.1000061035156</v>
       </c>
       <c r="B23">
-        <v>214.3300018310547</v>
+        <v>217.9900054931641</v>
       </c>
       <c r="C23">
-        <v>206.6199951171875</v>
+        <v>213.25</v>
       </c>
       <c r="D23">
-        <v>211.1300048828125</v>
+        <v>216.6000061035156</v>
       </c>
       <c r="E23">
-        <v>211.1041564941406</v>
+        <v>216.573486328125</v>
       </c>
       <c r="F23">
-        <v>34944000</v>
+        <v>24521500</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>214.1699981689453</v>
+        <v>212.1399993896484</v>
       </c>
       <c r="B24">
-        <v>214.25</v>
+        <v>214.1900024414062</v>
       </c>
       <c r="C24">
-        <v>209.5</v>
+        <v>206.5099945068359</v>
       </c>
       <c r="D24">
-        <v>212.4600067138672</v>
+        <v>206.9900054931641</v>
       </c>
       <c r="E24">
-        <v>212.4339904785156</v>
+        <v>206.9646606445312</v>
       </c>
       <c r="F24">
-        <v>20468800</v>
+        <v>34306900</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>213.6600036621094</v>
+        <v>209.3999938964844</v>
       </c>
       <c r="B25">
-        <v>219.6000061035156</v>
+        <v>210.1699981689453</v>
       </c>
       <c r="C25">
-        <v>211.9600067138672</v>
+        <v>204.6699981689453</v>
       </c>
       <c r="D25">
-        <v>219.4100036621094</v>
+        <v>205.1699981689453</v>
       </c>
       <c r="E25">
-        <v>219.3831481933594</v>
+        <v>205.1448822021484</v>
       </c>
       <c r="F25">
-        <v>26872600</v>
+        <v>21839400</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>221.3999938964844</v>
+        <v>207.6799926757812</v>
       </c>
       <c r="B26">
-        <v>225.3500061035156</v>
+        <v>210.6600036621094</v>
       </c>
       <c r="C26">
-        <v>218.8999938964844</v>
+        <v>206.8800048828125</v>
       </c>
       <c r="D26">
-        <v>224.8200073242188</v>
+        <v>207.1600036621094</v>
       </c>
       <c r="E26">
-        <v>224.79248046875</v>
+        <v>207.1346435546875</v>
       </c>
       <c r="F26">
-        <v>24855500</v>
+        <v>22080400</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>220.6999969482422</v>
+        <v>207.5</v>
       </c>
       <c r="B27">
-        <v>221.4900054931641</v>
+        <v>208.5899963378906</v>
       </c>
       <c r="C27">
-        <v>218.6100006103516</v>
+        <v>202.0299987792969</v>
       </c>
       <c r="D27">
-        <v>220.8099975585938</v>
+        <v>207.4199981689453</v>
       </c>
       <c r="E27">
-        <v>220.782958984375</v>
+        <v>207.3946075439453</v>
       </c>
       <c r="F27">
-        <v>21765500</v>
+        <v>24097800</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>217.1000061035156</v>
+        <v>205.0399932861328</v>
       </c>
       <c r="B28">
-        <v>217.9900054931641</v>
+        <v>205.4199981689453</v>
       </c>
       <c r="C28">
-        <v>213.25</v>
+        <v>195.5500030517578</v>
       </c>
       <c r="D28">
-        <v>216.6000061035156</v>
+        <v>197.3200073242188</v>
       </c>
       <c r="E28">
-        <v>216.573486328125</v>
+        <v>197.2958526611328</v>
       </c>
       <c r="F28">
-        <v>24521500</v>
+        <v>34563500</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>212.1399993896484</v>
+        <v>199.5</v>
       </c>
       <c r="B29">
-        <v>214.1900024414062</v>
+        <v>206.4799957275391</v>
       </c>
       <c r="C29">
-        <v>206.5099945068359</v>
+        <v>198.5399932861328</v>
       </c>
       <c r="D29">
-        <v>206.9900054931641</v>
+        <v>204.5099945068359</v>
       </c>
       <c r="E29">
-        <v>206.9646606445312</v>
+        <v>204.4849548339844</v>
       </c>
       <c r="F29">
-        <v>34306900</v>
+        <v>27928200</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>209.3999938964844</v>
+        <v>201.1999969482422</v>
       </c>
       <c r="B30">
-        <v>210.1699981689453</v>
+        <v>207.1999969482422</v>
       </c>
       <c r="C30">
-        <v>204.6699981689453</v>
+        <v>200.8000030517578</v>
       </c>
       <c r="D30">
-        <v>205.1699981689453</v>
+        <v>207</v>
       </c>
       <c r="E30">
-        <v>205.1448822021484</v>
+        <v>206.9746551513672</v>
       </c>
       <c r="F30">
-        <v>21839400</v>
+        <v>29720200</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>207.6799926757812</v>
+        <v>210.9199981689453</v>
       </c>
       <c r="B31">
-        <v>210.6600036621094</v>
+        <v>213.2200012207031</v>
       </c>
       <c r="C31">
-        <v>206.8800048828125</v>
+        <v>209.7200012207031</v>
       </c>
       <c r="D31">
-        <v>207.1600036621094</v>
+        <v>210.75</v>
       </c>
       <c r="E31">
-        <v>207.1346435546875</v>
+        <v>210.7241973876953</v>
       </c>
       <c r="F31">
-        <v>22080400</v>
+        <v>25691900</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>207.5</v>
+        <v>211.0099945068359</v>
       </c>
       <c r="B32">
-        <v>208.5899963378906</v>
+        <v>212.0599975585938</v>
       </c>
       <c r="C32">
-        <v>202.0299987792969</v>
+        <v>207.75</v>
       </c>
       <c r="D32">
-        <v>207.4199981689453</v>
+        <v>208.3099975585938</v>
       </c>
       <c r="E32">
-        <v>207.3946075439453</v>
+        <v>208.2845001220703</v>
       </c>
       <c r="F32">
-        <v>24097800</v>
+        <v>15102500</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>205.0399932861328</v>
+        <v>205.75</v>
       </c>
       <c r="B33">
-        <v>205.4199981689453</v>
+        <v>210.6300048828125</v>
       </c>
       <c r="C33">
-        <v>195.5500030517578</v>
+        <v>205.1100006103516</v>
       </c>
       <c r="D33">
-        <v>197.3200073242188</v>
+        <v>206.9499969482422</v>
       </c>
       <c r="E33">
-        <v>197.2958526611328</v>
+        <v>206.9246673583984</v>
       </c>
       <c r="F33">
-        <v>34563500</v>
+        <v>16338800</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>199.5</v>
+        <v>208.2799987792969</v>
       </c>
       <c r="B34">
-        <v>206.4799957275391</v>
+        <v>210.5700073242188</v>
       </c>
       <c r="C34">
-        <v>198.5399932861328</v>
+        <v>205.2799987792969</v>
       </c>
       <c r="D34">
-        <v>204.5099945068359</v>
+        <v>206.7100067138672</v>
       </c>
       <c r="E34">
-        <v>204.4849548339844</v>
+        <v>206.6846923828125</v>
       </c>
       <c r="F34">
-        <v>27928200</v>
+        <v>16213400</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>201.1999969482422</v>
+        <v>209.1799926757812</v>
       </c>
       <c r="B35">
-        <v>207.1999969482422</v>
+        <v>209.8999938964844</v>
       </c>
       <c r="C35">
-        <v>200.8000030517578</v>
+        <v>207.1300048828125</v>
       </c>
       <c r="D35">
-        <v>207</v>
+        <v>209.3899993896484</v>
       </c>
       <c r="E35">
-        <v>206.9746551513672</v>
+        <v>209.3643646240234</v>
       </c>
       <c r="F35">
-        <v>29720200</v>
+        <v>18065200</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>210.9199981689453</v>
+        <v>212.8800048828125</v>
       </c>
       <c r="B36">
-        <v>213.2200012207031</v>
+        <v>217.5500030517578</v>
       </c>
       <c r="C36">
-        <v>209.7200012207031</v>
+        <v>211.2200012207031</v>
       </c>
       <c r="D36">
-        <v>210.75</v>
+        <v>217.4600067138672</v>
       </c>
       <c r="E36">
-        <v>210.7241973876953</v>
+        <v>217.4333801269531</v>
       </c>
       <c r="F36">
-        <v>25691900</v>
+        <v>24358900</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>211.0099945068359</v>
+        <v>218.1000061035156</v>
       </c>
       <c r="B37">
-        <v>212.0599975585938</v>
+        <v>219.3099975585938</v>
       </c>
       <c r="C37">
-        <v>207.75</v>
+        <v>216.6199951171875</v>
       </c>
       <c r="D37">
-        <v>208.3099975585938</v>
+        <v>218.6199951171875</v>
       </c>
       <c r="E37">
-        <v>208.2845001220703</v>
+        <v>218.5932312011719</v>
       </c>
       <c r="F37">
-        <v>15102500</v>
+        <v>22679500</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>205.75</v>
+        <v>217.4900054931641</v>
       </c>
       <c r="B38">
-        <v>210.6300048828125</v>
+        <v>222.9100036621094</v>
       </c>
       <c r="C38">
-        <v>205.1100006103516</v>
+        <v>216.4400024414062</v>
       </c>
       <c r="D38">
-        <v>206.9499969482422</v>
+        <v>222.2200012207031</v>
       </c>
       <c r="E38">
-        <v>206.9246673583984</v>
+        <v>222.1927947998047</v>
       </c>
       <c r="F38">
-        <v>16338800</v>
+        <v>18949400</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>208.2799987792969</v>
+        <v>222.7599945068359</v>
       </c>
       <c r="B39">
-        <v>210.5700073242188</v>
+        <v>223.7899932861328</v>
       </c>
       <c r="C39">
-        <v>205.2799987792969</v>
+        <v>220.3699951171875</v>
       </c>
       <c r="D39">
-        <v>206.7100067138672</v>
+        <v>222.8999938964844</v>
       </c>
       <c r="E39">
-        <v>206.6846923828125</v>
+        <v>222.8727111816406</v>
       </c>
       <c r="F39">
-        <v>16213400</v>
+        <v>16147300</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>209.1799926757812</v>
+        <v>223.0500030517578</v>
       </c>
       <c r="B40">
-        <v>209.8999938964844</v>
+        <v>224.3300018310547</v>
       </c>
       <c r="C40">
-        <v>207.1300048828125</v>
+        <v>219.8200073242188</v>
       </c>
       <c r="D40">
-        <v>209.3899993896484</v>
+        <v>221.0299987792969</v>
       </c>
       <c r="E40">
-        <v>209.3643646240234</v>
+        <v>221.0029449462891</v>
       </c>
       <c r="F40">
-        <v>18065200</v>
+        <v>14627600</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>212.8800048828125</v>
+        <v>220.9700012207031</v>
       </c>
       <c r="B41">
-        <v>217.5500030517578</v>
+        <v>227.1100006103516</v>
       </c>
       <c r="C41">
-        <v>211.2200012207031</v>
+        <v>220.8300018310547</v>
       </c>
       <c r="D41">
-        <v>217.4600067138672</v>
+        <v>226.9199981689453</v>
       </c>
       <c r="E41">
-        <v>217.4333801269531</v>
+        <v>226.8922119140625</v>
       </c>
       <c r="F41">
-        <v>24358900</v>
+        <v>18759000</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>218.1000061035156</v>
+        <v>228.2299957275391</v>
       </c>
       <c r="B42">
-        <v>219.3099975585938</v>
+        <v>231.3000030517578</v>
       </c>
       <c r="C42">
-        <v>216.6199951171875</v>
+        <v>225.6100006103516</v>
       </c>
       <c r="D42">
-        <v>218.6199951171875</v>
+        <v>227.2599945068359</v>
       </c>
       <c r="E42">
-        <v>218.5932312011719</v>
+        <v>227.232177734375</v>
       </c>
       <c r="F42">
-        <v>22679500</v>
+        <v>24938400</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>217.4900054931641</v>
+        <v>229.7299957275391</v>
       </c>
       <c r="B43">
-        <v>222.9100036621094</v>
+        <v>233.5500030517578</v>
       </c>
       <c r="C43">
-        <v>216.4400024414062</v>
+        <v>227.6999969482422</v>
       </c>
       <c r="D43">
-        <v>222.2200012207031</v>
+        <v>231.6600036621094</v>
       </c>
       <c r="E43">
-        <v>222.1927947998047</v>
+        <v>231.6316375732422</v>
       </c>
       <c r="F43">
-        <v>18949400</v>
+        <v>23023500</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>222.7599945068359</v>
+        <v>239.8899993896484</v>
       </c>
       <c r="B44">
-        <v>223.7899932861328</v>
+        <v>252.5899963378906</v>
       </c>
       <c r="C44">
-        <v>220.3699951171875</v>
+        <v>239.2400054931641</v>
       </c>
       <c r="D44">
-        <v>222.8999938964844</v>
+        <v>247.1699981689453</v>
       </c>
       <c r="E44">
-        <v>222.8727111816406</v>
+        <v>247.1397399902344</v>
       </c>
       <c r="F44">
-        <v>16147300</v>
+        <v>48589800</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>223.0500030517578</v>
+        <v>244.7400054931641</v>
       </c>
       <c r="B45">
-        <v>224.3300018310547</v>
+        <v>250.8999938964844</v>
       </c>
       <c r="C45">
-        <v>219.8200073242188</v>
+        <v>242.8200073242188</v>
       </c>
       <c r="D45">
-        <v>221.0299987792969</v>
+        <v>244.5099945068359</v>
       </c>
       <c r="E45">
-        <v>221.0029449462891</v>
+        <v>244.4800567626953</v>
       </c>
       <c r="F45">
-        <v>14627600</v>
+        <v>24599000</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>220.9700012207031</v>
+        <v>248.7799987792969</v>
       </c>
       <c r="B46">
-        <v>227.1100006103516</v>
+        <v>249.5</v>
       </c>
       <c r="C46">
-        <v>220.8300018310547</v>
+        <v>245.2299957275391</v>
       </c>
       <c r="D46">
-        <v>226.9199981689453</v>
+        <v>249.4100036621094</v>
       </c>
       <c r="E46">
-        <v>226.8922119140625</v>
+        <v>249.3794708251953</v>
       </c>
       <c r="F46">
-        <v>18759000</v>
+        <v>23420400</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>228.2299957275391</v>
+        <v>250.0099945068359</v>
       </c>
       <c r="B47">
-        <v>231.3000030517578</v>
+        <v>257.0899963378906</v>
       </c>
       <c r="C47">
-        <v>225.6100006103516</v>
+        <v>250</v>
       </c>
       <c r="D47">
-        <v>227.2599945068359</v>
+        <v>255.6699981689453</v>
       </c>
       <c r="E47">
-        <v>227.232177734375</v>
+        <v>255.6387023925781</v>
       </c>
       <c r="F47">
-        <v>24938400</v>
+        <v>29213700</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>229.7299957275391</v>
+        <v>256.489990234375</v>
       </c>
       <c r="B48">
-        <v>233.5500030517578</v>
+        <v>258.9400024414062</v>
       </c>
       <c r="C48">
-        <v>227.6999969482422</v>
+        <v>252.2700042724609</v>
       </c>
       <c r="D48">
-        <v>231.6600036621094</v>
+        <v>258.2699890136719</v>
       </c>
       <c r="E48">
-        <v>231.6316375732422</v>
+        <v>258.2383728027344</v>
       </c>
       <c r="F48">
-        <v>23023500</v>
+        <v>26574000</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>239.8899993896484</v>
+        <v>258.2200012207031</v>
       </c>
       <c r="B49">
-        <v>252.5899963378906</v>
+        <v>266.7799987792969</v>
       </c>
       <c r="C49">
-        <v>239.2400054931641</v>
+        <v>258</v>
       </c>
       <c r="D49">
-        <v>247.1699981689453</v>
+        <v>264.010009765625</v>
       </c>
       <c r="E49">
-        <v>247.1397399902344</v>
+        <v>263.9776916503906</v>
       </c>
       <c r="F49">
-        <v>48589800</v>
+        <v>29411200</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>244.7400054931641</v>
+        <v>266.7000122070312</v>
       </c>
       <c r="B50">
-        <v>250.8999938964844</v>
+        <v>267.8399963378906</v>
       </c>
       <c r="C50">
-        <v>242.8200073242188</v>
+        <v>262.3500061035156</v>
       </c>
       <c r="D50">
-        <v>244.5099945068359</v>
+        <v>265.9800109863281</v>
       </c>
       <c r="E50">
-        <v>244.4800567626953</v>
+        <v>265.9474487304688</v>
       </c>
       <c r="F50">
-        <v>24599000</v>
+        <v>23991000</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>248.7799987792969</v>
+        <v>272.2900085449219</v>
       </c>
       <c r="B51">
-        <v>249.5</v>
+        <v>313.6499938964844</v>
       </c>
       <c r="C51">
-        <v>245.2299957275391</v>
+        <v>271.1799926757812</v>
       </c>
       <c r="D51">
-        <v>249.4100036621094</v>
+        <v>298.010009765625</v>
       </c>
       <c r="E51">
-        <v>249.3794708251953</v>
+        <v>297.9735107421875</v>
       </c>
       <c r="F51">
-        <v>23420400</v>
+        <v>115363100</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>250.0099945068359</v>
+        <v>301.8699951171875</v>
       </c>
       <c r="B52">
-        <v>257.0899963378906</v>
+        <v>314</v>
       </c>
       <c r="C52">
-        <v>250</v>
+        <v>294.1000061035156</v>
       </c>
       <c r="D52">
-        <v>255.6699981689453</v>
+        <v>297.5199890136719</v>
       </c>
       <c r="E52">
-        <v>255.6387023925781</v>
+        <v>297.4835510253906</v>
       </c>
       <c r="F52">
-        <v>29213700</v>
+        <v>85072800</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>256.489990234375</v>
+        <v>301.489990234375</v>
       </c>
       <c r="B53">
-        <v>258.9400024414062</v>
+        <v>311</v>
       </c>
       <c r="C53">
-        <v>252.2700042724609</v>
+        <v>299.0700073242188</v>
       </c>
       <c r="D53">
-        <v>258.2699890136719</v>
+        <v>308.0400085449219</v>
       </c>
       <c r="E53">
-        <v>258.2383728027344</v>
+        <v>308.0022888183594</v>
       </c>
       <c r="F53">
-        <v>26574000</v>
+        <v>50310100</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>258.2200012207031</v>
+        <v>322.8200073242188</v>
       </c>
       <c r="B54">
-        <v>266.7799987792969</v>
+        <v>323.1000061035156</v>
       </c>
       <c r="C54">
-        <v>258</v>
+        <v>299.6400146484375</v>
       </c>
       <c r="D54">
-        <v>264.010009765625</v>
+        <v>306.5700073242188</v>
       </c>
       <c r="E54">
-        <v>263.9776916503906</v>
+        <v>306.532470703125</v>
       </c>
       <c r="F54">
-        <v>29411200</v>
+        <v>64674600</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>266.7000122070312</v>
+        <v>293.5599975585938</v>
       </c>
       <c r="B55">
-        <v>267.8399963378906</v>
+        <v>308.5</v>
       </c>
       <c r="C55">
-        <v>262.3500061035156</v>
+        <v>287.7799987792969</v>
       </c>
       <c r="D55">
-        <v>265.9800109863281</v>
+        <v>294.5899963378906</v>
       </c>
       <c r="E55">
-        <v>265.9474487304688</v>
+        <v>294.5539245605469</v>
       </c>
       <c r="F55">
-        <v>23991000</v>
+        <v>63620600</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>272.2900085449219</v>
+        <v>304.6799926757812</v>
       </c>
       <c r="B56">
-        <v>313.6499938964844</v>
+        <v>305.8999938964844</v>
       </c>
       <c r="C56">
-        <v>271.1799926757812</v>
+        <v>297.7699890136719</v>
       </c>
       <c r="D56">
-        <v>298.010009765625</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="E56">
-        <v>297.9735107421875</v>
+        <v>303.86279296875</v>
       </c>
       <c r="F56">
-        <v>115363100</v>
+        <v>33217200</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>301.8699951171875</v>
+        <v>300.1000061035156</v>
       </c>
       <c r="B57">
-        <v>314</v>
+        <v>306.7999877929688</v>
       </c>
       <c r="C57">
-        <v>294.1000061035156</v>
+        <v>296.2999877929688</v>
       </c>
       <c r="D57">
-        <v>297.5199890136719</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="E57">
-        <v>297.4835510253906</v>
+        <v>303.86279296875</v>
       </c>
       <c r="F57">
-        <v>85072800</v>
+        <v>41215100</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>301.489990234375</v>
+        <v>305.5199890136719</v>
       </c>
       <c r="B58">
-        <v>311</v>
+        <v>306.4400024414062</v>
       </c>
       <c r="C58">
-        <v>299.0700073242188</v>
+        <v>292.4700012207031</v>
       </c>
       <c r="D58">
-        <v>308.0400085449219</v>
+        <v>300.25</v>
       </c>
       <c r="E58">
-        <v>308.0022888183594</v>
+        <v>300.2132263183594</v>
       </c>
       <c r="F58">
-        <v>50310100</v>
+        <v>38490900</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>322.8200073242188</v>
+        <v>297.5899963378906</v>
       </c>
       <c r="B59">
-        <v>323.1000061035156</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="C59">
-        <v>299.6400146484375</v>
+        <v>297.0599975585938</v>
       </c>
       <c r="D59">
-        <v>306.5700073242188</v>
+        <v>302.0299987792969</v>
       </c>
       <c r="E59">
-        <v>306.532470703125</v>
+        <v>301.9930114746094</v>
       </c>
       <c r="F59">
-        <v>64674600</v>
+        <v>26448400</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>293.5599975585938</v>
+        <v>304.1799926757812</v>
       </c>
       <c r="B60">
-        <v>308.5</v>
+        <v>305.0899963378906</v>
       </c>
       <c r="C60">
-        <v>287.7799987792969</v>
+        <v>288</v>
       </c>
       <c r="D60">
-        <v>294.5899963378906</v>
+        <v>292.6099853515625</v>
       </c>
       <c r="E60">
-        <v>294.5539245605469</v>
+        <v>292.5741577148438</v>
       </c>
       <c r="F60">
-        <v>63620600</v>
+        <v>42850800</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>304.6799926757812</v>
+        <v>323.6700134277344</v>
       </c>
       <c r="B61">
-        <v>305.8999938964844</v>
+        <v>327.6000061035156</v>
       </c>
       <c r="C61">
-        <v>297.7699890136719</v>
+        <v>313.2099914550781</v>
       </c>
       <c r="D61">
-        <v>303.8999938964844</v>
+        <v>316.75</v>
       </c>
       <c r="E61">
-        <v>303.86279296875</v>
+        <v>316.7112121582031</v>
       </c>
       <c r="F61">
-        <v>33217200</v>
+        <v>78171100</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>300.1000061035156</v>
+        <v>322.4299926757812</v>
       </c>
       <c r="B62">
-        <v>306.7999877929688</v>
+        <v>330.8800048828125</v>
       </c>
       <c r="C62">
-        <v>296.2999877929688</v>
+        <v>319.0499877929688</v>
       </c>
       <c r="D62">
-        <v>303.8999938964844</v>
+        <v>329.8500061035156</v>
       </c>
       <c r="E62">
-        <v>303.86279296875</v>
+        <v>329.8096313476562</v>
       </c>
       <c r="F62">
-        <v>41215100</v>
+        <v>53386700</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>305.5199890136719</v>
+        <v>335.1700134277344</v>
       </c>
       <c r="B63">
-        <v>306.4400024414062</v>
+        <v>346.4700012207031</v>
       </c>
       <c r="C63">
-        <v>292.4700012207031</v>
+        <v>319</v>
       </c>
       <c r="D63">
-        <v>300.25</v>
+        <v>319.5599975585938</v>
       </c>
       <c r="E63">
-        <v>300.2132263183594</v>
+        <v>319.5208740234375</v>
       </c>
       <c r="F63">
-        <v>38490900</v>
+        <v>75433500</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>297.5899963378906</v>
+        <v>315.3500061035156</v>
       </c>
       <c r="B64">
-        <v>303.8999938964844</v>
+        <v>323.6000061035156</v>
       </c>
       <c r="C64">
-        <v>297.0599975585938</v>
+        <v>308.7999877929688</v>
       </c>
       <c r="D64">
-        <v>302.0299987792969</v>
+        <v>317.4599914550781</v>
       </c>
       <c r="E64">
-        <v>301.9930114746094</v>
+        <v>317.4211120605469</v>
       </c>
       <c r="F64">
-        <v>26448400</v>
+        <v>53216300</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>304.1799926757812</v>
+        <v>314.6099853515625</v>
       </c>
       <c r="B65">
-        <v>305.0899963378906</v>
+        <v>328.5499877929688</v>
       </c>
       <c r="C65">
-        <v>288</v>
+        <v>309.2799987792969</v>
       </c>
       <c r="D65">
-        <v>292.6099853515625</v>
+        <v>326.739990234375</v>
       </c>
       <c r="E65">
-        <v>292.5741577148438</v>
+        <v>326.6999816894531</v>
       </c>
       <c r="F65">
-        <v>42850800</v>
+        <v>43516200</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>323.6700134277344</v>
+        <v>326</v>
       </c>
       <c r="B66">
-        <v>327.6000061035156</v>
+        <v>327.1000061035156</v>
       </c>
       <c r="C66">
-        <v>313.2099914550781</v>
+        <v>313.5</v>
       </c>
       <c r="D66">
-        <v>316.75</v>
+        <v>315.0299987792969</v>
       </c>
       <c r="E66">
-        <v>316.7112121582031</v>
+        <v>314.9914245605469</v>
       </c>
       <c r="F66">
-        <v>78171100</v>
+        <v>28306900</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>322.4299926757812</v>
+        <v>323.6600036621094</v>
       </c>
       <c r="B67">
-        <v>330.8800048828125</v>
+        <v>334.1199951171875</v>
       </c>
       <c r="C67">
-        <v>319.0499877929688</v>
+        <v>320.3599853515625</v>
       </c>
       <c r="D67">
-        <v>329.8500061035156</v>
+        <v>333.760009765625</v>
       </c>
       <c r="E67">
-        <v>329.8096313476562</v>
+        <v>333.7191467285156</v>
       </c>
       <c r="F67">
-        <v>53386700</v>
+        <v>45496400</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>335.1700134277344</v>
+        <v>331.6900024414062</v>
       </c>
       <c r="B68">
-        <v>346.4700012207031</v>
+        <v>333.5299987792969</v>
       </c>
       <c r="C68">
-        <v>319</v>
+        <v>318.6400146484375</v>
       </c>
       <c r="D68">
-        <v>319.5599975585938</v>
+        <v>326.760009765625</v>
       </c>
       <c r="E68">
-        <v>319.5208740234375</v>
+        <v>326.7200012207031</v>
       </c>
       <c r="F68">
-        <v>75433500</v>
+        <v>62206600</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>315.3500061035156</v>
+        <v>332.1900024414062</v>
       </c>
       <c r="B69">
-        <v>323.6000061035156</v>
+        <v>332.8900146484375</v>
       </c>
       <c r="C69">
-        <v>308.7999877929688</v>
+        <v>313.7999877929688</v>
       </c>
       <c r="D69">
-        <v>317.4599914550781</v>
+        <v>314.3500061035156</v>
       </c>
       <c r="E69">
-        <v>317.4211120605469</v>
+        <v>314.3500061035156</v>
       </c>
       <c r="F69">
-        <v>53216300</v>
+        <v>48436800</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>314.6099853515625</v>
+        <v>312.1400146484375</v>
       </c>
       <c r="B70">
-        <v>328.5499877929688</v>
+        <v>324.7799987792969</v>
       </c>
       <c r="C70">
-        <v>309.2799987792969</v>
+        <v>310.25</v>
       </c>
       <c r="D70">
-        <v>326.739990234375</v>
+        <v>321.260009765625</v>
       </c>
       <c r="E70">
-        <v>326.6999816894531</v>
+        <v>321.260009765625</v>
       </c>
       <c r="F70">
-        <v>43516200</v>
+        <v>47289000</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B71">
-        <v>327.1000061035156</v>
+        <v>321.2900085449219</v>
       </c>
       <c r="C71">
-        <v>313.5</v>
+        <v>301.2999877929688</v>
       </c>
       <c r="D71">
-        <v>315.0299987792969</v>
+        <v>306.9299926757812</v>
       </c>
       <c r="E71">
-        <v>314.9914245605469</v>
+        <v>306.9299926757812</v>
       </c>
       <c r="F71">
-        <v>28306900</v>
+        <v>54382300</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>323.6600036621094</v>
+        <v>298.7999877929688</v>
       </c>
       <c r="B72">
-        <v>334.1199951171875</v>
+        <v>302.4100036621094</v>
       </c>
       <c r="C72">
-        <v>320.3599853515625</v>
+        <v>280.3800048828125</v>
       </c>
       <c r="D72">
-        <v>333.760009765625</v>
+        <v>300.3699951171875</v>
       </c>
       <c r="E72">
-        <v>333.7191467285156</v>
+        <v>300.3699951171875</v>
       </c>
       <c r="F72">
-        <v>45496400</v>
+        <v>65893800</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>331.6900024414062</v>
+        <v>309.5700073242188</v>
       </c>
       <c r="B73">
-        <v>333.5299987792969</v>
+        <v>324.489990234375</v>
       </c>
       <c r="C73">
-        <v>318.6400146484375</v>
+        <v>306.510009765625</v>
       </c>
       <c r="D73">
-        <v>326.760009765625</v>
+        <v>324.2699890136719</v>
       </c>
       <c r="E73">
-        <v>326.7200012207031</v>
+        <v>324.2699890136719</v>
       </c>
       <c r="F73">
-        <v>62206600</v>
+        <v>59305300</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>332.1900024414062</v>
+        <v>319.989990234375</v>
       </c>
       <c r="B74">
-        <v>332.8900146484375</v>
+        <v>322.8999938964844</v>
       </c>
       <c r="C74">
-        <v>313.7999877929688</v>
+        <v>314.2099914550781</v>
       </c>
       <c r="D74">
-        <v>314.3500061035156</v>
+        <v>318.260009765625</v>
       </c>
       <c r="E74">
-        <v>314.3500061035156</v>
+        <v>318.260009765625</v>
       </c>
       <c r="F74">
-        <v>48436800</v>
+        <v>47555100</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>312.1400146484375</v>
+        <v>317.3399963378906</v>
       </c>
       <c r="B75">
-        <v>324.7799987792969</v>
+        <v>322.0499877929688</v>
       </c>
       <c r="C75">
-        <v>310.25</v>
+        <v>304.2799987792969</v>
       </c>
       <c r="D75">
-        <v>321.260009765625</v>
+        <v>304.8999938964844</v>
       </c>
       <c r="E75">
-        <v>321.260009765625</v>
+        <v>304.8999938964844</v>
       </c>
       <c r="F75">
-        <v>47289000</v>
+        <v>48850700</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>320</v>
+        <v>311.5</v>
       </c>
       <c r="B76">
-        <v>321.2900085449219</v>
+        <v>313.0499877929688</v>
       </c>
       <c r="C76">
-        <v>301.2999877929688</v>
+        <v>298.6099853515625</v>
       </c>
       <c r="D76">
-        <v>306.9299926757812</v>
+        <v>301.9800109863281</v>
       </c>
       <c r="E76">
-        <v>306.9299926757812</v>
+        <v>301.9800109863281</v>
       </c>
       <c r="F76">
-        <v>54382300</v>
+        <v>48850500</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>298.7999877929688</v>
+        <v>302.489990234375</v>
       </c>
       <c r="B77">
-        <v>302.4100036621094</v>
+        <v>302.9400024414062</v>
       </c>
       <c r="C77">
-        <v>280.3800048828125</v>
+        <v>281.1600036621094</v>
       </c>
       <c r="D77">
-        <v>300.3699951171875</v>
+        <v>281.6099853515625</v>
       </c>
       <c r="E77">
-        <v>300.3699951171875</v>
+        <v>281.6099853515625</v>
       </c>
       <c r="F77">
-        <v>65893800</v>
+        <v>59834400</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>309.5700073242188</v>
+        <v>276.989990234375</v>
       </c>
       <c r="B78">
-        <v>324.489990234375</v>
+        <v>286.7799987792969</v>
       </c>
       <c r="C78">
-        <v>306.510009765625</v>
+        <v>272.5</v>
       </c>
       <c r="D78">
-        <v>324.2699890136719</v>
+        <v>283.3699951171875</v>
       </c>
       <c r="E78">
-        <v>324.2699890136719</v>
+        <v>283.3699951171875</v>
       </c>
       <c r="F78">
-        <v>59305300</v>
+        <v>66703500</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>319.989990234375</v>
+        <v>284</v>
       </c>
       <c r="B79">
-        <v>322.8999938964844</v>
+        <v>305</v>
       </c>
       <c r="C79">
-        <v>314.2099914550781</v>
+        <v>278.3800048828125</v>
       </c>
       <c r="D79">
-        <v>318.260009765625</v>
+        <v>304.5899963378906</v>
       </c>
       <c r="E79">
-        <v>318.260009765625</v>
+        <v>304.5899963378906</v>
       </c>
       <c r="F79">
-        <v>47555100</v>
+        <v>69829700</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>317.3399963378906</v>
+        <v>311.5199890136719</v>
       </c>
       <c r="B80">
-        <v>322.0499877929688</v>
+        <v>311.6000061035156</v>
       </c>
       <c r="C80">
-        <v>304.2799987792969</v>
+        <v>280.9299926757812</v>
       </c>
       <c r="D80">
-        <v>304.8999938964844</v>
+        <v>283.8699951171875</v>
       </c>
       <c r="E80">
-        <v>304.8999938964844</v>
+        <v>283.8699951171875</v>
       </c>
       <c r="F80">
-        <v>48850700</v>
+        <v>70736600</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>311.5</v>
+        <v>279.8500061035156</v>
       </c>
       <c r="B81">
-        <v>313.0499877929688</v>
+        <v>289.2200012207031</v>
       </c>
       <c r="C81">
-        <v>298.6099853515625</v>
+        <v>277.6000061035156</v>
       </c>
       <c r="D81">
-        <v>301.9800109863281</v>
+        <v>278.010009765625</v>
       </c>
       <c r="E81">
-        <v>301.9800109863281</v>
+        <v>278.010009765625</v>
       </c>
       <c r="F81">
-        <v>48850500</v>
+        <v>71375800</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>302.489990234375</v>
+        <v>273.0499877929688</v>
       </c>
       <c r="B82">
-        <v>302.9400024414062</v>
+        <v>281.4400024414062</v>
       </c>
       <c r="C82">
-        <v>281.1600036621094</v>
+        <v>271.4500122070312</v>
       </c>
       <c r="D82">
-        <v>281.6099853515625</v>
+        <v>277.1900024414062</v>
       </c>
       <c r="E82">
-        <v>281.6099853515625</v>
+        <v>277.1900024414062</v>
       </c>
       <c r="F82">
-        <v>59834400</v>
+        <v>46184700</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>276.989990234375</v>
+        <v>283.739990234375</v>
       </c>
       <c r="B83">
-        <v>286.7799987792969</v>
+        <v>291.2000122070312</v>
       </c>
       <c r="C83">
-        <v>272.5</v>
+        <v>274.010009765625</v>
       </c>
       <c r="D83">
-        <v>283.3699951171875</v>
+        <v>290.75</v>
       </c>
       <c r="E83">
-        <v>283.3699951171875</v>
+        <v>290.75</v>
       </c>
       <c r="F83">
-        <v>66703500</v>
+        <v>52438500</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>284</v>
+        <v>288.9100036621094</v>
       </c>
       <c r="B84">
-        <v>305</v>
+        <v>295.5499877929688</v>
       </c>
       <c r="C84">
-        <v>278.3800048828125</v>
+        <v>284.489990234375</v>
       </c>
       <c r="D84">
-        <v>304.5899963378906</v>
+        <v>294</v>
       </c>
       <c r="E84">
-        <v>304.5899963378906</v>
+        <v>294</v>
       </c>
       <c r="F84">
-        <v>69829700</v>
+        <v>39518400</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>311.5199890136719</v>
+        <v>297.5499877929688</v>
       </c>
       <c r="B85">
-        <v>311.6000061035156</v>
+        <v>300.5899963378906</v>
       </c>
       <c r="C85">
-        <v>280.9299926757812</v>
+        <v>294.3099975585938</v>
       </c>
       <c r="D85">
-        <v>283.8699951171875</v>
+        <v>296.3999938964844</v>
       </c>
       <c r="E85">
-        <v>283.8699951171875</v>
+        <v>296.3999938964844</v>
       </c>
       <c r="F85">
-        <v>70736600</v>
+        <v>34302200</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>279.8500061035156</v>
+        <v>296.6000061035156</v>
       </c>
       <c r="B86">
-        <v>289.2200012207031</v>
+        <v>310.8699951171875</v>
       </c>
       <c r="C86">
-        <v>277.6000061035156</v>
+        <v>296.3999938964844</v>
       </c>
       <c r="D86">
-        <v>278.010009765625</v>
+        <v>309.4500122070312</v>
       </c>
       <c r="E86">
-        <v>278.010009765625</v>
+        <v>309.4500122070312</v>
       </c>
       <c r="F86">
-        <v>71375800</v>
+        <v>40368600</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>273.0499877929688</v>
+        <v>313.1199951171875</v>
       </c>
       <c r="B87">
-        <v>281.4400024414062</v>
+        <v>313.2999877929688</v>
       </c>
       <c r="C87">
-        <v>271.4500122070312</v>
+        <v>300.1199951171875</v>
       </c>
       <c r="D87">
-        <v>277.1900024414062</v>
+        <v>303.2200012207031</v>
       </c>
       <c r="E87">
-        <v>277.1900024414062</v>
+        <v>303.2200012207031</v>
       </c>
       <c r="F87">
-        <v>46184700</v>
+        <v>42059100</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>283.739990234375</v>
+        <v>302.7300109863281</v>
       </c>
       <c r="B88">
-        <v>291.2000122070312</v>
+        <v>305.4800109863281</v>
       </c>
       <c r="C88">
-        <v>274.010009765625</v>
+        <v>293.6600036621094</v>
       </c>
       <c r="D88">
-        <v>290.75</v>
+        <v>300.010009765625</v>
       </c>
       <c r="E88">
-        <v>290.75</v>
+        <v>300.010009765625</v>
       </c>
       <c r="F88">
-        <v>52438500</v>
+        <v>34313900</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>288.9100036621094</v>
+        <v>298.2699890136719</v>
       </c>
       <c r="B89">
-        <v>295.5499877929688</v>
+        <v>304.5700073242188</v>
       </c>
       <c r="C89">
-        <v>284.489990234375</v>
+        <v>295.3999938964844</v>
       </c>
       <c r="D89">
-        <v>294</v>
+        <v>295.8599853515625</v>
       </c>
       <c r="E89">
-        <v>294</v>
+        <v>295.8599853515625</v>
       </c>
       <c r="F89">
-        <v>39518400</v>
+        <v>30886400</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>297.5499877929688</v>
+        <v>296.739990234375</v>
       </c>
       <c r="B90">
-        <v>300.5899963378906</v>
+        <v>300.2999877929688</v>
       </c>
       <c r="C90">
-        <v>294.3099975585938</v>
+        <v>293.3099975585938</v>
       </c>
       <c r="D90">
-        <v>296.3999938964844</v>
+        <v>294.1099853515625</v>
       </c>
       <c r="E90">
-        <v>296.3999938964844</v>
+        <v>294.1099853515625</v>
       </c>
       <c r="F90">
-        <v>34302200</v>
+        <v>26653000</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>296.6000061035156</v>
+        <v>298.1499938964844</v>
       </c>
       <c r="B91">
-        <v>310.8699951171875</v>
+        <v>307.1099853515625</v>
       </c>
       <c r="C91">
-        <v>296.3999938964844</v>
+        <v>297.8500061035156</v>
       </c>
       <c r="D91">
-        <v>309.4500122070312</v>
+        <v>301.2099914550781</v>
       </c>
       <c r="E91">
-        <v>309.4500122070312</v>
+        <v>301.2099914550781</v>
       </c>
       <c r="F91">
-        <v>40368600</v>
+        <v>39154700</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>313.1199951171875</v>
+        <v>302.7699890136719</v>
       </c>
       <c r="B92">
-        <v>313.2999877929688</v>
+        <v>304.6799926757812</v>
       </c>
       <c r="C92">
-        <v>300.1199951171875</v>
+        <v>283.489990234375</v>
       </c>
       <c r="D92">
-        <v>303.2200012207031</v>
+        <v>292.8999938964844</v>
       </c>
       <c r="E92">
-        <v>303.2200012207031</v>
+        <v>292.8999938964844</v>
       </c>
       <c r="F92">
-        <v>42059100</v>
+        <v>52715400</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>302.7300109863281</v>
+        <v>289.489990234375</v>
       </c>
       <c r="B93">
-        <v>305.4800109863281</v>
+        <v>294.1600036621094</v>
       </c>
       <c r="C93">
-        <v>293.6600036621094</v>
+        <v>275.3299865722656</v>
       </c>
       <c r="D93">
-        <v>300.010009765625</v>
+        <v>276.0400085449219</v>
       </c>
       <c r="E93">
-        <v>300.010009765625</v>
+        <v>276.0400085449219</v>
       </c>
       <c r="F93">
-        <v>34313900</v>
+        <v>49806400</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>298.2699890136719</v>
+        <v>276.3999938964844</v>
       </c>
       <c r="B94">
-        <v>304.5700073242188</v>
+        <v>284.3800048828125</v>
       </c>
       <c r="C94">
-        <v>295.3999938964844</v>
+        <v>270.6499938964844</v>
       </c>
       <c r="D94">
-        <v>295.8599853515625</v>
+        <v>281.7799987792969</v>
       </c>
       <c r="E94">
-        <v>295.8599853515625</v>
+        <v>281.7799987792969</v>
       </c>
       <c r="F94">
-        <v>30886400</v>
+        <v>45418600</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>296.739990234375</v>
+        <v>281.4100036621094</v>
       </c>
       <c r="B95">
-        <v>300.2999877929688</v>
+        <v>284.2200012207031</v>
       </c>
       <c r="C95">
-        <v>293.3099975585938</v>
+        <v>270.5700073242188</v>
       </c>
       <c r="D95">
-        <v>294.1099853515625</v>
+        <v>272.4700012207031</v>
       </c>
       <c r="E95">
-        <v>294.1099853515625</v>
+        <v>272.4700012207031</v>
       </c>
       <c r="F95">
-        <v>26653000</v>
+        <v>40920100</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>298.1499938964844</v>
+        <v>265.8099975585938</v>
       </c>
       <c r="B96">
-        <v>307.1099853515625</v>
+        <v>274.6900024414062</v>
       </c>
       <c r="C96">
-        <v>297.8500061035156</v>
+        <v>256.4400024414062</v>
       </c>
       <c r="D96">
-        <v>301.2099914550781</v>
+        <v>274</v>
       </c>
       <c r="E96">
-        <v>301.2099914550781</v>
+        <v>274</v>
       </c>
       <c r="F96">
-        <v>39154700</v>
+        <v>59468100</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>302.7699890136719</v>
+        <v>273.2300109863281</v>
       </c>
       <c r="B97">
-        <v>304.6799926757812</v>
+        <v>280.6499938964844</v>
       </c>
       <c r="C97">
-        <v>283.489990234375</v>
+        <v>268.3900146484375</v>
       </c>
       <c r="D97">
-        <v>292.8999938964844</v>
+        <v>278.1700134277344</v>
       </c>
       <c r="E97">
-        <v>292.8999938964844</v>
+        <v>278.1700134277344</v>
       </c>
       <c r="F97">
-        <v>52715400</v>
+        <v>40408900</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>289.489990234375</v>
+        <v>280.6700134277344</v>
       </c>
       <c r="B98">
-        <v>294.1600036621094</v>
+        <v>285.9500122070312</v>
       </c>
       <c r="C98">
-        <v>275.3299865722656</v>
+        <v>276.0799865722656</v>
       </c>
       <c r="D98">
-        <v>276.0400085449219</v>
+        <v>279.989990234375</v>
       </c>
       <c r="E98">
-        <v>276.0400085449219</v>
+        <v>279.989990234375</v>
       </c>
       <c r="F98">
-        <v>49806400</v>
+        <v>38341300</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>276.3999938964844</v>
+        <v>283.7900085449219</v>
       </c>
       <c r="B99">
-        <v>284.3800048828125</v>
+        <v>284.7999877929688</v>
       </c>
       <c r="C99">
-        <v>270.6499938964844</v>
+        <v>264.9800109863281</v>
       </c>
       <c r="D99">
-        <v>281.7799987792969</v>
+        <v>265.75</v>
       </c>
       <c r="E99">
-        <v>281.7799987792969</v>
+        <v>265.75</v>
       </c>
       <c r="F99">
-        <v>45418600</v>
+        <v>54017100</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>281.4100036621094</v>
+        <v>263</v>
       </c>
       <c r="B100">
-        <v>284.2200012207031</v>
+        <v>271.9700012207031</v>
       </c>
       <c r="C100">
-        <v>270.5700073242188</v>
+        <v>262.1000061035156</v>
       </c>
       <c r="D100">
-        <v>272.4700012207031</v>
+        <v>269.4200134277344</v>
       </c>
       <c r="E100">
-        <v>272.4700012207031</v>
+        <v>269.4200134277344</v>
       </c>
       <c r="F100">
-        <v>40920100</v>
+        <v>39522800</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>265.8099975585938</v>
+        <v>262.6000061035156</v>
       </c>
       <c r="B101">
-        <v>274.6900024414062</v>
+        <v>266.3800048828125</v>
       </c>
       <c r="C101">
-        <v>256.4400024414062</v>
+        <v>257.7000122070312</v>
       </c>
       <c r="D101">
-        <v>274</v>
+        <v>259.0299987792969</v>
       </c>
       <c r="E101">
-        <v>274</v>
+        <v>259.0299987792969</v>
       </c>
       <c r="F101">
-        <v>59468100</v>
+        <v>42427000</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>273.2300109863281</v>
+        <v>260.7900085449219</v>
       </c>
       <c r="B102">
-        <v>280.6499938964844</v>
+        <v>265.4299926757812</v>
       </c>
       <c r="C102">
-        <v>268.3900146484375</v>
+        <v>250.5200042724609</v>
       </c>
       <c r="D102">
-        <v>278.1700134277344</v>
+        <v>250.6699981689453</v>
       </c>
       <c r="E102">
-        <v>278.1700134277344</v>
+        <v>250.6699981689453</v>
       </c>
       <c r="F102">
-        <v>40408900</v>
+        <v>48831500</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>280.6700134277344</v>
+        <v>253.0399932861328</v>
       </c>
       <c r="B103">
-        <v>285.9500122070312</v>
+        <v>255.7899932861328</v>
       </c>
       <c r="C103">
-        <v>276.0799865722656</v>
+        <v>240.7799987792969</v>
       </c>
       <c r="D103">
-        <v>279.989990234375</v>
+        <v>241.5</v>
       </c>
       <c r="E103">
-        <v>279.989990234375</v>
+        <v>241.5</v>
       </c>
       <c r="F103">
-        <v>38341300</v>
+        <v>43518100</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>283.7900085449219</v>
+        <v>235.0700073242188</v>
       </c>
       <c r="B104">
-        <v>284.7999877929688</v>
+        <v>248.2299957275391</v>
       </c>
       <c r="C104">
-        <v>264.9800109863281</v>
+        <v>232.6300048828125</v>
       </c>
       <c r="D104">
-        <v>265.75</v>
+        <v>233.7400054931641</v>
       </c>
       <c r="E104">
-        <v>265.75</v>
+        <v>233.7400054931641</v>
       </c>
       <c r="F104">
-        <v>54017100</v>
+        <v>71895800</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>263</v>
+        <v>223.3000030517578</v>
       </c>
       <c r="B105">
-        <v>271.9700012207031</v>
+        <v>233.8000030517578</v>
       </c>
       <c r="C105">
-        <v>262.1000061035156</v>
+        <v>208.8800048828125</v>
       </c>
       <c r="D105">
-        <v>269.4200134277344</v>
+        <v>233.7200012207031</v>
       </c>
       <c r="E105">
-        <v>269.4200134277344</v>
+        <v>233.7200012207031</v>
       </c>
       <c r="F105">
-        <v>39522800</v>
+        <v>91398200</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>262.6000061035156</v>
+        <v>225.4600067138672</v>
       </c>
       <c r="B106">
-        <v>266.3800048828125</v>
+        <v>229.4299926757812</v>
       </c>
       <c r="C106">
-        <v>257.7000122070312</v>
+        <v>220</v>
       </c>
       <c r="D106">
-        <v>259.0299987792969</v>
+        <v>223.2400054931641</v>
       </c>
       <c r="E106">
-        <v>259.0299987792969</v>
+        <v>223.2400054931641</v>
       </c>
       <c r="F106">
-        <v>42427000</v>
+        <v>66461600</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>260.7900085449219</v>
+        <v>232.3999938964844</v>
       </c>
       <c r="B107">
-        <v>265.4299926757812</v>
+        <v>240.5700073242188</v>
       </c>
       <c r="C107">
-        <v>250.5200042724609</v>
+        <v>223</v>
       </c>
       <c r="D107">
-        <v>250.6699981689453</v>
+        <v>227.7200012207031</v>
       </c>
       <c r="E107">
-        <v>250.6699981689453</v>
+        <v>227.7200012207031</v>
       </c>
       <c r="F107">
-        <v>48831500</v>
+        <v>75595900</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>253.0399932861328</v>
+        <v>235.6799926757812</v>
       </c>
       <c r="B108">
-        <v>255.7899932861328</v>
+        <v>239.9499969482422</v>
       </c>
       <c r="C108">
-        <v>240.7799987792969</v>
+        <v>216.75</v>
       </c>
       <c r="D108">
-        <v>241.5</v>
+        <v>219.4400024414062</v>
       </c>
       <c r="E108">
-        <v>241.5</v>
+        <v>219.4400024414062</v>
       </c>
       <c r="F108">
-        <v>43518100</v>
+        <v>57335300</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>235.0700073242188</v>
+        <v>220.1199951171875</v>
       </c>
       <c r="B109">
-        <v>248.2299957275391</v>
+        <v>228.5800018310547</v>
       </c>
       <c r="C109">
-        <v>232.6300048828125</v>
+        <v>212.9600067138672</v>
       </c>
       <c r="D109">
-        <v>233.7400054931641</v>
+        <v>228.3999938964844</v>
       </c>
       <c r="E109">
-        <v>233.7400054931641</v>
+        <v>228.3999938964844</v>
       </c>
       <c r="F109">
-        <v>71895800</v>
+        <v>54377400</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>223.3000030517578</v>
+        <v>231.8200073242188</v>
       </c>
       <c r="B110">
-        <v>233.8000030517578</v>
+        <v>245.0899963378906</v>
       </c>
       <c r="C110">
-        <v>208.8800048828125</v>
+        <v>230.5200042724609</v>
       </c>
       <c r="D110">
-        <v>233.7200012207031</v>
+        <v>244.8600006103516</v>
       </c>
       <c r="E110">
-        <v>233.7200012207031</v>
+        <v>244.8600006103516</v>
       </c>
       <c r="F110">
-        <v>91398200</v>
+        <v>56468000</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>225.4600067138672</v>
+        <v>251.0399932861328</v>
       </c>
       <c r="B111">
-        <v>229.4299926757812</v>
+        <v>251.4499969482422</v>
       </c>
       <c r="C111">
-        <v>220</v>
+        <v>238.8999938964844</v>
       </c>
       <c r="D111">
-        <v>223.2400054931641</v>
+        <v>246.3800048828125</v>
       </c>
       <c r="E111">
-        <v>223.2400054931641</v>
+        <v>246.3800048828125</v>
       </c>
       <c r="F111">
-        <v>66461600</v>
+        <v>51892500</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>232.3999938964844</v>
+        <v>257.9400024414062</v>
       </c>
       <c r="B112">
-        <v>240.5700073242188</v>
+        <v>258.1700134277344</v>
       </c>
       <c r="C112">
-        <v>223</v>
+        <v>245.5299987792969</v>
       </c>
       <c r="D112">
-        <v>227.7200012207031</v>
+        <v>252.4199981689453</v>
       </c>
       <c r="E112">
-        <v>227.7200012207031</v>
+        <v>252.4199981689453</v>
       </c>
       <c r="F112">
-        <v>75595900</v>
+        <v>54341900</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>235.6799926757812</v>
+        <v>244.5800018310547</v>
       </c>
       <c r="B113">
-        <v>239.9499969482422</v>
+        <v>250.7700042724609</v>
       </c>
       <c r="C113">
-        <v>216.75</v>
+        <v>237.8000030517578</v>
       </c>
       <c r="D113">
-        <v>219.4400024414062</v>
+        <v>239.4799957275391</v>
       </c>
       <c r="E113">
-        <v>219.4400024414062</v>
+        <v>239.4799957275391</v>
       </c>
       <c r="F113">
-        <v>57335300</v>
+        <v>41017800</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>220.1199951171875</v>
+        <v>239.7200012207031</v>
       </c>
       <c r="B114">
-        <v>228.5800018310547</v>
+        <v>246.3500061035156</v>
       </c>
       <c r="C114">
-        <v>212.9600067138672</v>
+        <v>236.3200073242188</v>
       </c>
       <c r="D114">
-        <v>228.3999938964844</v>
+        <v>243.1900024414062</v>
       </c>
       <c r="E114">
-        <v>228.3999938964844</v>
+        <v>243.1900024414062</v>
       </c>
       <c r="F114">
-        <v>54377400</v>
+        <v>35432800</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>231.8200073242188</v>
+        <v>243.7200012207031</v>
       </c>
       <c r="B115">
-        <v>245.0899963378906</v>
+        <v>251.8200073242188</v>
       </c>
       <c r="C115">
-        <v>230.5200042724609</v>
+        <v>242.0200042724609</v>
       </c>
       <c r="D115">
-        <v>244.8600006103516</v>
+        <v>247.2799987792969</v>
       </c>
       <c r="E115">
-        <v>244.8600006103516</v>
+        <v>247.2799987792969</v>
       </c>
       <c r="F115">
-        <v>56468000</v>
+        <v>37686800</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>251.0399932861328</v>
+        <v>243.5899963378906</v>
       </c>
       <c r="B116">
-        <v>251.4499969482422</v>
+        <v>252.3000030517578</v>
       </c>
       <c r="C116">
-        <v>238.8999938964844</v>
+        <v>239.8000030517578</v>
       </c>
       <c r="D116">
-        <v>246.3800048828125</v>
+        <v>251.0800018310547</v>
       </c>
       <c r="E116">
-        <v>246.3800048828125</v>
+        <v>251.0800018310547</v>
       </c>
       <c r="F116">
-        <v>51892500</v>
+        <v>41035900</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>257.9400024414062</v>
+        <v>256.2200012207031</v>
       </c>
       <c r="B117">
-        <v>258.1700134277344</v>
+        <v>267.25</v>
       </c>
       <c r="C117">
-        <v>245.5299987792969</v>
+        <v>253.5299987792969</v>
       </c>
       <c r="D117">
-        <v>252.4199981689453</v>
+        <v>267.0499877929688</v>
       </c>
       <c r="E117">
-        <v>252.4199981689453</v>
+        <v>267.0499877929688</v>
       </c>
       <c r="F117">
-        <v>54341900</v>
+        <v>52428200</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>244.5800018310547</v>
+        <v>259.9500122070312</v>
       </c>
       <c r="B118">
-        <v>250.7700042724609</v>
+        <v>269.25</v>
       </c>
       <c r="C118">
-        <v>237.8000030517578</v>
+        <v>256</v>
       </c>
       <c r="D118">
-        <v>239.4799957275391</v>
+        <v>258.239990234375</v>
       </c>
       <c r="E118">
-        <v>239.4799957275391</v>
+        <v>258.239990234375</v>
       </c>
       <c r="F118">
-        <v>41017800</v>
+        <v>51320000</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>239.7200012207031</v>
+        <v>259.1600036621094</v>
       </c>
       <c r="B119">
-        <v>246.3500061035156</v>
+        <v>261.5199890136719</v>
       </c>
       <c r="C119">
-        <v>236.3200073242188</v>
+        <v>237.7299957275391</v>
       </c>
       <c r="D119">
-        <v>243.1900024414062</v>
+        <v>239.4900054931641</v>
       </c>
       <c r="E119">
-        <v>243.1900024414062</v>
+        <v>239.4900054931641</v>
       </c>
       <c r="F119">
-        <v>35432800</v>
+        <v>60424800</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>243.7200012207031</v>
+        <v>239.3399963378906</v>
       </c>
       <c r="B120">
-        <v>251.8200073242188</v>
+        <v>248.75</v>
       </c>
       <c r="C120">
-        <v>242.0200042724609</v>
+        <v>237.5500030517578</v>
       </c>
       <c r="D120">
-        <v>247.2799987792969</v>
+        <v>242.6699981689453</v>
       </c>
       <c r="E120">
-        <v>247.2799987792969</v>
+        <v>242.6699981689453</v>
       </c>
       <c r="F120">
-        <v>37686800</v>
+        <v>44042400</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>243.5899963378906</v>
+        <v>249.4900054931641</v>
       </c>
       <c r="B121">
-        <v>252.3000030517578</v>
+        <v>265.4500122070312</v>
       </c>
       <c r="C121">
-        <v>239.8000030517578</v>
+        <v>247.8399963378906</v>
       </c>
       <c r="D121">
-        <v>251.0800018310547</v>
+        <v>264.9500122070312</v>
       </c>
       <c r="E121">
-        <v>251.0800018310547</v>
+        <v>264.9500122070312</v>
       </c>
       <c r="F121">
-        <v>41035900</v>
+        <v>70175300</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>256.2200012207031</v>
+        <v>262.5899963378906</v>
       </c>
       <c r="B122">
-        <v>267.25</v>
+        <v>265.8200073242188</v>
       </c>
       <c r="C122">
-        <v>253.5299987792969</v>
+        <v>255.5200042724609</v>
       </c>
       <c r="D122">
-        <v>267.0499877929688</v>
+        <v>265.1099853515625</v>
       </c>
       <c r="E122">
-        <v>267.0499877929688</v>
+        <v>265.1099853515625</v>
       </c>
       <c r="F122">
-        <v>52428200</v>
+        <v>73267600</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>259.9500122070312</v>
+        <v>256.2999877929688</v>
       </c>
       <c r="B123">
-        <v>269.25</v>
+        <v>257.8500061035156</v>
       </c>
       <c r="C123">
-        <v>256</v>
+        <v>241.6499938964844</v>
       </c>
       <c r="D123">
-        <v>258.239990234375</v>
+        <v>245.0700073242188</v>
       </c>
       <c r="E123">
-        <v>258.239990234375</v>
+        <v>245.0700073242188</v>
       </c>
       <c r="F123">
-        <v>51320000</v>
+        <v>81059500</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>259.1600036621094</v>
+        <v>246.6799926757812</v>
       </c>
       <c r="B124">
-        <v>261.5199890136719</v>
+        <v>249.8600006103516</v>
       </c>
       <c r="C124">
-        <v>237.7299957275391</v>
+        <v>231</v>
       </c>
       <c r="D124">
-        <v>239.4900054931641</v>
+        <v>236.4199981689453</v>
       </c>
       <c r="E124">
-        <v>239.4900054931641</v>
+        <v>236.4199981689453</v>
       </c>
       <c r="F124">
-        <v>60424800</v>
+        <v>75966400</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>239.3399963378906</v>
+        <v>230.3500061035156</v>
       </c>
       <c r="B125">
-        <v>248.75</v>
+        <v>240.6399993896484</v>
       </c>
       <c r="C125">
-        <v>237.5500030517578</v>
+        <v>230</v>
       </c>
       <c r="D125">
-        <v>242.6699981689453</v>
+        <v>233.8999938964844</v>
       </c>
       <c r="E125">
-        <v>242.6699981689453</v>
+        <v>233.8999938964844</v>
       </c>
       <c r="F125">
-        <v>44042400</v>
+        <v>63342200</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>249.4900054931641</v>
+        <v>238.0200042724609</v>
       </c>
       <c r="B126">
-        <v>265.4500122070312</v>
+        <v>241.5500030517578</v>
       </c>
       <c r="C126">
-        <v>247.8399963378906</v>
+        <v>223.0099945068359</v>
       </c>
       <c r="D126">
-        <v>264.9500122070312</v>
+        <v>223.8699951171875</v>
       </c>
       <c r="E126">
-        <v>264.9500122070312</v>
+        <v>223.8699951171875</v>
       </c>
       <c r="F126">
-        <v>70175300</v>
+        <v>56651100</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>262.5899963378906</v>
+        <v>210.1499938964844</v>
       </c>
       <c r="B127">
-        <v>265.8200073242188</v>
+        <v>238</v>
       </c>
       <c r="C127">
-        <v>255.5200042724609</v>
+        <v>208.8999938964844</v>
       </c>
       <c r="D127">
-        <v>265.1099853515625</v>
+        <v>237.4799957275391</v>
       </c>
       <c r="E127">
-        <v>265.1099853515625</v>
+        <v>237.4799957275391</v>
       </c>
       <c r="F127">
-        <v>73267600</v>
+        <v>73580100</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>256.2999877929688</v>
+        <v>237.2100067138672</v>
       </c>
       <c r="B128">
-        <v>257.8500061035156</v>
+        <v>242.1699981689453</v>
       </c>
       <c r="C128">
-        <v>241.6499938964844</v>
+        <v>233.8099975585938</v>
       </c>
       <c r="D128">
-        <v>245.0700073242188</v>
+        <v>241.5700073242188</v>
       </c>
       <c r="E128">
-        <v>245.0700073242188</v>
+        <v>241.5700073242188</v>
       </c>
       <c r="F128">
-        <v>81059500</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>246.6799926757812</v>
-      </c>
-      <c r="B129">
-        <v>249.8600006103516</v>
-      </c>
-      <c r="C129">
-        <v>231</v>
-      </c>
-      <c r="D129">
-        <v>236.4199981689453</v>
-      </c>
-      <c r="E129">
-        <v>236.4199981689453</v>
-      </c>
-      <c r="F129">
-        <v>75966400</v>
+        <v>52830700</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/NVDA/HighLow.xlsx
+++ b/Stocks/NVDA/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2542 +417,2502 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>222</v>
+        <v>228.3300018310547</v>
       </c>
       <c r="B2">
-        <v>223.3999938964844</v>
+        <v>228.9900054931641</v>
       </c>
       <c r="C2">
-        <v>217.8999938964844</v>
+        <v>225.2200012207031</v>
       </c>
       <c r="D2">
-        <v>220.6799926757812</v>
+        <v>226.6199951171875</v>
       </c>
       <c r="E2">
-        <v>220.6140594482422</v>
+        <v>226.5536499023438</v>
       </c>
       <c r="F2">
-        <v>23794000</v>
+        <v>19810700</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>221.8399963378906</v>
+        <v>225.1300048828125</v>
       </c>
       <c r="B3">
-        <v>227.2200012207031</v>
+        <v>226.1000061035156</v>
       </c>
       <c r="C3">
-        <v>221.6699981689453</v>
+        <v>219.7700042724609</v>
       </c>
       <c r="D3">
-        <v>226.3600006103516</v>
+        <v>223.3899993896484</v>
       </c>
       <c r="E3">
-        <v>226.2923889160156</v>
+        <v>223.3246002197266</v>
       </c>
       <c r="F3">
-        <v>30426700</v>
+        <v>25443400</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>228.3000030517578</v>
+        <v>223.1199951171875</v>
       </c>
       <c r="B4">
-        <v>230.4299926757812</v>
+        <v>225.3800048828125</v>
       </c>
       <c r="C4">
-        <v>225.5099945068359</v>
+        <v>221.3099975585938</v>
       </c>
       <c r="D4">
-        <v>226.8800048828125</v>
+        <v>221.7700042724609</v>
       </c>
       <c r="E4">
-        <v>226.8122406005859</v>
+        <v>221.705078125</v>
       </c>
       <c r="F4">
-        <v>26258000</v>
+        <v>19685600</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>226.9499969482422</v>
+        <v>223.4799957275391</v>
       </c>
       <c r="B5">
-        <v>226.9499969482422</v>
+        <v>226.2599945068359</v>
       </c>
       <c r="C5">
-        <v>221.1999969482422</v>
+        <v>222.6999969482422</v>
       </c>
       <c r="D5">
-        <v>223.8500061035156</v>
+        <v>224.7799987792969</v>
       </c>
       <c r="E5">
-        <v>223.8226013183594</v>
+        <v>224.7141876220703</v>
       </c>
       <c r="F5">
-        <v>25985000</v>
+        <v>24814900</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>224.8500061035156</v>
+        <v>226.8399963378906</v>
       </c>
       <c r="B6">
-        <v>226.9700012207031</v>
+        <v>229.6399993896484</v>
       </c>
       <c r="C6">
-        <v>223.5700073242188</v>
+        <v>218.5800018310547</v>
       </c>
       <c r="D6">
-        <v>224.4100036621094</v>
+        <v>221.5200042724609</v>
       </c>
       <c r="E6">
-        <v>224.3825225830078</v>
+        <v>221.4551544189453</v>
       </c>
       <c r="F6">
-        <v>20176700</v>
+        <v>29750000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>225.1799926757812</v>
+        <v>222.75</v>
       </c>
       <c r="B7">
-        <v>225.9299926757812</v>
+        <v>224.1000061035156</v>
       </c>
       <c r="C7">
-        <v>222.9499969482422</v>
+        <v>220.8600006103516</v>
       </c>
       <c r="D7">
-        <v>223.9600067138672</v>
+        <v>222.4199981689453</v>
       </c>
       <c r="E7">
-        <v>223.9325866699219</v>
+        <v>222.3548736572266</v>
       </c>
       <c r="F7">
-        <v>18783400</v>
+        <v>19975500</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>223.25</v>
+        <v>223.0899963378906</v>
       </c>
       <c r="B8">
-        <v>229.8600006103516</v>
+        <v>223.6699981689453</v>
       </c>
       <c r="C8">
-        <v>222</v>
+        <v>219.6600036621094</v>
       </c>
       <c r="D8">
-        <v>228.4299926757812</v>
+        <v>223.4100036621094</v>
       </c>
       <c r="E8">
-        <v>228.4020233154297</v>
+        <v>223.3445892333984</v>
       </c>
       <c r="F8">
-        <v>28053200</v>
+        <v>16653800</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>228.3300018310547</v>
+        <v>221.8300018310547</v>
       </c>
       <c r="B9">
-        <v>228.9900054931641</v>
+        <v>222.7700042724609</v>
       </c>
       <c r="C9">
-        <v>225.2200012207031</v>
+        <v>219.2700042724609</v>
       </c>
       <c r="D9">
-        <v>226.6199951171875</v>
+        <v>222.4199981689453</v>
       </c>
       <c r="E9">
-        <v>226.5922546386719</v>
+        <v>222.3548736572266</v>
       </c>
       <c r="F9">
-        <v>19810700</v>
+        <v>15603300</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>225.1300048828125</v>
+        <v>223</v>
       </c>
       <c r="B10">
-        <v>226.1000061035156</v>
+        <v>223.2100067138672</v>
       </c>
       <c r="C10">
-        <v>219.7700042724609</v>
+        <v>218.3000030517578</v>
       </c>
       <c r="D10">
-        <v>223.3899993896484</v>
+        <v>219</v>
       </c>
       <c r="E10">
-        <v>223.3626556396484</v>
+        <v>218.9358825683594</v>
       </c>
       <c r="F10">
-        <v>25443400</v>
+        <v>29450300</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>223.1199951171875</v>
+        <v>211.4600067138672</v>
       </c>
       <c r="B11">
-        <v>225.3800048828125</v>
+        <v>214.3300018310547</v>
       </c>
       <c r="C11">
-        <v>221.3099975585938</v>
+        <v>206.6199951171875</v>
       </c>
       <c r="D11">
-        <v>221.7700042724609</v>
+        <v>211.1300048828125</v>
       </c>
       <c r="E11">
-        <v>221.7428588867188</v>
+        <v>211.0681915283203</v>
       </c>
       <c r="F11">
-        <v>19685600</v>
+        <v>34944000</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>223.4799957275391</v>
+        <v>214.1699981689453</v>
       </c>
       <c r="B12">
-        <v>226.2599945068359</v>
+        <v>214.25</v>
       </c>
       <c r="C12">
-        <v>222.6999969482422</v>
+        <v>209.5</v>
       </c>
       <c r="D12">
-        <v>224.7799987792969</v>
+        <v>212.4600067138672</v>
       </c>
       <c r="E12">
-        <v>224.7524719238281</v>
+        <v>212.3977966308594</v>
       </c>
       <c r="F12">
-        <v>24814900</v>
+        <v>20468800</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>226.8399963378906</v>
+        <v>213.6600036621094</v>
       </c>
       <c r="B13">
-        <v>229.6399993896484</v>
+        <v>219.6000061035156</v>
       </c>
       <c r="C13">
-        <v>218.5800018310547</v>
+        <v>211.9600067138672</v>
       </c>
       <c r="D13">
-        <v>221.5200042724609</v>
+        <v>219.4100036621094</v>
       </c>
       <c r="E13">
-        <v>221.4928894042969</v>
+        <v>219.3457794189453</v>
       </c>
       <c r="F13">
-        <v>29750000</v>
+        <v>26872600</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>222.75</v>
+        <v>221.3999938964844</v>
       </c>
       <c r="B14">
-        <v>224.1000061035156</v>
+        <v>225.3500061035156</v>
       </c>
       <c r="C14">
-        <v>220.8600006103516</v>
+        <v>218.8999938964844</v>
       </c>
       <c r="D14">
-        <v>222.4199981689453</v>
+        <v>224.8200073242188</v>
       </c>
       <c r="E14">
-        <v>222.3927612304688</v>
+        <v>224.7541809082031</v>
       </c>
       <c r="F14">
-        <v>19975500</v>
+        <v>24855500</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>223.0899963378906</v>
+        <v>220.6999969482422</v>
       </c>
       <c r="B15">
-        <v>223.6699981689453</v>
+        <v>221.4900054931641</v>
       </c>
       <c r="C15">
-        <v>219.6600036621094</v>
+        <v>218.6100006103516</v>
       </c>
       <c r="D15">
-        <v>223.4100036621094</v>
+        <v>220.8099975585938</v>
       </c>
       <c r="E15">
-        <v>223.3826446533203</v>
+        <v>220.7453460693359</v>
       </c>
       <c r="F15">
-        <v>16653800</v>
+        <v>21765500</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>221.8300018310547</v>
+        <v>217.1000061035156</v>
       </c>
       <c r="B16">
-        <v>222.7700042724609</v>
+        <v>217.9900054931641</v>
       </c>
       <c r="C16">
-        <v>219.2700042724609</v>
+        <v>213.25</v>
       </c>
       <c r="D16">
-        <v>222.4199981689453</v>
+        <v>216.6000061035156</v>
       </c>
       <c r="E16">
-        <v>222.3927612304688</v>
+        <v>216.5365905761719</v>
       </c>
       <c r="F16">
-        <v>15603300</v>
+        <v>24521500</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>223</v>
+        <v>212.1399993896484</v>
       </c>
       <c r="B17">
-        <v>223.2100067138672</v>
+        <v>214.1900024414062</v>
       </c>
       <c r="C17">
-        <v>218.3000030517578</v>
+        <v>206.5099945068359</v>
       </c>
       <c r="D17">
-        <v>219</v>
+        <v>206.9900054931641</v>
       </c>
       <c r="E17">
-        <v>218.9731903076172</v>
+        <v>206.9293975830078</v>
       </c>
       <c r="F17">
-        <v>29450300</v>
+        <v>34306900</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>211.4600067138672</v>
+        <v>209.3999938964844</v>
       </c>
       <c r="B18">
-        <v>214.3300018310547</v>
+        <v>210.1699981689453</v>
       </c>
       <c r="C18">
-        <v>206.6199951171875</v>
+        <v>204.6699981689453</v>
       </c>
       <c r="D18">
-        <v>211.1300048828125</v>
+        <v>205.1699981689453</v>
       </c>
       <c r="E18">
-        <v>211.1041564941406</v>
+        <v>205.1099395751953</v>
       </c>
       <c r="F18">
-        <v>34944000</v>
+        <v>21839400</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>214.1699981689453</v>
+        <v>207.6799926757812</v>
       </c>
       <c r="B19">
-        <v>214.25</v>
+        <v>210.6600036621094</v>
       </c>
       <c r="C19">
-        <v>209.5</v>
+        <v>206.8800048828125</v>
       </c>
       <c r="D19">
-        <v>212.4600067138672</v>
+        <v>207.1600036621094</v>
       </c>
       <c r="E19">
-        <v>212.4339904785156</v>
+        <v>207.099365234375</v>
       </c>
       <c r="F19">
-        <v>20468800</v>
+        <v>22080400</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>213.6600036621094</v>
+        <v>207.5</v>
       </c>
       <c r="B20">
-        <v>219.6000061035156</v>
+        <v>208.5899963378906</v>
       </c>
       <c r="C20">
-        <v>211.9600067138672</v>
+        <v>202.0299987792969</v>
       </c>
       <c r="D20">
-        <v>219.4100036621094</v>
+        <v>207.4199981689453</v>
       </c>
       <c r="E20">
-        <v>219.3831481933594</v>
+        <v>207.3592834472656</v>
       </c>
       <c r="F20">
-        <v>26872600</v>
+        <v>24097800</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>221.3999938964844</v>
+        <v>205.0399932861328</v>
       </c>
       <c r="B21">
-        <v>225.3500061035156</v>
+        <v>205.4199981689453</v>
       </c>
       <c r="C21">
-        <v>218.8999938964844</v>
+        <v>195.5500030517578</v>
       </c>
       <c r="D21">
-        <v>224.8200073242188</v>
+        <v>197.3200073242188</v>
       </c>
       <c r="E21">
-        <v>224.79248046875</v>
+        <v>197.2622375488281</v>
       </c>
       <c r="F21">
-        <v>24855500</v>
+        <v>34563500</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>220.6999969482422</v>
+        <v>199.5</v>
       </c>
       <c r="B22">
-        <v>221.4900054931641</v>
+        <v>206.4799957275391</v>
       </c>
       <c r="C22">
-        <v>218.6100006103516</v>
+        <v>198.5399932861328</v>
       </c>
       <c r="D22">
-        <v>220.8099975585938</v>
+        <v>204.5099945068359</v>
       </c>
       <c r="E22">
-        <v>220.782958984375</v>
+        <v>204.4501190185547</v>
       </c>
       <c r="F22">
-        <v>21765500</v>
+        <v>27928200</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>217.1000061035156</v>
+        <v>201.1999969482422</v>
       </c>
       <c r="B23">
-        <v>217.9900054931641</v>
+        <v>207.1999969482422</v>
       </c>
       <c r="C23">
-        <v>213.25</v>
+        <v>200.8000030517578</v>
       </c>
       <c r="D23">
-        <v>216.6000061035156</v>
+        <v>207</v>
       </c>
       <c r="E23">
-        <v>216.573486328125</v>
+        <v>206.9393920898438</v>
       </c>
       <c r="F23">
-        <v>24521500</v>
+        <v>29720200</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>212.1399993896484</v>
+        <v>210.9199981689453</v>
       </c>
       <c r="B24">
-        <v>214.1900024414062</v>
+        <v>213.2200012207031</v>
       </c>
       <c r="C24">
-        <v>206.5099945068359</v>
+        <v>209.7200012207031</v>
       </c>
       <c r="D24">
-        <v>206.9900054931641</v>
+        <v>210.75</v>
       </c>
       <c r="E24">
-        <v>206.9646606445312</v>
+        <v>210.6882934570312</v>
       </c>
       <c r="F24">
-        <v>34306900</v>
+        <v>25691900</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>209.3999938964844</v>
+        <v>211.0099945068359</v>
       </c>
       <c r="B25">
-        <v>210.1699981689453</v>
+        <v>212.0599975585938</v>
       </c>
       <c r="C25">
-        <v>204.6699981689453</v>
+        <v>207.75</v>
       </c>
       <c r="D25">
-        <v>205.1699981689453</v>
+        <v>208.3099975585938</v>
       </c>
       <c r="E25">
-        <v>205.1448822021484</v>
+        <v>208.2490234375</v>
       </c>
       <c r="F25">
-        <v>21839400</v>
+        <v>15102500</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>207.6799926757812</v>
+        <v>205.75</v>
       </c>
       <c r="B26">
-        <v>210.6600036621094</v>
+        <v>210.6300048828125</v>
       </c>
       <c r="C26">
-        <v>206.8800048828125</v>
+        <v>205.1100006103516</v>
       </c>
       <c r="D26">
-        <v>207.1600036621094</v>
+        <v>206.9499969482422</v>
       </c>
       <c r="E26">
-        <v>207.1346435546875</v>
+        <v>206.8894195556641</v>
       </c>
       <c r="F26">
-        <v>22080400</v>
+        <v>16338800</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>207.5</v>
+        <v>208.2799987792969</v>
       </c>
       <c r="B27">
-        <v>208.5899963378906</v>
+        <v>210.5700073242188</v>
       </c>
       <c r="C27">
-        <v>202.0299987792969</v>
+        <v>205.2799987792969</v>
       </c>
       <c r="D27">
-        <v>207.4199981689453</v>
+        <v>206.7100067138672</v>
       </c>
       <c r="E27">
-        <v>207.3946075439453</v>
+        <v>206.6494903564453</v>
       </c>
       <c r="F27">
-        <v>24097800</v>
+        <v>16213400</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>205.0399932861328</v>
+        <v>209.1799926757812</v>
       </c>
       <c r="B28">
-        <v>205.4199981689453</v>
+        <v>209.8999938964844</v>
       </c>
       <c r="C28">
-        <v>195.5500030517578</v>
+        <v>207.1300048828125</v>
       </c>
       <c r="D28">
-        <v>197.3200073242188</v>
+        <v>209.3899993896484</v>
       </c>
       <c r="E28">
-        <v>197.2958526611328</v>
+        <v>209.3287048339844</v>
       </c>
       <c r="F28">
-        <v>34563500</v>
+        <v>18065200</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>199.5</v>
+        <v>212.8800048828125</v>
       </c>
       <c r="B29">
-        <v>206.4799957275391</v>
+        <v>217.5500030517578</v>
       </c>
       <c r="C29">
-        <v>198.5399932861328</v>
+        <v>211.2200012207031</v>
       </c>
       <c r="D29">
-        <v>204.5099945068359</v>
+        <v>217.4600067138672</v>
       </c>
       <c r="E29">
-        <v>204.4849548339844</v>
+        <v>217.3963470458984</v>
       </c>
       <c r="F29">
-        <v>27928200</v>
+        <v>24358900</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>201.1999969482422</v>
+        <v>218.1000061035156</v>
       </c>
       <c r="B30">
-        <v>207.1999969482422</v>
+        <v>219.3099975585938</v>
       </c>
       <c r="C30">
-        <v>200.8000030517578</v>
+        <v>216.6199951171875</v>
       </c>
       <c r="D30">
-        <v>207</v>
+        <v>218.6199951171875</v>
       </c>
       <c r="E30">
-        <v>206.9746551513672</v>
+        <v>218.5559997558594</v>
       </c>
       <c r="F30">
-        <v>29720200</v>
+        <v>22679500</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>210.9199981689453</v>
+        <v>217.4900054931641</v>
       </c>
       <c r="B31">
-        <v>213.2200012207031</v>
+        <v>222.9100036621094</v>
       </c>
       <c r="C31">
-        <v>209.7200012207031</v>
+        <v>216.4400024414062</v>
       </c>
       <c r="D31">
-        <v>210.75</v>
+        <v>222.2200012207031</v>
       </c>
       <c r="E31">
-        <v>210.7241973876953</v>
+        <v>222.1549377441406</v>
       </c>
       <c r="F31">
-        <v>25691900</v>
+        <v>18949400</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>211.0099945068359</v>
+        <v>222.7599945068359</v>
       </c>
       <c r="B32">
-        <v>212.0599975585938</v>
+        <v>223.7899932861328</v>
       </c>
       <c r="C32">
-        <v>207.75</v>
+        <v>220.3699951171875</v>
       </c>
       <c r="D32">
-        <v>208.3099975585938</v>
+        <v>222.8999938964844</v>
       </c>
       <c r="E32">
-        <v>208.2845001220703</v>
+        <v>222.8347473144531</v>
       </c>
       <c r="F32">
-        <v>15102500</v>
+        <v>16147300</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>205.75</v>
+        <v>223.0500030517578</v>
       </c>
       <c r="B33">
-        <v>210.6300048828125</v>
+        <v>224.3300018310547</v>
       </c>
       <c r="C33">
-        <v>205.1100006103516</v>
+        <v>219.8200073242188</v>
       </c>
       <c r="D33">
-        <v>206.9499969482422</v>
+        <v>221.0299987792969</v>
       </c>
       <c r="E33">
-        <v>206.9246673583984</v>
+        <v>220.9653015136719</v>
       </c>
       <c r="F33">
-        <v>16338800</v>
+        <v>14627600</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>208.2799987792969</v>
+        <v>220.9700012207031</v>
       </c>
       <c r="B34">
-        <v>210.5700073242188</v>
+        <v>227.1100006103516</v>
       </c>
       <c r="C34">
-        <v>205.2799987792969</v>
+        <v>220.8300018310547</v>
       </c>
       <c r="D34">
-        <v>206.7100067138672</v>
+        <v>226.9199981689453</v>
       </c>
       <c r="E34">
-        <v>206.6846923828125</v>
+        <v>226.8535614013672</v>
       </c>
       <c r="F34">
-        <v>16213400</v>
+        <v>18759000</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>209.1799926757812</v>
+        <v>228.2299957275391</v>
       </c>
       <c r="B35">
-        <v>209.8999938964844</v>
+        <v>231.3000030517578</v>
       </c>
       <c r="C35">
-        <v>207.1300048828125</v>
+        <v>225.6100006103516</v>
       </c>
       <c r="D35">
-        <v>209.3899993896484</v>
+        <v>227.2599945068359</v>
       </c>
       <c r="E35">
-        <v>209.3643646240234</v>
+        <v>227.1934661865234</v>
       </c>
       <c r="F35">
-        <v>18065200</v>
+        <v>24938400</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>212.8800048828125</v>
+        <v>229.7299957275391</v>
       </c>
       <c r="B36">
-        <v>217.5500030517578</v>
+        <v>233.5500030517578</v>
       </c>
       <c r="C36">
-        <v>211.2200012207031</v>
+        <v>227.6999969482422</v>
       </c>
       <c r="D36">
-        <v>217.4600067138672</v>
+        <v>231.6600036621094</v>
       </c>
       <c r="E36">
-        <v>217.4333801269531</v>
+        <v>231.5921783447266</v>
       </c>
       <c r="F36">
-        <v>24358900</v>
+        <v>23023500</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>218.1000061035156</v>
+        <v>239.8899993896484</v>
       </c>
       <c r="B37">
-        <v>219.3099975585938</v>
+        <v>252.5899963378906</v>
       </c>
       <c r="C37">
-        <v>216.6199951171875</v>
+        <v>239.2400054931641</v>
       </c>
       <c r="D37">
-        <v>218.6199951171875</v>
+        <v>247.1699981689453</v>
       </c>
       <c r="E37">
-        <v>218.5932312011719</v>
+        <v>247.0976409912109</v>
       </c>
       <c r="F37">
-        <v>22679500</v>
+        <v>48589800</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>217.4900054931641</v>
+        <v>244.7400054931641</v>
       </c>
       <c r="B38">
-        <v>222.9100036621094</v>
+        <v>250.8999938964844</v>
       </c>
       <c r="C38">
-        <v>216.4400024414062</v>
+        <v>242.8200073242188</v>
       </c>
       <c r="D38">
-        <v>222.2200012207031</v>
+        <v>244.5099945068359</v>
       </c>
       <c r="E38">
-        <v>222.1927947998047</v>
+        <v>244.4384155273438</v>
       </c>
       <c r="F38">
-        <v>18949400</v>
+        <v>24599000</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>222.7599945068359</v>
+        <v>248.7799987792969</v>
       </c>
       <c r="B39">
-        <v>223.7899932861328</v>
+        <v>249.5</v>
       </c>
       <c r="C39">
-        <v>220.3699951171875</v>
+        <v>245.2299957275391</v>
       </c>
       <c r="D39">
-        <v>222.8999938964844</v>
+        <v>249.4100036621094</v>
       </c>
       <c r="E39">
-        <v>222.8727111816406</v>
+        <v>249.3369903564453</v>
       </c>
       <c r="F39">
-        <v>16147300</v>
+        <v>23420400</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>223.0500030517578</v>
+        <v>250.0099945068359</v>
       </c>
       <c r="B40">
-        <v>224.3300018310547</v>
+        <v>257.0899963378906</v>
       </c>
       <c r="C40">
-        <v>219.8200073242188</v>
+        <v>250</v>
       </c>
       <c r="D40">
-        <v>221.0299987792969</v>
+        <v>255.6699981689453</v>
       </c>
       <c r="E40">
-        <v>221.0029449462891</v>
+        <v>255.5951538085938</v>
       </c>
       <c r="F40">
-        <v>14627600</v>
+        <v>29213700</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>220.9700012207031</v>
+        <v>256.489990234375</v>
       </c>
       <c r="B41">
-        <v>227.1100006103516</v>
+        <v>258.9400024414062</v>
       </c>
       <c r="C41">
-        <v>220.8300018310547</v>
+        <v>252.2700042724609</v>
       </c>
       <c r="D41">
-        <v>226.9199981689453</v>
+        <v>258.2699890136719</v>
       </c>
       <c r="E41">
-        <v>226.8922119140625</v>
+        <v>258.1943969726562</v>
       </c>
       <c r="F41">
-        <v>18759000</v>
+        <v>26574000</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>228.2299957275391</v>
+        <v>258.2200012207031</v>
       </c>
       <c r="B42">
-        <v>231.3000030517578</v>
+        <v>266.7799987792969</v>
       </c>
       <c r="C42">
-        <v>225.6100006103516</v>
+        <v>258</v>
       </c>
       <c r="D42">
-        <v>227.2599945068359</v>
+        <v>264.010009765625</v>
       </c>
       <c r="E42">
-        <v>227.232177734375</v>
+        <v>263.9327087402344</v>
       </c>
       <c r="F42">
-        <v>24938400</v>
+        <v>29411200</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>229.7299957275391</v>
+        <v>266.7000122070312</v>
       </c>
       <c r="B43">
-        <v>233.5500030517578</v>
+        <v>267.8399963378906</v>
       </c>
       <c r="C43">
-        <v>227.6999969482422</v>
+        <v>262.3500061035156</v>
       </c>
       <c r="D43">
-        <v>231.6600036621094</v>
+        <v>265.9800109863281</v>
       </c>
       <c r="E43">
-        <v>231.6316375732422</v>
+        <v>265.9021301269531</v>
       </c>
       <c r="F43">
-        <v>23023500</v>
+        <v>23991000</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>239.8899993896484</v>
+        <v>272.2900085449219</v>
       </c>
       <c r="B44">
-        <v>252.5899963378906</v>
+        <v>313.6499938964844</v>
       </c>
       <c r="C44">
-        <v>239.2400054931641</v>
+        <v>271.1799926757812</v>
       </c>
       <c r="D44">
-        <v>247.1699981689453</v>
+        <v>298.010009765625</v>
       </c>
       <c r="E44">
-        <v>247.1397399902344</v>
+        <v>297.9227600097656</v>
       </c>
       <c r="F44">
-        <v>48589800</v>
+        <v>115363100</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>244.7400054931641</v>
+        <v>301.8699951171875</v>
       </c>
       <c r="B45">
-        <v>250.8999938964844</v>
+        <v>314</v>
       </c>
       <c r="C45">
-        <v>242.8200073242188</v>
+        <v>294.1000061035156</v>
       </c>
       <c r="D45">
-        <v>244.5099945068359</v>
+        <v>297.5199890136719</v>
       </c>
       <c r="E45">
-        <v>244.4800567626953</v>
+        <v>297.432861328125</v>
       </c>
       <c r="F45">
-        <v>24599000</v>
+        <v>85072800</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>248.7799987792969</v>
+        <v>301.489990234375</v>
       </c>
       <c r="B46">
-        <v>249.5</v>
+        <v>311</v>
       </c>
       <c r="C46">
-        <v>245.2299957275391</v>
+        <v>299.0700073242188</v>
       </c>
       <c r="D46">
-        <v>249.4100036621094</v>
+        <v>308.0400085449219</v>
       </c>
       <c r="E46">
-        <v>249.3794708251953</v>
+        <v>307.9498291015625</v>
       </c>
       <c r="F46">
-        <v>23420400</v>
+        <v>50310100</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>250.0099945068359</v>
+        <v>322.8200073242188</v>
       </c>
       <c r="B47">
-        <v>257.0899963378906</v>
+        <v>323.1000061035156</v>
       </c>
       <c r="C47">
-        <v>250</v>
+        <v>299.6400146484375</v>
       </c>
       <c r="D47">
-        <v>255.6699981689453</v>
+        <v>306.5700073242188</v>
       </c>
       <c r="E47">
-        <v>255.6387023925781</v>
+        <v>306.4802551269531</v>
       </c>
       <c r="F47">
-        <v>29213700</v>
+        <v>64674600</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>256.489990234375</v>
+        <v>293.5599975585938</v>
       </c>
       <c r="B48">
-        <v>258.9400024414062</v>
+        <v>308.5</v>
       </c>
       <c r="C48">
-        <v>252.2700042724609</v>
+        <v>287.7799987792969</v>
       </c>
       <c r="D48">
-        <v>258.2699890136719</v>
+        <v>294.5899963378906</v>
       </c>
       <c r="E48">
-        <v>258.2383728027344</v>
+        <v>294.5037536621094</v>
       </c>
       <c r="F48">
-        <v>26574000</v>
+        <v>63620600</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>258.2200012207031</v>
+        <v>304.6799926757812</v>
       </c>
       <c r="B49">
-        <v>266.7799987792969</v>
+        <v>305.8999938964844</v>
       </c>
       <c r="C49">
-        <v>258</v>
+        <v>297.7699890136719</v>
       </c>
       <c r="D49">
-        <v>264.010009765625</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="E49">
-        <v>263.9776916503906</v>
+        <v>303.81103515625</v>
       </c>
       <c r="F49">
-        <v>29411200</v>
+        <v>33217200</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>266.7000122070312</v>
+        <v>300.1000061035156</v>
       </c>
       <c r="B50">
-        <v>267.8399963378906</v>
+        <v>306.7999877929688</v>
       </c>
       <c r="C50">
-        <v>262.3500061035156</v>
+        <v>296.2999877929688</v>
       </c>
       <c r="D50">
-        <v>265.9800109863281</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="E50">
-        <v>265.9474487304688</v>
+        <v>303.81103515625</v>
       </c>
       <c r="F50">
-        <v>23991000</v>
+        <v>41215100</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>272.2900085449219</v>
+        <v>305.5199890136719</v>
       </c>
       <c r="B51">
-        <v>313.6499938964844</v>
+        <v>306.4400024414062</v>
       </c>
       <c r="C51">
-        <v>271.1799926757812</v>
+        <v>292.4700012207031</v>
       </c>
       <c r="D51">
-        <v>298.010009765625</v>
+        <v>300.25</v>
       </c>
       <c r="E51">
-        <v>297.9735107421875</v>
+        <v>300.1620788574219</v>
       </c>
       <c r="F51">
-        <v>115363100</v>
+        <v>38490900</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>301.8699951171875</v>
+        <v>297.5899963378906</v>
       </c>
       <c r="B52">
-        <v>314</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="C52">
-        <v>294.1000061035156</v>
+        <v>297.0599975585938</v>
       </c>
       <c r="D52">
-        <v>297.5199890136719</v>
+        <v>302.0299987792969</v>
       </c>
       <c r="E52">
-        <v>297.4835510253906</v>
+        <v>301.9415588378906</v>
       </c>
       <c r="F52">
-        <v>85072800</v>
+        <v>26448400</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>301.489990234375</v>
+        <v>304.1799926757812</v>
       </c>
       <c r="B53">
-        <v>311</v>
+        <v>305.0899963378906</v>
       </c>
       <c r="C53">
-        <v>299.0700073242188</v>
+        <v>288</v>
       </c>
       <c r="D53">
-        <v>308.0400085449219</v>
+        <v>292.6099853515625</v>
       </c>
       <c r="E53">
-        <v>308.0022888183594</v>
+        <v>292.5243225097656</v>
       </c>
       <c r="F53">
-        <v>50310100</v>
+        <v>42850800</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>322.8200073242188</v>
+        <v>323.6700134277344</v>
       </c>
       <c r="B54">
-        <v>323.1000061035156</v>
+        <v>327.6000061035156</v>
       </c>
       <c r="C54">
-        <v>299.6400146484375</v>
+        <v>313.2099914550781</v>
       </c>
       <c r="D54">
-        <v>306.5700073242188</v>
+        <v>316.75</v>
       </c>
       <c r="E54">
-        <v>306.532470703125</v>
+        <v>316.6572570800781</v>
       </c>
       <c r="F54">
-        <v>64674600</v>
+        <v>78171100</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>293.5599975585938</v>
+        <v>322.4299926757812</v>
       </c>
       <c r="B55">
-        <v>308.5</v>
+        <v>330.8800048828125</v>
       </c>
       <c r="C55">
-        <v>287.7799987792969</v>
+        <v>319.0499877929688</v>
       </c>
       <c r="D55">
-        <v>294.5899963378906</v>
+        <v>329.8500061035156</v>
       </c>
       <c r="E55">
-        <v>294.5539245605469</v>
+        <v>329.7534484863281</v>
       </c>
       <c r="F55">
-        <v>63620600</v>
+        <v>53386700</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>304.6799926757812</v>
+        <v>335.1700134277344</v>
       </c>
       <c r="B56">
-        <v>305.8999938964844</v>
+        <v>346.4700012207031</v>
       </c>
       <c r="C56">
-        <v>297.7699890136719</v>
+        <v>319</v>
       </c>
       <c r="D56">
-        <v>303.8999938964844</v>
+        <v>319.5599975585938</v>
       </c>
       <c r="E56">
-        <v>303.86279296875</v>
+        <v>319.4664306640625</v>
       </c>
       <c r="F56">
-        <v>33217200</v>
+        <v>75433500</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>300.1000061035156</v>
+        <v>315.3500061035156</v>
       </c>
       <c r="B57">
-        <v>306.7999877929688</v>
+        <v>323.6000061035156</v>
       </c>
       <c r="C57">
-        <v>296.2999877929688</v>
+        <v>308.7999877929688</v>
       </c>
       <c r="D57">
-        <v>303.8999938964844</v>
+        <v>317.4599914550781</v>
       </c>
       <c r="E57">
-        <v>303.86279296875</v>
+        <v>317.3670349121094</v>
       </c>
       <c r="F57">
-        <v>41215100</v>
+        <v>53216300</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>305.5199890136719</v>
+        <v>314.6099853515625</v>
       </c>
       <c r="B58">
-        <v>306.4400024414062</v>
+        <v>328.5499877929688</v>
       </c>
       <c r="C58">
-        <v>292.4700012207031</v>
+        <v>309.2799987792969</v>
       </c>
       <c r="D58">
-        <v>300.25</v>
+        <v>326.739990234375</v>
       </c>
       <c r="E58">
-        <v>300.2132263183594</v>
+        <v>326.6443176269531</v>
       </c>
       <c r="F58">
-        <v>38490900</v>
+        <v>43516200</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>297.5899963378906</v>
+        <v>326</v>
       </c>
       <c r="B59">
-        <v>303.8999938964844</v>
+        <v>327.1000061035156</v>
       </c>
       <c r="C59">
-        <v>297.0599975585938</v>
+        <v>313.5</v>
       </c>
       <c r="D59">
-        <v>302.0299987792969</v>
+        <v>315.0299987792969</v>
       </c>
       <c r="E59">
-        <v>301.9930114746094</v>
+        <v>314.9377746582031</v>
       </c>
       <c r="F59">
-        <v>26448400</v>
+        <v>28306900</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>304.1799926757812</v>
+        <v>323.6600036621094</v>
       </c>
       <c r="B60">
-        <v>305.0899963378906</v>
+        <v>334.1199951171875</v>
       </c>
       <c r="C60">
-        <v>288</v>
+        <v>320.3599853515625</v>
       </c>
       <c r="D60">
-        <v>292.6099853515625</v>
+        <v>333.760009765625</v>
       </c>
       <c r="E60">
-        <v>292.5741577148438</v>
+        <v>333.6622924804688</v>
       </c>
       <c r="F60">
-        <v>42850800</v>
+        <v>45496400</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>323.6700134277344</v>
+        <v>331.6900024414062</v>
       </c>
       <c r="B61">
-        <v>327.6000061035156</v>
+        <v>333.5299987792969</v>
       </c>
       <c r="C61">
-        <v>313.2099914550781</v>
+        <v>318.6400146484375</v>
       </c>
       <c r="D61">
-        <v>316.75</v>
+        <v>326.760009765625</v>
       </c>
       <c r="E61">
-        <v>316.7112121582031</v>
+        <v>326.6643371582031</v>
       </c>
       <c r="F61">
-        <v>78171100</v>
+        <v>62206600</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>322.4299926757812</v>
+        <v>332.1900024414062</v>
       </c>
       <c r="B62">
-        <v>330.8800048828125</v>
+        <v>332.8900146484375</v>
       </c>
       <c r="C62">
-        <v>319.0499877929688</v>
+        <v>313.7999877929688</v>
       </c>
       <c r="D62">
-        <v>329.8500061035156</v>
+        <v>314.3500061035156</v>
       </c>
       <c r="E62">
-        <v>329.8096313476562</v>
+        <v>314.2964477539062</v>
       </c>
       <c r="F62">
-        <v>53386700</v>
+        <v>48436800</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>335.1700134277344</v>
+        <v>312.1400146484375</v>
       </c>
       <c r="B63">
-        <v>346.4700012207031</v>
+        <v>324.7799987792969</v>
       </c>
       <c r="C63">
-        <v>319</v>
+        <v>310.25</v>
       </c>
       <c r="D63">
-        <v>319.5599975585938</v>
+        <v>321.260009765625</v>
       </c>
       <c r="E63">
-        <v>319.5208740234375</v>
+        <v>321.2052917480469</v>
       </c>
       <c r="F63">
-        <v>75433500</v>
+        <v>47289000</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>315.3500061035156</v>
+        <v>320</v>
       </c>
       <c r="B64">
-        <v>323.6000061035156</v>
+        <v>321.2900085449219</v>
       </c>
       <c r="C64">
-        <v>308.7999877929688</v>
+        <v>301.2999877929688</v>
       </c>
       <c r="D64">
-        <v>317.4599914550781</v>
+        <v>306.9299926757812</v>
       </c>
       <c r="E64">
-        <v>317.4211120605469</v>
+        <v>306.8777160644531</v>
       </c>
       <c r="F64">
-        <v>53216300</v>
+        <v>54382300</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>314.6099853515625</v>
+        <v>298.7999877929688</v>
       </c>
       <c r="B65">
-        <v>328.5499877929688</v>
+        <v>302.4100036621094</v>
       </c>
       <c r="C65">
-        <v>309.2799987792969</v>
+        <v>280.3800048828125</v>
       </c>
       <c r="D65">
-        <v>326.739990234375</v>
+        <v>300.3699951171875</v>
       </c>
       <c r="E65">
-        <v>326.6999816894531</v>
+        <v>300.3188171386719</v>
       </c>
       <c r="F65">
-        <v>43516200</v>
+        <v>65893800</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>326</v>
+        <v>309.5700073242188</v>
       </c>
       <c r="B66">
-        <v>327.1000061035156</v>
+        <v>324.489990234375</v>
       </c>
       <c r="C66">
-        <v>313.5</v>
+        <v>306.510009765625</v>
       </c>
       <c r="D66">
-        <v>315.0299987792969</v>
+        <v>324.2699890136719</v>
       </c>
       <c r="E66">
-        <v>314.9914245605469</v>
+        <v>324.2147521972656</v>
       </c>
       <c r="F66">
-        <v>28306900</v>
+        <v>59305300</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>323.6600036621094</v>
+        <v>319.989990234375</v>
       </c>
       <c r="B67">
-        <v>334.1199951171875</v>
+        <v>322.8999938964844</v>
       </c>
       <c r="C67">
-        <v>320.3599853515625</v>
+        <v>314.2099914550781</v>
       </c>
       <c r="D67">
-        <v>333.760009765625</v>
+        <v>318.260009765625</v>
       </c>
       <c r="E67">
-        <v>333.7191467285156</v>
+        <v>318.2057800292969</v>
       </c>
       <c r="F67">
-        <v>45496400</v>
+        <v>47555100</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>331.6900024414062</v>
+        <v>317.3399963378906</v>
       </c>
       <c r="B68">
-        <v>333.5299987792969</v>
+        <v>322.0499877929688</v>
       </c>
       <c r="C68">
-        <v>318.6400146484375</v>
+        <v>304.2799987792969</v>
       </c>
       <c r="D68">
-        <v>326.760009765625</v>
+        <v>304.8999938964844</v>
       </c>
       <c r="E68">
-        <v>326.7200012207031</v>
+        <v>304.8480529785156</v>
       </c>
       <c r="F68">
-        <v>62206600</v>
+        <v>48850700</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>332.1900024414062</v>
+        <v>311.5</v>
       </c>
       <c r="B69">
-        <v>332.8900146484375</v>
+        <v>313.0499877929688</v>
       </c>
       <c r="C69">
-        <v>313.7999877929688</v>
+        <v>298.6099853515625</v>
       </c>
       <c r="D69">
-        <v>314.3500061035156</v>
+        <v>301.9800109863281</v>
       </c>
       <c r="E69">
-        <v>314.3500061035156</v>
+        <v>301.9285583496094</v>
       </c>
       <c r="F69">
-        <v>48436800</v>
+        <v>48850500</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>312.1400146484375</v>
+        <v>302.489990234375</v>
       </c>
       <c r="B70">
-        <v>324.7799987792969</v>
+        <v>302.9400024414062</v>
       </c>
       <c r="C70">
-        <v>310.25</v>
+        <v>281.1600036621094</v>
       </c>
       <c r="D70">
-        <v>321.260009765625</v>
+        <v>281.6099853515625</v>
       </c>
       <c r="E70">
-        <v>321.260009765625</v>
+        <v>281.56201171875</v>
       </c>
       <c r="F70">
-        <v>47289000</v>
+        <v>59834400</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>320</v>
+        <v>276.989990234375</v>
       </c>
       <c r="B71">
-        <v>321.2900085449219</v>
+        <v>286.7799987792969</v>
       </c>
       <c r="C71">
-        <v>301.2999877929688</v>
+        <v>272.5</v>
       </c>
       <c r="D71">
-        <v>306.9299926757812</v>
+        <v>283.3699951171875</v>
       </c>
       <c r="E71">
-        <v>306.9299926757812</v>
+        <v>283.3217163085938</v>
       </c>
       <c r="F71">
-        <v>54382300</v>
+        <v>66703500</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>298.7999877929688</v>
+        <v>284</v>
       </c>
       <c r="B72">
-        <v>302.4100036621094</v>
+        <v>305</v>
       </c>
       <c r="C72">
-        <v>280.3800048828125</v>
+        <v>278.3800048828125</v>
       </c>
       <c r="D72">
-        <v>300.3699951171875</v>
+        <v>304.5899963378906</v>
       </c>
       <c r="E72">
-        <v>300.3699951171875</v>
+        <v>304.5381164550781</v>
       </c>
       <c r="F72">
-        <v>65893800</v>
+        <v>69829700</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>309.5700073242188</v>
+        <v>311.5199890136719</v>
       </c>
       <c r="B73">
-        <v>324.489990234375</v>
+        <v>311.6000061035156</v>
       </c>
       <c r="C73">
-        <v>306.510009765625</v>
+        <v>280.9299926757812</v>
       </c>
       <c r="D73">
-        <v>324.2699890136719</v>
+        <v>283.8699951171875</v>
       </c>
       <c r="E73">
-        <v>324.2699890136719</v>
+        <v>283.8216247558594</v>
       </c>
       <c r="F73">
-        <v>59305300</v>
+        <v>70736600</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>319.989990234375</v>
+        <v>279.8500061035156</v>
       </c>
       <c r="B74">
-        <v>322.8999938964844</v>
+        <v>289.2200012207031</v>
       </c>
       <c r="C74">
-        <v>314.2099914550781</v>
+        <v>277.6000061035156</v>
       </c>
       <c r="D74">
-        <v>318.260009765625</v>
+        <v>278.010009765625</v>
       </c>
       <c r="E74">
-        <v>318.260009765625</v>
+        <v>277.962646484375</v>
       </c>
       <c r="F74">
-        <v>47555100</v>
+        <v>71375800</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>317.3399963378906</v>
+        <v>273.0499877929688</v>
       </c>
       <c r="B75">
-        <v>322.0499877929688</v>
+        <v>281.4400024414062</v>
       </c>
       <c r="C75">
-        <v>304.2799987792969</v>
+        <v>271.4500122070312</v>
       </c>
       <c r="D75">
-        <v>304.8999938964844</v>
+        <v>277.1900024414062</v>
       </c>
       <c r="E75">
-        <v>304.8999938964844</v>
+        <v>277.1427917480469</v>
       </c>
       <c r="F75">
-        <v>48850700</v>
+        <v>46184700</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>311.5</v>
+        <v>283.739990234375</v>
       </c>
       <c r="B76">
-        <v>313.0499877929688</v>
+        <v>291.2000122070312</v>
       </c>
       <c r="C76">
-        <v>298.6099853515625</v>
+        <v>274.010009765625</v>
       </c>
       <c r="D76">
-        <v>301.9800109863281</v>
+        <v>290.75</v>
       </c>
       <c r="E76">
-        <v>301.9800109863281</v>
+        <v>290.7004699707031</v>
       </c>
       <c r="F76">
-        <v>48850500</v>
+        <v>52438500</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>302.489990234375</v>
+        <v>288.9100036621094</v>
       </c>
       <c r="B77">
-        <v>302.9400024414062</v>
+        <v>295.5499877929688</v>
       </c>
       <c r="C77">
-        <v>281.1600036621094</v>
+        <v>284.489990234375</v>
       </c>
       <c r="D77">
-        <v>281.6099853515625</v>
+        <v>294</v>
       </c>
       <c r="E77">
-        <v>281.6099853515625</v>
+        <v>293.9499206542969</v>
       </c>
       <c r="F77">
-        <v>59834400</v>
+        <v>39518400</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>276.989990234375</v>
+        <v>297.5499877929688</v>
       </c>
       <c r="B78">
-        <v>286.7799987792969</v>
+        <v>300.5899963378906</v>
       </c>
       <c r="C78">
-        <v>272.5</v>
+        <v>294.3099975585938</v>
       </c>
       <c r="D78">
-        <v>283.3699951171875</v>
+        <v>296.3999938964844</v>
       </c>
       <c r="E78">
-        <v>283.3699951171875</v>
+        <v>296.3494873046875</v>
       </c>
       <c r="F78">
-        <v>66703500</v>
+        <v>34302200</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>284</v>
+        <v>296.6000061035156</v>
       </c>
       <c r="B79">
-        <v>305</v>
+        <v>310.8699951171875</v>
       </c>
       <c r="C79">
-        <v>278.3800048828125</v>
+        <v>296.3999938964844</v>
       </c>
       <c r="D79">
-        <v>304.5899963378906</v>
+        <v>309.4500122070312</v>
       </c>
       <c r="E79">
-        <v>304.5899963378906</v>
+        <v>309.3973083496094</v>
       </c>
       <c r="F79">
-        <v>69829700</v>
+        <v>40368600</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>311.5199890136719</v>
+        <v>313.1199951171875</v>
       </c>
       <c r="B80">
-        <v>311.6000061035156</v>
+        <v>313.2999877929688</v>
       </c>
       <c r="C80">
-        <v>280.9299926757812</v>
+        <v>300.1199951171875</v>
       </c>
       <c r="D80">
-        <v>283.8699951171875</v>
+        <v>303.2200012207031</v>
       </c>
       <c r="E80">
-        <v>283.8699951171875</v>
+        <v>303.1683349609375</v>
       </c>
       <c r="F80">
-        <v>70736600</v>
+        <v>42059100</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>279.8500061035156</v>
+        <v>302.7300109863281</v>
       </c>
       <c r="B81">
-        <v>289.2200012207031</v>
+        <v>305.4800109863281</v>
       </c>
       <c r="C81">
-        <v>277.6000061035156</v>
+        <v>293.6600036621094</v>
       </c>
       <c r="D81">
-        <v>278.010009765625</v>
+        <v>300.010009765625</v>
       </c>
       <c r="E81">
-        <v>278.010009765625</v>
+        <v>299.9588928222656</v>
       </c>
       <c r="F81">
-        <v>71375800</v>
+        <v>34313900</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>273.0499877929688</v>
+        <v>298.2699890136719</v>
       </c>
       <c r="B82">
-        <v>281.4400024414062</v>
+        <v>304.5700073242188</v>
       </c>
       <c r="C82">
-        <v>271.4500122070312</v>
+        <v>295.3999938964844</v>
       </c>
       <c r="D82">
-        <v>277.1900024414062</v>
+        <v>295.8599853515625</v>
       </c>
       <c r="E82">
-        <v>277.1900024414062</v>
+        <v>295.8096008300781</v>
       </c>
       <c r="F82">
-        <v>46184700</v>
+        <v>30886400</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>283.739990234375</v>
+        <v>296.739990234375</v>
       </c>
       <c r="B83">
-        <v>291.2000122070312</v>
+        <v>300.2999877929688</v>
       </c>
       <c r="C83">
-        <v>274.010009765625</v>
+        <v>293.3099975585938</v>
       </c>
       <c r="D83">
-        <v>290.75</v>
+        <v>294.1099853515625</v>
       </c>
       <c r="E83">
-        <v>290.75</v>
+        <v>294.0598754882812</v>
       </c>
       <c r="F83">
-        <v>52438500</v>
+        <v>26653000</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>288.9100036621094</v>
+        <v>298.1499938964844</v>
       </c>
       <c r="B84">
-        <v>295.5499877929688</v>
+        <v>307.1099853515625</v>
       </c>
       <c r="C84">
-        <v>284.489990234375</v>
+        <v>297.8500061035156</v>
       </c>
       <c r="D84">
-        <v>294</v>
+        <v>301.2099914550781</v>
       </c>
       <c r="E84">
-        <v>294</v>
+        <v>301.15869140625</v>
       </c>
       <c r="F84">
-        <v>39518400</v>
+        <v>39154700</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>297.5499877929688</v>
+        <v>302.7699890136719</v>
       </c>
       <c r="B85">
-        <v>300.5899963378906</v>
+        <v>304.6799926757812</v>
       </c>
       <c r="C85">
-        <v>294.3099975585938</v>
+        <v>283.489990234375</v>
       </c>
       <c r="D85">
-        <v>296.3999938964844</v>
+        <v>292.8999938964844</v>
       </c>
       <c r="E85">
-        <v>296.3999938964844</v>
+        <v>292.85009765625</v>
       </c>
       <c r="F85">
-        <v>34302200</v>
+        <v>52715400</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>296.6000061035156</v>
+        <v>289.489990234375</v>
       </c>
       <c r="B86">
-        <v>310.8699951171875</v>
+        <v>294.1600036621094</v>
       </c>
       <c r="C86">
-        <v>296.3999938964844</v>
+        <v>275.3299865722656</v>
       </c>
       <c r="D86">
-        <v>309.4500122070312</v>
+        <v>276.0400085449219</v>
       </c>
       <c r="E86">
-        <v>309.4500122070312</v>
+        <v>275.9929809570312</v>
       </c>
       <c r="F86">
-        <v>40368600</v>
+        <v>49806400</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>313.1199951171875</v>
+        <v>276.3999938964844</v>
       </c>
       <c r="B87">
-        <v>313.2999877929688</v>
+        <v>284.3800048828125</v>
       </c>
       <c r="C87">
-        <v>300.1199951171875</v>
+        <v>270.6499938964844</v>
       </c>
       <c r="D87">
-        <v>303.2200012207031</v>
+        <v>281.7799987792969</v>
       </c>
       <c r="E87">
-        <v>303.2200012207031</v>
+        <v>281.7319946289062</v>
       </c>
       <c r="F87">
-        <v>42059100</v>
+        <v>45418600</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>302.7300109863281</v>
+        <v>281.4100036621094</v>
       </c>
       <c r="B88">
-        <v>305.4800109863281</v>
+        <v>284.2200012207031</v>
       </c>
       <c r="C88">
-        <v>293.6600036621094</v>
+        <v>270.5700073242188</v>
       </c>
       <c r="D88">
-        <v>300.010009765625</v>
+        <v>272.4700012207031</v>
       </c>
       <c r="E88">
-        <v>300.010009765625</v>
+        <v>272.423583984375</v>
       </c>
       <c r="F88">
-        <v>34313900</v>
+        <v>40920100</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>298.2699890136719</v>
+        <v>265.8099975585938</v>
       </c>
       <c r="B89">
-        <v>304.5700073242188</v>
+        <v>274.6900024414062</v>
       </c>
       <c r="C89">
-        <v>295.3999938964844</v>
+        <v>256.4400024414062</v>
       </c>
       <c r="D89">
-        <v>295.8599853515625</v>
+        <v>274</v>
       </c>
       <c r="E89">
-        <v>295.8599853515625</v>
+        <v>273.9533386230469</v>
       </c>
       <c r="F89">
-        <v>30886400</v>
+        <v>59468100</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>296.739990234375</v>
+        <v>273.2300109863281</v>
       </c>
       <c r="B90">
-        <v>300.2999877929688</v>
+        <v>280.6499938964844</v>
       </c>
       <c r="C90">
-        <v>293.3099975585938</v>
+        <v>268.3900146484375</v>
       </c>
       <c r="D90">
-        <v>294.1099853515625</v>
+        <v>278.1700134277344</v>
       </c>
       <c r="E90">
-        <v>294.1099853515625</v>
+        <v>278.1226196289062</v>
       </c>
       <c r="F90">
-        <v>26653000</v>
+        <v>40408900</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>298.1499938964844</v>
+        <v>280.6700134277344</v>
       </c>
       <c r="B91">
-        <v>307.1099853515625</v>
+        <v>285.9500122070312</v>
       </c>
       <c r="C91">
-        <v>297.8500061035156</v>
+        <v>276.0799865722656</v>
       </c>
       <c r="D91">
-        <v>301.2099914550781</v>
+        <v>279.989990234375</v>
       </c>
       <c r="E91">
-        <v>301.2099914550781</v>
+        <v>279.9422912597656</v>
       </c>
       <c r="F91">
-        <v>39154700</v>
+        <v>38341300</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>302.7699890136719</v>
+        <v>283.7900085449219</v>
       </c>
       <c r="B92">
-        <v>304.6799926757812</v>
+        <v>284.7999877929688</v>
       </c>
       <c r="C92">
-        <v>283.489990234375</v>
+        <v>264.9800109863281</v>
       </c>
       <c r="D92">
-        <v>292.8999938964844</v>
+        <v>265.75</v>
       </c>
       <c r="E92">
-        <v>292.8999938964844</v>
+        <v>265.7047424316406</v>
       </c>
       <c r="F92">
-        <v>52715400</v>
+        <v>54017100</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>289.489990234375</v>
+        <v>263</v>
       </c>
       <c r="B93">
-        <v>294.1600036621094</v>
+        <v>271.9700012207031</v>
       </c>
       <c r="C93">
-        <v>275.3299865722656</v>
+        <v>262.1000061035156</v>
       </c>
       <c r="D93">
-        <v>276.0400085449219</v>
+        <v>269.4200134277344</v>
       </c>
       <c r="E93">
-        <v>276.0400085449219</v>
+        <v>269.3741149902344</v>
       </c>
       <c r="F93">
-        <v>49806400</v>
+        <v>39522800</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>276.3999938964844</v>
+        <v>262.6000061035156</v>
       </c>
       <c r="B94">
-        <v>284.3800048828125</v>
+        <v>266.3800048828125</v>
       </c>
       <c r="C94">
-        <v>270.6499938964844</v>
+        <v>257.7000122070312</v>
       </c>
       <c r="D94">
-        <v>281.7799987792969</v>
+        <v>259.0299987792969</v>
       </c>
       <c r="E94">
-        <v>281.7799987792969</v>
+        <v>258.9858703613281</v>
       </c>
       <c r="F94">
-        <v>45418600</v>
+        <v>42427000</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>281.4100036621094</v>
+        <v>260.7900085449219</v>
       </c>
       <c r="B95">
-        <v>284.2200012207031</v>
+        <v>265.4299926757812</v>
       </c>
       <c r="C95">
-        <v>270.5700073242188</v>
+        <v>250.5200042724609</v>
       </c>
       <c r="D95">
-        <v>272.4700012207031</v>
+        <v>250.6699981689453</v>
       </c>
       <c r="E95">
-        <v>272.4700012207031</v>
+        <v>250.6273040771484</v>
       </c>
       <c r="F95">
-        <v>40920100</v>
+        <v>48831500</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>265.8099975585938</v>
+        <v>253.0399932861328</v>
       </c>
       <c r="B96">
-        <v>274.6900024414062</v>
+        <v>255.7899932861328</v>
       </c>
       <c r="C96">
-        <v>256.4400024414062</v>
+        <v>240.7799987792969</v>
       </c>
       <c r="D96">
-        <v>274</v>
+        <v>241.5</v>
       </c>
       <c r="E96">
-        <v>274</v>
+        <v>241.4588623046875</v>
       </c>
       <c r="F96">
-        <v>59468100</v>
+        <v>43518100</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>273.2300109863281</v>
+        <v>235.0700073242188</v>
       </c>
       <c r="B97">
-        <v>280.6499938964844</v>
+        <v>248.2299957275391</v>
       </c>
       <c r="C97">
-        <v>268.3900146484375</v>
+        <v>232.6300048828125</v>
       </c>
       <c r="D97">
-        <v>278.1700134277344</v>
+        <v>233.7400054931641</v>
       </c>
       <c r="E97">
-        <v>278.1700134277344</v>
+        <v>233.7001953125</v>
       </c>
       <c r="F97">
-        <v>40408900</v>
+        <v>71895800</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>280.6700134277344</v>
+        <v>223.3000030517578</v>
       </c>
       <c r="B98">
-        <v>285.9500122070312</v>
+        <v>233.8000030517578</v>
       </c>
       <c r="C98">
-        <v>276.0799865722656</v>
+        <v>208.8800048828125</v>
       </c>
       <c r="D98">
-        <v>279.989990234375</v>
+        <v>233.7200012207031</v>
       </c>
       <c r="E98">
-        <v>279.989990234375</v>
+        <v>233.6801910400391</v>
       </c>
       <c r="F98">
-        <v>38341300</v>
+        <v>91398200</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>283.7900085449219</v>
+        <v>225.4600067138672</v>
       </c>
       <c r="B99">
-        <v>284.7999877929688</v>
+        <v>229.4299926757812</v>
       </c>
       <c r="C99">
-        <v>264.9800109863281</v>
+        <v>220</v>
       </c>
       <c r="D99">
-        <v>265.75</v>
+        <v>223.2400054931641</v>
       </c>
       <c r="E99">
-        <v>265.75</v>
+        <v>223.2019805908203</v>
       </c>
       <c r="F99">
-        <v>54017100</v>
+        <v>66461600</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>263</v>
+        <v>232.3999938964844</v>
       </c>
       <c r="B100">
-        <v>271.9700012207031</v>
+        <v>240.5700073242188</v>
       </c>
       <c r="C100">
-        <v>262.1000061035156</v>
+        <v>223</v>
       </c>
       <c r="D100">
-        <v>269.4200134277344</v>
+        <v>227.7200012207031</v>
       </c>
       <c r="E100">
-        <v>269.4200134277344</v>
+        <v>227.6812133789062</v>
       </c>
       <c r="F100">
-        <v>39522800</v>
+        <v>75595900</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>262.6000061035156</v>
+        <v>235.6799926757812</v>
       </c>
       <c r="B101">
-        <v>266.3800048828125</v>
+        <v>239.9499969482422</v>
       </c>
       <c r="C101">
-        <v>257.7000122070312</v>
+        <v>216.75</v>
       </c>
       <c r="D101">
-        <v>259.0299987792969</v>
+        <v>219.4400024414062</v>
       </c>
       <c r="E101">
-        <v>259.0299987792969</v>
+        <v>219.4026184082031</v>
       </c>
       <c r="F101">
-        <v>42427000</v>
+        <v>57335300</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>260.7900085449219</v>
+        <v>220.1199951171875</v>
       </c>
       <c r="B102">
-        <v>265.4299926757812</v>
+        <v>228.5800018310547</v>
       </c>
       <c r="C102">
-        <v>250.5200042724609</v>
+        <v>212.9600067138672</v>
       </c>
       <c r="D102">
-        <v>250.6699981689453</v>
+        <v>228.3999938964844</v>
       </c>
       <c r="E102">
-        <v>250.6699981689453</v>
+        <v>228.361083984375</v>
       </c>
       <c r="F102">
-        <v>48831500</v>
+        <v>54377400</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>253.0399932861328</v>
+        <v>231.8200073242188</v>
       </c>
       <c r="B103">
-        <v>255.7899932861328</v>
+        <v>245.0899963378906</v>
       </c>
       <c r="C103">
-        <v>240.7799987792969</v>
+        <v>230.5200042724609</v>
       </c>
       <c r="D103">
-        <v>241.5</v>
+        <v>244.8600006103516</v>
       </c>
       <c r="E103">
-        <v>241.5</v>
+        <v>244.8182830810547</v>
       </c>
       <c r="F103">
-        <v>43518100</v>
+        <v>56468000</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>235.0700073242188</v>
+        <v>251.0399932861328</v>
       </c>
       <c r="B104">
-        <v>248.2299957275391</v>
+        <v>251.4499969482422</v>
       </c>
       <c r="C104">
-        <v>232.6300048828125</v>
+        <v>238.8999938964844</v>
       </c>
       <c r="D104">
-        <v>233.7400054931641</v>
+        <v>246.3800048828125</v>
       </c>
       <c r="E104">
-        <v>233.7400054931641</v>
+        <v>246.3380279541016</v>
       </c>
       <c r="F104">
-        <v>71895800</v>
+        <v>51892500</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>223.3000030517578</v>
+        <v>257.9400024414062</v>
       </c>
       <c r="B105">
-        <v>233.8000030517578</v>
+        <v>258.1700134277344</v>
       </c>
       <c r="C105">
-        <v>208.8800048828125</v>
+        <v>245.5299987792969</v>
       </c>
       <c r="D105">
-        <v>233.7200012207031</v>
+        <v>252.4199981689453</v>
       </c>
       <c r="E105">
-        <v>233.7200012207031</v>
+        <v>252.3769989013672</v>
       </c>
       <c r="F105">
-        <v>91398200</v>
+        <v>54341900</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>225.4600067138672</v>
+        <v>244.5800018310547</v>
       </c>
       <c r="B106">
-        <v>229.4299926757812</v>
+        <v>250.7700042724609</v>
       </c>
       <c r="C106">
-        <v>220</v>
+        <v>237.8000030517578</v>
       </c>
       <c r="D106">
-        <v>223.2400054931641</v>
+        <v>239.4799957275391</v>
       </c>
       <c r="E106">
-        <v>223.2400054931641</v>
+        <v>239.4391937255859</v>
       </c>
       <c r="F106">
-        <v>66461600</v>
+        <v>41017800</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>232.3999938964844</v>
+        <v>239.7200012207031</v>
       </c>
       <c r="B107">
-        <v>240.5700073242188</v>
+        <v>246.3500061035156</v>
       </c>
       <c r="C107">
-        <v>223</v>
+        <v>236.3200073242188</v>
       </c>
       <c r="D107">
-        <v>227.7200012207031</v>
+        <v>243.1900024414062</v>
       </c>
       <c r="E107">
-        <v>227.7200012207031</v>
+        <v>243.1485748291016</v>
       </c>
       <c r="F107">
-        <v>75595900</v>
+        <v>35432800</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>235.6799926757812</v>
+        <v>243.7200012207031</v>
       </c>
       <c r="B108">
-        <v>239.9499969482422</v>
+        <v>251.8200073242188</v>
       </c>
       <c r="C108">
-        <v>216.75</v>
+        <v>242.0200042724609</v>
       </c>
       <c r="D108">
-        <v>219.4400024414062</v>
+        <v>247.2799987792969</v>
       </c>
       <c r="E108">
-        <v>219.4400024414062</v>
+        <v>247.2378692626953</v>
       </c>
       <c r="F108">
-        <v>57335300</v>
+        <v>37686800</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>220.1199951171875</v>
+        <v>243.5899963378906</v>
       </c>
       <c r="B109">
-        <v>228.5800018310547</v>
+        <v>252.3000030517578</v>
       </c>
       <c r="C109">
-        <v>212.9600067138672</v>
+        <v>239.8000030517578</v>
       </c>
       <c r="D109">
-        <v>228.3999938964844</v>
+        <v>251.0800018310547</v>
       </c>
       <c r="E109">
-        <v>228.3999938964844</v>
+        <v>251.0372314453125</v>
       </c>
       <c r="F109">
-        <v>54377400</v>
+        <v>41035900</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>231.8200073242188</v>
+        <v>256.2200012207031</v>
       </c>
       <c r="B110">
-        <v>245.0899963378906</v>
+        <v>267.25</v>
       </c>
       <c r="C110">
-        <v>230.5200042724609</v>
+        <v>253.5299987792969</v>
       </c>
       <c r="D110">
-        <v>244.8600006103516</v>
+        <v>267.0499877929688</v>
       </c>
       <c r="E110">
-        <v>244.8600006103516</v>
+        <v>267.0044860839844</v>
       </c>
       <c r="F110">
-        <v>56468000</v>
+        <v>52428200</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>251.0399932861328</v>
+        <v>259.9500122070312</v>
       </c>
       <c r="B111">
-        <v>251.4499969482422</v>
+        <v>269.25</v>
       </c>
       <c r="C111">
-        <v>238.8999938964844</v>
+        <v>256</v>
       </c>
       <c r="D111">
-        <v>246.3800048828125</v>
+        <v>258.239990234375</v>
       </c>
       <c r="E111">
-        <v>246.3800048828125</v>
+        <v>258.1959838867188</v>
       </c>
       <c r="F111">
-        <v>51892500</v>
+        <v>51320000</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>257.9400024414062</v>
+        <v>259.1600036621094</v>
       </c>
       <c r="B112">
-        <v>258.1700134277344</v>
+        <v>261.5199890136719</v>
       </c>
       <c r="C112">
-        <v>245.5299987792969</v>
+        <v>237.7299957275391</v>
       </c>
       <c r="D112">
-        <v>252.4199981689453</v>
+        <v>239.4900054931641</v>
       </c>
       <c r="E112">
-        <v>252.4199981689453</v>
+        <v>239.4492034912109</v>
       </c>
       <c r="F112">
-        <v>54341900</v>
+        <v>60424800</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>244.5800018310547</v>
+        <v>239.3399963378906</v>
       </c>
       <c r="B113">
-        <v>250.7700042724609</v>
+        <v>248.75</v>
       </c>
       <c r="C113">
-        <v>237.8000030517578</v>
+        <v>237.5500030517578</v>
       </c>
       <c r="D113">
-        <v>239.4799957275391</v>
+        <v>242.6699981689453</v>
       </c>
       <c r="E113">
-        <v>239.4799957275391</v>
+        <v>242.628662109375</v>
       </c>
       <c r="F113">
-        <v>41017800</v>
+        <v>44042400</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>239.7200012207031</v>
+        <v>249.4900054931641</v>
       </c>
       <c r="B114">
-        <v>246.3500061035156</v>
+        <v>265.4500122070312</v>
       </c>
       <c r="C114">
-        <v>236.3200073242188</v>
+        <v>247.8399963378906</v>
       </c>
       <c r="D114">
-        <v>243.1900024414062</v>
+        <v>264.9500122070312</v>
       </c>
       <c r="E114">
-        <v>243.1900024414062</v>
+        <v>264.9048767089844</v>
       </c>
       <c r="F114">
-        <v>35432800</v>
+        <v>69986900</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>243.7200012207031</v>
+        <v>262.5899963378906</v>
       </c>
       <c r="B115">
-        <v>251.8200073242188</v>
+        <v>265.8200073242188</v>
       </c>
       <c r="C115">
-        <v>242.0200042724609</v>
+        <v>255.5200042724609</v>
       </c>
       <c r="D115">
-        <v>247.2799987792969</v>
+        <v>265.1099853515625</v>
       </c>
       <c r="E115">
-        <v>247.2799987792969</v>
+        <v>265.0648193359375</v>
       </c>
       <c r="F115">
-        <v>37686800</v>
+        <v>73267600</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>243.5899963378906</v>
+        <v>256.2999877929688</v>
       </c>
       <c r="B116">
-        <v>252.3000030517578</v>
+        <v>257.8500061035156</v>
       </c>
       <c r="C116">
-        <v>239.8000030517578</v>
+        <v>241.6499938964844</v>
       </c>
       <c r="D116">
-        <v>251.0800018310547</v>
+        <v>245.0700073242188</v>
       </c>
       <c r="E116">
-        <v>251.0800018310547</v>
+        <v>245.0282592773438</v>
       </c>
       <c r="F116">
-        <v>41035900</v>
+        <v>81059500</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>256.2200012207031</v>
+        <v>246.6799926757812</v>
       </c>
       <c r="B117">
-        <v>267.25</v>
+        <v>249.8600006103516</v>
       </c>
       <c r="C117">
-        <v>253.5299987792969</v>
+        <v>231</v>
       </c>
       <c r="D117">
-        <v>267.0499877929688</v>
+        <v>236.4199981689453</v>
       </c>
       <c r="E117">
-        <v>267.0499877929688</v>
+        <v>236.3797302246094</v>
       </c>
       <c r="F117">
-        <v>52428200</v>
+        <v>76125500</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>259.9500122070312</v>
+        <v>230.3500061035156</v>
       </c>
       <c r="B118">
-        <v>269.25</v>
+        <v>240.6399993896484</v>
       </c>
       <c r="C118">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="D118">
-        <v>258.239990234375</v>
+        <v>233.8999938964844</v>
       </c>
       <c r="E118">
-        <v>258.239990234375</v>
+        <v>233.8601531982422</v>
       </c>
       <c r="F118">
-        <v>51320000</v>
+        <v>63342200</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>259.1600036621094</v>
+        <v>238.0200042724609</v>
       </c>
       <c r="B119">
-        <v>261.5199890136719</v>
+        <v>241.5500030517578</v>
       </c>
       <c r="C119">
-        <v>237.7299957275391</v>
+        <v>223.0099945068359</v>
       </c>
       <c r="D119">
-        <v>239.4900054931641</v>
+        <v>223.8699951171875</v>
       </c>
       <c r="E119">
-        <v>239.4900054931641</v>
+        <v>223.8318634033203</v>
       </c>
       <c r="F119">
-        <v>60424800</v>
+        <v>56651100</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>239.3399963378906</v>
+        <v>210.1499938964844</v>
       </c>
       <c r="B120">
-        <v>248.75</v>
+        <v>238</v>
       </c>
       <c r="C120">
-        <v>237.5500030517578</v>
+        <v>208.8999938964844</v>
       </c>
       <c r="D120">
-        <v>242.6699981689453</v>
+        <v>237.4799957275391</v>
       </c>
       <c r="E120">
-        <v>242.6699981689453</v>
+        <v>237.4395446777344</v>
       </c>
       <c r="F120">
-        <v>44042400</v>
+        <v>73580100</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>249.4900054931641</v>
+        <v>237.2100067138672</v>
       </c>
       <c r="B121">
-        <v>265.4500122070312</v>
+        <v>242.1699981689453</v>
       </c>
       <c r="C121">
-        <v>247.8399963378906</v>
+        <v>233.8099975585938</v>
       </c>
       <c r="D121">
-        <v>264.9500122070312</v>
+        <v>241.5700073242188</v>
       </c>
       <c r="E121">
-        <v>264.9500122070312</v>
+        <v>241.5288543701172</v>
       </c>
       <c r="F121">
-        <v>70175300</v>
+        <v>52886600</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>262.5899963378906</v>
+        <v>239.9199981689453</v>
       </c>
       <c r="B122">
-        <v>265.8200073242188</v>
+        <v>246.6499938964844</v>
       </c>
       <c r="C122">
-        <v>255.5200042724609</v>
+        <v>237.0700073242188</v>
       </c>
       <c r="D122">
-        <v>265.1099853515625</v>
+        <v>243.8500061035156</v>
       </c>
       <c r="E122">
-        <v>265.1099853515625</v>
+        <v>243.8084716796875</v>
       </c>
       <c r="F122">
-        <v>73267600</v>
+        <v>47639300</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>256.2999877929688</v>
+        <v>242.9100036621094</v>
       </c>
       <c r="B123">
-        <v>257.8500061035156</v>
+        <v>243.7700042724609</v>
       </c>
       <c r="C123">
-        <v>241.6499938964844</v>
+        <v>231.3200073242188</v>
       </c>
       <c r="D123">
-        <v>245.0700073242188</v>
+        <v>234.7700042724609</v>
       </c>
       <c r="E123">
-        <v>245.0700073242188</v>
+        <v>234.7300109863281</v>
       </c>
       <c r="F123">
-        <v>81059500</v>
+        <v>41205600</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>246.6799926757812</v>
+        <v>237.5599975585938</v>
       </c>
       <c r="B124">
-        <v>249.8600006103516</v>
+        <v>244.0899963378906</v>
       </c>
       <c r="C124">
-        <v>231</v>
+        <v>234.1499938964844</v>
       </c>
       <c r="D124">
-        <v>236.4199981689453</v>
+        <v>242.1999969482422</v>
       </c>
       <c r="E124">
-        <v>236.4199981689453</v>
+        <v>242.1999969482422</v>
       </c>
       <c r="F124">
-        <v>75966400</v>
+        <v>38964200</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>230.3500061035156</v>
+        <v>242.6199951171875</v>
       </c>
       <c r="B125">
-        <v>240.6399993896484</v>
+        <v>243.2599945068359</v>
       </c>
       <c r="C125">
-        <v>230</v>
+        <v>234.6900024414062</v>
       </c>
       <c r="D125">
-        <v>233.8999938964844</v>
+        <v>237.1399993896484</v>
       </c>
       <c r="E125">
-        <v>233.8999938964844</v>
+        <v>237.1399993896484</v>
       </c>
       <c r="F125">
-        <v>63342200</v>
+        <v>36344400</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>238.0200042724609</v>
+        <v>233.8399963378906</v>
       </c>
       <c r="B126">
-        <v>241.5500030517578</v>
+        <v>236.8000030517578</v>
       </c>
       <c r="C126">
-        <v>223.0099945068359</v>
+        <v>224.8200073242188</v>
       </c>
       <c r="D126">
-        <v>223.8699951171875</v>
+        <v>229.3600006103516</v>
       </c>
       <c r="E126">
-        <v>223.8699951171875</v>
+        <v>229.3600006103516</v>
       </c>
       <c r="F126">
-        <v>56651100</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>210.1499938964844</v>
-      </c>
-      <c r="B127">
-        <v>238</v>
-      </c>
-      <c r="C127">
-        <v>208.8999938964844</v>
-      </c>
-      <c r="D127">
-        <v>237.4799957275391</v>
-      </c>
-      <c r="E127">
-        <v>237.4799957275391</v>
-      </c>
-      <c r="F127">
-        <v>73580100</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>237.2100067138672</v>
-      </c>
-      <c r="B128">
-        <v>242.1699981689453</v>
-      </c>
-      <c r="C128">
-        <v>233.8099975585938</v>
-      </c>
-      <c r="D128">
-        <v>241.5700073242188</v>
-      </c>
-      <c r="E128">
-        <v>241.5700073242188</v>
-      </c>
-      <c r="F128">
-        <v>52830700</v>
+        <v>43201070</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/NVDA/HighLow.xlsx
+++ b/Stocks/NVDA/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2502 +417,2522 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>228.3300018310547</v>
+        <v>226.8399963378906</v>
       </c>
       <c r="B2">
-        <v>228.9900054931641</v>
+        <v>229.6399993896484</v>
       </c>
       <c r="C2">
-        <v>225.2200012207031</v>
+        <v>218.5800018310547</v>
       </c>
       <c r="D2">
-        <v>226.6199951171875</v>
+        <v>221.5200042724609</v>
       </c>
       <c r="E2">
-        <v>226.5536499023438</v>
+        <v>221.4551544189453</v>
       </c>
       <c r="F2">
-        <v>19810700</v>
+        <v>29750000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>225.1300048828125</v>
+        <v>222.75</v>
       </c>
       <c r="B3">
-        <v>226.1000061035156</v>
+        <v>224.1000061035156</v>
       </c>
       <c r="C3">
-        <v>219.7700042724609</v>
+        <v>220.8600006103516</v>
       </c>
       <c r="D3">
-        <v>223.3899993896484</v>
+        <v>222.4199981689453</v>
       </c>
       <c r="E3">
-        <v>223.3246002197266</v>
+        <v>222.3548736572266</v>
       </c>
       <c r="F3">
-        <v>25443400</v>
+        <v>19975500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>223.1199951171875</v>
+        <v>223.0899963378906</v>
       </c>
       <c r="B4">
-        <v>225.3800048828125</v>
+        <v>223.6699981689453</v>
       </c>
       <c r="C4">
-        <v>221.3099975585938</v>
+        <v>219.6600036621094</v>
       </c>
       <c r="D4">
-        <v>221.7700042724609</v>
+        <v>223.4100036621094</v>
       </c>
       <c r="E4">
-        <v>221.705078125</v>
+        <v>223.3445892333984</v>
       </c>
       <c r="F4">
-        <v>19685600</v>
+        <v>16653800</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>223.4799957275391</v>
+        <v>221.8300018310547</v>
       </c>
       <c r="B5">
-        <v>226.2599945068359</v>
+        <v>222.7700042724609</v>
       </c>
       <c r="C5">
-        <v>222.6999969482422</v>
+        <v>219.2700042724609</v>
       </c>
       <c r="D5">
-        <v>224.7799987792969</v>
+        <v>222.4199981689453</v>
       </c>
       <c r="E5">
-        <v>224.7141876220703</v>
+        <v>222.3548736572266</v>
       </c>
       <c r="F5">
-        <v>24814900</v>
+        <v>15603300</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>226.8399963378906</v>
+        <v>223</v>
       </c>
       <c r="B6">
-        <v>229.6399993896484</v>
+        <v>223.2100067138672</v>
       </c>
       <c r="C6">
-        <v>218.5800018310547</v>
+        <v>218.3000030517578</v>
       </c>
       <c r="D6">
-        <v>221.5200042724609</v>
+        <v>219</v>
       </c>
       <c r="E6">
-        <v>221.4551544189453</v>
+        <v>218.9358825683594</v>
       </c>
       <c r="F6">
-        <v>29750000</v>
+        <v>29450300</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>222.75</v>
+        <v>211.4600067138672</v>
       </c>
       <c r="B7">
-        <v>224.1000061035156</v>
+        <v>214.3300018310547</v>
       </c>
       <c r="C7">
-        <v>220.8600006103516</v>
+        <v>206.6199951171875</v>
       </c>
       <c r="D7">
-        <v>222.4199981689453</v>
+        <v>211.1300048828125</v>
       </c>
       <c r="E7">
-        <v>222.3548736572266</v>
+        <v>211.0681915283203</v>
       </c>
       <c r="F7">
-        <v>19975500</v>
+        <v>34944000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>223.0899963378906</v>
+        <v>214.1699981689453</v>
       </c>
       <c r="B8">
-        <v>223.6699981689453</v>
+        <v>214.25</v>
       </c>
       <c r="C8">
-        <v>219.6600036621094</v>
+        <v>209.5</v>
       </c>
       <c r="D8">
-        <v>223.4100036621094</v>
+        <v>212.4600067138672</v>
       </c>
       <c r="E8">
-        <v>223.3445892333984</v>
+        <v>212.3977966308594</v>
       </c>
       <c r="F8">
-        <v>16653800</v>
+        <v>20468800</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>221.8300018310547</v>
+        <v>213.6600036621094</v>
       </c>
       <c r="B9">
-        <v>222.7700042724609</v>
+        <v>219.6000061035156</v>
       </c>
       <c r="C9">
-        <v>219.2700042724609</v>
+        <v>211.9600067138672</v>
       </c>
       <c r="D9">
-        <v>222.4199981689453</v>
+        <v>219.4100036621094</v>
       </c>
       <c r="E9">
-        <v>222.3548736572266</v>
+        <v>219.3457794189453</v>
       </c>
       <c r="F9">
-        <v>15603300</v>
+        <v>26872600</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>223</v>
+        <v>221.3999938964844</v>
       </c>
       <c r="B10">
-        <v>223.2100067138672</v>
+        <v>225.3500061035156</v>
       </c>
       <c r="C10">
-        <v>218.3000030517578</v>
+        <v>218.8999938964844</v>
       </c>
       <c r="D10">
-        <v>219</v>
+        <v>224.8200073242188</v>
       </c>
       <c r="E10">
-        <v>218.9358825683594</v>
+        <v>224.7541809082031</v>
       </c>
       <c r="F10">
-        <v>29450300</v>
+        <v>24855500</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>211.4600067138672</v>
+        <v>220.6999969482422</v>
       </c>
       <c r="B11">
-        <v>214.3300018310547</v>
+        <v>221.4900054931641</v>
       </c>
       <c r="C11">
-        <v>206.6199951171875</v>
+        <v>218.6100006103516</v>
       </c>
       <c r="D11">
-        <v>211.1300048828125</v>
+        <v>220.8099975585938</v>
       </c>
       <c r="E11">
-        <v>211.0681915283203</v>
+        <v>220.7453460693359</v>
       </c>
       <c r="F11">
-        <v>34944000</v>
+        <v>21765500</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>214.1699981689453</v>
+        <v>217.1000061035156</v>
       </c>
       <c r="B12">
-        <v>214.25</v>
+        <v>217.9900054931641</v>
       </c>
       <c r="C12">
-        <v>209.5</v>
+        <v>213.25</v>
       </c>
       <c r="D12">
-        <v>212.4600067138672</v>
+        <v>216.6000061035156</v>
       </c>
       <c r="E12">
-        <v>212.3977966308594</v>
+        <v>216.5365905761719</v>
       </c>
       <c r="F12">
-        <v>20468800</v>
+        <v>24521500</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>213.6600036621094</v>
+        <v>212.1399993896484</v>
       </c>
       <c r="B13">
-        <v>219.6000061035156</v>
+        <v>214.1900024414062</v>
       </c>
       <c r="C13">
-        <v>211.9600067138672</v>
+        <v>206.5099945068359</v>
       </c>
       <c r="D13">
-        <v>219.4100036621094</v>
+        <v>206.9900054931641</v>
       </c>
       <c r="E13">
-        <v>219.3457794189453</v>
+        <v>206.9293975830078</v>
       </c>
       <c r="F13">
-        <v>26872600</v>
+        <v>34306900</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>221.3999938964844</v>
+        <v>209.3999938964844</v>
       </c>
       <c r="B14">
-        <v>225.3500061035156</v>
+        <v>210.1699981689453</v>
       </c>
       <c r="C14">
-        <v>218.8999938964844</v>
+        <v>204.6699981689453</v>
       </c>
       <c r="D14">
-        <v>224.8200073242188</v>
+        <v>205.1699981689453</v>
       </c>
       <c r="E14">
-        <v>224.7541809082031</v>
+        <v>205.1099395751953</v>
       </c>
       <c r="F14">
-        <v>24855500</v>
+        <v>21839400</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>220.6999969482422</v>
+        <v>207.6799926757812</v>
       </c>
       <c r="B15">
-        <v>221.4900054931641</v>
+        <v>210.6600036621094</v>
       </c>
       <c r="C15">
-        <v>218.6100006103516</v>
+        <v>206.8800048828125</v>
       </c>
       <c r="D15">
-        <v>220.8099975585938</v>
+        <v>207.1600036621094</v>
       </c>
       <c r="E15">
-        <v>220.7453460693359</v>
+        <v>207.099365234375</v>
       </c>
       <c r="F15">
-        <v>21765500</v>
+        <v>22080400</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>217.1000061035156</v>
+        <v>207.5</v>
       </c>
       <c r="B16">
-        <v>217.9900054931641</v>
+        <v>208.5899963378906</v>
       </c>
       <c r="C16">
-        <v>213.25</v>
+        <v>202.0299987792969</v>
       </c>
       <c r="D16">
-        <v>216.6000061035156</v>
+        <v>207.4199981689453</v>
       </c>
       <c r="E16">
-        <v>216.5365905761719</v>
+        <v>207.3592834472656</v>
       </c>
       <c r="F16">
-        <v>24521500</v>
+        <v>24097800</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>212.1399993896484</v>
+        <v>205.0399932861328</v>
       </c>
       <c r="B17">
-        <v>214.1900024414062</v>
+        <v>205.4199981689453</v>
       </c>
       <c r="C17">
-        <v>206.5099945068359</v>
+        <v>195.5500030517578</v>
       </c>
       <c r="D17">
-        <v>206.9900054931641</v>
+        <v>197.3200073242188</v>
       </c>
       <c r="E17">
-        <v>206.9293975830078</v>
+        <v>197.2622375488281</v>
       </c>
       <c r="F17">
-        <v>34306900</v>
+        <v>34563500</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>209.3999938964844</v>
+        <v>199.5</v>
       </c>
       <c r="B18">
-        <v>210.1699981689453</v>
+        <v>206.4799957275391</v>
       </c>
       <c r="C18">
-        <v>204.6699981689453</v>
+        <v>198.5399932861328</v>
       </c>
       <c r="D18">
-        <v>205.1699981689453</v>
+        <v>204.5099945068359</v>
       </c>
       <c r="E18">
-        <v>205.1099395751953</v>
+        <v>204.4501190185547</v>
       </c>
       <c r="F18">
-        <v>21839400</v>
+        <v>27928200</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>207.6799926757812</v>
+        <v>201.1999969482422</v>
       </c>
       <c r="B19">
-        <v>210.6600036621094</v>
+        <v>207.1999969482422</v>
       </c>
       <c r="C19">
-        <v>206.8800048828125</v>
+        <v>200.8000030517578</v>
       </c>
       <c r="D19">
-        <v>207.1600036621094</v>
+        <v>207</v>
       </c>
       <c r="E19">
-        <v>207.099365234375</v>
+        <v>206.9393920898438</v>
       </c>
       <c r="F19">
-        <v>22080400</v>
+        <v>29720200</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>207.5</v>
+        <v>210.9199981689453</v>
       </c>
       <c r="B20">
-        <v>208.5899963378906</v>
+        <v>213.2200012207031</v>
       </c>
       <c r="C20">
-        <v>202.0299987792969</v>
+        <v>209.7200012207031</v>
       </c>
       <c r="D20">
-        <v>207.4199981689453</v>
+        <v>210.75</v>
       </c>
       <c r="E20">
-        <v>207.3592834472656</v>
+        <v>210.6882934570312</v>
       </c>
       <c r="F20">
-        <v>24097800</v>
+        <v>25691900</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>205.0399932861328</v>
+        <v>211.0099945068359</v>
       </c>
       <c r="B21">
-        <v>205.4199981689453</v>
+        <v>212.0599975585938</v>
       </c>
       <c r="C21">
-        <v>195.5500030517578</v>
+        <v>207.75</v>
       </c>
       <c r="D21">
-        <v>197.3200073242188</v>
+        <v>208.3099975585938</v>
       </c>
       <c r="E21">
-        <v>197.2622375488281</v>
+        <v>208.2490234375</v>
       </c>
       <c r="F21">
-        <v>34563500</v>
+        <v>15102500</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>199.5</v>
+        <v>205.75</v>
       </c>
       <c r="B22">
-        <v>206.4799957275391</v>
+        <v>210.6300048828125</v>
       </c>
       <c r="C22">
-        <v>198.5399932861328</v>
+        <v>205.1100006103516</v>
       </c>
       <c r="D22">
-        <v>204.5099945068359</v>
+        <v>206.9499969482422</v>
       </c>
       <c r="E22">
-        <v>204.4501190185547</v>
+        <v>206.8894195556641</v>
       </c>
       <c r="F22">
-        <v>27928200</v>
+        <v>16338800</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>201.1999969482422</v>
+        <v>208.2799987792969</v>
       </c>
       <c r="B23">
-        <v>207.1999969482422</v>
+        <v>210.5700073242188</v>
       </c>
       <c r="C23">
-        <v>200.8000030517578</v>
+        <v>205.2799987792969</v>
       </c>
       <c r="D23">
-        <v>207</v>
+        <v>206.7100067138672</v>
       </c>
       <c r="E23">
-        <v>206.9393920898438</v>
+        <v>206.6494903564453</v>
       </c>
       <c r="F23">
-        <v>29720200</v>
+        <v>16213400</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>210.9199981689453</v>
+        <v>209.1799926757812</v>
       </c>
       <c r="B24">
-        <v>213.2200012207031</v>
+        <v>209.8999938964844</v>
       </c>
       <c r="C24">
-        <v>209.7200012207031</v>
+        <v>207.1300048828125</v>
       </c>
       <c r="D24">
-        <v>210.75</v>
+        <v>209.3899993896484</v>
       </c>
       <c r="E24">
-        <v>210.6882934570312</v>
+        <v>209.3287048339844</v>
       </c>
       <c r="F24">
-        <v>25691900</v>
+        <v>18065200</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>211.0099945068359</v>
+        <v>212.8800048828125</v>
       </c>
       <c r="B25">
-        <v>212.0599975585938</v>
+        <v>217.5500030517578</v>
       </c>
       <c r="C25">
-        <v>207.75</v>
+        <v>211.2200012207031</v>
       </c>
       <c r="D25">
-        <v>208.3099975585938</v>
+        <v>217.4600067138672</v>
       </c>
       <c r="E25">
-        <v>208.2490234375</v>
+        <v>217.3963470458984</v>
       </c>
       <c r="F25">
-        <v>15102500</v>
+        <v>24358900</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>205.75</v>
+        <v>218.1000061035156</v>
       </c>
       <c r="B26">
-        <v>210.6300048828125</v>
+        <v>219.3099975585938</v>
       </c>
       <c r="C26">
-        <v>205.1100006103516</v>
+        <v>216.6199951171875</v>
       </c>
       <c r="D26">
-        <v>206.9499969482422</v>
+        <v>218.6199951171875</v>
       </c>
       <c r="E26">
-        <v>206.8894195556641</v>
+        <v>218.5559997558594</v>
       </c>
       <c r="F26">
-        <v>16338800</v>
+        <v>22679500</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>208.2799987792969</v>
+        <v>217.4900054931641</v>
       </c>
       <c r="B27">
-        <v>210.5700073242188</v>
+        <v>222.9100036621094</v>
       </c>
       <c r="C27">
-        <v>205.2799987792969</v>
+        <v>216.4400024414062</v>
       </c>
       <c r="D27">
-        <v>206.7100067138672</v>
+        <v>222.2200012207031</v>
       </c>
       <c r="E27">
-        <v>206.6494903564453</v>
+        <v>222.1549377441406</v>
       </c>
       <c r="F27">
-        <v>16213400</v>
+        <v>18949400</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>209.1799926757812</v>
+        <v>222.7599945068359</v>
       </c>
       <c r="B28">
-        <v>209.8999938964844</v>
+        <v>223.7899932861328</v>
       </c>
       <c r="C28">
-        <v>207.1300048828125</v>
+        <v>220.3699951171875</v>
       </c>
       <c r="D28">
-        <v>209.3899993896484</v>
+        <v>222.8999938964844</v>
       </c>
       <c r="E28">
-        <v>209.3287048339844</v>
+        <v>222.8347473144531</v>
       </c>
       <c r="F28">
-        <v>18065200</v>
+        <v>16147300</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>212.8800048828125</v>
+        <v>223.0500030517578</v>
       </c>
       <c r="B29">
-        <v>217.5500030517578</v>
+        <v>224.3300018310547</v>
       </c>
       <c r="C29">
-        <v>211.2200012207031</v>
+        <v>219.8200073242188</v>
       </c>
       <c r="D29">
-        <v>217.4600067138672</v>
+        <v>221.0299987792969</v>
       </c>
       <c r="E29">
-        <v>217.3963470458984</v>
+        <v>220.9653015136719</v>
       </c>
       <c r="F29">
-        <v>24358900</v>
+        <v>14627600</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>218.1000061035156</v>
+        <v>220.9700012207031</v>
       </c>
       <c r="B30">
-        <v>219.3099975585938</v>
+        <v>227.1100006103516</v>
       </c>
       <c r="C30">
-        <v>216.6199951171875</v>
+        <v>220.8300018310547</v>
       </c>
       <c r="D30">
-        <v>218.6199951171875</v>
+        <v>226.9199981689453</v>
       </c>
       <c r="E30">
-        <v>218.5559997558594</v>
+        <v>226.8535614013672</v>
       </c>
       <c r="F30">
-        <v>22679500</v>
+        <v>18759000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>217.4900054931641</v>
+        <v>228.2299957275391</v>
       </c>
       <c r="B31">
-        <v>222.9100036621094</v>
+        <v>231.3000030517578</v>
       </c>
       <c r="C31">
-        <v>216.4400024414062</v>
+        <v>225.6100006103516</v>
       </c>
       <c r="D31">
-        <v>222.2200012207031</v>
+        <v>227.2599945068359</v>
       </c>
       <c r="E31">
-        <v>222.1549377441406</v>
+        <v>227.1934661865234</v>
       </c>
       <c r="F31">
-        <v>18949400</v>
+        <v>24938400</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>222.7599945068359</v>
+        <v>229.7299957275391</v>
       </c>
       <c r="B32">
-        <v>223.7899932861328</v>
+        <v>233.5500030517578</v>
       </c>
       <c r="C32">
-        <v>220.3699951171875</v>
+        <v>227.6999969482422</v>
       </c>
       <c r="D32">
-        <v>222.8999938964844</v>
+        <v>231.6600036621094</v>
       </c>
       <c r="E32">
-        <v>222.8347473144531</v>
+        <v>231.5921783447266</v>
       </c>
       <c r="F32">
-        <v>16147300</v>
+        <v>23023500</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>223.0500030517578</v>
+        <v>239.8899993896484</v>
       </c>
       <c r="B33">
-        <v>224.3300018310547</v>
+        <v>252.5899963378906</v>
       </c>
       <c r="C33">
-        <v>219.8200073242188</v>
+        <v>239.2400054931641</v>
       </c>
       <c r="D33">
-        <v>221.0299987792969</v>
+        <v>247.1699981689453</v>
       </c>
       <c r="E33">
-        <v>220.9653015136719</v>
+        <v>247.0976409912109</v>
       </c>
       <c r="F33">
-        <v>14627600</v>
+        <v>48589800</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>220.9700012207031</v>
+        <v>244.7400054931641</v>
       </c>
       <c r="B34">
-        <v>227.1100006103516</v>
+        <v>250.8999938964844</v>
       </c>
       <c r="C34">
-        <v>220.8300018310547</v>
+        <v>242.8200073242188</v>
       </c>
       <c r="D34">
-        <v>226.9199981689453</v>
+        <v>244.5099945068359</v>
       </c>
       <c r="E34">
-        <v>226.8535614013672</v>
+        <v>244.4384155273438</v>
       </c>
       <c r="F34">
-        <v>18759000</v>
+        <v>24599000</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>228.2299957275391</v>
+        <v>248.7799987792969</v>
       </c>
       <c r="B35">
-        <v>231.3000030517578</v>
+        <v>249.5</v>
       </c>
       <c r="C35">
-        <v>225.6100006103516</v>
+        <v>245.2299957275391</v>
       </c>
       <c r="D35">
-        <v>227.2599945068359</v>
+        <v>249.4100036621094</v>
       </c>
       <c r="E35">
-        <v>227.1934661865234</v>
+        <v>249.3369903564453</v>
       </c>
       <c r="F35">
-        <v>24938400</v>
+        <v>23420400</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>229.7299957275391</v>
+        <v>250.0099945068359</v>
       </c>
       <c r="B36">
-        <v>233.5500030517578</v>
+        <v>257.0899963378906</v>
       </c>
       <c r="C36">
-        <v>227.6999969482422</v>
+        <v>250</v>
       </c>
       <c r="D36">
-        <v>231.6600036621094</v>
+        <v>255.6699981689453</v>
       </c>
       <c r="E36">
-        <v>231.5921783447266</v>
+        <v>255.5951538085938</v>
       </c>
       <c r="F36">
-        <v>23023500</v>
+        <v>29213700</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>239.8899993896484</v>
+        <v>256.489990234375</v>
       </c>
       <c r="B37">
-        <v>252.5899963378906</v>
+        <v>258.9400024414062</v>
       </c>
       <c r="C37">
-        <v>239.2400054931641</v>
+        <v>252.2700042724609</v>
       </c>
       <c r="D37">
-        <v>247.1699981689453</v>
+        <v>258.2699890136719</v>
       </c>
       <c r="E37">
-        <v>247.0976409912109</v>
+        <v>258.1943969726562</v>
       </c>
       <c r="F37">
-        <v>48589800</v>
+        <v>26574000</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>244.7400054931641</v>
+        <v>258.2200012207031</v>
       </c>
       <c r="B38">
-        <v>250.8999938964844</v>
+        <v>266.7799987792969</v>
       </c>
       <c r="C38">
-        <v>242.8200073242188</v>
+        <v>258</v>
       </c>
       <c r="D38">
-        <v>244.5099945068359</v>
+        <v>264.010009765625</v>
       </c>
       <c r="E38">
-        <v>244.4384155273438</v>
+        <v>263.9327087402344</v>
       </c>
       <c r="F38">
-        <v>24599000</v>
+        <v>29411200</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>248.7799987792969</v>
+        <v>266.7000122070312</v>
       </c>
       <c r="B39">
-        <v>249.5</v>
+        <v>267.8399963378906</v>
       </c>
       <c r="C39">
-        <v>245.2299957275391</v>
+        <v>262.3500061035156</v>
       </c>
       <c r="D39">
-        <v>249.4100036621094</v>
+        <v>265.9800109863281</v>
       </c>
       <c r="E39">
-        <v>249.3369903564453</v>
+        <v>265.9021301269531</v>
       </c>
       <c r="F39">
-        <v>23420400</v>
+        <v>23991000</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>250.0099945068359</v>
+        <v>272.2900085449219</v>
       </c>
       <c r="B40">
-        <v>257.0899963378906</v>
+        <v>313.6499938964844</v>
       </c>
       <c r="C40">
-        <v>250</v>
+        <v>271.1799926757812</v>
       </c>
       <c r="D40">
-        <v>255.6699981689453</v>
+        <v>298.010009765625</v>
       </c>
       <c r="E40">
-        <v>255.5951538085938</v>
+        <v>297.9227600097656</v>
       </c>
       <c r="F40">
-        <v>29213700</v>
+        <v>115363100</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>256.489990234375</v>
+        <v>301.8699951171875</v>
       </c>
       <c r="B41">
-        <v>258.9400024414062</v>
+        <v>314</v>
       </c>
       <c r="C41">
-        <v>252.2700042724609</v>
+        <v>294.1000061035156</v>
       </c>
       <c r="D41">
-        <v>258.2699890136719</v>
+        <v>297.5199890136719</v>
       </c>
       <c r="E41">
-        <v>258.1943969726562</v>
+        <v>297.432861328125</v>
       </c>
       <c r="F41">
-        <v>26574000</v>
+        <v>85072800</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>258.2200012207031</v>
+        <v>301.489990234375</v>
       </c>
       <c r="B42">
-        <v>266.7799987792969</v>
+        <v>311</v>
       </c>
       <c r="C42">
-        <v>258</v>
+        <v>299.0700073242188</v>
       </c>
       <c r="D42">
-        <v>264.010009765625</v>
+        <v>308.0400085449219</v>
       </c>
       <c r="E42">
-        <v>263.9327087402344</v>
+        <v>307.9498291015625</v>
       </c>
       <c r="F42">
-        <v>29411200</v>
+        <v>50310100</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>266.7000122070312</v>
+        <v>322.8200073242188</v>
       </c>
       <c r="B43">
-        <v>267.8399963378906</v>
+        <v>323.1000061035156</v>
       </c>
       <c r="C43">
-        <v>262.3500061035156</v>
+        <v>299.6400146484375</v>
       </c>
       <c r="D43">
-        <v>265.9800109863281</v>
+        <v>306.5700073242188</v>
       </c>
       <c r="E43">
-        <v>265.9021301269531</v>
+        <v>306.4802551269531</v>
       </c>
       <c r="F43">
-        <v>23991000</v>
+        <v>64674600</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>272.2900085449219</v>
+        <v>293.5599975585938</v>
       </c>
       <c r="B44">
-        <v>313.6499938964844</v>
+        <v>308.5</v>
       </c>
       <c r="C44">
-        <v>271.1799926757812</v>
+        <v>287.7799987792969</v>
       </c>
       <c r="D44">
-        <v>298.010009765625</v>
+        <v>294.5899963378906</v>
       </c>
       <c r="E44">
-        <v>297.9227600097656</v>
+        <v>294.5037536621094</v>
       </c>
       <c r="F44">
-        <v>115363100</v>
+        <v>63620600</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>301.8699951171875</v>
+        <v>304.6799926757812</v>
       </c>
       <c r="B45">
-        <v>314</v>
+        <v>305.8999938964844</v>
       </c>
       <c r="C45">
-        <v>294.1000061035156</v>
+        <v>297.7699890136719</v>
       </c>
       <c r="D45">
-        <v>297.5199890136719</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="E45">
-        <v>297.432861328125</v>
+        <v>303.81103515625</v>
       </c>
       <c r="F45">
-        <v>85072800</v>
+        <v>33217200</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>301.489990234375</v>
+        <v>300.1000061035156</v>
       </c>
       <c r="B46">
-        <v>311</v>
+        <v>306.7999877929688</v>
       </c>
       <c r="C46">
-        <v>299.0700073242188</v>
+        <v>296.2999877929688</v>
       </c>
       <c r="D46">
-        <v>308.0400085449219</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="E46">
-        <v>307.9498291015625</v>
+        <v>303.81103515625</v>
       </c>
       <c r="F46">
-        <v>50310100</v>
+        <v>41215100</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>322.8200073242188</v>
+        <v>305.5199890136719</v>
       </c>
       <c r="B47">
-        <v>323.1000061035156</v>
+        <v>306.4400024414062</v>
       </c>
       <c r="C47">
-        <v>299.6400146484375</v>
+        <v>292.4700012207031</v>
       </c>
       <c r="D47">
-        <v>306.5700073242188</v>
+        <v>300.25</v>
       </c>
       <c r="E47">
-        <v>306.4802551269531</v>
+        <v>300.1620788574219</v>
       </c>
       <c r="F47">
-        <v>64674600</v>
+        <v>38490900</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>293.5599975585938</v>
+        <v>297.5899963378906</v>
       </c>
       <c r="B48">
-        <v>308.5</v>
+        <v>303.8999938964844</v>
       </c>
       <c r="C48">
-        <v>287.7799987792969</v>
+        <v>297.0599975585938</v>
       </c>
       <c r="D48">
-        <v>294.5899963378906</v>
+        <v>302.0299987792969</v>
       </c>
       <c r="E48">
-        <v>294.5037536621094</v>
+        <v>301.9415588378906</v>
       </c>
       <c r="F48">
-        <v>63620600</v>
+        <v>26448400</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>304.6799926757812</v>
+        <v>304.1799926757812</v>
       </c>
       <c r="B49">
-        <v>305.8999938964844</v>
+        <v>305.0899963378906</v>
       </c>
       <c r="C49">
-        <v>297.7699890136719</v>
+        <v>288</v>
       </c>
       <c r="D49">
-        <v>303.8999938964844</v>
+        <v>292.6099853515625</v>
       </c>
       <c r="E49">
-        <v>303.81103515625</v>
+        <v>292.5243225097656</v>
       </c>
       <c r="F49">
-        <v>33217200</v>
+        <v>42850800</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>300.1000061035156</v>
+        <v>323.6700134277344</v>
       </c>
       <c r="B50">
-        <v>306.7999877929688</v>
+        <v>327.6000061035156</v>
       </c>
       <c r="C50">
-        <v>296.2999877929688</v>
+        <v>313.2099914550781</v>
       </c>
       <c r="D50">
-        <v>303.8999938964844</v>
+        <v>316.75</v>
       </c>
       <c r="E50">
-        <v>303.81103515625</v>
+        <v>316.6572570800781</v>
       </c>
       <c r="F50">
-        <v>41215100</v>
+        <v>78171100</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>305.5199890136719</v>
+        <v>322.4299926757812</v>
       </c>
       <c r="B51">
-        <v>306.4400024414062</v>
+        <v>330.8800048828125</v>
       </c>
       <c r="C51">
-        <v>292.4700012207031</v>
+        <v>319.0499877929688</v>
       </c>
       <c r="D51">
-        <v>300.25</v>
+        <v>329.8500061035156</v>
       </c>
       <c r="E51">
-        <v>300.1620788574219</v>
+        <v>329.7534484863281</v>
       </c>
       <c r="F51">
-        <v>38490900</v>
+        <v>53386700</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>297.5899963378906</v>
+        <v>335.1700134277344</v>
       </c>
       <c r="B52">
-        <v>303.8999938964844</v>
+        <v>346.4700012207031</v>
       </c>
       <c r="C52">
-        <v>297.0599975585938</v>
+        <v>319</v>
       </c>
       <c r="D52">
-        <v>302.0299987792969</v>
+        <v>319.5599975585938</v>
       </c>
       <c r="E52">
-        <v>301.9415588378906</v>
+        <v>319.4664306640625</v>
       </c>
       <c r="F52">
-        <v>26448400</v>
+        <v>75433500</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>304.1799926757812</v>
+        <v>315.3500061035156</v>
       </c>
       <c r="B53">
-        <v>305.0899963378906</v>
+        <v>323.6000061035156</v>
       </c>
       <c r="C53">
-        <v>288</v>
+        <v>308.7999877929688</v>
       </c>
       <c r="D53">
-        <v>292.6099853515625</v>
+        <v>317.4599914550781</v>
       </c>
       <c r="E53">
-        <v>292.5243225097656</v>
+        <v>317.3670349121094</v>
       </c>
       <c r="F53">
-        <v>42850800</v>
+        <v>53216300</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>323.6700134277344</v>
+        <v>314.6099853515625</v>
       </c>
       <c r="B54">
-        <v>327.6000061035156</v>
+        <v>328.5499877929688</v>
       </c>
       <c r="C54">
-        <v>313.2099914550781</v>
+        <v>309.2799987792969</v>
       </c>
       <c r="D54">
-        <v>316.75</v>
+        <v>326.739990234375</v>
       </c>
       <c r="E54">
-        <v>316.6572570800781</v>
+        <v>326.6443176269531</v>
       </c>
       <c r="F54">
-        <v>78171100</v>
+        <v>43516200</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>322.4299926757812</v>
+        <v>326</v>
       </c>
       <c r="B55">
-        <v>330.8800048828125</v>
+        <v>327.1000061035156</v>
       </c>
       <c r="C55">
-        <v>319.0499877929688</v>
+        <v>313.5</v>
       </c>
       <c r="D55">
-        <v>329.8500061035156</v>
+        <v>315.0299987792969</v>
       </c>
       <c r="E55">
-        <v>329.7534484863281</v>
+        <v>314.9377746582031</v>
       </c>
       <c r="F55">
-        <v>53386700</v>
+        <v>28306900</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>335.1700134277344</v>
+        <v>323.6600036621094</v>
       </c>
       <c r="B56">
-        <v>346.4700012207031</v>
+        <v>334.1199951171875</v>
       </c>
       <c r="C56">
-        <v>319</v>
+        <v>320.3599853515625</v>
       </c>
       <c r="D56">
-        <v>319.5599975585938</v>
+        <v>333.760009765625</v>
       </c>
       <c r="E56">
-        <v>319.4664306640625</v>
+        <v>333.6622924804688</v>
       </c>
       <c r="F56">
-        <v>75433500</v>
+        <v>45496400</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>315.3500061035156</v>
+        <v>331.6900024414062</v>
       </c>
       <c r="B57">
-        <v>323.6000061035156</v>
+        <v>333.5299987792969</v>
       </c>
       <c r="C57">
-        <v>308.7999877929688</v>
+        <v>318.6400146484375</v>
       </c>
       <c r="D57">
-        <v>317.4599914550781</v>
+        <v>326.760009765625</v>
       </c>
       <c r="E57">
-        <v>317.3670349121094</v>
+        <v>326.6643371582031</v>
       </c>
       <c r="F57">
-        <v>53216300</v>
+        <v>62206600</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>314.6099853515625</v>
+        <v>332.1900024414062</v>
       </c>
       <c r="B58">
-        <v>328.5499877929688</v>
+        <v>332.8900146484375</v>
       </c>
       <c r="C58">
-        <v>309.2799987792969</v>
+        <v>313.7999877929688</v>
       </c>
       <c r="D58">
-        <v>326.739990234375</v>
+        <v>314.3500061035156</v>
       </c>
       <c r="E58">
-        <v>326.6443176269531</v>
+        <v>314.2964477539062</v>
       </c>
       <c r="F58">
-        <v>43516200</v>
+        <v>48436800</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>326</v>
+        <v>312.1400146484375</v>
       </c>
       <c r="B59">
-        <v>327.1000061035156</v>
+        <v>324.7799987792969</v>
       </c>
       <c r="C59">
-        <v>313.5</v>
+        <v>310.25</v>
       </c>
       <c r="D59">
-        <v>315.0299987792969</v>
+        <v>321.260009765625</v>
       </c>
       <c r="E59">
-        <v>314.9377746582031</v>
+        <v>321.2052917480469</v>
       </c>
       <c r="F59">
-        <v>28306900</v>
+        <v>47289000</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>323.6600036621094</v>
+        <v>320</v>
       </c>
       <c r="B60">
-        <v>334.1199951171875</v>
+        <v>321.2900085449219</v>
       </c>
       <c r="C60">
-        <v>320.3599853515625</v>
+        <v>301.2999877929688</v>
       </c>
       <c r="D60">
-        <v>333.760009765625</v>
+        <v>306.9299926757812</v>
       </c>
       <c r="E60">
-        <v>333.6622924804688</v>
+        <v>306.8777160644531</v>
       </c>
       <c r="F60">
-        <v>45496400</v>
+        <v>54382300</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>331.6900024414062</v>
+        <v>298.7999877929688</v>
       </c>
       <c r="B61">
-        <v>333.5299987792969</v>
+        <v>302.4100036621094</v>
       </c>
       <c r="C61">
-        <v>318.6400146484375</v>
+        <v>280.3800048828125</v>
       </c>
       <c r="D61">
-        <v>326.760009765625</v>
+        <v>300.3699951171875</v>
       </c>
       <c r="E61">
-        <v>326.6643371582031</v>
+        <v>300.3188171386719</v>
       </c>
       <c r="F61">
-        <v>62206600</v>
+        <v>65893800</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>332.1900024414062</v>
+        <v>309.5700073242188</v>
       </c>
       <c r="B62">
-        <v>332.8900146484375</v>
+        <v>324.489990234375</v>
       </c>
       <c r="C62">
-        <v>313.7999877929688</v>
+        <v>306.510009765625</v>
       </c>
       <c r="D62">
-        <v>314.3500061035156</v>
+        <v>324.2699890136719</v>
       </c>
       <c r="E62">
-        <v>314.2964477539062</v>
+        <v>324.2147521972656</v>
       </c>
       <c r="F62">
-        <v>48436800</v>
+        <v>59305300</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>312.1400146484375</v>
+        <v>319.989990234375</v>
       </c>
       <c r="B63">
-        <v>324.7799987792969</v>
+        <v>322.8999938964844</v>
       </c>
       <c r="C63">
-        <v>310.25</v>
+        <v>314.2099914550781</v>
       </c>
       <c r="D63">
-        <v>321.260009765625</v>
+        <v>318.260009765625</v>
       </c>
       <c r="E63">
-        <v>321.2052917480469</v>
+        <v>318.2057800292969</v>
       </c>
       <c r="F63">
-        <v>47289000</v>
+        <v>47555100</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>320</v>
+        <v>317.3399963378906</v>
       </c>
       <c r="B64">
-        <v>321.2900085449219</v>
+        <v>322.0499877929688</v>
       </c>
       <c r="C64">
-        <v>301.2999877929688</v>
+        <v>304.2799987792969</v>
       </c>
       <c r="D64">
-        <v>306.9299926757812</v>
+        <v>304.8999938964844</v>
       </c>
       <c r="E64">
-        <v>306.8777160644531</v>
+        <v>304.8480529785156</v>
       </c>
       <c r="F64">
-        <v>54382300</v>
+        <v>48850700</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>298.7999877929688</v>
+        <v>311.5</v>
       </c>
       <c r="B65">
-        <v>302.4100036621094</v>
+        <v>313.0499877929688</v>
       </c>
       <c r="C65">
-        <v>280.3800048828125</v>
+        <v>298.6099853515625</v>
       </c>
       <c r="D65">
-        <v>300.3699951171875</v>
+        <v>301.9800109863281</v>
       </c>
       <c r="E65">
-        <v>300.3188171386719</v>
+        <v>301.9285583496094</v>
       </c>
       <c r="F65">
-        <v>65893800</v>
+        <v>48850500</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>309.5700073242188</v>
+        <v>302.489990234375</v>
       </c>
       <c r="B66">
-        <v>324.489990234375</v>
+        <v>302.9400024414062</v>
       </c>
       <c r="C66">
-        <v>306.510009765625</v>
+        <v>281.1600036621094</v>
       </c>
       <c r="D66">
-        <v>324.2699890136719</v>
+        <v>281.6099853515625</v>
       </c>
       <c r="E66">
-        <v>324.2147521972656</v>
+        <v>281.56201171875</v>
       </c>
       <c r="F66">
-        <v>59305300</v>
+        <v>59834400</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>319.989990234375</v>
+        <v>276.989990234375</v>
       </c>
       <c r="B67">
-        <v>322.8999938964844</v>
+        <v>286.7799987792969</v>
       </c>
       <c r="C67">
-        <v>314.2099914550781</v>
+        <v>272.5</v>
       </c>
       <c r="D67">
-        <v>318.260009765625</v>
+        <v>283.3699951171875</v>
       </c>
       <c r="E67">
-        <v>318.2057800292969</v>
+        <v>283.3217163085938</v>
       </c>
       <c r="F67">
-        <v>47555100</v>
+        <v>66703500</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>317.3399963378906</v>
+        <v>284</v>
       </c>
       <c r="B68">
-        <v>322.0499877929688</v>
+        <v>305</v>
       </c>
       <c r="C68">
-        <v>304.2799987792969</v>
+        <v>278.3800048828125</v>
       </c>
       <c r="D68">
-        <v>304.8999938964844</v>
+        <v>304.5899963378906</v>
       </c>
       <c r="E68">
-        <v>304.8480529785156</v>
+        <v>304.5381164550781</v>
       </c>
       <c r="F68">
-        <v>48850700</v>
+        <v>69829700</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>311.5</v>
+        <v>311.5199890136719</v>
       </c>
       <c r="B69">
-        <v>313.0499877929688</v>
+        <v>311.6000061035156</v>
       </c>
       <c r="C69">
-        <v>298.6099853515625</v>
+        <v>280.9299926757812</v>
       </c>
       <c r="D69">
-        <v>301.9800109863281</v>
+        <v>283.8699951171875</v>
       </c>
       <c r="E69">
-        <v>301.9285583496094</v>
+        <v>283.8216247558594</v>
       </c>
       <c r="F69">
-        <v>48850500</v>
+        <v>70736600</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>302.489990234375</v>
+        <v>279.8500061035156</v>
       </c>
       <c r="B70">
-        <v>302.9400024414062</v>
+        <v>289.2200012207031</v>
       </c>
       <c r="C70">
-        <v>281.1600036621094</v>
+        <v>277.6000061035156</v>
       </c>
       <c r="D70">
-        <v>281.6099853515625</v>
+        <v>278.010009765625</v>
       </c>
       <c r="E70">
-        <v>281.56201171875</v>
+        <v>277.962646484375</v>
       </c>
       <c r="F70">
-        <v>59834400</v>
+        <v>71375800</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>276.989990234375</v>
+        <v>273.0499877929688</v>
       </c>
       <c r="B71">
-        <v>286.7799987792969</v>
+        <v>281.4400024414062</v>
       </c>
       <c r="C71">
-        <v>272.5</v>
+        <v>271.4500122070312</v>
       </c>
       <c r="D71">
-        <v>283.3699951171875</v>
+        <v>277.1900024414062</v>
       </c>
       <c r="E71">
-        <v>283.3217163085938</v>
+        <v>277.1427917480469</v>
       </c>
       <c r="F71">
-        <v>66703500</v>
+        <v>46184700</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>284</v>
+        <v>283.739990234375</v>
       </c>
       <c r="B72">
-        <v>305</v>
+        <v>291.2000122070312</v>
       </c>
       <c r="C72">
-        <v>278.3800048828125</v>
+        <v>274.010009765625</v>
       </c>
       <c r="D72">
-        <v>304.5899963378906</v>
+        <v>290.75</v>
       </c>
       <c r="E72">
-        <v>304.5381164550781</v>
+        <v>290.7004699707031</v>
       </c>
       <c r="F72">
-        <v>69829700</v>
+        <v>52438500</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>311.5199890136719</v>
+        <v>288.9100036621094</v>
       </c>
       <c r="B73">
-        <v>311.6000061035156</v>
+        <v>295.5499877929688</v>
       </c>
       <c r="C73">
-        <v>280.9299926757812</v>
+        <v>284.489990234375</v>
       </c>
       <c r="D73">
-        <v>283.8699951171875</v>
+        <v>294</v>
       </c>
       <c r="E73">
-        <v>283.8216247558594</v>
+        <v>293.9499206542969</v>
       </c>
       <c r="F73">
-        <v>70736600</v>
+        <v>39518400</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>279.8500061035156</v>
+        <v>297.5499877929688</v>
       </c>
       <c r="B74">
-        <v>289.2200012207031</v>
+        <v>300.5899963378906</v>
       </c>
       <c r="C74">
-        <v>277.6000061035156</v>
+        <v>294.3099975585938</v>
       </c>
       <c r="D74">
-        <v>278.010009765625</v>
+        <v>296.3999938964844</v>
       </c>
       <c r="E74">
-        <v>277.962646484375</v>
+        <v>296.3494873046875</v>
       </c>
       <c r="F74">
-        <v>71375800</v>
+        <v>34302200</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>273.0499877929688</v>
+        <v>296.6000061035156</v>
       </c>
       <c r="B75">
-        <v>281.4400024414062</v>
+        <v>310.8699951171875</v>
       </c>
       <c r="C75">
-        <v>271.4500122070312</v>
+        <v>296.3999938964844</v>
       </c>
       <c r="D75">
-        <v>277.1900024414062</v>
+        <v>309.4500122070312</v>
       </c>
       <c r="E75">
-        <v>277.1427917480469</v>
+        <v>309.3973083496094</v>
       </c>
       <c r="F75">
-        <v>46184700</v>
+        <v>40368600</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>283.739990234375</v>
+        <v>313.1199951171875</v>
       </c>
       <c r="B76">
-        <v>291.2000122070312</v>
+        <v>313.2999877929688</v>
       </c>
       <c r="C76">
-        <v>274.010009765625</v>
+        <v>300.1199951171875</v>
       </c>
       <c r="D76">
-        <v>290.75</v>
+        <v>303.2200012207031</v>
       </c>
       <c r="E76">
-        <v>290.7004699707031</v>
+        <v>303.1683349609375</v>
       </c>
       <c r="F76">
-        <v>52438500</v>
+        <v>42059100</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>288.9100036621094</v>
+        <v>302.7300109863281</v>
       </c>
       <c r="B77">
-        <v>295.5499877929688</v>
+        <v>305.4800109863281</v>
       </c>
       <c r="C77">
-        <v>284.489990234375</v>
+        <v>293.6600036621094</v>
       </c>
       <c r="D77">
-        <v>294</v>
+        <v>300.010009765625</v>
       </c>
       <c r="E77">
-        <v>293.9499206542969</v>
+        <v>299.9588928222656</v>
       </c>
       <c r="F77">
-        <v>39518400</v>
+        <v>34313900</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>297.5499877929688</v>
+        <v>298.2699890136719</v>
       </c>
       <c r="B78">
-        <v>300.5899963378906</v>
+        <v>304.5700073242188</v>
       </c>
       <c r="C78">
-        <v>294.3099975585938</v>
+        <v>295.3999938964844</v>
       </c>
       <c r="D78">
-        <v>296.3999938964844</v>
+        <v>295.8599853515625</v>
       </c>
       <c r="E78">
-        <v>296.3494873046875</v>
+        <v>295.8096008300781</v>
       </c>
       <c r="F78">
-        <v>34302200</v>
+        <v>30886400</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>296.6000061035156</v>
+        <v>296.739990234375</v>
       </c>
       <c r="B79">
-        <v>310.8699951171875</v>
+        <v>300.2999877929688</v>
       </c>
       <c r="C79">
-        <v>296.3999938964844</v>
+        <v>293.3099975585938</v>
       </c>
       <c r="D79">
-        <v>309.4500122070312</v>
+        <v>294.1099853515625</v>
       </c>
       <c r="E79">
-        <v>309.3973083496094</v>
+        <v>294.0598754882812</v>
       </c>
       <c r="F79">
-        <v>40368600</v>
+        <v>26653000</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>313.1199951171875</v>
+        <v>298.1499938964844</v>
       </c>
       <c r="B80">
-        <v>313.2999877929688</v>
+        <v>307.1099853515625</v>
       </c>
       <c r="C80">
-        <v>300.1199951171875</v>
+        <v>297.8500061035156</v>
       </c>
       <c r="D80">
-        <v>303.2200012207031</v>
+        <v>301.2099914550781</v>
       </c>
       <c r="E80">
-        <v>303.1683349609375</v>
+        <v>301.15869140625</v>
       </c>
       <c r="F80">
-        <v>42059100</v>
+        <v>39154700</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>302.7300109863281</v>
+        <v>302.7699890136719</v>
       </c>
       <c r="B81">
-        <v>305.4800109863281</v>
+        <v>304.6799926757812</v>
       </c>
       <c r="C81">
-        <v>293.6600036621094</v>
+        <v>283.489990234375</v>
       </c>
       <c r="D81">
-        <v>300.010009765625</v>
+        <v>292.8999938964844</v>
       </c>
       <c r="E81">
-        <v>299.9588928222656</v>
+        <v>292.85009765625</v>
       </c>
       <c r="F81">
-        <v>34313900</v>
+        <v>52715400</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>298.2699890136719</v>
+        <v>289.489990234375</v>
       </c>
       <c r="B82">
-        <v>304.5700073242188</v>
+        <v>294.1600036621094</v>
       </c>
       <c r="C82">
-        <v>295.3999938964844</v>
+        <v>275.3299865722656</v>
       </c>
       <c r="D82">
-        <v>295.8599853515625</v>
+        <v>276.0400085449219</v>
       </c>
       <c r="E82">
-        <v>295.8096008300781</v>
+        <v>275.9929809570312</v>
       </c>
       <c r="F82">
-        <v>30886400</v>
+        <v>49806400</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>296.739990234375</v>
+        <v>276.3999938964844</v>
       </c>
       <c r="B83">
-        <v>300.2999877929688</v>
+        <v>284.3800048828125</v>
       </c>
       <c r="C83">
-        <v>293.3099975585938</v>
+        <v>270.6499938964844</v>
       </c>
       <c r="D83">
-        <v>294.1099853515625</v>
+        <v>281.7799987792969</v>
       </c>
       <c r="E83">
-        <v>294.0598754882812</v>
+        <v>281.7319946289062</v>
       </c>
       <c r="F83">
-        <v>26653000</v>
+        <v>45418600</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>298.1499938964844</v>
+        <v>281.4100036621094</v>
       </c>
       <c r="B84">
-        <v>307.1099853515625</v>
+        <v>284.2200012207031</v>
       </c>
       <c r="C84">
-        <v>297.8500061035156</v>
+        <v>270.5700073242188</v>
       </c>
       <c r="D84">
-        <v>301.2099914550781</v>
+        <v>272.4700012207031</v>
       </c>
       <c r="E84">
-        <v>301.15869140625</v>
+        <v>272.423583984375</v>
       </c>
       <c r="F84">
-        <v>39154700</v>
+        <v>40920100</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>302.7699890136719</v>
+        <v>265.8099975585938</v>
       </c>
       <c r="B85">
-        <v>304.6799926757812</v>
+        <v>274.6900024414062</v>
       </c>
       <c r="C85">
-        <v>283.489990234375</v>
+        <v>256.4400024414062</v>
       </c>
       <c r="D85">
-        <v>292.8999938964844</v>
+        <v>274</v>
       </c>
       <c r="E85">
-        <v>292.85009765625</v>
+        <v>273.9533386230469</v>
       </c>
       <c r="F85">
-        <v>52715400</v>
+        <v>59468100</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>289.489990234375</v>
+        <v>273.2300109863281</v>
       </c>
       <c r="B86">
-        <v>294.1600036621094</v>
+        <v>280.6499938964844</v>
       </c>
       <c r="C86">
-        <v>275.3299865722656</v>
+        <v>268.3900146484375</v>
       </c>
       <c r="D86">
-        <v>276.0400085449219</v>
+        <v>278.1700134277344</v>
       </c>
       <c r="E86">
-        <v>275.9929809570312</v>
+        <v>278.1226196289062</v>
       </c>
       <c r="F86">
-        <v>49806400</v>
+        <v>40408900</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>276.3999938964844</v>
+        <v>280.6700134277344</v>
       </c>
       <c r="B87">
-        <v>284.3800048828125</v>
+        <v>285.9500122070312</v>
       </c>
       <c r="C87">
-        <v>270.6499938964844</v>
+        <v>276.0799865722656</v>
       </c>
       <c r="D87">
-        <v>281.7799987792969</v>
+        <v>279.989990234375</v>
       </c>
       <c r="E87">
-        <v>281.7319946289062</v>
+        <v>279.9422912597656</v>
       </c>
       <c r="F87">
-        <v>45418600</v>
+        <v>38341300</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>281.4100036621094</v>
+        <v>283.7900085449219</v>
       </c>
       <c r="B88">
-        <v>284.2200012207031</v>
+        <v>284.7999877929688</v>
       </c>
       <c r="C88">
-        <v>270.5700073242188</v>
+        <v>264.9800109863281</v>
       </c>
       <c r="D88">
-        <v>272.4700012207031</v>
+        <v>265.75</v>
       </c>
       <c r="E88">
-        <v>272.423583984375</v>
+        <v>265.7047424316406</v>
       </c>
       <c r="F88">
-        <v>40920100</v>
+        <v>54017100</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>265.8099975585938</v>
+        <v>263</v>
       </c>
       <c r="B89">
-        <v>274.6900024414062</v>
+        <v>271.9700012207031</v>
       </c>
       <c r="C89">
-        <v>256.4400024414062</v>
+        <v>262.1000061035156</v>
       </c>
       <c r="D89">
-        <v>274</v>
+        <v>269.4200134277344</v>
       </c>
       <c r="E89">
-        <v>273.9533386230469</v>
+        <v>269.3741149902344</v>
       </c>
       <c r="F89">
-        <v>59468100</v>
+        <v>39522800</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>273.2300109863281</v>
+        <v>262.6000061035156</v>
       </c>
       <c r="B90">
-        <v>280.6499938964844</v>
+        <v>266.3800048828125</v>
       </c>
       <c r="C90">
-        <v>268.3900146484375</v>
+        <v>257.7000122070312</v>
       </c>
       <c r="D90">
-        <v>278.1700134277344</v>
+        <v>259.0299987792969</v>
       </c>
       <c r="E90">
-        <v>278.1226196289062</v>
+        <v>258.9858703613281</v>
       </c>
       <c r="F90">
-        <v>40408900</v>
+        <v>42427000</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>280.6700134277344</v>
+        <v>260.7900085449219</v>
       </c>
       <c r="B91">
-        <v>285.9500122070312</v>
+        <v>265.4299926757812</v>
       </c>
       <c r="C91">
-        <v>276.0799865722656</v>
+        <v>250.5200042724609</v>
       </c>
       <c r="D91">
-        <v>279.989990234375</v>
+        <v>250.6699981689453</v>
       </c>
       <c r="E91">
-        <v>279.9422912597656</v>
+        <v>250.6273040771484</v>
       </c>
       <c r="F91">
-        <v>38341300</v>
+        <v>48831500</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>283.7900085449219</v>
+        <v>253.0399932861328</v>
       </c>
       <c r="B92">
-        <v>284.7999877929688</v>
+        <v>255.7899932861328</v>
       </c>
       <c r="C92">
-        <v>264.9800109863281</v>
+        <v>240.7799987792969</v>
       </c>
       <c r="D92">
-        <v>265.75</v>
+        <v>241.5</v>
       </c>
       <c r="E92">
-        <v>265.7047424316406</v>
+        <v>241.4588623046875</v>
       </c>
       <c r="F92">
-        <v>54017100</v>
+        <v>43518100</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>263</v>
+        <v>235.0700073242188</v>
       </c>
       <c r="B93">
-        <v>271.9700012207031</v>
+        <v>248.2299957275391</v>
       </c>
       <c r="C93">
-        <v>262.1000061035156</v>
+        <v>232.6300048828125</v>
       </c>
       <c r="D93">
-        <v>269.4200134277344</v>
+        <v>233.7400054931641</v>
       </c>
       <c r="E93">
-        <v>269.3741149902344</v>
+        <v>233.7001953125</v>
       </c>
       <c r="F93">
-        <v>39522800</v>
+        <v>71895800</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>262.6000061035156</v>
+        <v>223.3000030517578</v>
       </c>
       <c r="B94">
-        <v>266.3800048828125</v>
+        <v>233.8000030517578</v>
       </c>
       <c r="C94">
-        <v>257.7000122070312</v>
+        <v>208.8800048828125</v>
       </c>
       <c r="D94">
-        <v>259.0299987792969</v>
+        <v>233.7200012207031</v>
       </c>
       <c r="E94">
-        <v>258.9858703613281</v>
+        <v>233.6801910400391</v>
       </c>
       <c r="F94">
-        <v>42427000</v>
+        <v>91398200</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>260.7900085449219</v>
+        <v>225.4600067138672</v>
       </c>
       <c r="B95">
-        <v>265.4299926757812</v>
+        <v>229.4299926757812</v>
       </c>
       <c r="C95">
-        <v>250.5200042724609</v>
+        <v>220</v>
       </c>
       <c r="D95">
-        <v>250.6699981689453</v>
+        <v>223.2400054931641</v>
       </c>
       <c r="E95">
-        <v>250.6273040771484</v>
+        <v>223.2019805908203</v>
       </c>
       <c r="F95">
-        <v>48831500</v>
+        <v>66461600</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>253.0399932861328</v>
+        <v>232.3999938964844</v>
       </c>
       <c r="B96">
-        <v>255.7899932861328</v>
+        <v>240.5700073242188</v>
       </c>
       <c r="C96">
-        <v>240.7799987792969</v>
+        <v>223</v>
       </c>
       <c r="D96">
-        <v>241.5</v>
+        <v>227.7200012207031</v>
       </c>
       <c r="E96">
-        <v>241.4588623046875</v>
+        <v>227.6812133789062</v>
       </c>
       <c r="F96">
-        <v>43518100</v>
+        <v>75595900</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>235.0700073242188</v>
+        <v>235.6799926757812</v>
       </c>
       <c r="B97">
-        <v>248.2299957275391</v>
+        <v>239.9499969482422</v>
       </c>
       <c r="C97">
-        <v>232.6300048828125</v>
+        <v>216.75</v>
       </c>
       <c r="D97">
-        <v>233.7400054931641</v>
+        <v>219.4400024414062</v>
       </c>
       <c r="E97">
-        <v>233.7001953125</v>
+        <v>219.4026184082031</v>
       </c>
       <c r="F97">
-        <v>71895800</v>
+        <v>57335300</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>223.3000030517578</v>
+        <v>220.1199951171875</v>
       </c>
       <c r="B98">
-        <v>233.8000030517578</v>
+        <v>228.5800018310547</v>
       </c>
       <c r="C98">
-        <v>208.8800048828125</v>
+        <v>212.9600067138672</v>
       </c>
       <c r="D98">
-        <v>233.7200012207031</v>
+        <v>228.3999938964844</v>
       </c>
       <c r="E98">
-        <v>233.6801910400391</v>
+        <v>228.361083984375</v>
       </c>
       <c r="F98">
-        <v>91398200</v>
+        <v>54377400</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>225.4600067138672</v>
+        <v>231.8200073242188</v>
       </c>
       <c r="B99">
-        <v>229.4299926757812</v>
+        <v>245.0899963378906</v>
       </c>
       <c r="C99">
-        <v>220</v>
+        <v>230.5200042724609</v>
       </c>
       <c r="D99">
-        <v>223.2400054931641</v>
+        <v>244.8600006103516</v>
       </c>
       <c r="E99">
-        <v>223.2019805908203</v>
+        <v>244.8182830810547</v>
       </c>
       <c r="F99">
-        <v>66461600</v>
+        <v>56468000</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>232.3999938964844</v>
+        <v>251.0399932861328</v>
       </c>
       <c r="B100">
-        <v>240.5700073242188</v>
+        <v>251.4499969482422</v>
       </c>
       <c r="C100">
-        <v>223</v>
+        <v>238.8999938964844</v>
       </c>
       <c r="D100">
-        <v>227.7200012207031</v>
+        <v>246.3800048828125</v>
       </c>
       <c r="E100">
-        <v>227.6812133789062</v>
+        <v>246.3380279541016</v>
       </c>
       <c r="F100">
-        <v>75595900</v>
+        <v>51892500</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>235.6799926757812</v>
+        <v>257.9400024414062</v>
       </c>
       <c r="B101">
-        <v>239.9499969482422</v>
+        <v>258.1700134277344</v>
       </c>
       <c r="C101">
-        <v>216.75</v>
+        <v>245.5299987792969</v>
       </c>
       <c r="D101">
-        <v>219.4400024414062</v>
+        <v>252.4199981689453</v>
       </c>
       <c r="E101">
-        <v>219.4026184082031</v>
+        <v>252.3769989013672</v>
       </c>
       <c r="F101">
-        <v>57335300</v>
+        <v>54341900</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>220.1199951171875</v>
+        <v>244.5800018310547</v>
       </c>
       <c r="B102">
-        <v>228.5800018310547</v>
+        <v>250.7700042724609</v>
       </c>
       <c r="C102">
-        <v>212.9600067138672</v>
+        <v>237.8000030517578</v>
       </c>
       <c r="D102">
-        <v>228.3999938964844</v>
+        <v>239.4799957275391</v>
       </c>
       <c r="E102">
-        <v>228.361083984375</v>
+        <v>239.4391937255859</v>
       </c>
       <c r="F102">
-        <v>54377400</v>
+        <v>41017800</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>231.8200073242188</v>
+        <v>239.7200012207031</v>
       </c>
       <c r="B103">
-        <v>245.0899963378906</v>
+        <v>246.3500061035156</v>
       </c>
       <c r="C103">
-        <v>230.5200042724609</v>
+        <v>236.3200073242188</v>
       </c>
       <c r="D103">
-        <v>244.8600006103516</v>
+        <v>243.1900024414062</v>
       </c>
       <c r="E103">
-        <v>244.8182830810547</v>
+        <v>243.1485748291016</v>
       </c>
       <c r="F103">
-        <v>56468000</v>
+        <v>35432800</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>251.0399932861328</v>
+        <v>243.7200012207031</v>
       </c>
       <c r="B104">
-        <v>251.4499969482422</v>
+        <v>251.8200073242188</v>
       </c>
       <c r="C104">
-        <v>238.8999938964844</v>
+        <v>242.0200042724609</v>
       </c>
       <c r="D104">
-        <v>246.3800048828125</v>
+        <v>247.2799987792969</v>
       </c>
       <c r="E104">
-        <v>246.3380279541016</v>
+        <v>247.2378692626953</v>
       </c>
       <c r="F104">
-        <v>51892500</v>
+        <v>37686800</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>257.9400024414062</v>
+        <v>243.5899963378906</v>
       </c>
       <c r="B105">
-        <v>258.1700134277344</v>
+        <v>252.3000030517578</v>
       </c>
       <c r="C105">
-        <v>245.5299987792969</v>
+        <v>239.8000030517578</v>
       </c>
       <c r="D105">
-        <v>252.4199981689453</v>
+        <v>251.0800018310547</v>
       </c>
       <c r="E105">
-        <v>252.3769989013672</v>
+        <v>251.0372314453125</v>
       </c>
       <c r="F105">
-        <v>54341900</v>
+        <v>41035900</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>244.5800018310547</v>
+        <v>256.2200012207031</v>
       </c>
       <c r="B106">
-        <v>250.7700042724609</v>
+        <v>267.25</v>
       </c>
       <c r="C106">
-        <v>237.8000030517578</v>
+        <v>253.5299987792969</v>
       </c>
       <c r="D106">
-        <v>239.4799957275391</v>
+        <v>267.0499877929688</v>
       </c>
       <c r="E106">
-        <v>239.4391937255859</v>
+        <v>267.0044860839844</v>
       </c>
       <c r="F106">
-        <v>41017800</v>
+        <v>52428200</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>239.7200012207031</v>
+        <v>259.9500122070312</v>
       </c>
       <c r="B107">
-        <v>246.3500061035156</v>
+        <v>269.25</v>
       </c>
       <c r="C107">
-        <v>236.3200073242188</v>
+        <v>256</v>
       </c>
       <c r="D107">
-        <v>243.1900024414062</v>
+        <v>258.239990234375</v>
       </c>
       <c r="E107">
-        <v>243.1485748291016</v>
+        <v>258.1959838867188</v>
       </c>
       <c r="F107">
-        <v>35432800</v>
+        <v>51320000</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>243.7200012207031</v>
+        <v>259.1600036621094</v>
       </c>
       <c r="B108">
-        <v>251.8200073242188</v>
+        <v>261.5199890136719</v>
       </c>
       <c r="C108">
-        <v>242.0200042724609</v>
+        <v>237.7299957275391</v>
       </c>
       <c r="D108">
-        <v>247.2799987792969</v>
+        <v>239.4900054931641</v>
       </c>
       <c r="E108">
-        <v>247.2378692626953</v>
+        <v>239.4492034912109</v>
       </c>
       <c r="F108">
-        <v>37686800</v>
+        <v>60424800</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>243.5899963378906</v>
+        <v>239.3399963378906</v>
       </c>
       <c r="B109">
-        <v>252.3000030517578</v>
+        <v>248.75</v>
       </c>
       <c r="C109">
-        <v>239.8000030517578</v>
+        <v>237.5500030517578</v>
       </c>
       <c r="D109">
-        <v>251.0800018310547</v>
+        <v>242.6699981689453</v>
       </c>
       <c r="E109">
-        <v>251.0372314453125</v>
+        <v>242.628662109375</v>
       </c>
       <c r="F109">
-        <v>41035900</v>
+        <v>44042400</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>256.2200012207031</v>
+        <v>249.4900054931641</v>
       </c>
       <c r="B110">
-        <v>267.25</v>
+        <v>265.4500122070312</v>
       </c>
       <c r="C110">
-        <v>253.5299987792969</v>
+        <v>247.8399963378906</v>
       </c>
       <c r="D110">
-        <v>267.0499877929688</v>
+        <v>264.9500122070312</v>
       </c>
       <c r="E110">
-        <v>267.0044860839844</v>
+        <v>264.9048767089844</v>
       </c>
       <c r="F110">
-        <v>52428200</v>
+        <v>69986900</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>259.9500122070312</v>
+        <v>262.5899963378906</v>
       </c>
       <c r="B111">
-        <v>269.25</v>
+        <v>265.8200073242188</v>
       </c>
       <c r="C111">
-        <v>256</v>
+        <v>255.5200042724609</v>
       </c>
       <c r="D111">
-        <v>258.239990234375</v>
+        <v>265.1099853515625</v>
       </c>
       <c r="E111">
-        <v>258.1959838867188</v>
+        <v>265.0648193359375</v>
       </c>
       <c r="F111">
-        <v>51320000</v>
+        <v>73267600</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>259.1600036621094</v>
+        <v>256.2999877929688</v>
       </c>
       <c r="B112">
-        <v>261.5199890136719</v>
+        <v>257.8500061035156</v>
       </c>
       <c r="C112">
-        <v>237.7299957275391</v>
+        <v>241.6499938964844</v>
       </c>
       <c r="D112">
-        <v>239.4900054931641</v>
+        <v>245.0700073242188</v>
       </c>
       <c r="E112">
-        <v>239.4492034912109</v>
+        <v>245.0282592773438</v>
       </c>
       <c r="F112">
-        <v>60424800</v>
+        <v>81059500</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>239.3399963378906</v>
+        <v>246.6799926757812</v>
       </c>
       <c r="B113">
-        <v>248.75</v>
+        <v>249.8600006103516</v>
       </c>
       <c r="C113">
-        <v>237.5500030517578</v>
+        <v>231</v>
       </c>
       <c r="D113">
-        <v>242.6699981689453</v>
+        <v>236.4199981689453</v>
       </c>
       <c r="E113">
-        <v>242.628662109375</v>
+        <v>236.3797302246094</v>
       </c>
       <c r="F113">
-        <v>44042400</v>
+        <v>76125500</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>249.4900054931641</v>
+        <v>230.3500061035156</v>
       </c>
       <c r="B114">
-        <v>265.4500122070312</v>
+        <v>240.6399993896484</v>
       </c>
       <c r="C114">
-        <v>247.8399963378906</v>
+        <v>230</v>
       </c>
       <c r="D114">
-        <v>264.9500122070312</v>
+        <v>233.8999938964844</v>
       </c>
       <c r="E114">
-        <v>264.9048767089844</v>
+        <v>233.8601531982422</v>
       </c>
       <c r="F114">
-        <v>69986900</v>
+        <v>63342200</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>262.5899963378906</v>
+        <v>238.0200042724609</v>
       </c>
       <c r="B115">
-        <v>265.8200073242188</v>
+        <v>241.5500030517578</v>
       </c>
       <c r="C115">
-        <v>255.5200042724609</v>
+        <v>223.0099945068359</v>
       </c>
       <c r="D115">
-        <v>265.1099853515625</v>
+        <v>223.8699951171875</v>
       </c>
       <c r="E115">
-        <v>265.0648193359375</v>
+        <v>223.8318634033203</v>
       </c>
       <c r="F115">
-        <v>73267600</v>
+        <v>56651100</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>256.2999877929688</v>
+        <v>210.1499938964844</v>
       </c>
       <c r="B116">
-        <v>257.8500061035156</v>
+        <v>238</v>
       </c>
       <c r="C116">
-        <v>241.6499938964844</v>
+        <v>208.8999938964844</v>
       </c>
       <c r="D116">
-        <v>245.0700073242188</v>
+        <v>237.4799957275391</v>
       </c>
       <c r="E116">
-        <v>245.0282592773438</v>
+        <v>237.4395446777344</v>
       </c>
       <c r="F116">
-        <v>81059500</v>
+        <v>73580100</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>246.6799926757812</v>
+        <v>237.2100067138672</v>
       </c>
       <c r="B117">
-        <v>249.8600006103516</v>
+        <v>242.1699981689453</v>
       </c>
       <c r="C117">
-        <v>231</v>
+        <v>233.8099975585938</v>
       </c>
       <c r="D117">
-        <v>236.4199981689453</v>
+        <v>241.5700073242188</v>
       </c>
       <c r="E117">
-        <v>236.3797302246094</v>
+        <v>241.5288543701172</v>
       </c>
       <c r="F117">
-        <v>76125500</v>
+        <v>52886600</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>230.3500061035156</v>
+        <v>239.9199981689453</v>
       </c>
       <c r="B118">
-        <v>240.6399993896484</v>
+        <v>246.6499938964844</v>
       </c>
       <c r="C118">
-        <v>230</v>
+        <v>237.0700073242188</v>
       </c>
       <c r="D118">
-        <v>233.8999938964844</v>
+        <v>243.8500061035156</v>
       </c>
       <c r="E118">
-        <v>233.8601531982422</v>
+        <v>243.8084716796875</v>
       </c>
       <c r="F118">
-        <v>63342200</v>
+        <v>47639300</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>238.0200042724609</v>
+        <v>242.9100036621094</v>
       </c>
       <c r="B119">
-        <v>241.5500030517578</v>
+        <v>243.7700042724609</v>
       </c>
       <c r="C119">
-        <v>223.0099945068359</v>
+        <v>231.3200073242188</v>
       </c>
       <c r="D119">
-        <v>223.8699951171875</v>
+        <v>234.7700042724609</v>
       </c>
       <c r="E119">
-        <v>223.8318634033203</v>
+        <v>234.7300109863281</v>
       </c>
       <c r="F119">
-        <v>56651100</v>
+        <v>41205600</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>210.1499938964844</v>
+        <v>237.5599975585938</v>
       </c>
       <c r="B120">
-        <v>238</v>
+        <v>244.0899963378906</v>
       </c>
       <c r="C120">
-        <v>208.8999938964844</v>
+        <v>234.1499938964844</v>
       </c>
       <c r="D120">
-        <v>237.4799957275391</v>
+        <v>242.1999969482422</v>
       </c>
       <c r="E120">
-        <v>237.4395446777344</v>
+        <v>242.1999969482422</v>
       </c>
       <c r="F120">
-        <v>73580100</v>
+        <v>38964200</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>237.2100067138672</v>
+        <v>242.6199951171875</v>
       </c>
       <c r="B121">
-        <v>242.1699981689453</v>
+        <v>243.2599945068359</v>
       </c>
       <c r="C121">
-        <v>233.8099975585938</v>
+        <v>234.6900024414062</v>
       </c>
       <c r="D121">
-        <v>241.5700073242188</v>
+        <v>237.1399993896484</v>
       </c>
       <c r="E121">
-        <v>241.5288543701172</v>
+        <v>237.1399993896484</v>
       </c>
       <c r="F121">
-        <v>52886600</v>
+        <v>36509500</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>239.9199981689453</v>
+        <v>233.8399963378906</v>
       </c>
       <c r="B122">
-        <v>246.6499938964844</v>
+        <v>236.8000030517578</v>
       </c>
       <c r="C122">
-        <v>237.0700073242188</v>
+        <v>224.8200073242188</v>
       </c>
       <c r="D122">
-        <v>243.8500061035156</v>
+        <v>229.3600006103516</v>
       </c>
       <c r="E122">
-        <v>243.8084716796875</v>
+        <v>229.3600006103516</v>
       </c>
       <c r="F122">
-        <v>47639300</v>
+        <v>43141500</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>242.9100036621094</v>
+        <v>228.1699981689453</v>
       </c>
       <c r="B123">
-        <v>243.7700042724609</v>
+        <v>230.3300018310547</v>
       </c>
       <c r="C123">
-        <v>231.3200073242188</v>
+        <v>213.3000030517578</v>
       </c>
       <c r="D123">
-        <v>234.7700042724609</v>
+        <v>213.5200042724609</v>
       </c>
       <c r="E123">
-        <v>234.7300109863281</v>
+        <v>213.5200042724609</v>
       </c>
       <c r="F123">
-        <v>41205600</v>
+        <v>45082100</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>237.5599975585938</v>
+        <v>213.0899963378906</v>
       </c>
       <c r="B124">
-        <v>244.0899963378906</v>
+        <v>223.7299957275391</v>
       </c>
       <c r="C124">
-        <v>234.1499938964844</v>
+        <v>206.5</v>
       </c>
       <c r="D124">
-        <v>242.1999969482422</v>
+        <v>215.1399993896484</v>
       </c>
       <c r="E124">
-        <v>242.1999969482422</v>
+        <v>215.1399993896484</v>
       </c>
       <c r="F124">
-        <v>38964200</v>
+        <v>55746700</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>242.6199951171875</v>
+        <v>223.8699951171875</v>
       </c>
       <c r="B125">
-        <v>243.2599945068359</v>
+        <v>232.1999969482422</v>
       </c>
       <c r="C125">
-        <v>234.6900024414062</v>
+        <v>222.4700012207031</v>
       </c>
       <c r="D125">
-        <v>237.1399993896484</v>
+        <v>230.1399993896484</v>
       </c>
       <c r="E125">
-        <v>237.1399993896484</v>
+        <v>230.1399993896484</v>
       </c>
       <c r="F125">
-        <v>36344400</v>
+        <v>49274200</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>233.8399963378906</v>
+        <v>225.3099975585938</v>
       </c>
       <c r="B126">
-        <v>236.8000030517578</v>
+        <v>227.8800048828125</v>
       </c>
       <c r="C126">
-        <v>224.8200073242188</v>
+        <v>218.8200073242188</v>
       </c>
       <c r="D126">
-        <v>229.3600006103516</v>
+        <v>226.5800018310547</v>
       </c>
       <c r="E126">
-        <v>229.3600006103516</v>
+        <v>226.5800018310547</v>
       </c>
       <c r="F126">
-        <v>43201070</v>
+        <v>42806600</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>230.2200012207031</v>
+      </c>
+      <c r="B127">
+        <v>231.4499969482422</v>
+      </c>
+      <c r="C127">
+        <v>220.4600067138672</v>
+      </c>
+      <c r="D127">
+        <v>221</v>
+      </c>
+      <c r="E127">
+        <v>221</v>
+      </c>
+      <c r="F127">
+        <v>36629779</v>
       </c>
     </row>
   </sheetData>
